--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13364900</v>
+        <v>13538200</v>
       </c>
       <c r="E8" s="3">
-        <v>14065400</v>
+        <v>13481700</v>
       </c>
       <c r="F8" s="3">
-        <v>13311100</v>
+        <v>14188400</v>
       </c>
       <c r="G8" s="3">
-        <v>14384900</v>
+        <v>13427400</v>
       </c>
       <c r="H8" s="3">
-        <v>14576000</v>
+        <v>14510700</v>
       </c>
       <c r="I8" s="3">
-        <v>13705200</v>
+        <v>14703400</v>
       </c>
       <c r="J8" s="3">
+        <v>13825100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12094500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11270400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11424100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11880100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11748700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10414500</v>
+        <v>10358300</v>
       </c>
       <c r="E9" s="3">
-        <v>10697800</v>
+        <v>10505600</v>
       </c>
       <c r="F9" s="3">
-        <v>10128000</v>
+        <v>10791300</v>
       </c>
       <c r="G9" s="3">
-        <v>11661900</v>
+        <v>10216500</v>
       </c>
       <c r="H9" s="3">
-        <v>11100800</v>
+        <v>11763800</v>
       </c>
       <c r="I9" s="3">
-        <v>9970900</v>
+        <v>11197800</v>
       </c>
       <c r="J9" s="3">
+        <v>10058100</v>
+      </c>
+      <c r="K9" s="3">
         <v>8909200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9153200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7993100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8607900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8323500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7909100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2950300</v>
+        <v>3179900</v>
       </c>
       <c r="E10" s="3">
-        <v>3367600</v>
+        <v>2976100</v>
       </c>
       <c r="F10" s="3">
-        <v>3183100</v>
+        <v>3397000</v>
       </c>
       <c r="G10" s="3">
-        <v>2723000</v>
+        <v>3210900</v>
       </c>
       <c r="H10" s="3">
-        <v>3475200</v>
+        <v>2746800</v>
       </c>
       <c r="I10" s="3">
-        <v>3734300</v>
+        <v>3505600</v>
       </c>
       <c r="J10" s="3">
+        <v>3766900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3185300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3547700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3277300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2816200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3556600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3839500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11000</v>
+        <v>6018700</v>
       </c>
       <c r="E14" s="3">
-        <v>-151500</v>
+        <v>-11100</v>
       </c>
       <c r="F14" s="3">
-        <v>32900</v>
+        <v>-152800</v>
       </c>
       <c r="G14" s="3">
-        <v>901500</v>
+        <v>33200</v>
       </c>
       <c r="H14" s="3">
-        <v>16500</v>
+        <v>909300</v>
       </c>
       <c r="I14" s="3">
-        <v>499600</v>
+        <v>16600</v>
       </c>
       <c r="J14" s="3">
+        <v>504000</v>
+      </c>
+      <c r="K14" s="3">
         <v>91100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>226600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-210900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>50500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>56300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>655500</v>
+        <v>765400</v>
       </c>
       <c r="E15" s="3">
-        <v>653300</v>
+        <v>661200</v>
       </c>
       <c r="F15" s="3">
-        <v>605000</v>
+        <v>659000</v>
       </c>
       <c r="G15" s="3">
-        <v>613800</v>
+        <v>610300</v>
       </c>
       <c r="H15" s="3">
-        <v>628100</v>
+        <v>619100</v>
       </c>
       <c r="I15" s="3">
-        <v>540200</v>
+        <v>633500</v>
       </c>
       <c r="J15" s="3">
+        <v>544900</v>
+      </c>
+      <c r="K15" s="3">
         <v>567700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>486900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>646300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>886400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>703100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>907400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12710400</v>
+        <v>19615600</v>
       </c>
       <c r="E17" s="3">
-        <v>13118900</v>
+        <v>12821600</v>
       </c>
       <c r="F17" s="3">
-        <v>12450200</v>
+        <v>13233600</v>
       </c>
       <c r="G17" s="3">
-        <v>14647300</v>
+        <v>12559100</v>
       </c>
       <c r="H17" s="3">
-        <v>13565800</v>
+        <v>14775400</v>
       </c>
       <c r="I17" s="3">
-        <v>13023400</v>
+        <v>13684400</v>
       </c>
       <c r="J17" s="3">
+        <v>13137200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11236900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11714700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10540000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10959600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10889400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11171100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>654400</v>
+        <v>-6077400</v>
       </c>
       <c r="E18" s="3">
-        <v>946500</v>
+        <v>660100</v>
       </c>
       <c r="F18" s="3">
-        <v>860800</v>
+        <v>954800</v>
       </c>
       <c r="G18" s="3">
-        <v>-262400</v>
+        <v>868400</v>
       </c>
       <c r="H18" s="3">
-        <v>1010200</v>
+        <v>-264700</v>
       </c>
       <c r="I18" s="3">
-        <v>681900</v>
+        <v>1019000</v>
       </c>
       <c r="J18" s="3">
+        <v>687800</v>
+      </c>
+      <c r="K18" s="3">
         <v>857500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>986200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>730400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>464500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>990700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>577500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35100</v>
+        <v>-46500</v>
       </c>
       <c r="E20" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
-        <v>62600</v>
-      </c>
       <c r="G20" s="3">
-        <v>561100</v>
+        <v>63100</v>
       </c>
       <c r="H20" s="3">
-        <v>131800</v>
+        <v>566000</v>
       </c>
       <c r="I20" s="3">
-        <v>600600</v>
+        <v>132900</v>
       </c>
       <c r="J20" s="3">
+        <v>605900</v>
+      </c>
+      <c r="K20" s="3">
         <v>79100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>386000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1345100</v>
+        <v>-5358600</v>
       </c>
       <c r="E21" s="3">
-        <v>1596500</v>
+        <v>1356800</v>
       </c>
       <c r="F21" s="3">
-        <v>1528400</v>
+        <v>1610500</v>
       </c>
       <c r="G21" s="3">
-        <v>912400</v>
+        <v>1541800</v>
       </c>
       <c r="H21" s="3">
-        <v>1770000</v>
+        <v>920400</v>
       </c>
       <c r="I21" s="3">
-        <v>1822700</v>
+        <v>1785500</v>
       </c>
       <c r="J21" s="3">
+        <v>1838600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1504300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1859100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1431700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1312700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1717300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1479000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>689500</v>
+        <v>-6123900</v>
       </c>
       <c r="E23" s="3">
-        <v>943200</v>
+        <v>695600</v>
       </c>
       <c r="F23" s="3">
-        <v>923400</v>
+        <v>951400</v>
       </c>
       <c r="G23" s="3">
-        <v>298700</v>
+        <v>931500</v>
       </c>
       <c r="H23" s="3">
-        <v>1141900</v>
+        <v>301300</v>
       </c>
       <c r="I23" s="3">
-        <v>1282500</v>
+        <v>1151900</v>
       </c>
       <c r="J23" s="3">
+        <v>1293700</v>
+      </c>
+      <c r="K23" s="3">
         <v>936600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1372200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>785400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>426400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1014200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>574000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>316200</v>
+        <v>-282400</v>
       </c>
       <c r="E24" s="3">
-        <v>363400</v>
+        <v>319000</v>
       </c>
       <c r="F24" s="3">
-        <v>246000</v>
+        <v>366600</v>
       </c>
       <c r="G24" s="3">
-        <v>123000</v>
+        <v>248100</v>
       </c>
       <c r="H24" s="3">
-        <v>445800</v>
+        <v>124100</v>
       </c>
       <c r="I24" s="3">
-        <v>617100</v>
+        <v>449700</v>
       </c>
       <c r="J24" s="3">
+        <v>622500</v>
+      </c>
+      <c r="K24" s="3">
         <v>336000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>887500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>227800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>194900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>373300</v>
+        <v>-5841500</v>
       </c>
       <c r="E26" s="3">
-        <v>579700</v>
+        <v>376600</v>
       </c>
       <c r="F26" s="3">
-        <v>677500</v>
+        <v>584800</v>
       </c>
       <c r="G26" s="3">
-        <v>175700</v>
+        <v>683400</v>
       </c>
       <c r="H26" s="3">
-        <v>696100</v>
+        <v>177200</v>
       </c>
       <c r="I26" s="3">
-        <v>665400</v>
+        <v>702200</v>
       </c>
       <c r="J26" s="3">
+        <v>671200</v>
+      </c>
+      <c r="K26" s="3">
         <v>600600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>484700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>557600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>359000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>819300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>387400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>357900</v>
+        <v>-5858100</v>
       </c>
       <c r="E27" s="3">
-        <v>568800</v>
+        <v>361100</v>
       </c>
       <c r="F27" s="3">
-        <v>659900</v>
+        <v>573700</v>
       </c>
       <c r="G27" s="3">
-        <v>179000</v>
+        <v>665700</v>
       </c>
       <c r="H27" s="3">
-        <v>678600</v>
+        <v>180500</v>
       </c>
       <c r="I27" s="3">
-        <v>642300</v>
+        <v>684500</v>
       </c>
       <c r="J27" s="3">
+        <v>647900</v>
+      </c>
+      <c r="K27" s="3">
         <v>587400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>466700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>529600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>345600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>363900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,31 +1655,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>377700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K29" s="3">
         <v>74700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>129000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>53900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>57200</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>351000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35100</v>
+        <v>46500</v>
       </c>
       <c r="E32" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-62600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-561100</v>
+        <v>-63100</v>
       </c>
       <c r="H32" s="3">
-        <v>-131800</v>
+        <v>-566000</v>
       </c>
       <c r="I32" s="3">
-        <v>-600600</v>
+        <v>-132900</v>
       </c>
       <c r="J32" s="3">
+        <v>-605900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-79100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-386000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>357900</v>
+        <v>-5858100</v>
       </c>
       <c r="E33" s="3">
-        <v>568800</v>
+        <v>361100</v>
       </c>
       <c r="F33" s="3">
-        <v>659900</v>
+        <v>573700</v>
       </c>
       <c r="G33" s="3">
-        <v>179000</v>
+        <v>665700</v>
       </c>
       <c r="H33" s="3">
-        <v>678600</v>
+        <v>180500</v>
       </c>
       <c r="I33" s="3">
-        <v>1020000</v>
+        <v>684500</v>
       </c>
       <c r="J33" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="K33" s="3">
         <v>662100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>595800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>583400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>402800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>714900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>357900</v>
+        <v>-5858100</v>
       </c>
       <c r="E35" s="3">
-        <v>568800</v>
+        <v>361100</v>
       </c>
       <c r="F35" s="3">
-        <v>659900</v>
+        <v>573700</v>
       </c>
       <c r="G35" s="3">
-        <v>179000</v>
+        <v>665700</v>
       </c>
       <c r="H35" s="3">
-        <v>678600</v>
+        <v>180500</v>
       </c>
       <c r="I35" s="3">
-        <v>1020000</v>
+        <v>684500</v>
       </c>
       <c r="J35" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="K35" s="3">
         <v>662100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>595800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>583400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>402800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>714900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3020600</v>
+        <v>2625000</v>
       </c>
       <c r="E41" s="3">
-        <v>3300600</v>
+        <v>3047000</v>
       </c>
       <c r="F41" s="3">
-        <v>3715600</v>
+        <v>3329400</v>
       </c>
       <c r="G41" s="3">
-        <v>4528200</v>
+        <v>3748100</v>
       </c>
       <c r="H41" s="3">
-        <v>3782600</v>
+        <v>4567700</v>
       </c>
       <c r="I41" s="3">
-        <v>4518300</v>
+        <v>3815700</v>
       </c>
       <c r="J41" s="3">
+        <v>4557800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3447700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4210800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4976000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4707900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3505000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3764400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4085700</v>
+        <v>3961900</v>
       </c>
       <c r="E42" s="3">
-        <v>3466400</v>
+        <v>4121400</v>
       </c>
       <c r="F42" s="3">
-        <v>2857000</v>
+        <v>3496700</v>
       </c>
       <c r="G42" s="3">
-        <v>2870200</v>
+        <v>2882000</v>
       </c>
       <c r="H42" s="3">
-        <v>3935200</v>
+        <v>2895300</v>
       </c>
       <c r="I42" s="3">
-        <v>3651900</v>
+        <v>3969600</v>
       </c>
       <c r="J42" s="3">
+        <v>3683900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1120000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1307100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1776100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2053200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2553000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3314800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6235500</v>
+        <v>6360900</v>
       </c>
       <c r="E43" s="3">
-        <v>7142500</v>
+        <v>6290100</v>
       </c>
       <c r="F43" s="3">
-        <v>6798800</v>
+        <v>7204900</v>
       </c>
       <c r="G43" s="3">
-        <v>6438700</v>
+        <v>6858300</v>
       </c>
       <c r="H43" s="3">
-        <v>6823000</v>
+        <v>6495000</v>
       </c>
       <c r="I43" s="3">
-        <v>6823000</v>
+        <v>6882600</v>
       </c>
       <c r="J43" s="3">
+        <v>6882600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5817200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6565900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6948500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6438000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6217700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6832700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4690700</v>
+        <v>5091600</v>
       </c>
       <c r="E44" s="3">
-        <v>5245100</v>
+        <v>4731700</v>
       </c>
       <c r="F44" s="3">
-        <v>4765300</v>
+        <v>5291000</v>
       </c>
       <c r="G44" s="3">
-        <v>4820200</v>
+        <v>4807000</v>
       </c>
       <c r="H44" s="3">
-        <v>5315400</v>
+        <v>4862400</v>
       </c>
       <c r="I44" s="3">
-        <v>5181500</v>
+        <v>5361900</v>
       </c>
       <c r="J44" s="3">
+        <v>5226800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4773000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4260200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4026800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3611700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4407700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4231600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>225100</v>
+        <v>221500</v>
       </c>
       <c r="E45" s="3">
-        <v>225100</v>
+        <v>227100</v>
       </c>
       <c r="F45" s="3">
-        <v>243800</v>
+        <v>227100</v>
       </c>
       <c r="G45" s="3">
-        <v>331600</v>
+        <v>245900</v>
       </c>
       <c r="H45" s="3">
-        <v>397500</v>
+        <v>334500</v>
       </c>
       <c r="I45" s="3">
-        <v>255800</v>
+        <v>401000</v>
       </c>
       <c r="J45" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K45" s="3">
         <v>3861700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>228900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>279400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>389300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>483600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>552900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18257500</v>
+        <v>18261000</v>
       </c>
       <c r="E46" s="3">
-        <v>19379700</v>
+        <v>18417200</v>
       </c>
       <c r="F46" s="3">
-        <v>18380500</v>
+        <v>19549100</v>
       </c>
       <c r="G46" s="3">
-        <v>18988800</v>
+        <v>18541200</v>
       </c>
       <c r="H46" s="3">
-        <v>20253700</v>
+        <v>19154800</v>
       </c>
       <c r="I46" s="3">
-        <v>20430500</v>
+        <v>20430800</v>
       </c>
       <c r="J46" s="3">
+        <v>20609100</v>
+      </c>
+      <c r="K46" s="3">
         <v>19019600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16572900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18006800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17200100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17167000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18696400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9904000</v>
+        <v>9271700</v>
       </c>
       <c r="E47" s="3">
-        <v>9355000</v>
+        <v>9990600</v>
       </c>
       <c r="F47" s="3">
-        <v>9435100</v>
+        <v>9436800</v>
       </c>
       <c r="G47" s="3">
-        <v>9146300</v>
+        <v>9517600</v>
       </c>
       <c r="H47" s="3">
-        <v>8858700</v>
+        <v>9226300</v>
       </c>
       <c r="I47" s="3">
-        <v>8669800</v>
+        <v>8936100</v>
       </c>
       <c r="J47" s="3">
+        <v>8745600</v>
+      </c>
+      <c r="K47" s="3">
         <v>8446900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12687500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11871800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12058000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13548100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13358000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30520000</v>
+        <v>25708500</v>
       </c>
       <c r="E48" s="3">
-        <v>29804100</v>
+        <v>30786800</v>
       </c>
       <c r="F48" s="3">
-        <v>29973200</v>
+        <v>30064700</v>
       </c>
       <c r="G48" s="3">
-        <v>27997900</v>
+        <v>30235300</v>
       </c>
       <c r="H48" s="3">
-        <v>27849700</v>
+        <v>28242700</v>
       </c>
       <c r="I48" s="3">
-        <v>27715700</v>
+        <v>28093200</v>
       </c>
       <c r="J48" s="3">
+        <v>27958000</v>
+      </c>
+      <c r="K48" s="3">
         <v>26738500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27676100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27832100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28554600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31491000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32119000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6082900</v>
+        <v>4951000</v>
       </c>
       <c r="E49" s="3">
-        <v>5748000</v>
+        <v>6136100</v>
       </c>
       <c r="F49" s="3">
-        <v>5591000</v>
+        <v>5798300</v>
       </c>
       <c r="G49" s="3">
-        <v>5595400</v>
+        <v>5639900</v>
       </c>
       <c r="H49" s="3">
-        <v>5347300</v>
+        <v>5644300</v>
       </c>
       <c r="I49" s="3">
-        <v>5232000</v>
+        <v>5394000</v>
       </c>
       <c r="J49" s="3">
+        <v>5277700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5014600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5143200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5203800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5350800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5999300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5997000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5182600</v>
+        <v>5932300</v>
       </c>
       <c r="E52" s="3">
-        <v>4863000</v>
+        <v>5227900</v>
       </c>
       <c r="F52" s="3">
-        <v>5064000</v>
+        <v>4905600</v>
       </c>
       <c r="G52" s="3">
-        <v>5005800</v>
+        <v>5108300</v>
       </c>
       <c r="H52" s="3">
-        <v>4444700</v>
+        <v>5049500</v>
       </c>
       <c r="I52" s="3">
-        <v>4654400</v>
+        <v>4483600</v>
       </c>
       <c r="J52" s="3">
+        <v>4695100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4673100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5079200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5225100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5249800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5865500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5950000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69947000</v>
+        <v>64124500</v>
       </c>
       <c r="E54" s="3">
-        <v>69149800</v>
+        <v>70558600</v>
       </c>
       <c r="F54" s="3">
-        <v>68443800</v>
+        <v>69754400</v>
       </c>
       <c r="G54" s="3">
-        <v>66734200</v>
+        <v>69042200</v>
       </c>
       <c r="H54" s="3">
-        <v>66754000</v>
+        <v>67317700</v>
       </c>
       <c r="I54" s="3">
-        <v>66702400</v>
+        <v>67337600</v>
       </c>
       <c r="J54" s="3">
+        <v>67285600</v>
+      </c>
+      <c r="K54" s="3">
         <v>63892600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67159000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68139600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68413300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74070900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76120400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7145800</v>
+        <v>7908300</v>
       </c>
       <c r="E57" s="3">
-        <v>8696200</v>
+        <v>7208300</v>
       </c>
       <c r="F57" s="3">
-        <v>7812300</v>
+        <v>8772200</v>
       </c>
       <c r="G57" s="3">
-        <v>3561900</v>
+        <v>7880600</v>
       </c>
       <c r="H57" s="3">
-        <v>3460900</v>
+        <v>3593100</v>
       </c>
       <c r="I57" s="3">
-        <v>3351100</v>
+        <v>3491200</v>
       </c>
       <c r="J57" s="3">
+        <v>3380400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2720800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3072000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2957600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2294500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2183300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2497900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6720900</v>
+        <v>7136300</v>
       </c>
       <c r="E58" s="3">
-        <v>6462800</v>
+        <v>6779600</v>
       </c>
       <c r="F58" s="3">
-        <v>5090300</v>
+        <v>6519300</v>
       </c>
       <c r="G58" s="3">
-        <v>4124100</v>
+        <v>5134800</v>
       </c>
       <c r="H58" s="3">
-        <v>3636600</v>
+        <v>4160100</v>
       </c>
       <c r="I58" s="3">
-        <v>4472200</v>
+        <v>3668400</v>
       </c>
       <c r="J58" s="3">
+        <v>4511300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5413100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4645000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4755000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4507000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4885400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4577900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1074900</v>
+        <v>1663600</v>
       </c>
       <c r="E59" s="3">
-        <v>1212200</v>
+        <v>1084300</v>
       </c>
       <c r="F59" s="3">
-        <v>926700</v>
+        <v>1222800</v>
       </c>
       <c r="G59" s="3">
-        <v>6379400</v>
+        <v>934800</v>
       </c>
       <c r="H59" s="3">
-        <v>5991800</v>
+        <v>6435200</v>
       </c>
       <c r="I59" s="3">
-        <v>5831500</v>
+        <v>6044200</v>
       </c>
       <c r="J59" s="3">
+        <v>5882500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5432900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5786100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8402600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8407100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9159200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10222700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14941600</v>
+        <v>16708100</v>
       </c>
       <c r="E60" s="3">
-        <v>16371200</v>
+        <v>15072200</v>
       </c>
       <c r="F60" s="3">
-        <v>13829300</v>
+        <v>16514300</v>
       </c>
       <c r="G60" s="3">
-        <v>14065400</v>
+        <v>13950200</v>
       </c>
       <c r="H60" s="3">
-        <v>13089300</v>
+        <v>14188400</v>
       </c>
       <c r="I60" s="3">
-        <v>13654700</v>
+        <v>13203700</v>
       </c>
       <c r="J60" s="3">
+        <v>13774100</v>
+      </c>
+      <c r="K60" s="3">
         <v>13566900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13503100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16115100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15208600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16227900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17298400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12725800</v>
+        <v>11916700</v>
       </c>
       <c r="E61" s="3">
-        <v>11610300</v>
+        <v>12837100</v>
       </c>
       <c r="F61" s="3">
-        <v>12925700</v>
+        <v>11711800</v>
       </c>
       <c r="G61" s="3">
-        <v>8735700</v>
+        <v>13038700</v>
       </c>
       <c r="H61" s="3">
-        <v>8610500</v>
+        <v>8812100</v>
       </c>
       <c r="I61" s="3">
-        <v>8524900</v>
+        <v>8685800</v>
       </c>
       <c r="J61" s="3">
+        <v>8599400</v>
+      </c>
+      <c r="K61" s="3">
         <v>8428200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9798300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10427800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11184000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11583200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12848500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7582800</v>
+        <v>7578200</v>
       </c>
       <c r="E62" s="3">
-        <v>7210600</v>
+        <v>7649100</v>
       </c>
       <c r="F62" s="3">
-        <v>7455400</v>
+        <v>7273600</v>
       </c>
       <c r="G62" s="3">
-        <v>9989600</v>
+        <v>7520600</v>
       </c>
       <c r="H62" s="3">
-        <v>10442000</v>
+        <v>10076900</v>
       </c>
       <c r="I62" s="3">
-        <v>10311300</v>
+        <v>10533300</v>
       </c>
       <c r="J62" s="3">
+        <v>10401500</v>
+      </c>
+      <c r="K62" s="3">
         <v>9743700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10127100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7874100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8155700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9372900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9455000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35558700</v>
+        <v>36514200</v>
       </c>
       <c r="E66" s="3">
-        <v>35490700</v>
+        <v>35869600</v>
       </c>
       <c r="F66" s="3">
-        <v>34506800</v>
+        <v>35801000</v>
       </c>
       <c r="G66" s="3">
-        <v>33104700</v>
+        <v>34808500</v>
       </c>
       <c r="H66" s="3">
-        <v>32471200</v>
+        <v>33394100</v>
       </c>
       <c r="I66" s="3">
-        <v>32809300</v>
+        <v>32755100</v>
       </c>
       <c r="J66" s="3">
+        <v>33096200</v>
+      </c>
+      <c r="K66" s="3">
         <v>32038500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33731500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34715500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34829900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37479800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39888400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25144200</v>
+        <v>18427100</v>
       </c>
       <c r="E72" s="3">
-        <v>24789500</v>
+        <v>25364000</v>
       </c>
       <c r="F72" s="3">
-        <v>24436000</v>
+        <v>25006300</v>
       </c>
       <c r="G72" s="3">
-        <v>23944100</v>
+        <v>24649600</v>
       </c>
       <c r="H72" s="3">
-        <v>25148600</v>
+        <v>24153400</v>
       </c>
       <c r="I72" s="3">
-        <v>24452500</v>
+        <v>25368500</v>
       </c>
       <c r="J72" s="3">
+        <v>24666300</v>
+      </c>
+      <c r="K72" s="3">
         <v>23588300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23824300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23432800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22843700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23736800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22936200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34388300</v>
+        <v>27610300</v>
       </c>
       <c r="E76" s="3">
-        <v>33659200</v>
+        <v>34688900</v>
       </c>
       <c r="F76" s="3">
-        <v>33937000</v>
+        <v>33953500</v>
       </c>
       <c r="G76" s="3">
-        <v>33629500</v>
+        <v>34233700</v>
       </c>
       <c r="H76" s="3">
-        <v>34282900</v>
+        <v>33923600</v>
       </c>
       <c r="I76" s="3">
-        <v>33893100</v>
+        <v>34582600</v>
       </c>
       <c r="J76" s="3">
+        <v>34189400</v>
+      </c>
+      <c r="K76" s="3">
         <v>31854100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33427400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33424100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33583400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36591200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36232000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>357900</v>
+        <v>-5858100</v>
       </c>
       <c r="E81" s="3">
-        <v>568800</v>
+        <v>361100</v>
       </c>
       <c r="F81" s="3">
-        <v>659900</v>
+        <v>573700</v>
       </c>
       <c r="G81" s="3">
-        <v>179000</v>
+        <v>665700</v>
       </c>
       <c r="H81" s="3">
-        <v>678600</v>
+        <v>180500</v>
       </c>
       <c r="I81" s="3">
-        <v>1020000</v>
+        <v>684500</v>
       </c>
       <c r="J81" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="K81" s="3">
         <v>662100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>595800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>583400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>402800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>714900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>655500</v>
+        <v>765400</v>
       </c>
       <c r="E83" s="3">
-        <v>653300</v>
+        <v>661200</v>
       </c>
       <c r="F83" s="3">
-        <v>605000</v>
+        <v>659000</v>
       </c>
       <c r="G83" s="3">
-        <v>613800</v>
+        <v>610300</v>
       </c>
       <c r="H83" s="3">
-        <v>628100</v>
+        <v>619100</v>
       </c>
       <c r="I83" s="3">
-        <v>540200</v>
+        <v>633500</v>
       </c>
       <c r="J83" s="3">
+        <v>544900</v>
+      </c>
+      <c r="K83" s="3">
         <v>567700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>486900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>646300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>886400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>703100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>905000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1356000</v>
+        <v>1929400</v>
       </c>
       <c r="E89" s="3">
-        <v>1219900</v>
+        <v>1367900</v>
       </c>
       <c r="F89" s="3">
-        <v>835600</v>
+        <v>1230500</v>
       </c>
       <c r="G89" s="3">
-        <v>1932500</v>
+        <v>842900</v>
       </c>
       <c r="H89" s="3">
-        <v>1592100</v>
+        <v>1949400</v>
       </c>
       <c r="I89" s="3">
-        <v>647800</v>
+        <v>1606000</v>
       </c>
       <c r="J89" s="3">
+        <v>653500</v>
+      </c>
+      <c r="K89" s="3">
         <v>855300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2070100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1330700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1574200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>797000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1934400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-765300</v>
+        <v>-1547300</v>
       </c>
       <c r="E91" s="3">
-        <v>-753200</v>
+        <v>-772000</v>
       </c>
       <c r="F91" s="3">
-        <v>-490800</v>
+        <v>-759800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1024400</v>
+        <v>-495100</v>
       </c>
       <c r="H91" s="3">
-        <v>-677500</v>
+        <v>-1033400</v>
       </c>
       <c r="I91" s="3">
-        <v>-635700</v>
+        <v>-683400</v>
       </c>
       <c r="J91" s="3">
+        <v>-641300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-584100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-570000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-536300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-475400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-732500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2013700</v>
+        <v>-1670300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1069500</v>
+        <v>-2031300</v>
       </c>
       <c r="F94" s="3">
-        <v>-99900</v>
+        <v>-1078800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2270700</v>
+        <v>-100800</v>
       </c>
       <c r="H94" s="3">
-        <v>-753200</v>
+        <v>-2290500</v>
       </c>
       <c r="I94" s="3">
-        <v>2144400</v>
+        <v>-759800</v>
       </c>
       <c r="J94" s="3">
+        <v>2163100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-612700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-996300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-878500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-648500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-633900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-531700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-227300</v>
+        <v>13300</v>
       </c>
       <c r="E96" s="3">
-        <v>14300</v>
+        <v>-229300</v>
       </c>
       <c r="F96" s="3">
-        <v>-235000</v>
+        <v>14400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-237000</v>
       </c>
       <c r="H96" s="3">
-        <v>-110900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-111900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-215200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-212100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-162000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31800</v>
+        <v>-1048900</v>
       </c>
       <c r="E100" s="3">
-        <v>-348100</v>
+        <v>-32100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1093600</v>
+        <v>-351100</v>
       </c>
       <c r="G100" s="3">
-        <v>-219600</v>
+        <v>-1103200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1297800</v>
+        <v>-221500</v>
       </c>
       <c r="I100" s="3">
-        <v>-737900</v>
+        <v>-1309200</v>
       </c>
       <c r="J100" s="3">
+        <v>-744300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-591300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>219900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>98600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31800</v>
+        <v>-12200</v>
       </c>
       <c r="E101" s="3">
-        <v>9900</v>
+        <v>32100</v>
       </c>
       <c r="F101" s="3">
-        <v>14300</v>
+        <v>10000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>14400</v>
       </c>
       <c r="H101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3300</v>
       </c>
-      <c r="I101" s="3">
-        <v>29600</v>
-      </c>
       <c r="J101" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-657700</v>
+        <v>-801900</v>
       </c>
       <c r="E102" s="3">
-        <v>-187800</v>
+        <v>-663500</v>
       </c>
       <c r="F102" s="3">
-        <v>-343700</v>
+        <v>-189400</v>
       </c>
       <c r="G102" s="3">
-        <v>-565500</v>
+        <v>-346700</v>
       </c>
       <c r="H102" s="3">
-        <v>-462300</v>
+        <v>-570400</v>
       </c>
       <c r="I102" s="3">
-        <v>2084000</v>
+        <v>-466300</v>
       </c>
       <c r="J102" s="3">
+        <v>2102200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-853100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-144700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1116400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1526000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13538200</v>
+        <v>14458600</v>
       </c>
       <c r="E8" s="3">
-        <v>13481700</v>
+        <v>14398300</v>
       </c>
       <c r="F8" s="3">
-        <v>14188400</v>
+        <v>15152900</v>
       </c>
       <c r="G8" s="3">
-        <v>13427400</v>
+        <v>14340300</v>
       </c>
       <c r="H8" s="3">
-        <v>14510700</v>
+        <v>15497200</v>
       </c>
       <c r="I8" s="3">
-        <v>14703400</v>
+        <v>15703000</v>
       </c>
       <c r="J8" s="3">
-        <v>13825100</v>
+        <v>14765000</v>
       </c>
       <c r="K8" s="3">
         <v>12094500</v>
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10358300</v>
+        <v>11062500</v>
       </c>
       <c r="E9" s="3">
-        <v>10505600</v>
+        <v>11219800</v>
       </c>
       <c r="F9" s="3">
-        <v>10791300</v>
+        <v>11525000</v>
       </c>
       <c r="G9" s="3">
-        <v>10216500</v>
+        <v>10911100</v>
       </c>
       <c r="H9" s="3">
-        <v>11763800</v>
+        <v>12563600</v>
       </c>
       <c r="I9" s="3">
-        <v>11197800</v>
+        <v>11959100</v>
       </c>
       <c r="J9" s="3">
-        <v>10058100</v>
+        <v>10741900</v>
       </c>
       <c r="K9" s="3">
         <v>8909200</v>
@@ -834,25 +834,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3179900</v>
+        <v>3396100</v>
       </c>
       <c r="E10" s="3">
-        <v>2976100</v>
+        <v>3178500</v>
       </c>
       <c r="F10" s="3">
-        <v>3397000</v>
+        <v>3628000</v>
       </c>
       <c r="G10" s="3">
-        <v>3210900</v>
+        <v>3429200</v>
       </c>
       <c r="H10" s="3">
-        <v>2746800</v>
+        <v>2933600</v>
       </c>
       <c r="I10" s="3">
-        <v>3505600</v>
+        <v>3743900</v>
       </c>
       <c r="J10" s="3">
-        <v>3766900</v>
+        <v>4023000</v>
       </c>
       <c r="K10" s="3">
         <v>3185300</v>
@@ -994,25 +994,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6018700</v>
+        <v>6427900</v>
       </c>
       <c r="E14" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="F14" s="3">
-        <v>-152800</v>
+        <v>-163200</v>
       </c>
       <c r="G14" s="3">
-        <v>33200</v>
+        <v>35500</v>
       </c>
       <c r="H14" s="3">
-        <v>909300</v>
+        <v>971200</v>
       </c>
       <c r="I14" s="3">
-        <v>16600</v>
+        <v>17700</v>
       </c>
       <c r="J14" s="3">
-        <v>504000</v>
+        <v>538200</v>
       </c>
       <c r="K14" s="3">
         <v>91100</v>
@@ -1041,25 +1041,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>765400</v>
+        <v>817400</v>
       </c>
       <c r="E15" s="3">
+        <v>706200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>703800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>651800</v>
+      </c>
+      <c r="H15" s="3">
         <v>661200</v>
       </c>
-      <c r="F15" s="3">
-        <v>659000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>610300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>619100</v>
-      </c>
       <c r="I15" s="3">
-        <v>633500</v>
+        <v>676600</v>
       </c>
       <c r="J15" s="3">
-        <v>544900</v>
+        <v>582000</v>
       </c>
       <c r="K15" s="3">
         <v>567700</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19615600</v>
+        <v>20949200</v>
       </c>
       <c r="E17" s="3">
-        <v>12821600</v>
+        <v>13693300</v>
       </c>
       <c r="F17" s="3">
-        <v>13233600</v>
+        <v>14133300</v>
       </c>
       <c r="G17" s="3">
-        <v>12559100</v>
+        <v>13412900</v>
       </c>
       <c r="H17" s="3">
-        <v>14775400</v>
+        <v>15779900</v>
       </c>
       <c r="I17" s="3">
-        <v>13684400</v>
+        <v>14614700</v>
       </c>
       <c r="J17" s="3">
-        <v>13137200</v>
+        <v>14030400</v>
       </c>
       <c r="K17" s="3">
         <v>11236900</v>
@@ -1151,25 +1151,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6077400</v>
+        <v>-6490600</v>
       </c>
       <c r="E18" s="3">
-        <v>660100</v>
+        <v>705000</v>
       </c>
       <c r="F18" s="3">
-        <v>954800</v>
+        <v>1019700</v>
       </c>
       <c r="G18" s="3">
-        <v>868400</v>
+        <v>927400</v>
       </c>
       <c r="H18" s="3">
-        <v>-264700</v>
+        <v>-282700</v>
       </c>
       <c r="I18" s="3">
-        <v>1019000</v>
+        <v>1088300</v>
       </c>
       <c r="J18" s="3">
-        <v>687800</v>
+        <v>734600</v>
       </c>
       <c r="K18" s="3">
         <v>857500</v>
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-46500</v>
+        <v>-49700</v>
       </c>
       <c r="E20" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="H20" s="3">
-        <v>566000</v>
+        <v>604500</v>
       </c>
       <c r="I20" s="3">
-        <v>132900</v>
+        <v>141900</v>
       </c>
       <c r="J20" s="3">
-        <v>605900</v>
+        <v>647000</v>
       </c>
       <c r="K20" s="3">
         <v>79100</v>
@@ -1264,25 +1264,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5358600</v>
+        <v>-5722900</v>
       </c>
       <c r="E21" s="3">
-        <v>1356800</v>
+        <v>1449100</v>
       </c>
       <c r="F21" s="3">
-        <v>1610500</v>
+        <v>1719900</v>
       </c>
       <c r="G21" s="3">
-        <v>1541800</v>
+        <v>1646600</v>
       </c>
       <c r="H21" s="3">
-        <v>920400</v>
+        <v>983000</v>
       </c>
       <c r="I21" s="3">
-        <v>1785500</v>
+        <v>1906800</v>
       </c>
       <c r="J21" s="3">
-        <v>1838600</v>
+        <v>1963600</v>
       </c>
       <c r="K21" s="3">
         <v>1504300</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6123900</v>
+        <v>-6540300</v>
       </c>
       <c r="E23" s="3">
-        <v>695600</v>
+        <v>742900</v>
       </c>
       <c r="F23" s="3">
-        <v>951400</v>
+        <v>1016100</v>
       </c>
       <c r="G23" s="3">
-        <v>931500</v>
+        <v>994800</v>
       </c>
       <c r="H23" s="3">
-        <v>301300</v>
+        <v>321700</v>
       </c>
       <c r="I23" s="3">
-        <v>1151900</v>
+        <v>1230200</v>
       </c>
       <c r="J23" s="3">
-        <v>1293700</v>
+        <v>1381600</v>
       </c>
       <c r="K23" s="3">
         <v>936600</v>
@@ -1405,25 +1405,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-282400</v>
+        <v>-301600</v>
       </c>
       <c r="E24" s="3">
-        <v>319000</v>
+        <v>340700</v>
       </c>
       <c r="F24" s="3">
-        <v>366600</v>
+        <v>391500</v>
       </c>
       <c r="G24" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H24" s="3">
-        <v>124100</v>
+        <v>132500</v>
       </c>
       <c r="I24" s="3">
-        <v>449700</v>
+        <v>480300</v>
       </c>
       <c r="J24" s="3">
-        <v>622500</v>
+        <v>664800</v>
       </c>
       <c r="K24" s="3">
         <v>336000</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5841500</v>
+        <v>-6238600</v>
       </c>
       <c r="E26" s="3">
-        <v>376600</v>
+        <v>402200</v>
       </c>
       <c r="F26" s="3">
-        <v>584800</v>
+        <v>624600</v>
       </c>
       <c r="G26" s="3">
-        <v>683400</v>
+        <v>729800</v>
       </c>
       <c r="H26" s="3">
-        <v>177200</v>
+        <v>189300</v>
       </c>
       <c r="I26" s="3">
-        <v>702200</v>
+        <v>750000</v>
       </c>
       <c r="J26" s="3">
-        <v>671200</v>
+        <v>716800</v>
       </c>
       <c r="K26" s="3">
         <v>600600</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5858100</v>
+        <v>-6256400</v>
       </c>
       <c r="E27" s="3">
-        <v>361100</v>
+        <v>385600</v>
       </c>
       <c r="F27" s="3">
-        <v>573700</v>
+        <v>612700</v>
       </c>
       <c r="G27" s="3">
-        <v>665700</v>
+        <v>710900</v>
       </c>
       <c r="H27" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="I27" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="J27" s="3">
-        <v>647900</v>
+        <v>692000</v>
       </c>
       <c r="K27" s="3">
         <v>587400</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>381000</v>
+        <v>406900</v>
       </c>
       <c r="K29" s="3">
         <v>74700</v>
@@ -1781,25 +1781,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>46500</v>
+        <v>49700</v>
       </c>
       <c r="E32" s="3">
-        <v>-35400</v>
+        <v>-37900</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
-        <v>-63100</v>
+        <v>-67400</v>
       </c>
       <c r="H32" s="3">
-        <v>-566000</v>
+        <v>-604500</v>
       </c>
       <c r="I32" s="3">
-        <v>-132900</v>
+        <v>-141900</v>
       </c>
       <c r="J32" s="3">
-        <v>-605900</v>
+        <v>-647000</v>
       </c>
       <c r="K32" s="3">
         <v>-79100</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5858100</v>
+        <v>-6256400</v>
       </c>
       <c r="E33" s="3">
-        <v>361100</v>
+        <v>385600</v>
       </c>
       <c r="F33" s="3">
-        <v>573700</v>
+        <v>612700</v>
       </c>
       <c r="G33" s="3">
-        <v>665700</v>
+        <v>710900</v>
       </c>
       <c r="H33" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="I33" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="J33" s="3">
-        <v>1029000</v>
+        <v>1098900</v>
       </c>
       <c r="K33" s="3">
         <v>662100</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5858100</v>
+        <v>-6256400</v>
       </c>
       <c r="E35" s="3">
-        <v>361100</v>
+        <v>385600</v>
       </c>
       <c r="F35" s="3">
-        <v>573700</v>
+        <v>612700</v>
       </c>
       <c r="G35" s="3">
-        <v>665700</v>
+        <v>710900</v>
       </c>
       <c r="H35" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="I35" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="J35" s="3">
-        <v>1029000</v>
+        <v>1098900</v>
       </c>
       <c r="K35" s="3">
         <v>662100</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2625000</v>
+        <v>2803500</v>
       </c>
       <c r="E41" s="3">
-        <v>3047000</v>
+        <v>3254200</v>
       </c>
       <c r="F41" s="3">
-        <v>3329400</v>
+        <v>3555800</v>
       </c>
       <c r="G41" s="3">
-        <v>3748100</v>
+        <v>4002900</v>
       </c>
       <c r="H41" s="3">
-        <v>4567700</v>
+        <v>4878300</v>
       </c>
       <c r="I41" s="3">
-        <v>3815700</v>
+        <v>4075100</v>
       </c>
       <c r="J41" s="3">
-        <v>4557800</v>
+        <v>4867600</v>
       </c>
       <c r="K41" s="3">
         <v>3447700</v>
@@ -2106,25 +2106,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3961900</v>
+        <v>4231200</v>
       </c>
       <c r="E42" s="3">
-        <v>4121400</v>
+        <v>4401600</v>
       </c>
       <c r="F42" s="3">
-        <v>3496700</v>
+        <v>3734400</v>
       </c>
       <c r="G42" s="3">
-        <v>2882000</v>
+        <v>3077900</v>
       </c>
       <c r="H42" s="3">
-        <v>2895300</v>
+        <v>3092100</v>
       </c>
       <c r="I42" s="3">
-        <v>3969600</v>
+        <v>4239500</v>
       </c>
       <c r="J42" s="3">
-        <v>3683900</v>
+        <v>3934300</v>
       </c>
       <c r="K42" s="3">
         <v>1120000</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6360900</v>
+        <v>6793400</v>
       </c>
       <c r="E43" s="3">
-        <v>6290100</v>
+        <v>6717700</v>
       </c>
       <c r="F43" s="3">
-        <v>7204900</v>
+        <v>7694800</v>
       </c>
       <c r="G43" s="3">
-        <v>6858300</v>
+        <v>7324500</v>
       </c>
       <c r="H43" s="3">
-        <v>6495000</v>
+        <v>6936500</v>
       </c>
       <c r="I43" s="3">
-        <v>6882600</v>
+        <v>7350500</v>
       </c>
       <c r="J43" s="3">
-        <v>6882600</v>
+        <v>7350500</v>
       </c>
       <c r="K43" s="3">
         <v>5817200</v>
@@ -2200,25 +2200,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5091600</v>
+        <v>5437800</v>
       </c>
       <c r="E44" s="3">
-        <v>4731700</v>
+        <v>5053300</v>
       </c>
       <c r="F44" s="3">
-        <v>5291000</v>
+        <v>5650700</v>
       </c>
       <c r="G44" s="3">
-        <v>4807000</v>
+        <v>5133800</v>
       </c>
       <c r="H44" s="3">
-        <v>4862400</v>
+        <v>5192900</v>
       </c>
       <c r="I44" s="3">
-        <v>5361900</v>
+        <v>5726400</v>
       </c>
       <c r="J44" s="3">
-        <v>5226800</v>
+        <v>5582100</v>
       </c>
       <c r="K44" s="3">
         <v>4773000</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221500</v>
+        <v>236600</v>
       </c>
       <c r="E45" s="3">
-        <v>227100</v>
+        <v>242500</v>
       </c>
       <c r="F45" s="3">
-        <v>227100</v>
+        <v>242500</v>
       </c>
       <c r="G45" s="3">
-        <v>245900</v>
+        <v>262600</v>
       </c>
       <c r="H45" s="3">
-        <v>334500</v>
+        <v>357200</v>
       </c>
       <c r="I45" s="3">
-        <v>401000</v>
+        <v>428200</v>
       </c>
       <c r="J45" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="K45" s="3">
         <v>3861700</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18261000</v>
+        <v>19502500</v>
       </c>
       <c r="E46" s="3">
-        <v>18417200</v>
+        <v>19669300</v>
       </c>
       <c r="F46" s="3">
-        <v>19549100</v>
+        <v>20878200</v>
       </c>
       <c r="G46" s="3">
-        <v>18541200</v>
+        <v>19801700</v>
       </c>
       <c r="H46" s="3">
-        <v>19154800</v>
+        <v>20457100</v>
       </c>
       <c r="I46" s="3">
-        <v>20430800</v>
+        <v>21819800</v>
       </c>
       <c r="J46" s="3">
-        <v>20609100</v>
+        <v>22010200</v>
       </c>
       <c r="K46" s="3">
         <v>19019600</v>
@@ -2341,25 +2341,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9271700</v>
+        <v>9902100</v>
       </c>
       <c r="E47" s="3">
-        <v>9990600</v>
+        <v>10669800</v>
       </c>
       <c r="F47" s="3">
-        <v>9436800</v>
+        <v>10078300</v>
       </c>
       <c r="G47" s="3">
-        <v>9517600</v>
+        <v>10164700</v>
       </c>
       <c r="H47" s="3">
-        <v>9226300</v>
+        <v>9853600</v>
       </c>
       <c r="I47" s="3">
-        <v>8936100</v>
+        <v>9543600</v>
       </c>
       <c r="J47" s="3">
-        <v>8745600</v>
+        <v>9340200</v>
       </c>
       <c r="K47" s="3">
         <v>8446900</v>
@@ -2388,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25708500</v>
+        <v>27456300</v>
       </c>
       <c r="E48" s="3">
-        <v>30786800</v>
+        <v>32879900</v>
       </c>
       <c r="F48" s="3">
-        <v>30064700</v>
+        <v>32108600</v>
       </c>
       <c r="G48" s="3">
-        <v>30235300</v>
+        <v>32290800</v>
       </c>
       <c r="H48" s="3">
-        <v>28242700</v>
+        <v>30162800</v>
       </c>
       <c r="I48" s="3">
-        <v>28093200</v>
+        <v>30003100</v>
       </c>
       <c r="J48" s="3">
-        <v>27958000</v>
+        <v>29858800</v>
       </c>
       <c r="K48" s="3">
         <v>26738500</v>
@@ -2435,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4951000</v>
+        <v>5287600</v>
       </c>
       <c r="E49" s="3">
-        <v>6136100</v>
+        <v>6553300</v>
       </c>
       <c r="F49" s="3">
-        <v>5798300</v>
+        <v>6192500</v>
       </c>
       <c r="G49" s="3">
-        <v>5639900</v>
+        <v>6023300</v>
       </c>
       <c r="H49" s="3">
-        <v>5644300</v>
+        <v>6028100</v>
       </c>
       <c r="I49" s="3">
-        <v>5394000</v>
+        <v>5760700</v>
       </c>
       <c r="J49" s="3">
-        <v>5277700</v>
+        <v>5636500</v>
       </c>
       <c r="K49" s="3">
         <v>5014600</v>
@@ -2576,25 +2576,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5932300</v>
+        <v>6335600</v>
       </c>
       <c r="E52" s="3">
-        <v>5227900</v>
+        <v>5583300</v>
       </c>
       <c r="F52" s="3">
-        <v>4905600</v>
+        <v>5239100</v>
       </c>
       <c r="G52" s="3">
-        <v>5108300</v>
+        <v>5455500</v>
       </c>
       <c r="H52" s="3">
-        <v>5049500</v>
+        <v>5392800</v>
       </c>
       <c r="I52" s="3">
-        <v>4483600</v>
+        <v>4788400</v>
       </c>
       <c r="J52" s="3">
-        <v>4695100</v>
+        <v>5014300</v>
       </c>
       <c r="K52" s="3">
         <v>4673100</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64124500</v>
+        <v>68484000</v>
       </c>
       <c r="E54" s="3">
-        <v>70558600</v>
+        <v>75355500</v>
       </c>
       <c r="F54" s="3">
-        <v>69754400</v>
+        <v>74496700</v>
       </c>
       <c r="G54" s="3">
-        <v>69042200</v>
+        <v>73736100</v>
       </c>
       <c r="H54" s="3">
-        <v>67317700</v>
+        <v>71894300</v>
       </c>
       <c r="I54" s="3">
-        <v>67337600</v>
+        <v>71915600</v>
       </c>
       <c r="J54" s="3">
-        <v>67285600</v>
+        <v>71860000</v>
       </c>
       <c r="K54" s="3">
         <v>63892600</v>
@@ -2755,25 +2755,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7908300</v>
+        <v>8445900</v>
       </c>
       <c r="E57" s="3">
-        <v>7208300</v>
+        <v>7698300</v>
       </c>
       <c r="F57" s="3">
-        <v>8772200</v>
+        <v>9368600</v>
       </c>
       <c r="G57" s="3">
-        <v>7880600</v>
+        <v>8416300</v>
       </c>
       <c r="H57" s="3">
-        <v>3593100</v>
+        <v>3837300</v>
       </c>
       <c r="I57" s="3">
-        <v>3491200</v>
+        <v>3728500</v>
       </c>
       <c r="J57" s="3">
-        <v>3380400</v>
+        <v>3610200</v>
       </c>
       <c r="K57" s="3">
         <v>2720800</v>
@@ -2802,25 +2802,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7136300</v>
+        <v>7621400</v>
       </c>
       <c r="E58" s="3">
-        <v>6779600</v>
+        <v>7240500</v>
       </c>
       <c r="F58" s="3">
-        <v>6519300</v>
+        <v>6962500</v>
       </c>
       <c r="G58" s="3">
-        <v>5134800</v>
+        <v>5483900</v>
       </c>
       <c r="H58" s="3">
-        <v>4160100</v>
+        <v>4443000</v>
       </c>
       <c r="I58" s="3">
-        <v>3668400</v>
+        <v>3917800</v>
       </c>
       <c r="J58" s="3">
-        <v>4511300</v>
+        <v>4818000</v>
       </c>
       <c r="K58" s="3">
         <v>5413100</v>
@@ -2849,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1663600</v>
+        <v>1776700</v>
       </c>
       <c r="E59" s="3">
-        <v>1084300</v>
+        <v>1158100</v>
       </c>
       <c r="F59" s="3">
-        <v>1222800</v>
+        <v>1305900</v>
       </c>
       <c r="G59" s="3">
-        <v>934800</v>
+        <v>998400</v>
       </c>
       <c r="H59" s="3">
-        <v>6435200</v>
+        <v>6872600</v>
       </c>
       <c r="I59" s="3">
-        <v>6044200</v>
+        <v>6455100</v>
       </c>
       <c r="J59" s="3">
-        <v>5882500</v>
+        <v>6282400</v>
       </c>
       <c r="K59" s="3">
         <v>5432900</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16708100</v>
+        <v>17844000</v>
       </c>
       <c r="E60" s="3">
-        <v>15072200</v>
+        <v>16096900</v>
       </c>
       <c r="F60" s="3">
-        <v>16514300</v>
+        <v>17637000</v>
       </c>
       <c r="G60" s="3">
-        <v>13950200</v>
+        <v>14898600</v>
       </c>
       <c r="H60" s="3">
-        <v>14188400</v>
+        <v>15152900</v>
       </c>
       <c r="I60" s="3">
-        <v>13203700</v>
+        <v>14101400</v>
       </c>
       <c r="J60" s="3">
-        <v>13774100</v>
+        <v>14710500</v>
       </c>
       <c r="K60" s="3">
         <v>13566900</v>
@@ -2943,25 +2943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11916700</v>
+        <v>12726800</v>
       </c>
       <c r="E61" s="3">
-        <v>12837100</v>
+        <v>13709800</v>
       </c>
       <c r="F61" s="3">
-        <v>11711800</v>
+        <v>12508000</v>
       </c>
       <c r="G61" s="3">
-        <v>13038700</v>
+        <v>13925100</v>
       </c>
       <c r="H61" s="3">
-        <v>8812100</v>
+        <v>9411200</v>
       </c>
       <c r="I61" s="3">
-        <v>8685800</v>
+        <v>9276300</v>
       </c>
       <c r="J61" s="3">
-        <v>8599400</v>
+        <v>9184000</v>
       </c>
       <c r="K61" s="3">
         <v>8428200</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7578200</v>
+        <v>8093400</v>
       </c>
       <c r="E62" s="3">
-        <v>7649100</v>
+        <v>8169100</v>
       </c>
       <c r="F62" s="3">
-        <v>7273600</v>
+        <v>7768100</v>
       </c>
       <c r="G62" s="3">
-        <v>7520600</v>
+        <v>8031900</v>
       </c>
       <c r="H62" s="3">
-        <v>10076900</v>
+        <v>10762000</v>
       </c>
       <c r="I62" s="3">
-        <v>10533300</v>
+        <v>11249400</v>
       </c>
       <c r="J62" s="3">
-        <v>10401500</v>
+        <v>11108600</v>
       </c>
       <c r="K62" s="3">
         <v>9743700</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36514200</v>
+        <v>38996700</v>
       </c>
       <c r="E66" s="3">
-        <v>35869600</v>
+        <v>38308200</v>
       </c>
       <c r="F66" s="3">
-        <v>35801000</v>
+        <v>38234900</v>
       </c>
       <c r="G66" s="3">
-        <v>34808500</v>
+        <v>37175000</v>
       </c>
       <c r="H66" s="3">
-        <v>33394100</v>
+        <v>35664400</v>
       </c>
       <c r="I66" s="3">
-        <v>32755100</v>
+        <v>34981900</v>
       </c>
       <c r="J66" s="3">
-        <v>33096200</v>
+        <v>35346200</v>
       </c>
       <c r="K66" s="3">
         <v>32038500</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18427100</v>
+        <v>19679900</v>
       </c>
       <c r="E72" s="3">
-        <v>25364000</v>
+        <v>27088400</v>
       </c>
       <c r="F72" s="3">
-        <v>25006300</v>
+        <v>26706300</v>
       </c>
       <c r="G72" s="3">
-        <v>24649600</v>
+        <v>26325400</v>
       </c>
       <c r="H72" s="3">
-        <v>24153400</v>
+        <v>25795500</v>
       </c>
       <c r="I72" s="3">
-        <v>25368500</v>
+        <v>27093100</v>
       </c>
       <c r="J72" s="3">
-        <v>24666300</v>
+        <v>26343200</v>
       </c>
       <c r="K72" s="3">
         <v>23588300</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27610300</v>
+        <v>29487300</v>
       </c>
       <c r="E76" s="3">
-        <v>34688900</v>
+        <v>37047200</v>
       </c>
       <c r="F76" s="3">
-        <v>33953500</v>
+        <v>36261800</v>
       </c>
       <c r="G76" s="3">
-        <v>34233700</v>
+        <v>36561100</v>
       </c>
       <c r="H76" s="3">
-        <v>33923600</v>
+        <v>36229900</v>
       </c>
       <c r="I76" s="3">
-        <v>34582600</v>
+        <v>36933700</v>
       </c>
       <c r="J76" s="3">
-        <v>34189400</v>
+        <v>36513800</v>
       </c>
       <c r="K76" s="3">
         <v>31854100</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5858100</v>
+        <v>-6256400</v>
       </c>
       <c r="E81" s="3">
-        <v>361100</v>
+        <v>385600</v>
       </c>
       <c r="F81" s="3">
-        <v>573700</v>
+        <v>612700</v>
       </c>
       <c r="G81" s="3">
-        <v>665700</v>
+        <v>710900</v>
       </c>
       <c r="H81" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="I81" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="J81" s="3">
-        <v>1029000</v>
+        <v>1098900</v>
       </c>
       <c r="K81" s="3">
         <v>662100</v>
@@ -3832,25 +3832,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>765400</v>
+        <v>817400</v>
       </c>
       <c r="E83" s="3">
+        <v>706200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>703800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>651800</v>
+      </c>
+      <c r="H83" s="3">
         <v>661200</v>
       </c>
-      <c r="F83" s="3">
-        <v>659000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>610300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>619100</v>
-      </c>
       <c r="I83" s="3">
-        <v>633500</v>
+        <v>676600</v>
       </c>
       <c r="J83" s="3">
-        <v>544900</v>
+        <v>582000</v>
       </c>
       <c r="K83" s="3">
         <v>567700</v>
@@ -4114,25 +4114,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1929400</v>
+        <v>2060600</v>
       </c>
       <c r="E89" s="3">
-        <v>1367900</v>
+        <v>1460900</v>
       </c>
       <c r="F89" s="3">
-        <v>1230500</v>
+        <v>1314200</v>
       </c>
       <c r="G89" s="3">
-        <v>842900</v>
+        <v>900200</v>
       </c>
       <c r="H89" s="3">
-        <v>1949400</v>
+        <v>2081900</v>
       </c>
       <c r="I89" s="3">
-        <v>1606000</v>
+        <v>1715200</v>
       </c>
       <c r="J89" s="3">
-        <v>653500</v>
+        <v>697900</v>
       </c>
       <c r="K89" s="3">
         <v>855300</v>
@@ -4180,25 +4180,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1547300</v>
+        <v>-1652500</v>
       </c>
       <c r="E91" s="3">
-        <v>-772000</v>
+        <v>-824500</v>
       </c>
       <c r="F91" s="3">
-        <v>-759800</v>
+        <v>-811500</v>
       </c>
       <c r="G91" s="3">
-        <v>-495100</v>
+        <v>-528800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1033400</v>
+        <v>-1103600</v>
       </c>
       <c r="I91" s="3">
-        <v>-683400</v>
+        <v>-729800</v>
       </c>
       <c r="J91" s="3">
-        <v>-641300</v>
+        <v>-684900</v>
       </c>
       <c r="K91" s="3">
         <v>-584100</v>
@@ -4321,25 +4321,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1670300</v>
+        <v>-1783800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2031300</v>
+        <v>-2169400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1078800</v>
+        <v>-1152100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100800</v>
+        <v>-107600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2290500</v>
+        <v>-2446200</v>
       </c>
       <c r="I94" s="3">
-        <v>-759800</v>
+        <v>-811500</v>
       </c>
       <c r="J94" s="3">
-        <v>2163100</v>
+        <v>2310200</v>
       </c>
       <c r="K94" s="3">
         <v>-612700</v>
@@ -4387,22 +4387,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="E96" s="3">
-        <v>-229300</v>
+        <v>-244900</v>
       </c>
       <c r="F96" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="G96" s="3">
-        <v>-237000</v>
+        <v>-253100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-111900</v>
+        <v>-119500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4575,25 +4575,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1048900</v>
+        <v>-1120200</v>
       </c>
       <c r="E100" s="3">
-        <v>-32100</v>
+        <v>-34300</v>
       </c>
       <c r="F100" s="3">
-        <v>-351100</v>
+        <v>-375000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1103200</v>
+        <v>-1178200</v>
       </c>
       <c r="H100" s="3">
-        <v>-221500</v>
+        <v>-236600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1309200</v>
+        <v>-1398200</v>
       </c>
       <c r="J100" s="3">
-        <v>-744300</v>
+        <v>-794900</v>
       </c>
       <c r="K100" s="3">
         <v>-1073800</v>
@@ -4622,25 +4622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="E101" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="G101" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="H101" s="3">
-        <v>-7800</v>
+        <v>-8300</v>
       </c>
       <c r="I101" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="J101" s="3">
-        <v>29900</v>
+        <v>31900</v>
       </c>
       <c r="K101" s="3">
         <v>-22000</v>
@@ -4669,25 +4669,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-801900</v>
+        <v>-856400</v>
       </c>
       <c r="E102" s="3">
-        <v>-663500</v>
+        <v>-708600</v>
       </c>
       <c r="F102" s="3">
-        <v>-189400</v>
+        <v>-202300</v>
       </c>
       <c r="G102" s="3">
-        <v>-346700</v>
+        <v>-370200</v>
       </c>
       <c r="H102" s="3">
-        <v>-570400</v>
+        <v>-609200</v>
       </c>
       <c r="I102" s="3">
-        <v>-466300</v>
+        <v>-498000</v>
       </c>
       <c r="J102" s="3">
-        <v>2102200</v>
+        <v>2245100</v>
       </c>
       <c r="K102" s="3">
         <v>-853100</v>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,257 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14458600</v>
+        <v>9673700</v>
       </c>
       <c r="E8" s="3">
-        <v>14398300</v>
+        <v>7304000</v>
       </c>
       <c r="F8" s="3">
-        <v>15152900</v>
+        <v>12628300</v>
       </c>
       <c r="G8" s="3">
-        <v>14340300</v>
+        <v>14621200</v>
       </c>
       <c r="H8" s="3">
+        <v>14560100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15323300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14501500</v>
+      </c>
+      <c r="K8" s="3">
         <v>15497200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>15703000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>14765000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>12094500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>12700900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>11270400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>11424100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>11880100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>11748700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11062500</v>
+        <v>7192800</v>
       </c>
       <c r="E9" s="3">
-        <v>11219800</v>
+        <v>5470200</v>
       </c>
       <c r="F9" s="3">
-        <v>11525000</v>
+        <v>10757400</v>
       </c>
       <c r="G9" s="3">
-        <v>10911100</v>
+        <v>11186900</v>
       </c>
       <c r="H9" s="3">
+        <v>11346000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11654600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11033700</v>
+      </c>
+      <c r="K9" s="3">
         <v>12563600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>11959100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>10741900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>8909200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>9153200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>7993100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>8607900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>8323500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>7909100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3396100</v>
+        <v>2480900</v>
       </c>
       <c r="E10" s="3">
-        <v>3178500</v>
+        <v>1833800</v>
       </c>
       <c r="F10" s="3">
-        <v>3628000</v>
+        <v>1870900</v>
       </c>
       <c r="G10" s="3">
-        <v>3429200</v>
+        <v>3434300</v>
       </c>
       <c r="H10" s="3">
+        <v>3214200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3668700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3467800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2933600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>3743900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>4023000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>3185300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>3547700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>3277300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>2816200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>3556600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>3839500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1039,129 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6427900</v>
+        <v>-16700</v>
       </c>
       <c r="E14" s="3">
-        <v>-11800</v>
+        <v>712900</v>
       </c>
       <c r="F14" s="3">
-        <v>-163200</v>
+        <v>7200</v>
       </c>
       <c r="G14" s="3">
-        <v>35500</v>
+        <v>6500200</v>
       </c>
       <c r="H14" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-165100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K14" s="3">
         <v>971200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>17700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>538200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>91100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>226600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>-210900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>50500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>56300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>817400</v>
+        <v>630400</v>
       </c>
       <c r="E15" s="3">
-        <v>706200</v>
+        <v>677000</v>
       </c>
       <c r="F15" s="3">
-        <v>703800</v>
+        <v>693800</v>
       </c>
       <c r="G15" s="3">
-        <v>651800</v>
+        <v>826600</v>
       </c>
       <c r="H15" s="3">
+        <v>714100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>711700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>659100</v>
+      </c>
+      <c r="K15" s="3">
         <v>661200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>676600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>582000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>567700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>486900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>646300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>886400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>703100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>907400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1176,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20949200</v>
+        <v>9538500</v>
       </c>
       <c r="E17" s="3">
-        <v>13693300</v>
+        <v>8732300</v>
       </c>
       <c r="F17" s="3">
-        <v>14133300</v>
+        <v>13227600</v>
       </c>
       <c r="G17" s="3">
-        <v>13412900</v>
+        <v>21184700</v>
       </c>
       <c r="H17" s="3">
+        <v>13847200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14292200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13563700</v>
+      </c>
+      <c r="K17" s="3">
         <v>15779900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>14614700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>14030400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>11236900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>11714700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>10540000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>10959600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>10889400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>11171100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6490600</v>
+        <v>135200</v>
       </c>
       <c r="E18" s="3">
-        <v>705000</v>
+        <v>-1428300</v>
       </c>
       <c r="F18" s="3">
-        <v>1019700</v>
+        <v>-599300</v>
       </c>
       <c r="G18" s="3">
-        <v>927400</v>
+        <v>-6563500</v>
       </c>
       <c r="H18" s="3">
+        <v>712900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1031100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>937800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-282700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1088300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>734600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>857500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>986200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>730400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>464500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>990700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>577500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1310,123 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49700</v>
+        <v>-173400</v>
       </c>
       <c r="E20" s="3">
-        <v>37900</v>
+        <v>-1262000</v>
       </c>
       <c r="F20" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>604500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>141900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>647000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>79100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>386000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
-        <v>67400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>604500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>141900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>647000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>79100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>386000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>55000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>23500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5722900</v>
+        <v>592100</v>
       </c>
       <c r="E21" s="3">
-        <v>1449100</v>
+        <v>-2015600</v>
       </c>
       <c r="F21" s="3">
-        <v>1719900</v>
+        <v>21500</v>
       </c>
       <c r="G21" s="3">
-        <v>1646600</v>
+        <v>-5787200</v>
       </c>
       <c r="H21" s="3">
+        <v>1465300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1739300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1665100</v>
+      </c>
+      <c r="K21" s="3">
         <v>983000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1906800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1963600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1504300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1859100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1431700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>1312700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>1717300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>1479000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1472,129 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6540300</v>
+        <v>-38300</v>
       </c>
       <c r="E23" s="3">
-        <v>742900</v>
+        <v>-2690300</v>
       </c>
       <c r="F23" s="3">
-        <v>1016100</v>
+        <v>-674700</v>
       </c>
       <c r="G23" s="3">
-        <v>994800</v>
+        <v>-6613800</v>
       </c>
       <c r="H23" s="3">
+        <v>751200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1027500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="K23" s="3">
         <v>321700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1230200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1381600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>936600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1372200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>785400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>426400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>1014200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>574000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-301600</v>
+        <v>75400</v>
       </c>
       <c r="E24" s="3">
-        <v>340700</v>
+        <v>-297900</v>
       </c>
       <c r="F24" s="3">
-        <v>391500</v>
+        <v>-56200</v>
       </c>
       <c r="G24" s="3">
-        <v>265000</v>
+        <v>-305000</v>
       </c>
       <c r="H24" s="3">
+        <v>344500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>395900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>267900</v>
+      </c>
+      <c r="K24" s="3">
         <v>132500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>480300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>664800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>336000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>887500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>227800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>67300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>194900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>186600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6238600</v>
+        <v>-113600</v>
       </c>
       <c r="E26" s="3">
-        <v>402200</v>
+        <v>-2392400</v>
       </c>
       <c r="F26" s="3">
-        <v>624600</v>
+        <v>-618400</v>
       </c>
       <c r="G26" s="3">
-        <v>729800</v>
+        <v>-6308800</v>
       </c>
       <c r="H26" s="3">
+        <v>406700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>631600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>738100</v>
+      </c>
+      <c r="K26" s="3">
         <v>189300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>750000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>716800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>600600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>484700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>557600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>359000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>819300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>387400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6256400</v>
+        <v>-130400</v>
       </c>
       <c r="E27" s="3">
-        <v>385600</v>
+        <v>-2410300</v>
       </c>
       <c r="F27" s="3">
-        <v>612700</v>
+        <v>-590900</v>
       </c>
       <c r="G27" s="3">
-        <v>710900</v>
+        <v>-6326700</v>
       </c>
       <c r="H27" s="3">
+        <v>390000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>619600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K27" s="3">
         <v>192800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>731000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>692000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>587400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>466700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>529600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>345600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>800500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>363900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,19 +1808,28 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1658,31 +1841,40 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>406900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>74700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>129000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>53900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>57200</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="S29" s="3">
         <v>351000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1976,129 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49700</v>
+        <v>173400</v>
       </c>
       <c r="E32" s="3">
-        <v>-37900</v>
+        <v>1262000</v>
       </c>
       <c r="F32" s="3">
+        <v>75400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-604500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-647000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-386000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>38100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-67400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-604500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-141900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-647000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-79100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-386000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>38100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6256400</v>
+        <v>-130400</v>
       </c>
       <c r="E33" s="3">
-        <v>385600</v>
+        <v>-2410300</v>
       </c>
       <c r="F33" s="3">
-        <v>612700</v>
+        <v>-590900</v>
       </c>
       <c r="G33" s="3">
-        <v>710900</v>
+        <v>-6326700</v>
       </c>
       <c r="H33" s="3">
+        <v>390000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>619600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K33" s="3">
         <v>192800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>731000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1098900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>662100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>595800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>583400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>402800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>800500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>714900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6256400</v>
+        <v>-130400</v>
       </c>
       <c r="E35" s="3">
-        <v>385600</v>
+        <v>-2410300</v>
       </c>
       <c r="F35" s="3">
-        <v>612700</v>
+        <v>-590900</v>
       </c>
       <c r="G35" s="3">
-        <v>710900</v>
+        <v>-6326700</v>
       </c>
       <c r="H35" s="3">
+        <v>390000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>619600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K35" s="3">
         <v>192800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>731000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1098900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>662100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>595800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>583400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>402800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>800500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>714900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2311,515 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2803500</v>
+        <v>5943900</v>
       </c>
       <c r="E41" s="3">
-        <v>3254200</v>
+        <v>2884000</v>
       </c>
       <c r="F41" s="3">
-        <v>3555800</v>
+        <v>3784800</v>
       </c>
       <c r="G41" s="3">
-        <v>4002900</v>
+        <v>2835000</v>
       </c>
       <c r="H41" s="3">
+        <v>3290700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3595800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4047900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4878300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>4075100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>4867600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>3447700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>4210800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>4976000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>4707900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>3505000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>3764400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4231200</v>
+        <v>965300</v>
       </c>
       <c r="E42" s="3">
-        <v>4401600</v>
+        <v>5062300</v>
       </c>
       <c r="F42" s="3">
-        <v>3734400</v>
+        <v>3122100</v>
       </c>
       <c r="G42" s="3">
-        <v>3077900</v>
+        <v>4278800</v>
       </c>
       <c r="H42" s="3">
+        <v>4451100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3776400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3112500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3092100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>4239500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>3934300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>1120000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>1307100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>1776100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>2053200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>2553000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>3314800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6793400</v>
+        <v>4716600</v>
       </c>
       <c r="E43" s="3">
-        <v>6717700</v>
+        <v>4654400</v>
       </c>
       <c r="F43" s="3">
-        <v>7694800</v>
+        <v>5331500</v>
       </c>
       <c r="G43" s="3">
-        <v>7324500</v>
+        <v>6869800</v>
       </c>
       <c r="H43" s="3">
+        <v>6793200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7781300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7406900</v>
+      </c>
+      <c r="K43" s="3">
         <v>6936500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>7350500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>7350500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>5817200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>6565900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>6948500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>6438000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>6217700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>6832700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5437800</v>
+        <v>4098200</v>
       </c>
       <c r="E44" s="3">
-        <v>5053300</v>
+        <v>3882900</v>
       </c>
       <c r="F44" s="3">
-        <v>5650700</v>
+        <v>4542000</v>
       </c>
       <c r="G44" s="3">
-        <v>5133800</v>
+        <v>5498900</v>
       </c>
       <c r="H44" s="3">
+        <v>5110200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5714200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5191500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5192900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>5726400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>5582100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>4773000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>4260200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>4026800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>3611700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>4407700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>4231600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>236600</v>
+        <v>488000</v>
       </c>
       <c r="E45" s="3">
-        <v>242500</v>
+        <v>882800</v>
       </c>
       <c r="F45" s="3">
-        <v>242500</v>
+        <v>236800</v>
       </c>
       <c r="G45" s="3">
-        <v>262600</v>
+        <v>239200</v>
       </c>
       <c r="H45" s="3">
+        <v>245200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>245200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>265600</v>
+      </c>
+      <c r="K45" s="3">
         <v>357200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>428200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>275600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>3861700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>228900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>279400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>389300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>483600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>552900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19502500</v>
+        <v>16212100</v>
       </c>
       <c r="E46" s="3">
-        <v>19669300</v>
+        <v>17366400</v>
       </c>
       <c r="F46" s="3">
-        <v>20878200</v>
+        <v>17017100</v>
       </c>
       <c r="G46" s="3">
-        <v>19801700</v>
+        <v>19721700</v>
       </c>
       <c r="H46" s="3">
+        <v>19890400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>21112900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20024400</v>
+      </c>
+      <c r="K46" s="3">
         <v>20457100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>21819800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>22010200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>19019600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>16572900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>18006800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>17200100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>17167000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>18696400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9902100</v>
+        <v>8282500</v>
       </c>
       <c r="E47" s="3">
-        <v>10669800</v>
+        <v>8726300</v>
       </c>
       <c r="F47" s="3">
-        <v>10078300</v>
+        <v>9706000</v>
       </c>
       <c r="G47" s="3">
-        <v>10164700</v>
+        <v>10013400</v>
       </c>
       <c r="H47" s="3">
+        <v>10789700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10191600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10278900</v>
+      </c>
+      <c r="K47" s="3">
         <v>9853600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>9543600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>9340200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>8446900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>12687500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>11871800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>12058000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>13548100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>13358000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27456300</v>
+        <v>26718300</v>
       </c>
       <c r="E48" s="3">
-        <v>32879900</v>
+        <v>27555700</v>
       </c>
       <c r="F48" s="3">
-        <v>32108600</v>
+        <v>28021000</v>
       </c>
       <c r="G48" s="3">
-        <v>32290800</v>
+        <v>27765000</v>
       </c>
       <c r="H48" s="3">
+        <v>33249600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>32469700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>32653900</v>
+      </c>
+      <c r="K48" s="3">
         <v>30162800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>30003100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>29858800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>26738500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>27676100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>27832100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>28554600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>31491000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>32119000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5287600</v>
+        <v>4632900</v>
       </c>
       <c r="E49" s="3">
-        <v>6553300</v>
+        <v>4726200</v>
       </c>
       <c r="F49" s="3">
-        <v>6192500</v>
+        <v>5120900</v>
       </c>
       <c r="G49" s="3">
-        <v>6023300</v>
+        <v>5347000</v>
       </c>
       <c r="H49" s="3">
+        <v>6626900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6262100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6091100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6028100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>5760700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>5636500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>5014600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>5143200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>5203800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>5350800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>5999300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>5997000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2921,73 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6335600</v>
+        <v>5570700</v>
       </c>
       <c r="E52" s="3">
-        <v>5583300</v>
+        <v>5733400</v>
       </c>
       <c r="F52" s="3">
-        <v>5239100</v>
+        <v>6763300</v>
       </c>
       <c r="G52" s="3">
-        <v>5455500</v>
+        <v>6406800</v>
       </c>
       <c r="H52" s="3">
+        <v>5646100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5298000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5516900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5392800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>4788400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>5014300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>4673100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>5079200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>5225100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>5249800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>5865500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>5950000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68484000</v>
+        <v>61416500</v>
       </c>
       <c r="E54" s="3">
-        <v>75355500</v>
+        <v>64107900</v>
       </c>
       <c r="F54" s="3">
-        <v>74496700</v>
+        <v>66628300</v>
       </c>
       <c r="G54" s="3">
-        <v>73736100</v>
+        <v>69254000</v>
       </c>
       <c r="H54" s="3">
+        <v>76202700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>75334300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>74565100</v>
+      </c>
+      <c r="K54" s="3">
         <v>71894300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>71915600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>71860000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>63892600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>67159000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>68139600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>68413300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>74070900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>76120400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3139,347 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8445900</v>
+        <v>6898500</v>
       </c>
       <c r="E57" s="3">
-        <v>7698300</v>
+        <v>5969000</v>
       </c>
       <c r="F57" s="3">
-        <v>9368600</v>
+        <v>6818300</v>
       </c>
       <c r="G57" s="3">
-        <v>8416300</v>
+        <v>8540900</v>
       </c>
       <c r="H57" s="3">
+        <v>7784900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9473900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8511000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3837300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>3728500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>3610200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2720800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>3072000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2957600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>2294500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2183300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2497900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7621400</v>
+        <v>4924800</v>
       </c>
       <c r="E58" s="3">
-        <v>7240500</v>
+        <v>6290800</v>
       </c>
       <c r="F58" s="3">
-        <v>6962500</v>
+        <v>8117400</v>
       </c>
       <c r="G58" s="3">
-        <v>5483900</v>
+        <v>7707100</v>
       </c>
       <c r="H58" s="3">
+        <v>7321900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7040800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5545600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4443000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>3917800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>4818000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>5413100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>4645000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>4755000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>4507000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>4885400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>4577900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1776700</v>
+        <v>919900</v>
       </c>
       <c r="E59" s="3">
-        <v>1158100</v>
+        <v>1460600</v>
       </c>
       <c r="F59" s="3">
-        <v>1305900</v>
+        <v>1101700</v>
       </c>
       <c r="G59" s="3">
-        <v>998400</v>
+        <v>1796700</v>
       </c>
       <c r="H59" s="3">
+        <v>1171100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1320600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1009600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6872600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>6455100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>6282400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>5432900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>5786100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>8402600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>8407100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>9159200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>10222700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17844000</v>
+        <v>12743100</v>
       </c>
       <c r="E60" s="3">
-        <v>16096900</v>
+        <v>13720400</v>
       </c>
       <c r="F60" s="3">
-        <v>17637000</v>
+        <v>16037500</v>
       </c>
       <c r="G60" s="3">
-        <v>14898600</v>
+        <v>18044700</v>
       </c>
       <c r="H60" s="3">
+        <v>16277900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>17835300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>15066100</v>
+      </c>
+      <c r="K60" s="3">
         <v>15152900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>14101400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>14710500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>13566900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>13503100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>16115100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>15208600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>16227900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>17298400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12726800</v>
+        <v>14847200</v>
       </c>
       <c r="E61" s="3">
-        <v>13709800</v>
+        <v>15020700</v>
       </c>
       <c r="F61" s="3">
-        <v>12508000</v>
+        <v>13287400</v>
       </c>
       <c r="G61" s="3">
-        <v>13925100</v>
+        <v>12869900</v>
       </c>
       <c r="H61" s="3">
+        <v>13864000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>12648600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14081700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9411200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>9276300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>9184000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>8428200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>9798300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>10427800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>11184000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>11583200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>12848500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8093400</v>
+        <v>7454700</v>
       </c>
       <c r="E62" s="3">
-        <v>8169100</v>
+        <v>7926000</v>
       </c>
       <c r="F62" s="3">
-        <v>7768100</v>
+        <v>7939200</v>
       </c>
       <c r="G62" s="3">
-        <v>8031900</v>
+        <v>8184400</v>
       </c>
       <c r="H62" s="3">
+        <v>8261000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7855400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8122200</v>
+      </c>
+      <c r="K62" s="3">
         <v>10762000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>11249400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>11108600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>9743700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>10127100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>7874100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>8155700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>9372900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>9455000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38996700</v>
+        <v>35338100</v>
       </c>
       <c r="E66" s="3">
-        <v>38308200</v>
+        <v>36963800</v>
       </c>
       <c r="F66" s="3">
-        <v>38234900</v>
+        <v>37565500</v>
       </c>
       <c r="G66" s="3">
-        <v>37175000</v>
+        <v>39435100</v>
       </c>
       <c r="H66" s="3">
+        <v>38738900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>38664800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>37593000</v>
+      </c>
+      <c r="K66" s="3">
         <v>35664400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>34981900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>35346200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>32038500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>33731500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>34715500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>34829900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>37479800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>39888400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19679900</v>
+        <v>-3083800</v>
       </c>
       <c r="E72" s="3">
-        <v>27088400</v>
+        <v>18974100</v>
       </c>
       <c r="F72" s="3">
-        <v>26706300</v>
+        <v>-582500</v>
       </c>
       <c r="G72" s="3">
-        <v>26325400</v>
+        <v>19901200</v>
       </c>
       <c r="H72" s="3">
+        <v>27393000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>27006600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>26621400</v>
+      </c>
+      <c r="K72" s="3">
         <v>25795500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>27093100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>26343200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>23588300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>23824300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>23432800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>22843700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>23736800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>22936200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29487300</v>
+        <v>26078400</v>
       </c>
       <c r="E76" s="3">
-        <v>37047200</v>
+        <v>27144200</v>
       </c>
       <c r="F76" s="3">
-        <v>36261800</v>
+        <v>29062900</v>
       </c>
       <c r="G76" s="3">
-        <v>36561100</v>
+        <v>29818900</v>
       </c>
       <c r="H76" s="3">
+        <v>37463800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>36669500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>36972100</v>
+      </c>
+      <c r="K76" s="3">
         <v>36229900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>36933700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>36513800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>31854100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>33427400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>33424100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>33583400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>36591200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>36232000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6256400</v>
+        <v>-130400</v>
       </c>
       <c r="E81" s="3">
-        <v>385600</v>
+        <v>-2410300</v>
       </c>
       <c r="F81" s="3">
-        <v>612700</v>
+        <v>-590900</v>
       </c>
       <c r="G81" s="3">
-        <v>710900</v>
+        <v>-6326700</v>
       </c>
       <c r="H81" s="3">
+        <v>390000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>619600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K81" s="3">
         <v>192800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>731000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1098900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>662100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>595800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>583400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>402800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>800500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>714900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4420,67 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>817400</v>
+        <v>630400</v>
       </c>
       <c r="E83" s="3">
-        <v>706200</v>
+        <v>674700</v>
       </c>
       <c r="F83" s="3">
-        <v>703800</v>
+        <v>696200</v>
       </c>
       <c r="G83" s="3">
-        <v>651800</v>
+        <v>826600</v>
       </c>
       <c r="H83" s="3">
+        <v>714100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>711700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>659100</v>
+      </c>
+      <c r="K83" s="3">
         <v>661200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>676600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>582000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>567700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>486900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>646300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>886400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>703100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>905000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2060600</v>
+        <v>1336200</v>
       </c>
       <c r="E89" s="3">
-        <v>1460900</v>
+        <v>362400</v>
       </c>
       <c r="F89" s="3">
-        <v>1314200</v>
+        <v>375600</v>
       </c>
       <c r="G89" s="3">
-        <v>900200</v>
+        <v>2083800</v>
       </c>
       <c r="H89" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>910300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2081900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1715200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>697900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>855300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2070100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1330700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>1574200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>797000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>1934400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4834,67 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1652500</v>
+        <v>-430600</v>
       </c>
       <c r="E91" s="3">
-        <v>-824500</v>
+        <v>-489200</v>
       </c>
       <c r="F91" s="3">
-        <v>-811500</v>
+        <v>-640000</v>
       </c>
       <c r="G91" s="3">
-        <v>-528800</v>
+        <v>-1671100</v>
       </c>
       <c r="H91" s="3">
+        <v>-833800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-820600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-534700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-729800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-684900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-584100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-570000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-536300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-475400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-732500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4996,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1783800</v>
+        <v>296700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2169400</v>
+        <v>679400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1152100</v>
+        <v>655500</v>
       </c>
       <c r="G94" s="3">
-        <v>-107600</v>
+        <v>-1803900</v>
       </c>
       <c r="H94" s="3">
+        <v>-2193800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1165100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-811500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>2310200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-612700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-996300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-878500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-648500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-633900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-531700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +5080,67 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>14200</v>
+        <v>-239200</v>
       </c>
       <c r="E96" s="3">
-        <v>-244900</v>
+        <v>13200</v>
       </c>
       <c r="F96" s="3">
-        <v>15400</v>
+        <v>-166300</v>
       </c>
       <c r="G96" s="3">
-        <v>-253100</v>
+        <v>14400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-247600</v>
       </c>
       <c r="I96" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-119500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-215200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-212100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="Q96" s="3">
         <v>-5600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="R96" s="3">
         <v>-162000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="T96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5298,181 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1120200</v>
+        <v>-2009600</v>
       </c>
       <c r="E100" s="3">
-        <v>-34300</v>
+        <v>1537100</v>
       </c>
       <c r="F100" s="3">
-        <v>-375000</v>
+        <v>-834900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1178200</v>
+        <v>-1132800</v>
       </c>
       <c r="H100" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-379200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1191400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-236600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-794900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-591300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>219900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>98600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13000</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>34300</v>
+        <v>-41900</v>
       </c>
       <c r="F101" s="3">
-        <v>10600</v>
+        <v>25100</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>-13200</v>
       </c>
       <c r="H101" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>31900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-19100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-29200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>24700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-856400</v>
+        <v>-378000</v>
       </c>
       <c r="E102" s="3">
-        <v>-708600</v>
+        <v>2537100</v>
       </c>
       <c r="F102" s="3">
-        <v>-202300</v>
+        <v>221300</v>
       </c>
       <c r="G102" s="3">
-        <v>-370200</v>
+        <v>-866000</v>
       </c>
       <c r="H102" s="3">
+        <v>-716500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-204600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-374400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-609200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-498000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>2245100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-853100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-144700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>1116400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9673700</v>
+        <v>10037000</v>
       </c>
       <c r="E8" s="3">
-        <v>7304000</v>
+        <v>9513500</v>
       </c>
       <c r="F8" s="3">
-        <v>12628300</v>
+        <v>7183100</v>
       </c>
       <c r="G8" s="3">
-        <v>14621200</v>
+        <v>12419300</v>
       </c>
       <c r="H8" s="3">
-        <v>14560100</v>
+        <v>14379100</v>
       </c>
       <c r="I8" s="3">
-        <v>15323300</v>
+        <v>14319100</v>
       </c>
       <c r="J8" s="3">
+        <v>15069700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14501500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15497200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15703000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14765000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12094500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12700900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11270400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11424100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11880100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11748700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7192800</v>
+        <v>7571300</v>
       </c>
       <c r="E9" s="3">
-        <v>5470200</v>
+        <v>7073700</v>
       </c>
       <c r="F9" s="3">
-        <v>10757400</v>
+        <v>5379700</v>
       </c>
       <c r="G9" s="3">
-        <v>11186900</v>
+        <v>10579400</v>
       </c>
       <c r="H9" s="3">
-        <v>11346000</v>
+        <v>11001700</v>
       </c>
       <c r="I9" s="3">
-        <v>11654600</v>
+        <v>11158200</v>
       </c>
       <c r="J9" s="3">
+        <v>11461700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11033700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12563600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11959100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10741900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8909200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9153200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7993100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8607900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8323500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7909100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2480900</v>
+        <v>2465700</v>
       </c>
       <c r="E10" s="3">
-        <v>1833800</v>
+        <v>2439900</v>
       </c>
       <c r="F10" s="3">
-        <v>1870900</v>
+        <v>1803400</v>
       </c>
       <c r="G10" s="3">
-        <v>3434300</v>
+        <v>1839900</v>
       </c>
       <c r="H10" s="3">
-        <v>3214200</v>
+        <v>3377400</v>
       </c>
       <c r="I10" s="3">
-        <v>3668700</v>
+        <v>3161000</v>
       </c>
       <c r="J10" s="3">
+        <v>3608000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3467800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2933600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3743900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4023000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3185300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3547700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3277300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2816200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3556600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3839500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16700</v>
+        <v>1781100</v>
       </c>
       <c r="E14" s="3">
-        <v>712900</v>
+        <v>-16500</v>
       </c>
       <c r="F14" s="3">
-        <v>7200</v>
+        <v>701100</v>
       </c>
       <c r="G14" s="3">
-        <v>6500200</v>
+        <v>7100</v>
       </c>
       <c r="H14" s="3">
-        <v>-12000</v>
+        <v>6392600</v>
       </c>
       <c r="I14" s="3">
-        <v>-165100</v>
+        <v>-11800</v>
       </c>
       <c r="J14" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K14" s="3">
         <v>35900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>971200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>538200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>91100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>226600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-210900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>50500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>56300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>630400</v>
+        <v>628200</v>
       </c>
       <c r="E15" s="3">
-        <v>677000</v>
+        <v>620000</v>
       </c>
       <c r="F15" s="3">
-        <v>693800</v>
+        <v>665800</v>
       </c>
       <c r="G15" s="3">
-        <v>826600</v>
+        <v>682300</v>
       </c>
       <c r="H15" s="3">
-        <v>714100</v>
+        <v>812900</v>
       </c>
       <c r="I15" s="3">
-        <v>711700</v>
+        <v>702300</v>
       </c>
       <c r="J15" s="3">
+        <v>700000</v>
+      </c>
+      <c r="K15" s="3">
         <v>659100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>661200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>676600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>582000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>567700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>486900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>646300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>886400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>703100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>907400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9538500</v>
+        <v>11113500</v>
       </c>
       <c r="E17" s="3">
-        <v>8732300</v>
+        <v>9380600</v>
       </c>
       <c r="F17" s="3">
-        <v>13227600</v>
+        <v>8587700</v>
       </c>
       <c r="G17" s="3">
-        <v>21184700</v>
+        <v>13008600</v>
       </c>
       <c r="H17" s="3">
-        <v>13847200</v>
+        <v>20834000</v>
       </c>
       <c r="I17" s="3">
-        <v>14292200</v>
+        <v>13618000</v>
       </c>
       <c r="J17" s="3">
+        <v>14055600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13563700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15779900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14614700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14030400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11236900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11714700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10540000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10959600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10889400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11171100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135200</v>
+        <v>-1076400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1428300</v>
+        <v>132900</v>
       </c>
       <c r="F18" s="3">
-        <v>-599300</v>
+        <v>-1404600</v>
       </c>
       <c r="G18" s="3">
-        <v>-6563500</v>
+        <v>-589400</v>
       </c>
       <c r="H18" s="3">
-        <v>712900</v>
+        <v>-6454900</v>
       </c>
       <c r="I18" s="3">
-        <v>1031100</v>
+        <v>701100</v>
       </c>
       <c r="J18" s="3">
+        <v>1014100</v>
+      </c>
+      <c r="K18" s="3">
         <v>937800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-282700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1088300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>734600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>857500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>986200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>730400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>464500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>990700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>577500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-173400</v>
+        <v>536400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1262000</v>
+        <v>-170600</v>
       </c>
       <c r="F20" s="3">
-        <v>-75400</v>
+        <v>-1241100</v>
       </c>
       <c r="G20" s="3">
-        <v>-50200</v>
+        <v>-74100</v>
       </c>
       <c r="H20" s="3">
-        <v>38300</v>
+        <v>-49400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3600</v>
+        <v>37600</v>
       </c>
       <c r="J20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>68200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>604500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>141900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>647000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>79100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>386000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-38100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592100</v>
+        <v>88200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2015600</v>
+        <v>582300</v>
       </c>
       <c r="F21" s="3">
-        <v>21500</v>
+        <v>-1982200</v>
       </c>
       <c r="G21" s="3">
-        <v>-5787200</v>
+        <v>21200</v>
       </c>
       <c r="H21" s="3">
-        <v>1465300</v>
+        <v>-5691400</v>
       </c>
       <c r="I21" s="3">
-        <v>1739300</v>
+        <v>1441100</v>
       </c>
       <c r="J21" s="3">
+        <v>1710500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1665100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>983000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1906800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1963600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1504300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1859100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1431700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1312700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1717300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1479000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38300</v>
+        <v>-540000</v>
       </c>
       <c r="E23" s="3">
-        <v>-2690300</v>
+        <v>-37600</v>
       </c>
       <c r="F23" s="3">
-        <v>-674700</v>
+        <v>-2645700</v>
       </c>
       <c r="G23" s="3">
-        <v>-6613800</v>
+        <v>-663500</v>
       </c>
       <c r="H23" s="3">
-        <v>751200</v>
+        <v>-6504300</v>
       </c>
       <c r="I23" s="3">
-        <v>1027500</v>
+        <v>738800</v>
       </c>
       <c r="J23" s="3">
+        <v>1010500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1006000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>321700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1230200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1381600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>936600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1372200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>785400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>426400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1014200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>574000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75400</v>
+        <v>292900</v>
       </c>
       <c r="E24" s="3">
-        <v>-297900</v>
+        <v>74100</v>
       </c>
       <c r="F24" s="3">
-        <v>-56200</v>
+        <v>-292900</v>
       </c>
       <c r="G24" s="3">
-        <v>-305000</v>
+        <v>-55300</v>
       </c>
       <c r="H24" s="3">
-        <v>344500</v>
+        <v>-300000</v>
       </c>
       <c r="I24" s="3">
-        <v>395900</v>
+        <v>338800</v>
       </c>
       <c r="J24" s="3">
+        <v>389400</v>
+      </c>
+      <c r="K24" s="3">
         <v>267900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>132500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>480300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>664800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>336000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>887500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>227800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>194900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>186600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-113600</v>
+        <v>-832900</v>
       </c>
       <c r="E26" s="3">
-        <v>-2392400</v>
+        <v>-111800</v>
       </c>
       <c r="F26" s="3">
-        <v>-618400</v>
+        <v>-2352800</v>
       </c>
       <c r="G26" s="3">
-        <v>-6308800</v>
+        <v>-608200</v>
       </c>
       <c r="H26" s="3">
-        <v>406700</v>
+        <v>-6204300</v>
       </c>
       <c r="I26" s="3">
-        <v>631600</v>
+        <v>400000</v>
       </c>
       <c r="J26" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K26" s="3">
         <v>738100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>189300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>750000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>716800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>484700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>557600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>359000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>819300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>387400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-130400</v>
+        <v>-852900</v>
       </c>
       <c r="E27" s="3">
-        <v>-2410300</v>
+        <v>-128200</v>
       </c>
       <c r="F27" s="3">
-        <v>-590900</v>
+        <v>-2370400</v>
       </c>
       <c r="G27" s="3">
-        <v>-6326700</v>
+        <v>-581100</v>
       </c>
       <c r="H27" s="3">
-        <v>390000</v>
+        <v>-6222000</v>
       </c>
       <c r="I27" s="3">
-        <v>619600</v>
+        <v>383500</v>
       </c>
       <c r="J27" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K27" s="3">
         <v>718900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>192800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>731000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>692000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>587400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>466700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>529600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>345600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>363900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,8 +1891,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1850,31 +1910,34 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>406900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>74700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>129000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>53900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>57200</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>351000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>173400</v>
+        <v>-536400</v>
       </c>
       <c r="E32" s="3">
-        <v>1262000</v>
+        <v>170600</v>
       </c>
       <c r="F32" s="3">
-        <v>75400</v>
+        <v>1241100</v>
       </c>
       <c r="G32" s="3">
-        <v>50200</v>
+        <v>74100</v>
       </c>
       <c r="H32" s="3">
-        <v>-38300</v>
+        <v>49400</v>
       </c>
       <c r="I32" s="3">
-        <v>3600</v>
+        <v>-37600</v>
       </c>
       <c r="J32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-68200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-604500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-141900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-647000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-79100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-386000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>38100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-130400</v>
+        <v>-852900</v>
       </c>
       <c r="E33" s="3">
-        <v>-2410300</v>
+        <v>-128200</v>
       </c>
       <c r="F33" s="3">
-        <v>-590900</v>
+        <v>-2370400</v>
       </c>
       <c r="G33" s="3">
-        <v>-6326700</v>
+        <v>-581100</v>
       </c>
       <c r="H33" s="3">
-        <v>390000</v>
+        <v>-6222000</v>
       </c>
       <c r="I33" s="3">
-        <v>619600</v>
+        <v>383500</v>
       </c>
       <c r="J33" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K33" s="3">
         <v>718900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>192800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>731000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1098900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>662100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>595800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>583400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>402800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>714900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-130400</v>
+        <v>-852900</v>
       </c>
       <c r="E35" s="3">
-        <v>-2410300</v>
+        <v>-128200</v>
       </c>
       <c r="F35" s="3">
-        <v>-590900</v>
+        <v>-2370400</v>
       </c>
       <c r="G35" s="3">
-        <v>-6326700</v>
+        <v>-581100</v>
       </c>
       <c r="H35" s="3">
-        <v>390000</v>
+        <v>-6222000</v>
       </c>
       <c r="I35" s="3">
-        <v>619600</v>
+        <v>383500</v>
       </c>
       <c r="J35" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K35" s="3">
         <v>718900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>192800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>731000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1098900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>662100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>595800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>583400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>402800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>714900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5943900</v>
+        <v>5083200</v>
       </c>
       <c r="E41" s="3">
-        <v>2884000</v>
+        <v>5845500</v>
       </c>
       <c r="F41" s="3">
-        <v>3784800</v>
+        <v>2836300</v>
       </c>
       <c r="G41" s="3">
-        <v>2835000</v>
+        <v>3722100</v>
       </c>
       <c r="H41" s="3">
-        <v>3290700</v>
+        <v>2788100</v>
       </c>
       <c r="I41" s="3">
-        <v>3595800</v>
+        <v>3236300</v>
       </c>
       <c r="J41" s="3">
+        <v>3536300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4047900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4878300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4075100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4867600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3447700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4210800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4976000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4707900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3505000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3764400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>965300</v>
+        <v>1863400</v>
       </c>
       <c r="E42" s="3">
-        <v>5062300</v>
+        <v>949400</v>
       </c>
       <c r="F42" s="3">
-        <v>3122100</v>
+        <v>4978500</v>
       </c>
       <c r="G42" s="3">
-        <v>4278800</v>
+        <v>3070400</v>
       </c>
       <c r="H42" s="3">
-        <v>4451100</v>
+        <v>4208000</v>
       </c>
       <c r="I42" s="3">
-        <v>3776400</v>
+        <v>4377400</v>
       </c>
       <c r="J42" s="3">
+        <v>3713900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3112500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3092100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4239500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3934300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1120000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1307100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1776100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2053200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2553000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3314800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4716600</v>
+        <v>4771500</v>
       </c>
       <c r="E43" s="3">
-        <v>4654400</v>
+        <v>4638500</v>
       </c>
       <c r="F43" s="3">
-        <v>5331500</v>
+        <v>4577400</v>
       </c>
       <c r="G43" s="3">
-        <v>6869800</v>
+        <v>5243200</v>
       </c>
       <c r="H43" s="3">
-        <v>6793200</v>
+        <v>6756100</v>
       </c>
       <c r="I43" s="3">
-        <v>7781300</v>
+        <v>6680800</v>
       </c>
       <c r="J43" s="3">
+        <v>7652500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7406900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>7350500</v>
       </c>
       <c r="M43" s="3">
         <v>7350500</v>
       </c>
       <c r="N43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="O43" s="3">
         <v>5817200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6565900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6948500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6438000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6217700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6832700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4098200</v>
+        <v>3975100</v>
       </c>
       <c r="E44" s="3">
-        <v>3882900</v>
+        <v>4030300</v>
       </c>
       <c r="F44" s="3">
-        <v>4542000</v>
+        <v>3818600</v>
       </c>
       <c r="G44" s="3">
-        <v>5498900</v>
+        <v>4466800</v>
       </c>
       <c r="H44" s="3">
-        <v>5110200</v>
+        <v>5407900</v>
       </c>
       <c r="I44" s="3">
-        <v>5714200</v>
+        <v>5025600</v>
       </c>
       <c r="J44" s="3">
+        <v>5619700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5191500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5192900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5726400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5582100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4773000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4260200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4026800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3611700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4407700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4231600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>488000</v>
+        <v>287000</v>
       </c>
       <c r="E45" s="3">
-        <v>882800</v>
+        <v>480000</v>
       </c>
       <c r="F45" s="3">
-        <v>236800</v>
+        <v>868200</v>
       </c>
       <c r="G45" s="3">
-        <v>239200</v>
+        <v>232900</v>
       </c>
       <c r="H45" s="3">
-        <v>245200</v>
+        <v>235300</v>
       </c>
       <c r="I45" s="3">
-        <v>245200</v>
+        <v>241200</v>
       </c>
       <c r="J45" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K45" s="3">
         <v>265600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>357200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>428200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>275600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3861700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>228900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>279400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>389300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>483600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>552900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16212100</v>
+        <v>15980200</v>
       </c>
       <c r="E46" s="3">
-        <v>17366400</v>
+        <v>15943700</v>
       </c>
       <c r="F46" s="3">
-        <v>17017100</v>
+        <v>17079000</v>
       </c>
       <c r="G46" s="3">
-        <v>19721700</v>
+        <v>16735500</v>
       </c>
       <c r="H46" s="3">
-        <v>19890400</v>
+        <v>19395300</v>
       </c>
       <c r="I46" s="3">
-        <v>21112900</v>
+        <v>19561200</v>
       </c>
       <c r="J46" s="3">
+        <v>20763500</v>
+      </c>
+      <c r="K46" s="3">
         <v>20024400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20457100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21819800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22010200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19019600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16572900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18006800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17200100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17167000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18696400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8282500</v>
+        <v>8014800</v>
       </c>
       <c r="E47" s="3">
-        <v>8726300</v>
+        <v>8145400</v>
       </c>
       <c r="F47" s="3">
-        <v>9706000</v>
+        <v>8581800</v>
       </c>
       <c r="G47" s="3">
-        <v>10013400</v>
+        <v>9545300</v>
       </c>
       <c r="H47" s="3">
-        <v>10789700</v>
+        <v>9847600</v>
       </c>
       <c r="I47" s="3">
-        <v>10191600</v>
+        <v>10611100</v>
       </c>
       <c r="J47" s="3">
+        <v>10022900</v>
+      </c>
+      <c r="K47" s="3">
         <v>10278900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9853600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9543600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9340200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8446900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12687500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11871800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12058000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13548100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13358000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26718300</v>
+        <v>24618500</v>
       </c>
       <c r="E48" s="3">
-        <v>27555700</v>
+        <v>26276100</v>
       </c>
       <c r="F48" s="3">
-        <v>28021000</v>
+        <v>27099600</v>
       </c>
       <c r="G48" s="3">
-        <v>27765000</v>
+        <v>27557200</v>
       </c>
       <c r="H48" s="3">
-        <v>33249600</v>
+        <v>27305400</v>
       </c>
       <c r="I48" s="3">
-        <v>32469700</v>
+        <v>32699200</v>
       </c>
       <c r="J48" s="3">
+        <v>31932200</v>
+      </c>
+      <c r="K48" s="3">
         <v>32653900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30162800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30003100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29858800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26738500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27676100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27832100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28554600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31491000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32119000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4632900</v>
+        <v>3944500</v>
       </c>
       <c r="E49" s="3">
-        <v>4726200</v>
+        <v>4556200</v>
       </c>
       <c r="F49" s="3">
-        <v>5120900</v>
+        <v>4648000</v>
       </c>
       <c r="G49" s="3">
-        <v>5347000</v>
+        <v>5036200</v>
       </c>
       <c r="H49" s="3">
-        <v>6626900</v>
+        <v>5258500</v>
       </c>
       <c r="I49" s="3">
-        <v>6262100</v>
+        <v>6517300</v>
       </c>
       <c r="J49" s="3">
+        <v>6158500</v>
+      </c>
+      <c r="K49" s="3">
         <v>6091100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6028100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5760700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5636500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5014600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5143200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5203800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5350800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5999300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5997000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5570700</v>
+        <v>5440900</v>
       </c>
       <c r="E52" s="3">
-        <v>5733400</v>
+        <v>5478500</v>
       </c>
       <c r="F52" s="3">
-        <v>6763300</v>
+        <v>5638500</v>
       </c>
       <c r="G52" s="3">
-        <v>6406800</v>
+        <v>6651400</v>
       </c>
       <c r="H52" s="3">
-        <v>5646100</v>
+        <v>6300800</v>
       </c>
       <c r="I52" s="3">
-        <v>5298000</v>
+        <v>5552600</v>
       </c>
       <c r="J52" s="3">
+        <v>5210300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5516900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5392800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4788400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5014300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4673100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5079200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5225100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5249800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5865500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5950000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61416500</v>
+        <v>57998900</v>
       </c>
       <c r="E54" s="3">
-        <v>64107900</v>
+        <v>60399900</v>
       </c>
       <c r="F54" s="3">
-        <v>66628300</v>
+        <v>63046800</v>
       </c>
       <c r="G54" s="3">
-        <v>69254000</v>
+        <v>65525500</v>
       </c>
       <c r="H54" s="3">
-        <v>76202700</v>
+        <v>68107700</v>
       </c>
       <c r="I54" s="3">
-        <v>75334300</v>
+        <v>74941400</v>
       </c>
       <c r="J54" s="3">
+        <v>74087300</v>
+      </c>
+      <c r="K54" s="3">
         <v>74565100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71894300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71915600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71860000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63892600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67159000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68139600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68413300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74070900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76120400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6898500</v>
+        <v>6939600</v>
       </c>
       <c r="E57" s="3">
-        <v>5969000</v>
+        <v>6784300</v>
       </c>
       <c r="F57" s="3">
-        <v>6818300</v>
+        <v>5870200</v>
       </c>
       <c r="G57" s="3">
-        <v>8540900</v>
+        <v>6705500</v>
       </c>
       <c r="H57" s="3">
-        <v>7784900</v>
+        <v>8399500</v>
       </c>
       <c r="I57" s="3">
-        <v>9473900</v>
+        <v>7656000</v>
       </c>
       <c r="J57" s="3">
+        <v>9317100</v>
+      </c>
+      <c r="K57" s="3">
         <v>8511000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3837300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3728500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3610200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2720800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3072000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2957600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2294500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2183300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2497900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4924800</v>
+        <v>4263300</v>
       </c>
       <c r="E58" s="3">
-        <v>6290800</v>
+        <v>4843200</v>
       </c>
       <c r="F58" s="3">
-        <v>8117400</v>
+        <v>6186700</v>
       </c>
       <c r="G58" s="3">
-        <v>7707100</v>
+        <v>7983100</v>
       </c>
       <c r="H58" s="3">
-        <v>7321900</v>
+        <v>7579500</v>
       </c>
       <c r="I58" s="3">
-        <v>7040800</v>
+        <v>7200700</v>
       </c>
       <c r="J58" s="3">
+        <v>6924300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5545600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4443000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3917800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4818000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5413100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4645000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4755000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4507000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4885400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4577900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>919900</v>
+        <v>1171700</v>
       </c>
       <c r="E59" s="3">
-        <v>1460600</v>
+        <v>904700</v>
       </c>
       <c r="F59" s="3">
-        <v>1101700</v>
+        <v>1436400</v>
       </c>
       <c r="G59" s="3">
-        <v>1796700</v>
+        <v>1083500</v>
       </c>
       <c r="H59" s="3">
-        <v>1171100</v>
+        <v>1767000</v>
       </c>
       <c r="I59" s="3">
-        <v>1320600</v>
+        <v>1151700</v>
       </c>
       <c r="J59" s="3">
+        <v>1298700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1009600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6872600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6455100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6282400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5432900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5786100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8402600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8407100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9159200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10222700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12743100</v>
+        <v>12374600</v>
       </c>
       <c r="E60" s="3">
-        <v>13720400</v>
+        <v>12532200</v>
       </c>
       <c r="F60" s="3">
-        <v>16037500</v>
+        <v>13493300</v>
       </c>
       <c r="G60" s="3">
-        <v>18044700</v>
+        <v>15772000</v>
       </c>
       <c r="H60" s="3">
-        <v>16277900</v>
+        <v>17746000</v>
       </c>
       <c r="I60" s="3">
-        <v>17835300</v>
+        <v>16008500</v>
       </c>
       <c r="J60" s="3">
+        <v>17540100</v>
+      </c>
+      <c r="K60" s="3">
         <v>15066100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15152900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14101400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14710500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13566900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13503100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16115100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15208600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16227900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17298400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14847200</v>
+        <v>14040300</v>
       </c>
       <c r="E61" s="3">
-        <v>15020700</v>
+        <v>14601500</v>
       </c>
       <c r="F61" s="3">
-        <v>13287400</v>
+        <v>14772100</v>
       </c>
       <c r="G61" s="3">
-        <v>12869900</v>
+        <v>13067500</v>
       </c>
       <c r="H61" s="3">
-        <v>13864000</v>
+        <v>12656900</v>
       </c>
       <c r="I61" s="3">
-        <v>12648600</v>
+        <v>13634500</v>
       </c>
       <c r="J61" s="3">
+        <v>12439300</v>
+      </c>
+      <c r="K61" s="3">
         <v>14081700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9411200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9276300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9184000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8428200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9798300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10427800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11184000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11583200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12848500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7454700</v>
+        <v>7421900</v>
       </c>
       <c r="E62" s="3">
-        <v>7926000</v>
+        <v>7331300</v>
       </c>
       <c r="F62" s="3">
-        <v>7939200</v>
+        <v>7794800</v>
       </c>
       <c r="G62" s="3">
-        <v>8184400</v>
+        <v>7807800</v>
       </c>
       <c r="H62" s="3">
-        <v>8261000</v>
+        <v>8048900</v>
       </c>
       <c r="I62" s="3">
-        <v>7855400</v>
+        <v>8124200</v>
       </c>
       <c r="J62" s="3">
+        <v>7725400</v>
+      </c>
+      <c r="K62" s="3">
         <v>8122200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10762000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11249400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11108600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9743700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10127100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7874100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8155700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9372900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9455000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35338100</v>
+        <v>34123800</v>
       </c>
       <c r="E66" s="3">
-        <v>36963800</v>
+        <v>34753200</v>
       </c>
       <c r="F66" s="3">
-        <v>37565500</v>
+        <v>36351900</v>
       </c>
       <c r="G66" s="3">
-        <v>39435100</v>
+        <v>36943700</v>
       </c>
       <c r="H66" s="3">
-        <v>38738900</v>
+        <v>38782400</v>
       </c>
       <c r="I66" s="3">
-        <v>38664800</v>
+        <v>38097700</v>
       </c>
       <c r="J66" s="3">
+        <v>38024800</v>
+      </c>
+      <c r="K66" s="3">
         <v>37593000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35664400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34981900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35346200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32038500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33731500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34715500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34829900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37479800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39888400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3083800</v>
+        <v>16193100</v>
       </c>
       <c r="E72" s="3">
-        <v>18974100</v>
+        <v>-3032800</v>
       </c>
       <c r="F72" s="3">
-        <v>-582500</v>
+        <v>18660100</v>
       </c>
       <c r="G72" s="3">
-        <v>19901200</v>
+        <v>-572900</v>
       </c>
       <c r="H72" s="3">
-        <v>27393000</v>
+        <v>19571800</v>
       </c>
       <c r="I72" s="3">
-        <v>27006600</v>
+        <v>26939600</v>
       </c>
       <c r="J72" s="3">
+        <v>26559600</v>
+      </c>
+      <c r="K72" s="3">
         <v>26621400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25795500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27093100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26343200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23588300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23824300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23432800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22843700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23736800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22936200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26078400</v>
+        <v>23875000</v>
       </c>
       <c r="E76" s="3">
-        <v>27144200</v>
+        <v>25646700</v>
       </c>
       <c r="F76" s="3">
-        <v>29062900</v>
+        <v>26694900</v>
       </c>
       <c r="G76" s="3">
-        <v>29818900</v>
+        <v>28581800</v>
       </c>
       <c r="H76" s="3">
-        <v>37463800</v>
+        <v>29325300</v>
       </c>
       <c r="I76" s="3">
-        <v>36669500</v>
+        <v>36843700</v>
       </c>
       <c r="J76" s="3">
+        <v>36062500</v>
+      </c>
+      <c r="K76" s="3">
         <v>36972100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36229900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36933700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36513800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31854100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33427400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33424100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33583400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36591200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36232000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-130400</v>
+        <v>-852900</v>
       </c>
       <c r="E81" s="3">
-        <v>-2410300</v>
+        <v>-128200</v>
       </c>
       <c r="F81" s="3">
-        <v>-590900</v>
+        <v>-2370400</v>
       </c>
       <c r="G81" s="3">
-        <v>-6326700</v>
+        <v>-581100</v>
       </c>
       <c r="H81" s="3">
-        <v>390000</v>
+        <v>-6222000</v>
       </c>
       <c r="I81" s="3">
-        <v>619600</v>
+        <v>383500</v>
       </c>
       <c r="J81" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K81" s="3">
         <v>718900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>192800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>731000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1098900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>662100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>595800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>583400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>402800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>714900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>630400</v>
+        <v>628200</v>
       </c>
       <c r="E83" s="3">
-        <v>674700</v>
+        <v>620000</v>
       </c>
       <c r="F83" s="3">
-        <v>696200</v>
+        <v>663500</v>
       </c>
       <c r="G83" s="3">
-        <v>826600</v>
+        <v>684700</v>
       </c>
       <c r="H83" s="3">
-        <v>714100</v>
+        <v>812900</v>
       </c>
       <c r="I83" s="3">
-        <v>711700</v>
+        <v>702300</v>
       </c>
       <c r="J83" s="3">
+        <v>700000</v>
+      </c>
+      <c r="K83" s="3">
         <v>659100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>661200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>676600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>582000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>567700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>486900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>646300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>886400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>703100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>905000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1336200</v>
+        <v>1181100</v>
       </c>
       <c r="E89" s="3">
-        <v>362400</v>
+        <v>1314000</v>
       </c>
       <c r="F89" s="3">
-        <v>375600</v>
+        <v>356400</v>
       </c>
       <c r="G89" s="3">
-        <v>2083800</v>
+        <v>369400</v>
       </c>
       <c r="H89" s="3">
-        <v>1477300</v>
+        <v>2049300</v>
       </c>
       <c r="I89" s="3">
-        <v>1329000</v>
+        <v>1452900</v>
       </c>
       <c r="J89" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="K89" s="3">
         <v>910300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2081900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1715200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>697900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>855300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2070100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1330700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1574200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>797000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1934400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-430600</v>
+        <v>-684700</v>
       </c>
       <c r="E91" s="3">
-        <v>-489200</v>
+        <v>-423500</v>
       </c>
       <c r="F91" s="3">
-        <v>-640000</v>
+        <v>-481100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1671100</v>
+        <v>-629400</v>
       </c>
       <c r="H91" s="3">
-        <v>-833800</v>
+        <v>-1643400</v>
       </c>
       <c r="I91" s="3">
-        <v>-820600</v>
+        <v>-820000</v>
       </c>
       <c r="J91" s="3">
+        <v>-807000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-534700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-729800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-684900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-584100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-570000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-536300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-475400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-732500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>296700</v>
+        <v>-1343400</v>
       </c>
       <c r="E94" s="3">
-        <v>679400</v>
+        <v>291700</v>
       </c>
       <c r="F94" s="3">
-        <v>655500</v>
+        <v>668200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1803900</v>
+        <v>644700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2193800</v>
+        <v>-1774000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1165100</v>
+        <v>-2157500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1145800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-108900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-811500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2310200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-612700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-996300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-878500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-648500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-633900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-531700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-239200</v>
+        <v>-21200</v>
       </c>
       <c r="E96" s="3">
-        <v>13200</v>
+        <v>-235300</v>
       </c>
       <c r="F96" s="3">
-        <v>-166300</v>
+        <v>12900</v>
       </c>
       <c r="G96" s="3">
-        <v>14400</v>
+        <v>-163500</v>
       </c>
       <c r="H96" s="3">
-        <v>-247600</v>
+        <v>14100</v>
       </c>
       <c r="I96" s="3">
-        <v>15600</v>
+        <v>-243500</v>
       </c>
       <c r="J96" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-256000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-119500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-215200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-212100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-162000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2009600</v>
+        <v>-614100</v>
       </c>
       <c r="E100" s="3">
-        <v>1537100</v>
+        <v>-1976400</v>
       </c>
       <c r="F100" s="3">
-        <v>-834900</v>
+        <v>1511700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1132800</v>
+        <v>-821100</v>
       </c>
       <c r="H100" s="3">
-        <v>-34700</v>
+        <v>-1114100</v>
       </c>
       <c r="I100" s="3">
-        <v>-379200</v>
+        <v>-34100</v>
       </c>
       <c r="J100" s="3">
+        <v>-372900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-236600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-794900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-591300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>219900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>98600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-41900</v>
-      </c>
       <c r="F101" s="3">
-        <v>25100</v>
+        <v>-41200</v>
       </c>
       <c r="G101" s="3">
-        <v>-13200</v>
+        <v>24700</v>
       </c>
       <c r="H101" s="3">
-        <v>34700</v>
+        <v>-12900</v>
       </c>
       <c r="I101" s="3">
-        <v>10800</v>
+        <v>34100</v>
       </c>
       <c r="J101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K101" s="3">
         <v>15600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-378000</v>
+        <v>-762300</v>
       </c>
       <c r="E102" s="3">
-        <v>2537100</v>
+        <v>-371700</v>
       </c>
       <c r="F102" s="3">
-        <v>221300</v>
+        <v>2495100</v>
       </c>
       <c r="G102" s="3">
-        <v>-866000</v>
+        <v>217600</v>
       </c>
       <c r="H102" s="3">
-        <v>-716500</v>
+        <v>-851700</v>
       </c>
       <c r="I102" s="3">
-        <v>-204600</v>
+        <v>-704700</v>
       </c>
       <c r="J102" s="3">
+        <v>-201200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-374400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-609200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-498000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2245100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-853100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-144700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1116400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1526000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10037000</v>
+        <v>12330700</v>
       </c>
       <c r="E8" s="3">
-        <v>9513500</v>
+        <v>10451600</v>
       </c>
       <c r="F8" s="3">
-        <v>7183100</v>
+        <v>9906500</v>
       </c>
       <c r="G8" s="3">
-        <v>12419300</v>
+        <v>7479800</v>
       </c>
       <c r="H8" s="3">
-        <v>14379100</v>
+        <v>12932200</v>
       </c>
       <c r="I8" s="3">
-        <v>14319100</v>
+        <v>14973100</v>
       </c>
       <c r="J8" s="3">
+        <v>14910600</v>
+      </c>
+      <c r="K8" s="3">
         <v>15069700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14501500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15497200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15703000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14765000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12094500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12700900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11270400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11424100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11880100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11748700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7571300</v>
+        <v>8800300</v>
       </c>
       <c r="E9" s="3">
-        <v>7073700</v>
+        <v>7884000</v>
       </c>
       <c r="F9" s="3">
-        <v>5379700</v>
+        <v>7365900</v>
       </c>
       <c r="G9" s="3">
-        <v>10579400</v>
+        <v>5601900</v>
       </c>
       <c r="H9" s="3">
-        <v>11001700</v>
+        <v>11016300</v>
       </c>
       <c r="I9" s="3">
-        <v>11158200</v>
+        <v>11456100</v>
       </c>
       <c r="J9" s="3">
+        <v>11619000</v>
+      </c>
+      <c r="K9" s="3">
         <v>11461700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11033700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12563600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11959100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10741900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8909200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9153200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7993100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8607900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8323500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7909100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2465700</v>
+        <v>3530400</v>
       </c>
       <c r="E10" s="3">
-        <v>2439900</v>
+        <v>2567600</v>
       </c>
       <c r="F10" s="3">
-        <v>1803400</v>
+        <v>2540600</v>
       </c>
       <c r="G10" s="3">
-        <v>1839900</v>
+        <v>1877900</v>
       </c>
       <c r="H10" s="3">
-        <v>3377400</v>
+        <v>1915900</v>
       </c>
       <c r="I10" s="3">
-        <v>3161000</v>
+        <v>3516900</v>
       </c>
       <c r="J10" s="3">
+        <v>3291500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3608000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3467800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2933600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3743900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4023000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3185300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3547700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3277300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2816200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3556600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3839500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1781100</v>
+        <v>-18400</v>
       </c>
       <c r="E14" s="3">
-        <v>-16500</v>
+        <v>1854600</v>
       </c>
       <c r="F14" s="3">
-        <v>701100</v>
+        <v>-17100</v>
       </c>
       <c r="G14" s="3">
-        <v>7100</v>
+        <v>730100</v>
       </c>
       <c r="H14" s="3">
-        <v>6392600</v>
+        <v>7300</v>
       </c>
       <c r="I14" s="3">
-        <v>-11800</v>
+        <v>6656600</v>
       </c>
       <c r="J14" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-162300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>971200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>538200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>91100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>226600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-210900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>50500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>56300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>628200</v>
+        <v>617400</v>
       </c>
       <c r="E15" s="3">
-        <v>620000</v>
+        <v>654100</v>
       </c>
       <c r="F15" s="3">
-        <v>665800</v>
+        <v>645600</v>
       </c>
       <c r="G15" s="3">
-        <v>682300</v>
+        <v>693300</v>
       </c>
       <c r="H15" s="3">
-        <v>812900</v>
+        <v>710500</v>
       </c>
       <c r="I15" s="3">
-        <v>702300</v>
+        <v>846500</v>
       </c>
       <c r="J15" s="3">
+        <v>731300</v>
+      </c>
+      <c r="K15" s="3">
         <v>700000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>659100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>661200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>676600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>582000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>567700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>486900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>646300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>886400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>703100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>907400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11113500</v>
+        <v>11113100</v>
       </c>
       <c r="E17" s="3">
-        <v>9380600</v>
+        <v>11572500</v>
       </c>
       <c r="F17" s="3">
-        <v>8587700</v>
+        <v>9768100</v>
       </c>
       <c r="G17" s="3">
-        <v>13008600</v>
+        <v>8942400</v>
       </c>
       <c r="H17" s="3">
-        <v>20834000</v>
+        <v>13545900</v>
       </c>
       <c r="I17" s="3">
-        <v>13618000</v>
+        <v>21694600</v>
       </c>
       <c r="J17" s="3">
+        <v>14180500</v>
+      </c>
+      <c r="K17" s="3">
         <v>14055600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13563700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15779900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14614700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14030400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11236900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11714700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10540000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10959600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10889400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11171100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1076400</v>
+        <v>1217600</v>
       </c>
       <c r="E18" s="3">
-        <v>132900</v>
+        <v>-1120900</v>
       </c>
       <c r="F18" s="3">
-        <v>-1404600</v>
+        <v>138400</v>
       </c>
       <c r="G18" s="3">
-        <v>-589400</v>
+        <v>-1462600</v>
       </c>
       <c r="H18" s="3">
-        <v>-6454900</v>
+        <v>-613700</v>
       </c>
       <c r="I18" s="3">
-        <v>701100</v>
+        <v>-6721500</v>
       </c>
       <c r="J18" s="3">
+        <v>730100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1014100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>937800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-282700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1088300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>734600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>857500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>986200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>730400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>464500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>990700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>577500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>536400</v>
+        <v>62500</v>
       </c>
       <c r="E20" s="3">
-        <v>-170600</v>
+        <v>558600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1241100</v>
+        <v>-177600</v>
       </c>
       <c r="G20" s="3">
-        <v>-74100</v>
+        <v>-1292400</v>
       </c>
       <c r="H20" s="3">
-        <v>-49400</v>
+        <v>-77200</v>
       </c>
       <c r="I20" s="3">
-        <v>37600</v>
+        <v>-51400</v>
       </c>
       <c r="J20" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>604500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>141900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>647000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>79100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>386000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>55000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-38100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>88200</v>
+        <v>1897500</v>
       </c>
       <c r="E21" s="3">
-        <v>582300</v>
+        <v>91900</v>
       </c>
       <c r="F21" s="3">
-        <v>-1982200</v>
+        <v>606400</v>
       </c>
       <c r="G21" s="3">
-        <v>21200</v>
+        <v>-2064100</v>
       </c>
       <c r="H21" s="3">
-        <v>-5691400</v>
+        <v>22000</v>
       </c>
       <c r="I21" s="3">
-        <v>1441100</v>
+        <v>-5926500</v>
       </c>
       <c r="J21" s="3">
+        <v>1500600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1710500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1665100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>983000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1906800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1963600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1504300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1859100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1431700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1312700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1717300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1479000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-540000</v>
+        <v>1280100</v>
       </c>
       <c r="E23" s="3">
-        <v>-37600</v>
+        <v>-562300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2645700</v>
+        <v>-39200</v>
       </c>
       <c r="G23" s="3">
-        <v>-663500</v>
+        <v>-2755000</v>
       </c>
       <c r="H23" s="3">
-        <v>-6504300</v>
+        <v>-690900</v>
       </c>
       <c r="I23" s="3">
-        <v>738800</v>
+        <v>-6773000</v>
       </c>
       <c r="J23" s="3">
+        <v>769300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1010500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1006000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>321700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1230200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1381600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>936600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1372200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>785400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>426400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1014200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>574000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>292900</v>
+        <v>480200</v>
       </c>
       <c r="E24" s="3">
-        <v>74100</v>
+        <v>305000</v>
       </c>
       <c r="F24" s="3">
-        <v>-292900</v>
+        <v>77200</v>
       </c>
       <c r="G24" s="3">
-        <v>-55300</v>
+        <v>-305000</v>
       </c>
       <c r="H24" s="3">
-        <v>-300000</v>
+        <v>-57600</v>
       </c>
       <c r="I24" s="3">
-        <v>338800</v>
+        <v>-312400</v>
       </c>
       <c r="J24" s="3">
+        <v>352800</v>
+      </c>
+      <c r="K24" s="3">
         <v>389400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>267900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>132500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>480300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>664800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>336000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>887500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>227800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>194900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>186600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-832900</v>
+        <v>799900</v>
       </c>
       <c r="E26" s="3">
-        <v>-111800</v>
+        <v>-867300</v>
       </c>
       <c r="F26" s="3">
-        <v>-2352800</v>
+        <v>-116400</v>
       </c>
       <c r="G26" s="3">
-        <v>-608200</v>
+        <v>-2450000</v>
       </c>
       <c r="H26" s="3">
-        <v>-6204300</v>
+        <v>-633300</v>
       </c>
       <c r="I26" s="3">
-        <v>400000</v>
+        <v>-6460600</v>
       </c>
       <c r="J26" s="3">
+        <v>416500</v>
+      </c>
+      <c r="K26" s="3">
         <v>621100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>738100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>189300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>750000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>716800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>484700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>557600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>359000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>819300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>387400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-852900</v>
+        <v>775400</v>
       </c>
       <c r="E27" s="3">
-        <v>-128200</v>
+        <v>-888100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2370400</v>
+        <v>-133500</v>
       </c>
       <c r="G27" s="3">
-        <v>-581100</v>
+        <v>-2468400</v>
       </c>
       <c r="H27" s="3">
-        <v>-6222000</v>
+        <v>-605100</v>
       </c>
       <c r="I27" s="3">
-        <v>383500</v>
+        <v>-6479000</v>
       </c>
       <c r="J27" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K27" s="3">
         <v>609400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>718900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>192800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>731000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>692000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>587400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>466700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>529600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>345600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>363900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,8 +1955,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1913,31 +1974,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>406900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>74700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>129000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>53900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>57200</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>351000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-536400</v>
+        <v>-62500</v>
       </c>
       <c r="E32" s="3">
-        <v>170600</v>
+        <v>-558600</v>
       </c>
       <c r="F32" s="3">
-        <v>1241100</v>
+        <v>177600</v>
       </c>
       <c r="G32" s="3">
-        <v>74100</v>
+        <v>1292400</v>
       </c>
       <c r="H32" s="3">
-        <v>49400</v>
+        <v>77200</v>
       </c>
       <c r="I32" s="3">
-        <v>-37600</v>
+        <v>51400</v>
       </c>
       <c r="J32" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-604500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-141900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-647000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-79100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-55000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>38100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-852900</v>
+        <v>775400</v>
       </c>
       <c r="E33" s="3">
-        <v>-128200</v>
+        <v>-888100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2370400</v>
+        <v>-133500</v>
       </c>
       <c r="G33" s="3">
-        <v>-581100</v>
+        <v>-2468400</v>
       </c>
       <c r="H33" s="3">
-        <v>-6222000</v>
+        <v>-605100</v>
       </c>
       <c r="I33" s="3">
-        <v>383500</v>
+        <v>-6479000</v>
       </c>
       <c r="J33" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K33" s="3">
         <v>609400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>718900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>192800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>731000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1098900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>662100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>595800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>583400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>402800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>714900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-852900</v>
+        <v>775400</v>
       </c>
       <c r="E35" s="3">
-        <v>-128200</v>
+        <v>-888100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2370400</v>
+        <v>-133500</v>
       </c>
       <c r="G35" s="3">
-        <v>-581100</v>
+        <v>-2468400</v>
       </c>
       <c r="H35" s="3">
-        <v>-6222000</v>
+        <v>-605100</v>
       </c>
       <c r="I35" s="3">
-        <v>383500</v>
+        <v>-6479000</v>
       </c>
       <c r="J35" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K35" s="3">
         <v>609400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>718900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>192800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>731000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1098900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>662100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>595800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>583400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>402800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>714900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5083200</v>
+        <v>5143700</v>
       </c>
       <c r="E41" s="3">
-        <v>5845500</v>
+        <v>5293200</v>
       </c>
       <c r="F41" s="3">
-        <v>2836300</v>
+        <v>6087000</v>
       </c>
       <c r="G41" s="3">
-        <v>3722100</v>
+        <v>2953500</v>
       </c>
       <c r="H41" s="3">
-        <v>2788100</v>
+        <v>3875900</v>
       </c>
       <c r="I41" s="3">
-        <v>3236300</v>
+        <v>2903200</v>
       </c>
       <c r="J41" s="3">
+        <v>3369900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3536300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4047900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4878300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4075100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4867600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3447700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4210800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4976000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4707900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3505000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3764400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1863400</v>
+        <v>1822800</v>
       </c>
       <c r="E42" s="3">
-        <v>949400</v>
+        <v>1940400</v>
       </c>
       <c r="F42" s="3">
-        <v>4978500</v>
+        <v>988600</v>
       </c>
       <c r="G42" s="3">
-        <v>3070400</v>
+        <v>5184200</v>
       </c>
       <c r="H42" s="3">
-        <v>4208000</v>
+        <v>3197200</v>
       </c>
       <c r="I42" s="3">
-        <v>4377400</v>
+        <v>4381800</v>
       </c>
       <c r="J42" s="3">
+        <v>4558200</v>
+      </c>
+      <c r="K42" s="3">
         <v>3713900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3112500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3092100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4239500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3934300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1120000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1307100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1776100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2053200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2553000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3314800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4771500</v>
+        <v>5321400</v>
       </c>
       <c r="E43" s="3">
-        <v>4638500</v>
+        <v>4968600</v>
       </c>
       <c r="F43" s="3">
-        <v>4577400</v>
+        <v>4830100</v>
       </c>
       <c r="G43" s="3">
-        <v>5243200</v>
+        <v>4766400</v>
       </c>
       <c r="H43" s="3">
-        <v>6756100</v>
+        <v>5459800</v>
       </c>
       <c r="I43" s="3">
-        <v>6680800</v>
+        <v>7035100</v>
       </c>
       <c r="J43" s="3">
+        <v>6956700</v>
+      </c>
+      <c r="K43" s="3">
         <v>7652500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7406900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>7350500</v>
       </c>
       <c r="N43" s="3">
         <v>7350500</v>
       </c>
       <c r="O43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="P43" s="3">
         <v>5817200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6565900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6948500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6438000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6217700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6832700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3975100</v>
+        <v>5276000</v>
       </c>
       <c r="E44" s="3">
-        <v>4030300</v>
+        <v>4139200</v>
       </c>
       <c r="F44" s="3">
-        <v>3818600</v>
+        <v>4196800</v>
       </c>
       <c r="G44" s="3">
-        <v>4466800</v>
+        <v>3976300</v>
       </c>
       <c r="H44" s="3">
-        <v>5407900</v>
+        <v>4651300</v>
       </c>
       <c r="I44" s="3">
-        <v>5025600</v>
+        <v>5631300</v>
       </c>
       <c r="J44" s="3">
+        <v>5233200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5619700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5191500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5192900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5726400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5582100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4773000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4260200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4026800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3611700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4407700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4231600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>287000</v>
+        <v>470400</v>
       </c>
       <c r="E45" s="3">
-        <v>480000</v>
+        <v>298900</v>
       </c>
       <c r="F45" s="3">
-        <v>868200</v>
+        <v>499800</v>
       </c>
       <c r="G45" s="3">
-        <v>232900</v>
+        <v>904000</v>
       </c>
       <c r="H45" s="3">
-        <v>235300</v>
+        <v>242500</v>
       </c>
       <c r="I45" s="3">
+        <v>245000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K45" s="3">
         <v>241200</v>
       </c>
-      <c r="J45" s="3">
-        <v>241200</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>265600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>357200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>428200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>275600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3861700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>228900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>279400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>389300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>483600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>552900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15980200</v>
+        <v>18034300</v>
       </c>
       <c r="E46" s="3">
-        <v>15943700</v>
+        <v>16640300</v>
       </c>
       <c r="F46" s="3">
-        <v>17079000</v>
+        <v>16602300</v>
       </c>
       <c r="G46" s="3">
-        <v>16735500</v>
+        <v>17784400</v>
       </c>
       <c r="H46" s="3">
-        <v>19395300</v>
+        <v>17426700</v>
       </c>
       <c r="I46" s="3">
-        <v>19561200</v>
+        <v>20196400</v>
       </c>
       <c r="J46" s="3">
+        <v>20369100</v>
+      </c>
+      <c r="K46" s="3">
         <v>20763500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20024400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20457100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21819800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22010200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19019600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16572900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18006800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17200100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17167000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18696400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8014800</v>
+        <v>8987800</v>
       </c>
       <c r="E47" s="3">
-        <v>8145400</v>
+        <v>8345900</v>
       </c>
       <c r="F47" s="3">
-        <v>8581800</v>
+        <v>8481800</v>
       </c>
       <c r="G47" s="3">
-        <v>9545300</v>
+        <v>8936300</v>
       </c>
       <c r="H47" s="3">
-        <v>9847600</v>
+        <v>9939600</v>
       </c>
       <c r="I47" s="3">
-        <v>10611100</v>
+        <v>10254400</v>
       </c>
       <c r="J47" s="3">
+        <v>11049400</v>
+      </c>
+      <c r="K47" s="3">
         <v>10022900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10278900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9853600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9543600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9340200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8446900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12687500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11871800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12058000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13548100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13358000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24618500</v>
+        <v>25995500</v>
       </c>
       <c r="E48" s="3">
-        <v>26276100</v>
+        <v>25635400</v>
       </c>
       <c r="F48" s="3">
-        <v>27099600</v>
+        <v>27361400</v>
       </c>
       <c r="G48" s="3">
-        <v>27557200</v>
+        <v>28218900</v>
       </c>
       <c r="H48" s="3">
-        <v>27305400</v>
+        <v>28695400</v>
       </c>
       <c r="I48" s="3">
-        <v>32699200</v>
+        <v>28433200</v>
       </c>
       <c r="J48" s="3">
+        <v>34049800</v>
+      </c>
+      <c r="K48" s="3">
         <v>31932200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32653900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30162800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30003100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29858800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26738500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27676100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27832100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28554600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31491000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32119000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3944500</v>
+        <v>4258100</v>
       </c>
       <c r="E49" s="3">
-        <v>4556200</v>
+        <v>4107400</v>
       </c>
       <c r="F49" s="3">
-        <v>4648000</v>
+        <v>4744400</v>
       </c>
       <c r="G49" s="3">
-        <v>5036200</v>
+        <v>4839900</v>
       </c>
       <c r="H49" s="3">
-        <v>5258500</v>
+        <v>5244200</v>
       </c>
       <c r="I49" s="3">
-        <v>6517300</v>
+        <v>5475700</v>
       </c>
       <c r="J49" s="3">
+        <v>6786400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6158500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6091100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6028100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5760700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5636500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5014600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5143200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5203800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5350800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5999300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5997000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5440900</v>
+        <v>5576200</v>
       </c>
       <c r="E52" s="3">
-        <v>5478500</v>
+        <v>5665600</v>
       </c>
       <c r="F52" s="3">
-        <v>5638500</v>
+        <v>5704800</v>
       </c>
       <c r="G52" s="3">
-        <v>6651400</v>
+        <v>5871400</v>
       </c>
       <c r="H52" s="3">
-        <v>6300800</v>
+        <v>6926100</v>
       </c>
       <c r="I52" s="3">
-        <v>5552600</v>
+        <v>6561000</v>
       </c>
       <c r="J52" s="3">
+        <v>5782000</v>
+      </c>
+      <c r="K52" s="3">
         <v>5210300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5516900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5392800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4788400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5014300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4673100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5079200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5225100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5249800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5865500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5950000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57998900</v>
+        <v>62851800</v>
       </c>
       <c r="E54" s="3">
-        <v>60399900</v>
+        <v>60394500</v>
       </c>
       <c r="F54" s="3">
-        <v>63046800</v>
+        <v>62894700</v>
       </c>
       <c r="G54" s="3">
-        <v>65525500</v>
+        <v>65650900</v>
       </c>
       <c r="H54" s="3">
-        <v>68107700</v>
+        <v>68231900</v>
       </c>
       <c r="I54" s="3">
-        <v>74941400</v>
+        <v>70920800</v>
       </c>
       <c r="J54" s="3">
+        <v>78036800</v>
+      </c>
+      <c r="K54" s="3">
         <v>74087300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74565100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71894300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71915600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71860000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63892600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67159000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68139600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68413300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74070900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76120400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6939600</v>
+        <v>9100500</v>
       </c>
       <c r="E57" s="3">
-        <v>6784300</v>
+        <v>7226200</v>
       </c>
       <c r="F57" s="3">
-        <v>5870200</v>
+        <v>7064500</v>
       </c>
       <c r="G57" s="3">
-        <v>6705500</v>
+        <v>6112700</v>
       </c>
       <c r="H57" s="3">
-        <v>8399500</v>
+        <v>6982400</v>
       </c>
       <c r="I57" s="3">
-        <v>7656000</v>
+        <v>8746400</v>
       </c>
       <c r="J57" s="3">
+        <v>7972200</v>
+      </c>
+      <c r="K57" s="3">
         <v>9317100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8511000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3837300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3728500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3610200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2720800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3072000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2957600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2294500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2183300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2497900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4263300</v>
+        <v>4936700</v>
       </c>
       <c r="E58" s="3">
-        <v>4843200</v>
+        <v>4439400</v>
       </c>
       <c r="F58" s="3">
-        <v>6186700</v>
+        <v>5043300</v>
       </c>
       <c r="G58" s="3">
-        <v>7983100</v>
+        <v>6442200</v>
       </c>
       <c r="H58" s="3">
-        <v>7579500</v>
+        <v>8312800</v>
       </c>
       <c r="I58" s="3">
-        <v>7200700</v>
+        <v>7892600</v>
       </c>
       <c r="J58" s="3">
+        <v>7498200</v>
+      </c>
+      <c r="K58" s="3">
         <v>6924300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5545600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4443000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3917800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4818000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5413100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4645000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4755000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4507000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4885400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4577900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1171700</v>
+        <v>1171100</v>
       </c>
       <c r="E59" s="3">
-        <v>904700</v>
+        <v>1220100</v>
       </c>
       <c r="F59" s="3">
-        <v>1436400</v>
+        <v>942000</v>
       </c>
       <c r="G59" s="3">
-        <v>1083500</v>
+        <v>1495700</v>
       </c>
       <c r="H59" s="3">
-        <v>1767000</v>
+        <v>1128200</v>
       </c>
       <c r="I59" s="3">
-        <v>1151700</v>
+        <v>1839900</v>
       </c>
       <c r="J59" s="3">
+        <v>1199300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1298700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1009600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6872600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6455100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6282400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5432900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5786100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8402600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8407100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9159200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10222700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12374600</v>
+        <v>15208300</v>
       </c>
       <c r="E60" s="3">
-        <v>12532200</v>
+        <v>12885700</v>
       </c>
       <c r="F60" s="3">
-        <v>13493300</v>
+        <v>13049800</v>
       </c>
       <c r="G60" s="3">
-        <v>15772000</v>
+        <v>14050600</v>
       </c>
       <c r="H60" s="3">
-        <v>17746000</v>
+        <v>16423400</v>
       </c>
       <c r="I60" s="3">
-        <v>16008500</v>
+        <v>18479000</v>
       </c>
       <c r="J60" s="3">
+        <v>16669700</v>
+      </c>
+      <c r="K60" s="3">
         <v>17540100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15066100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15152900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14101400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14710500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13566900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13503100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16115100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15208600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16227900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17298400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14040300</v>
+        <v>14439000</v>
       </c>
       <c r="E61" s="3">
-        <v>14601500</v>
+        <v>14620300</v>
       </c>
       <c r="F61" s="3">
-        <v>14772100</v>
+        <v>15204600</v>
       </c>
       <c r="G61" s="3">
-        <v>13067500</v>
+        <v>15382200</v>
       </c>
       <c r="H61" s="3">
-        <v>12656900</v>
+        <v>13607200</v>
       </c>
       <c r="I61" s="3">
-        <v>13634500</v>
+        <v>13179700</v>
       </c>
       <c r="J61" s="3">
+        <v>14197600</v>
+      </c>
+      <c r="K61" s="3">
         <v>12439300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14081700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9411200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9276300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9184000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8428200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9798300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10427800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11184000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11583200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12848500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7421900</v>
+        <v>7722300</v>
       </c>
       <c r="E62" s="3">
-        <v>7331300</v>
+        <v>7728500</v>
       </c>
       <c r="F62" s="3">
-        <v>7794800</v>
+        <v>7634100</v>
       </c>
       <c r="G62" s="3">
-        <v>7807800</v>
+        <v>8116800</v>
       </c>
       <c r="H62" s="3">
-        <v>8048900</v>
+        <v>8130300</v>
       </c>
       <c r="I62" s="3">
-        <v>8124200</v>
+        <v>8381400</v>
       </c>
       <c r="J62" s="3">
+        <v>8459800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7725400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8122200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10762000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11249400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11108600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9743700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10127100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7874100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8155700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9372900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9455000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34123800</v>
+        <v>37677000</v>
       </c>
       <c r="E66" s="3">
-        <v>34753200</v>
+        <v>35533300</v>
       </c>
       <c r="F66" s="3">
-        <v>36351900</v>
+        <v>36188700</v>
       </c>
       <c r="G66" s="3">
-        <v>36943700</v>
+        <v>37853400</v>
       </c>
       <c r="H66" s="3">
-        <v>38782400</v>
+        <v>38469600</v>
       </c>
       <c r="I66" s="3">
-        <v>38097700</v>
+        <v>40384200</v>
       </c>
       <c r="J66" s="3">
+        <v>39671300</v>
+      </c>
+      <c r="K66" s="3">
         <v>38024800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37593000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35664400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34981900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35346200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32038500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33731500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34715500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34829900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37479800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39888400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16193100</v>
+        <v>793800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3032800</v>
+        <v>16862000</v>
       </c>
       <c r="F72" s="3">
-        <v>18660100</v>
+        <v>-3158000</v>
       </c>
       <c r="G72" s="3">
-        <v>-572900</v>
+        <v>19430800</v>
       </c>
       <c r="H72" s="3">
-        <v>19571800</v>
+        <v>-596600</v>
       </c>
       <c r="I72" s="3">
-        <v>26939600</v>
+        <v>20380200</v>
       </c>
       <c r="J72" s="3">
+        <v>28052300</v>
+      </c>
+      <c r="K72" s="3">
         <v>26559600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26621400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25795500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27093100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26343200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23588300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23824300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23432800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22843700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23736800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22936200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23875000</v>
+        <v>25174800</v>
       </c>
       <c r="E76" s="3">
-        <v>25646700</v>
+        <v>24861200</v>
       </c>
       <c r="F76" s="3">
-        <v>26694900</v>
+        <v>26706000</v>
       </c>
       <c r="G76" s="3">
-        <v>28581800</v>
+        <v>27797500</v>
       </c>
       <c r="H76" s="3">
-        <v>29325300</v>
+        <v>29762400</v>
       </c>
       <c r="I76" s="3">
-        <v>36843700</v>
+        <v>30536600</v>
       </c>
       <c r="J76" s="3">
+        <v>38365500</v>
+      </c>
+      <c r="K76" s="3">
         <v>36062500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36972100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36229900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36933700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36513800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31854100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33427400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33424100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33583400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36591200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36232000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-852900</v>
+        <v>775400</v>
       </c>
       <c r="E81" s="3">
-        <v>-128200</v>
+        <v>-888100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2370400</v>
+        <v>-133500</v>
       </c>
       <c r="G81" s="3">
-        <v>-581100</v>
+        <v>-2468400</v>
       </c>
       <c r="H81" s="3">
-        <v>-6222000</v>
+        <v>-605100</v>
       </c>
       <c r="I81" s="3">
-        <v>383500</v>
+        <v>-6479000</v>
       </c>
       <c r="J81" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K81" s="3">
         <v>609400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>718900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>192800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>731000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1098900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>662100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>595800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>583400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>402800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>714900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>628200</v>
+        <v>617400</v>
       </c>
       <c r="E83" s="3">
-        <v>620000</v>
+        <v>654100</v>
       </c>
       <c r="F83" s="3">
-        <v>663500</v>
+        <v>645600</v>
       </c>
       <c r="G83" s="3">
-        <v>684700</v>
+        <v>690900</v>
       </c>
       <c r="H83" s="3">
-        <v>812900</v>
+        <v>712900</v>
       </c>
       <c r="I83" s="3">
-        <v>702300</v>
+        <v>846500</v>
       </c>
       <c r="J83" s="3">
+        <v>731300</v>
+      </c>
+      <c r="K83" s="3">
         <v>700000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>659100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>661200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>676600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>582000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>567700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>486900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>646300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>886400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>703100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>905000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1181100</v>
+        <v>998400</v>
       </c>
       <c r="E89" s="3">
-        <v>1314000</v>
+        <v>1229900</v>
       </c>
       <c r="F89" s="3">
-        <v>356400</v>
+        <v>1368300</v>
       </c>
       <c r="G89" s="3">
-        <v>369400</v>
+        <v>371200</v>
       </c>
       <c r="H89" s="3">
-        <v>2049300</v>
+        <v>384600</v>
       </c>
       <c r="I89" s="3">
-        <v>1452900</v>
+        <v>2133900</v>
       </c>
       <c r="J89" s="3">
+        <v>1512900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1307000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>910300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2081900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1715200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>697900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>855300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2070100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1330700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1574200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>797000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1934400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-684700</v>
+        <v>-388300</v>
       </c>
       <c r="E91" s="3">
-        <v>-423500</v>
+        <v>-712900</v>
       </c>
       <c r="F91" s="3">
-        <v>-481100</v>
+        <v>-441000</v>
       </c>
       <c r="G91" s="3">
-        <v>-629400</v>
+        <v>-501000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1643400</v>
+        <v>-655400</v>
       </c>
       <c r="I91" s="3">
-        <v>-820000</v>
+        <v>-1711300</v>
       </c>
       <c r="J91" s="3">
+        <v>-853800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-807000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-534700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-729800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-684900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-584100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-570000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-536300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-475400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-732500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1343400</v>
+        <v>-269500</v>
       </c>
       <c r="E94" s="3">
-        <v>291700</v>
+        <v>-1398900</v>
       </c>
       <c r="F94" s="3">
-        <v>668200</v>
+        <v>303800</v>
       </c>
       <c r="G94" s="3">
-        <v>644700</v>
+        <v>695800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1774000</v>
+        <v>671300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2157500</v>
+        <v>-1847300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2246600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-811500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2310200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-612700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-996300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-878500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-648500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-633900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-531700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21200</v>
+        <v>-144500</v>
       </c>
       <c r="E96" s="3">
-        <v>-235300</v>
+        <v>-22000</v>
       </c>
       <c r="F96" s="3">
-        <v>12900</v>
+        <v>-245000</v>
       </c>
       <c r="G96" s="3">
-        <v>-163500</v>
+        <v>13500</v>
       </c>
       <c r="H96" s="3">
-        <v>14100</v>
+        <v>-170300</v>
       </c>
       <c r="I96" s="3">
-        <v>-243500</v>
+        <v>14700</v>
       </c>
       <c r="J96" s="3">
+        <v>-253600</v>
+      </c>
+      <c r="K96" s="3">
         <v>15300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-256000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-119500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-215200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-212100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-162000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-614100</v>
+        <v>-910200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1976400</v>
+        <v>-639400</v>
       </c>
       <c r="F100" s="3">
-        <v>1511700</v>
+        <v>-2058000</v>
       </c>
       <c r="G100" s="3">
-        <v>-821100</v>
+        <v>1574100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1114100</v>
+        <v>-855000</v>
       </c>
       <c r="I100" s="3">
-        <v>-34100</v>
+        <v>-1160100</v>
       </c>
       <c r="J100" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-372900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-236600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-794900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-591300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>219900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>98600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14100</v>
+        <v>31800</v>
       </c>
       <c r="E101" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-41200</v>
-      </c>
       <c r="G101" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U101" s="3">
         <v>24700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>34100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>15600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>31900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>24700</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-762300</v>
+        <v>-149400</v>
       </c>
       <c r="E102" s="3">
-        <v>-371700</v>
+        <v>-793800</v>
       </c>
       <c r="F102" s="3">
-        <v>2495100</v>
+        <v>-387100</v>
       </c>
       <c r="G102" s="3">
-        <v>217600</v>
+        <v>2598200</v>
       </c>
       <c r="H102" s="3">
-        <v>-851700</v>
+        <v>226600</v>
       </c>
       <c r="I102" s="3">
-        <v>-704700</v>
+        <v>-886900</v>
       </c>
       <c r="J102" s="3">
+        <v>-733800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-201200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-374400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-609200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-498000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2245100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-853100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-144700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1116400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1526000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12330700</v>
+        <v>12636000</v>
       </c>
       <c r="E8" s="3">
-        <v>10451600</v>
+        <v>11751100</v>
       </c>
       <c r="F8" s="3">
-        <v>9906500</v>
+        <v>9960300</v>
       </c>
       <c r="G8" s="3">
-        <v>7479800</v>
+        <v>9440800</v>
       </c>
       <c r="H8" s="3">
-        <v>12932200</v>
+        <v>7128200</v>
       </c>
       <c r="I8" s="3">
-        <v>14973100</v>
+        <v>12324300</v>
       </c>
       <c r="J8" s="3">
+        <v>14269300</v>
+      </c>
+      <c r="K8" s="3">
         <v>14910600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15069700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14501500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15497200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15703000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14765000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12094500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12700900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11270400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11424100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11880100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11748700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8800300</v>
+        <v>9304300</v>
       </c>
       <c r="E9" s="3">
-        <v>7884000</v>
+        <v>8386700</v>
       </c>
       <c r="F9" s="3">
-        <v>7365900</v>
+        <v>7513500</v>
       </c>
       <c r="G9" s="3">
-        <v>5601900</v>
+        <v>7019600</v>
       </c>
       <c r="H9" s="3">
-        <v>11016300</v>
+        <v>5338600</v>
       </c>
       <c r="I9" s="3">
-        <v>11456100</v>
+        <v>10498500</v>
       </c>
       <c r="J9" s="3">
+        <v>10917600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11619000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11461700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11033700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12563600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11959100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10741900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8909200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9153200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7993100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8607900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8323500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7909100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3530400</v>
+        <v>3331800</v>
       </c>
       <c r="E10" s="3">
-        <v>2567600</v>
+        <v>3364500</v>
       </c>
       <c r="F10" s="3">
-        <v>2540600</v>
+        <v>2446900</v>
       </c>
       <c r="G10" s="3">
-        <v>1877900</v>
+        <v>2421200</v>
       </c>
       <c r="H10" s="3">
-        <v>1915900</v>
+        <v>1789600</v>
       </c>
       <c r="I10" s="3">
-        <v>3516900</v>
+        <v>1825800</v>
       </c>
       <c r="J10" s="3">
+        <v>3351600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3291500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3608000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3467800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2933600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3743900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4023000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3185300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3547700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3277300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2816200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3556600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3839500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18400</v>
+        <v>49000</v>
       </c>
       <c r="E14" s="3">
-        <v>1854600</v>
+        <v>-17500</v>
       </c>
       <c r="F14" s="3">
-        <v>-17100</v>
+        <v>1767500</v>
       </c>
       <c r="G14" s="3">
-        <v>730100</v>
+        <v>-16300</v>
       </c>
       <c r="H14" s="3">
-        <v>7300</v>
+        <v>695800</v>
       </c>
       <c r="I14" s="3">
-        <v>6656600</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3">
+        <v>6343700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-162300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>971200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>538200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>91100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>226600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-210900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>50500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>56300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>617400</v>
+        <v>558000</v>
       </c>
       <c r="E15" s="3">
-        <v>654100</v>
+        <v>588400</v>
       </c>
       <c r="F15" s="3">
-        <v>645600</v>
+        <v>623400</v>
       </c>
       <c r="G15" s="3">
-        <v>693300</v>
+        <v>615200</v>
       </c>
       <c r="H15" s="3">
-        <v>710500</v>
+        <v>660800</v>
       </c>
       <c r="I15" s="3">
-        <v>846500</v>
+        <v>677100</v>
       </c>
       <c r="J15" s="3">
+        <v>806700</v>
+      </c>
+      <c r="K15" s="3">
         <v>731300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>659100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>661200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>676600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>582000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>567700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>486900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>646300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>886400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>703100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>907400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11113100</v>
+        <v>11790800</v>
       </c>
       <c r="E17" s="3">
-        <v>11572500</v>
+        <v>10590700</v>
       </c>
       <c r="F17" s="3">
-        <v>9768100</v>
+        <v>11028500</v>
       </c>
       <c r="G17" s="3">
-        <v>8942400</v>
+        <v>9308900</v>
       </c>
       <c r="H17" s="3">
-        <v>13545900</v>
+        <v>8522100</v>
       </c>
       <c r="I17" s="3">
-        <v>21694600</v>
+        <v>12909200</v>
       </c>
       <c r="J17" s="3">
+        <v>20674800</v>
+      </c>
+      <c r="K17" s="3">
         <v>14180500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14055600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13563700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15779900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14614700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14030400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11236900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11714700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10540000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10959600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10889400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11171100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1217600</v>
+        <v>845200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1120900</v>
+        <v>1160400</v>
       </c>
       <c r="F18" s="3">
-        <v>138400</v>
+        <v>-1068200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1462600</v>
+        <v>131900</v>
       </c>
       <c r="H18" s="3">
-        <v>-613700</v>
+        <v>-1393900</v>
       </c>
       <c r="I18" s="3">
-        <v>-6721500</v>
+        <v>-584900</v>
       </c>
       <c r="J18" s="3">
+        <v>-6405600</v>
+      </c>
+      <c r="K18" s="3">
         <v>730100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1014100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>937800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-282700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1088300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>734600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>857500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>986200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>730400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>464500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>990700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>577500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>62500</v>
+        <v>282500</v>
       </c>
       <c r="E20" s="3">
-        <v>558600</v>
+        <v>59500</v>
       </c>
       <c r="F20" s="3">
-        <v>-177600</v>
+        <v>532300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1292400</v>
+        <v>-169300</v>
       </c>
       <c r="H20" s="3">
-        <v>-77200</v>
+        <v>-1231600</v>
       </c>
       <c r="I20" s="3">
-        <v>-51400</v>
+        <v>-73500</v>
       </c>
       <c r="J20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="K20" s="3">
         <v>39200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>604500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>141900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>647000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>79100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>386000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>55000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-38100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>23500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1897500</v>
+        <v>1685700</v>
       </c>
       <c r="E21" s="3">
-        <v>91900</v>
+        <v>1808300</v>
       </c>
       <c r="F21" s="3">
-        <v>606400</v>
+        <v>87600</v>
       </c>
       <c r="G21" s="3">
-        <v>-2064100</v>
+        <v>577900</v>
       </c>
       <c r="H21" s="3">
-        <v>22000</v>
+        <v>-1967100</v>
       </c>
       <c r="I21" s="3">
-        <v>-5926500</v>
+        <v>21000</v>
       </c>
       <c r="J21" s="3">
+        <v>-5647900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1500600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1710500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1665100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>983000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1906800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1963600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1504300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1859100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1431700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1312700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1717300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1479000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1280100</v>
+        <v>1127700</v>
       </c>
       <c r="E23" s="3">
-        <v>-562300</v>
+        <v>1219900</v>
       </c>
       <c r="F23" s="3">
-        <v>-39200</v>
+        <v>-535800</v>
       </c>
       <c r="G23" s="3">
-        <v>-2755000</v>
+        <v>-37400</v>
       </c>
       <c r="H23" s="3">
-        <v>-690900</v>
+        <v>-2625500</v>
       </c>
       <c r="I23" s="3">
-        <v>-6773000</v>
+        <v>-658400</v>
       </c>
       <c r="J23" s="3">
+        <v>-6454600</v>
+      </c>
+      <c r="K23" s="3">
         <v>769300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1010500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1006000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>321700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1230200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1381600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>936600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1372200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>785400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>426400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1014200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>574000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>480200</v>
+        <v>437800</v>
       </c>
       <c r="E24" s="3">
-        <v>305000</v>
+        <v>457600</v>
       </c>
       <c r="F24" s="3">
-        <v>77200</v>
+        <v>290700</v>
       </c>
       <c r="G24" s="3">
-        <v>-305000</v>
+        <v>73500</v>
       </c>
       <c r="H24" s="3">
-        <v>-57600</v>
+        <v>-290700</v>
       </c>
       <c r="I24" s="3">
-        <v>-312400</v>
+        <v>-54900</v>
       </c>
       <c r="J24" s="3">
+        <v>-297700</v>
+      </c>
+      <c r="K24" s="3">
         <v>352800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>389400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>267900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>132500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>480300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>664800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>336000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>887500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>227800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>194900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>186600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>799900</v>
+        <v>689900</v>
       </c>
       <c r="E26" s="3">
-        <v>-867300</v>
+        <v>762300</v>
       </c>
       <c r="F26" s="3">
-        <v>-116400</v>
+        <v>-826500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2450000</v>
+        <v>-110900</v>
       </c>
       <c r="H26" s="3">
-        <v>-633300</v>
+        <v>-2334800</v>
       </c>
       <c r="I26" s="3">
-        <v>-6460600</v>
+        <v>-603600</v>
       </c>
       <c r="J26" s="3">
+        <v>-6156900</v>
+      </c>
+      <c r="K26" s="3">
         <v>416500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>621100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>738100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>189300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>750000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>716800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>484700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>557600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>359000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>819300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>387400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>775400</v>
+        <v>663100</v>
       </c>
       <c r="E27" s="3">
-        <v>-888100</v>
+        <v>739000</v>
       </c>
       <c r="F27" s="3">
-        <v>-133500</v>
+        <v>-846400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2468400</v>
+        <v>-127200</v>
       </c>
       <c r="H27" s="3">
-        <v>-605100</v>
+        <v>-2352300</v>
       </c>
       <c r="I27" s="3">
-        <v>-6479000</v>
+        <v>-576700</v>
       </c>
       <c r="J27" s="3">
+        <v>-6174400</v>
+      </c>
+      <c r="K27" s="3">
         <v>399300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>609400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>718900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>192800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>731000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>692000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>587400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>466700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>529600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>345600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>363900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,8 +2019,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1977,31 +2038,34 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>406900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>74700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>129000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>53900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>57200</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>351000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62500</v>
+        <v>-282500</v>
       </c>
       <c r="E32" s="3">
-        <v>-558600</v>
+        <v>-59500</v>
       </c>
       <c r="F32" s="3">
-        <v>177600</v>
+        <v>-532300</v>
       </c>
       <c r="G32" s="3">
-        <v>1292400</v>
+        <v>169300</v>
       </c>
       <c r="H32" s="3">
-        <v>77200</v>
+        <v>1231600</v>
       </c>
       <c r="I32" s="3">
-        <v>51400</v>
+        <v>73500</v>
       </c>
       <c r="J32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-39200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-604500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-141900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-647000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-79100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-386000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-55000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>38100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-23500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>775400</v>
+        <v>663100</v>
       </c>
       <c r="E33" s="3">
-        <v>-888100</v>
+        <v>739000</v>
       </c>
       <c r="F33" s="3">
-        <v>-133500</v>
+        <v>-846400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2468400</v>
+        <v>-127200</v>
       </c>
       <c r="H33" s="3">
-        <v>-605100</v>
+        <v>-2352300</v>
       </c>
       <c r="I33" s="3">
-        <v>-6479000</v>
+        <v>-576700</v>
       </c>
       <c r="J33" s="3">
+        <v>-6174400</v>
+      </c>
+      <c r="K33" s="3">
         <v>399300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>609400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>718900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>192800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>731000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1098900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>662100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>595800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>583400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>402800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>714900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>775400</v>
+        <v>663100</v>
       </c>
       <c r="E35" s="3">
-        <v>-888100</v>
+        <v>739000</v>
       </c>
       <c r="F35" s="3">
-        <v>-133500</v>
+        <v>-846400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2468400</v>
+        <v>-127200</v>
       </c>
       <c r="H35" s="3">
-        <v>-605100</v>
+        <v>-2352300</v>
       </c>
       <c r="I35" s="3">
-        <v>-6479000</v>
+        <v>-576700</v>
       </c>
       <c r="J35" s="3">
+        <v>-6174400</v>
+      </c>
+      <c r="K35" s="3">
         <v>399300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>609400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>718900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>192800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>731000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1098900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>662100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>595800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>583400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>402800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>714900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5143700</v>
+        <v>2429400</v>
       </c>
       <c r="E41" s="3">
-        <v>5293200</v>
+        <v>4902000</v>
       </c>
       <c r="F41" s="3">
-        <v>6087000</v>
+        <v>5044400</v>
       </c>
       <c r="G41" s="3">
-        <v>2953500</v>
+        <v>5800900</v>
       </c>
       <c r="H41" s="3">
-        <v>3875900</v>
+        <v>2814600</v>
       </c>
       <c r="I41" s="3">
-        <v>2903200</v>
+        <v>3693700</v>
       </c>
       <c r="J41" s="3">
+        <v>2766800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3369900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3536300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4047900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4878300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4075100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4867600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3447700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4210800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4976000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4707900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3505000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3764400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1822800</v>
+        <v>5288400</v>
       </c>
       <c r="E42" s="3">
-        <v>1940400</v>
+        <v>1737100</v>
       </c>
       <c r="F42" s="3">
-        <v>988600</v>
+        <v>1849200</v>
       </c>
       <c r="G42" s="3">
-        <v>5184200</v>
+        <v>942100</v>
       </c>
       <c r="H42" s="3">
-        <v>3197200</v>
+        <v>4940500</v>
       </c>
       <c r="I42" s="3">
-        <v>4381800</v>
+        <v>3046900</v>
       </c>
       <c r="J42" s="3">
+        <v>4175800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4558200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3713900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3112500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3092100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4239500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3934300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1120000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1307100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1776100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2053200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2553000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3314800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5321400</v>
+        <v>6106700</v>
       </c>
       <c r="E43" s="3">
-        <v>4968600</v>
+        <v>5071200</v>
       </c>
       <c r="F43" s="3">
-        <v>4830100</v>
+        <v>4735000</v>
       </c>
       <c r="G43" s="3">
-        <v>4766400</v>
+        <v>4603100</v>
       </c>
       <c r="H43" s="3">
-        <v>5459800</v>
+        <v>4542400</v>
       </c>
       <c r="I43" s="3">
-        <v>7035100</v>
+        <v>5203100</v>
       </c>
       <c r="J43" s="3">
+        <v>6704400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6956700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7652500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7406900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>7350500</v>
       </c>
       <c r="O43" s="3">
         <v>7350500</v>
       </c>
       <c r="P43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5817200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6565900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6948500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6438000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6217700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6832700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5276000</v>
+        <v>5388800</v>
       </c>
       <c r="E44" s="3">
-        <v>4139200</v>
+        <v>5028000</v>
       </c>
       <c r="F44" s="3">
-        <v>4196800</v>
+        <v>3944700</v>
       </c>
       <c r="G44" s="3">
-        <v>3976300</v>
+        <v>3999500</v>
       </c>
       <c r="H44" s="3">
-        <v>4651300</v>
+        <v>3789400</v>
       </c>
       <c r="I44" s="3">
-        <v>5631300</v>
+        <v>4432700</v>
       </c>
       <c r="J44" s="3">
+        <v>5366600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5233200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5619700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5191500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5192900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5726400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5582100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4773000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4260200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4026800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3611700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4407700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4231600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>470400</v>
+        <v>1305200</v>
       </c>
       <c r="E45" s="3">
-        <v>298900</v>
+        <v>448300</v>
       </c>
       <c r="F45" s="3">
-        <v>499800</v>
+        <v>284800</v>
       </c>
       <c r="G45" s="3">
-        <v>904000</v>
+        <v>476300</v>
       </c>
       <c r="H45" s="3">
-        <v>242500</v>
+        <v>861500</v>
       </c>
       <c r="I45" s="3">
-        <v>245000</v>
+        <v>231100</v>
       </c>
       <c r="J45" s="3">
+        <v>233500</v>
+      </c>
+      <c r="K45" s="3">
         <v>251100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>241200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>265600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>357200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>428200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>275600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3861700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>228900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>279400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>389300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>483600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>552900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18034300</v>
+        <v>20518400</v>
       </c>
       <c r="E46" s="3">
-        <v>16640300</v>
+        <v>17186600</v>
       </c>
       <c r="F46" s="3">
-        <v>16602300</v>
+        <v>15858100</v>
       </c>
       <c r="G46" s="3">
-        <v>17784400</v>
+        <v>15821900</v>
       </c>
       <c r="H46" s="3">
-        <v>17426700</v>
+        <v>16948500</v>
       </c>
       <c r="I46" s="3">
-        <v>20196400</v>
+        <v>16607600</v>
       </c>
       <c r="J46" s="3">
+        <v>19247100</v>
+      </c>
+      <c r="K46" s="3">
         <v>20369100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20763500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20024400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20457100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21819800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22010200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19019600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16572900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18006800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17200100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17167000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18696400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8987800</v>
+        <v>5234700</v>
       </c>
       <c r="E47" s="3">
-        <v>8345900</v>
+        <v>8565300</v>
       </c>
       <c r="F47" s="3">
-        <v>8481800</v>
+        <v>7953600</v>
       </c>
       <c r="G47" s="3">
-        <v>8936300</v>
+        <v>8083100</v>
       </c>
       <c r="H47" s="3">
-        <v>9939600</v>
+        <v>8516300</v>
       </c>
       <c r="I47" s="3">
-        <v>10254400</v>
+        <v>9472400</v>
       </c>
       <c r="J47" s="3">
+        <v>9772400</v>
+      </c>
+      <c r="K47" s="3">
         <v>11049400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10022900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10278900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9853600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9543600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9340200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8446900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12687500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11871800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12058000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13548100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13358000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25995500</v>
+        <v>24146700</v>
       </c>
       <c r="E48" s="3">
-        <v>25635400</v>
+        <v>24773600</v>
       </c>
       <c r="F48" s="3">
-        <v>27361400</v>
+        <v>24430400</v>
       </c>
       <c r="G48" s="3">
-        <v>28218900</v>
+        <v>26075300</v>
       </c>
       <c r="H48" s="3">
-        <v>28695400</v>
+        <v>26892500</v>
       </c>
       <c r="I48" s="3">
-        <v>28433200</v>
+        <v>27346600</v>
       </c>
       <c r="J48" s="3">
+        <v>27096800</v>
+      </c>
+      <c r="K48" s="3">
         <v>34049800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31932200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32653900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30162800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30003100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29858800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26738500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27676100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27832100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28554600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31491000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32119000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4258100</v>
+        <v>3867600</v>
       </c>
       <c r="E49" s="3">
-        <v>4107400</v>
+        <v>4057900</v>
       </c>
       <c r="F49" s="3">
-        <v>4744400</v>
+        <v>3914300</v>
       </c>
       <c r="G49" s="3">
-        <v>4839900</v>
+        <v>4521400</v>
       </c>
       <c r="H49" s="3">
-        <v>5244200</v>
+        <v>4612400</v>
       </c>
       <c r="I49" s="3">
-        <v>5475700</v>
+        <v>4997700</v>
       </c>
       <c r="J49" s="3">
+        <v>5218300</v>
+      </c>
+      <c r="K49" s="3">
         <v>6786400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6158500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6091100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6028100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5760700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5636500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5014600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5143200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5203800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5350800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5999300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5997000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5576200</v>
+        <v>5195000</v>
       </c>
       <c r="E52" s="3">
-        <v>5665600</v>
+        <v>5314100</v>
       </c>
       <c r="F52" s="3">
-        <v>5704800</v>
+        <v>5399300</v>
       </c>
       <c r="G52" s="3">
-        <v>5871400</v>
+        <v>5436600</v>
       </c>
       <c r="H52" s="3">
-        <v>6926100</v>
+        <v>5595400</v>
       </c>
       <c r="I52" s="3">
-        <v>6561000</v>
+        <v>6600500</v>
       </c>
       <c r="J52" s="3">
+        <v>6252600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5782000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5210300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5516900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5392800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4788400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5014300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4673100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5079200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5225100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5249800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5865500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5950000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62851800</v>
+        <v>58962400</v>
       </c>
       <c r="E54" s="3">
-        <v>60394500</v>
+        <v>59897500</v>
       </c>
       <c r="F54" s="3">
-        <v>62894700</v>
+        <v>57555600</v>
       </c>
       <c r="G54" s="3">
-        <v>65650900</v>
+        <v>59938300</v>
       </c>
       <c r="H54" s="3">
-        <v>68231900</v>
+        <v>62565000</v>
       </c>
       <c r="I54" s="3">
-        <v>70920800</v>
+        <v>65024700</v>
       </c>
       <c r="J54" s="3">
+        <v>67587200</v>
+      </c>
+      <c r="K54" s="3">
         <v>78036800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74087300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74565100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71894300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71915600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71860000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63892600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67159000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68139600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68413300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74070900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76120400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9100500</v>
+        <v>9639300</v>
       </c>
       <c r="E57" s="3">
-        <v>7226200</v>
+        <v>8672700</v>
       </c>
       <c r="F57" s="3">
-        <v>7064500</v>
+        <v>6886600</v>
       </c>
       <c r="G57" s="3">
-        <v>6112700</v>
+        <v>6732500</v>
       </c>
       <c r="H57" s="3">
-        <v>6982400</v>
+        <v>5825400</v>
       </c>
       <c r="I57" s="3">
-        <v>8746400</v>
+        <v>6654200</v>
       </c>
       <c r="J57" s="3">
+        <v>8335300</v>
+      </c>
+      <c r="K57" s="3">
         <v>7972200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9317100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8511000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3837300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3728500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3610200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2720800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3072000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2957600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2294500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2183300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2497900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4936700</v>
+        <v>6006300</v>
       </c>
       <c r="E58" s="3">
-        <v>4439400</v>
+        <v>4704700</v>
       </c>
       <c r="F58" s="3">
-        <v>5043300</v>
+        <v>4230700</v>
       </c>
       <c r="G58" s="3">
-        <v>6442200</v>
+        <v>4806200</v>
       </c>
       <c r="H58" s="3">
-        <v>8312800</v>
+        <v>6139400</v>
       </c>
       <c r="I58" s="3">
-        <v>7892600</v>
+        <v>7922000</v>
       </c>
       <c r="J58" s="3">
+        <v>7521600</v>
+      </c>
+      <c r="K58" s="3">
         <v>7498200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6924300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5545600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4443000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3917800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4818000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5413100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4645000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4755000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4507000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4885400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4577900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1171100</v>
+        <v>1511800</v>
       </c>
       <c r="E59" s="3">
-        <v>1220100</v>
+        <v>1116000</v>
       </c>
       <c r="F59" s="3">
-        <v>942000</v>
+        <v>1162700</v>
       </c>
       <c r="G59" s="3">
-        <v>1495700</v>
+        <v>897700</v>
       </c>
       <c r="H59" s="3">
-        <v>1128200</v>
+        <v>1425400</v>
       </c>
       <c r="I59" s="3">
-        <v>1839900</v>
+        <v>1075200</v>
       </c>
       <c r="J59" s="3">
+        <v>1753400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1199300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1298700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1009600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6872600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6455100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6282400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5432900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5786100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8402600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8407100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9159200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10222700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15208300</v>
+        <v>17157400</v>
       </c>
       <c r="E60" s="3">
-        <v>12885700</v>
+        <v>14493400</v>
       </c>
       <c r="F60" s="3">
-        <v>13049800</v>
+        <v>12280000</v>
       </c>
       <c r="G60" s="3">
-        <v>14050600</v>
+        <v>12436400</v>
       </c>
       <c r="H60" s="3">
-        <v>16423400</v>
+        <v>13390200</v>
       </c>
       <c r="I60" s="3">
-        <v>18479000</v>
+        <v>15651500</v>
       </c>
       <c r="J60" s="3">
+        <v>17610400</v>
+      </c>
+      <c r="K60" s="3">
         <v>16669700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17540100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15066100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15152900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14101400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14710500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13566900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13503100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16115100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15208600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16227900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17298400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14439000</v>
+        <v>9794600</v>
       </c>
       <c r="E61" s="3">
-        <v>14620300</v>
+        <v>13760300</v>
       </c>
       <c r="F61" s="3">
-        <v>15204600</v>
+        <v>13933000</v>
       </c>
       <c r="G61" s="3">
-        <v>15382200</v>
+        <v>14489900</v>
       </c>
       <c r="H61" s="3">
-        <v>13607200</v>
+        <v>14659200</v>
       </c>
       <c r="I61" s="3">
-        <v>13179700</v>
+        <v>12967600</v>
       </c>
       <c r="J61" s="3">
+        <v>12560200</v>
+      </c>
+      <c r="K61" s="3">
         <v>14197600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12439300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14081700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9411200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9276300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9184000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8428200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9798300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10427800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11184000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11583200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12848500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7722300</v>
+        <v>7539100</v>
       </c>
       <c r="E62" s="3">
-        <v>7728500</v>
+        <v>7359400</v>
       </c>
       <c r="F62" s="3">
-        <v>7634100</v>
+        <v>7365200</v>
       </c>
       <c r="G62" s="3">
-        <v>8116800</v>
+        <v>7275300</v>
       </c>
       <c r="H62" s="3">
-        <v>8130300</v>
+        <v>7735300</v>
       </c>
       <c r="I62" s="3">
-        <v>8381400</v>
+        <v>7748100</v>
       </c>
       <c r="J62" s="3">
+        <v>7987400</v>
+      </c>
+      <c r="K62" s="3">
         <v>8459800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7725400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8122200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10762000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11249400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11108600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9743700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10127100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7874100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8155700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9372900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9455000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37677000</v>
+        <v>34788800</v>
       </c>
       <c r="E66" s="3">
-        <v>35533300</v>
+        <v>35906000</v>
       </c>
       <c r="F66" s="3">
-        <v>36188700</v>
+        <v>33863100</v>
       </c>
       <c r="G66" s="3">
-        <v>37853400</v>
+        <v>34487600</v>
       </c>
       <c r="H66" s="3">
-        <v>38469600</v>
+        <v>36074100</v>
       </c>
       <c r="I66" s="3">
-        <v>40384200</v>
+        <v>36661300</v>
       </c>
       <c r="J66" s="3">
+        <v>38486000</v>
+      </c>
+      <c r="K66" s="3">
         <v>39671300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38024800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37593000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35664400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34981900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35346200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32038500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33731500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34715500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34829900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37479800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39888400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>793800</v>
+        <v>16049600</v>
       </c>
       <c r="E72" s="3">
-        <v>16862000</v>
+        <v>756500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3158000</v>
+        <v>16069400</v>
       </c>
       <c r="G72" s="3">
-        <v>19430800</v>
+        <v>-3009600</v>
       </c>
       <c r="H72" s="3">
-        <v>-596600</v>
+        <v>18517500</v>
       </c>
       <c r="I72" s="3">
-        <v>20380200</v>
+        <v>-568500</v>
       </c>
       <c r="J72" s="3">
+        <v>19422200</v>
+      </c>
+      <c r="K72" s="3">
         <v>28052300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26559600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26621400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25795500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27093100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26343200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23588300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23824300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23432800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22843700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23736800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22936200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25174800</v>
+        <v>24173600</v>
       </c>
       <c r="E76" s="3">
-        <v>24861200</v>
+        <v>23991400</v>
       </c>
       <c r="F76" s="3">
-        <v>26706000</v>
+        <v>23692600</v>
       </c>
       <c r="G76" s="3">
-        <v>27797500</v>
+        <v>25450700</v>
       </c>
       <c r="H76" s="3">
-        <v>29762400</v>
+        <v>26490900</v>
       </c>
       <c r="I76" s="3">
-        <v>30536600</v>
+        <v>28363400</v>
       </c>
       <c r="J76" s="3">
+        <v>29101200</v>
+      </c>
+      <c r="K76" s="3">
         <v>38365500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36062500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36972100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36229900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36933700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36513800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31854100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33427400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33424100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33583400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36591200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36232000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>775400</v>
+        <v>663100</v>
       </c>
       <c r="E81" s="3">
-        <v>-888100</v>
+        <v>739000</v>
       </c>
       <c r="F81" s="3">
-        <v>-133500</v>
+        <v>-846400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2468400</v>
+        <v>-127200</v>
       </c>
       <c r="H81" s="3">
-        <v>-605100</v>
+        <v>-2352300</v>
       </c>
       <c r="I81" s="3">
-        <v>-6479000</v>
+        <v>-576700</v>
       </c>
       <c r="J81" s="3">
+        <v>-6174400</v>
+      </c>
+      <c r="K81" s="3">
         <v>399300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>609400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>718900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>192800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>731000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1098900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>662100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>595800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>583400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>402800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>714900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>617400</v>
+        <v>558000</v>
       </c>
       <c r="E83" s="3">
-        <v>654100</v>
+        <v>588400</v>
       </c>
       <c r="F83" s="3">
-        <v>645600</v>
+        <v>623400</v>
       </c>
       <c r="G83" s="3">
-        <v>690900</v>
+        <v>615200</v>
       </c>
       <c r="H83" s="3">
-        <v>712900</v>
+        <v>658400</v>
       </c>
       <c r="I83" s="3">
-        <v>846500</v>
+        <v>679400</v>
       </c>
       <c r="J83" s="3">
+        <v>806700</v>
+      </c>
+      <c r="K83" s="3">
         <v>731300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>659100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>661200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>676600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>582000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>567700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>486900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>646300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>886400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>703100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>905000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>998400</v>
+        <v>846400</v>
       </c>
       <c r="E89" s="3">
-        <v>1229900</v>
+        <v>951400</v>
       </c>
       <c r="F89" s="3">
-        <v>1368300</v>
+        <v>1172100</v>
       </c>
       <c r="G89" s="3">
-        <v>371200</v>
+        <v>1304000</v>
       </c>
       <c r="H89" s="3">
-        <v>384600</v>
+        <v>353700</v>
       </c>
       <c r="I89" s="3">
-        <v>2133900</v>
+        <v>366600</v>
       </c>
       <c r="J89" s="3">
+        <v>2033600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1512900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1307000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>910300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2081900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1715200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>697900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>855300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2070100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1330700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1574200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>797000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1934400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-388300</v>
+        <v>-386400</v>
       </c>
       <c r="E91" s="3">
-        <v>-712900</v>
+        <v>-370100</v>
       </c>
       <c r="F91" s="3">
-        <v>-441000</v>
+        <v>-679400</v>
       </c>
       <c r="G91" s="3">
-        <v>-501000</v>
+        <v>-420300</v>
       </c>
       <c r="H91" s="3">
-        <v>-655400</v>
+        <v>-477500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1711300</v>
+        <v>-624600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1630900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-853800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-807000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-534700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-729800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-684900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-584100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-570000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-536300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-475400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-732500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-269500</v>
+        <v>-846400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1398900</v>
+        <v>-256800</v>
       </c>
       <c r="F94" s="3">
-        <v>303800</v>
+        <v>-1333200</v>
       </c>
       <c r="G94" s="3">
-        <v>695800</v>
+        <v>289500</v>
       </c>
       <c r="H94" s="3">
-        <v>671300</v>
+        <v>663100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1847300</v>
+        <v>639700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1760500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-108900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-811500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2310200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-612700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-996300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-878500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-648500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-633900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-531700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-144500</v>
+        <v>-32700</v>
       </c>
       <c r="E96" s="3">
-        <v>-22000</v>
+        <v>-137800</v>
       </c>
       <c r="F96" s="3">
-        <v>-245000</v>
+        <v>-21000</v>
       </c>
       <c r="G96" s="3">
-        <v>13500</v>
+        <v>-233500</v>
       </c>
       <c r="H96" s="3">
-        <v>-170300</v>
+        <v>12800</v>
       </c>
       <c r="I96" s="3">
-        <v>14700</v>
+        <v>-162300</v>
       </c>
       <c r="J96" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-253600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>15300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-256000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-119500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-215200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-212100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-162000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-910200</v>
+        <v>841700</v>
       </c>
       <c r="E100" s="3">
-        <v>-639400</v>
+        <v>-867400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2058000</v>
+        <v>-609400</v>
       </c>
       <c r="G100" s="3">
-        <v>1574100</v>
+        <v>-1961200</v>
       </c>
       <c r="H100" s="3">
-        <v>-855000</v>
+        <v>1500100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1160100</v>
+        <v>-814900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1105500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-35500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-372900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-236600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-794900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-591300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>219900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>98600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31800</v>
+        <v>-7000</v>
       </c>
       <c r="E101" s="3">
-        <v>14700</v>
+        <v>30400</v>
       </c>
       <c r="F101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-42900</v>
-      </c>
       <c r="H101" s="3">
-        <v>25700</v>
+        <v>-40900</v>
       </c>
       <c r="I101" s="3">
-        <v>-13500</v>
+        <v>24500</v>
       </c>
       <c r="J101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K101" s="3">
         <v>35500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-19100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-29200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-149400</v>
+        <v>834700</v>
       </c>
       <c r="E102" s="3">
-        <v>-793800</v>
+        <v>-142400</v>
       </c>
       <c r="F102" s="3">
-        <v>-387100</v>
+        <v>-756500</v>
       </c>
       <c r="G102" s="3">
-        <v>2598200</v>
+        <v>-368900</v>
       </c>
       <c r="H102" s="3">
-        <v>226600</v>
+        <v>2476100</v>
       </c>
       <c r="I102" s="3">
-        <v>-886900</v>
+        <v>216000</v>
       </c>
       <c r="J102" s="3">
+        <v>-845200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-733800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-201200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-374400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-609200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-498000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2245100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-853100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-144700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1116400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1526000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12636000</v>
+        <v>15088200</v>
       </c>
       <c r="E8" s="3">
-        <v>11751100</v>
+        <v>12221400</v>
       </c>
       <c r="F8" s="3">
-        <v>9960300</v>
+        <v>11365500</v>
       </c>
       <c r="G8" s="3">
-        <v>9440800</v>
+        <v>9633500</v>
       </c>
       <c r="H8" s="3">
-        <v>7128200</v>
+        <v>9131000</v>
       </c>
       <c r="I8" s="3">
-        <v>12324300</v>
+        <v>6894300</v>
       </c>
       <c r="J8" s="3">
+        <v>11919900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14269300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14910600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15069700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14501500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15497200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15703000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14765000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12094500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12700900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11270400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11424100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11880100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11748700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9304300</v>
+        <v>11735900</v>
       </c>
       <c r="E9" s="3">
-        <v>8386700</v>
+        <v>8998900</v>
       </c>
       <c r="F9" s="3">
-        <v>7513500</v>
+        <v>8111500</v>
       </c>
       <c r="G9" s="3">
-        <v>7019600</v>
+        <v>7266900</v>
       </c>
       <c r="H9" s="3">
-        <v>5338600</v>
+        <v>6789300</v>
       </c>
       <c r="I9" s="3">
-        <v>10498500</v>
+        <v>5163400</v>
       </c>
       <c r="J9" s="3">
+        <v>10154000</v>
+      </c>
+      <c r="K9" s="3">
         <v>10917600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11619000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11461700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11033700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12563600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11959100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10741900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8909200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9153200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7993100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8607900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8323500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7909100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3331800</v>
+        <v>3352300</v>
       </c>
       <c r="E10" s="3">
-        <v>3364500</v>
+        <v>3222500</v>
       </c>
       <c r="F10" s="3">
-        <v>2446900</v>
+        <v>3254100</v>
       </c>
       <c r="G10" s="3">
-        <v>2421200</v>
+        <v>2366600</v>
       </c>
       <c r="H10" s="3">
-        <v>1789600</v>
+        <v>2341800</v>
       </c>
       <c r="I10" s="3">
-        <v>1825800</v>
+        <v>1730900</v>
       </c>
       <c r="J10" s="3">
+        <v>1765900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3351600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3291500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3608000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3467800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2933600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3743900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4023000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3185300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3547700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3277300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2816200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3556600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3839500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>49000</v>
+        <v>49700</v>
       </c>
       <c r="E14" s="3">
-        <v>-17500</v>
+        <v>47400</v>
       </c>
       <c r="F14" s="3">
-        <v>1767500</v>
+        <v>-16900</v>
       </c>
       <c r="G14" s="3">
-        <v>-16300</v>
+        <v>1709500</v>
       </c>
       <c r="H14" s="3">
-        <v>695800</v>
+        <v>-15800</v>
       </c>
       <c r="I14" s="3">
-        <v>7000</v>
+        <v>672900</v>
       </c>
       <c r="J14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K14" s="3">
         <v>6343700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-12200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-162300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>971200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>538200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>91100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>226600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-210900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>50500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>56300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>558000</v>
+        <v>572500</v>
       </c>
       <c r="E15" s="3">
-        <v>588400</v>
+        <v>539700</v>
       </c>
       <c r="F15" s="3">
-        <v>623400</v>
+        <v>569100</v>
       </c>
       <c r="G15" s="3">
-        <v>615200</v>
+        <v>602900</v>
       </c>
       <c r="H15" s="3">
-        <v>660800</v>
+        <v>595000</v>
       </c>
       <c r="I15" s="3">
-        <v>677100</v>
+        <v>639100</v>
       </c>
       <c r="J15" s="3">
+        <v>654900</v>
+      </c>
+      <c r="K15" s="3">
         <v>806700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>731300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>659100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>661200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>676600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>582000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>567700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>486900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>646300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>886400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>703100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>907400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11790800</v>
+        <v>13972600</v>
       </c>
       <c r="E17" s="3">
-        <v>10590700</v>
+        <v>11403900</v>
       </c>
       <c r="F17" s="3">
-        <v>11028500</v>
+        <v>10243200</v>
       </c>
       <c r="G17" s="3">
-        <v>9308900</v>
+        <v>10666600</v>
       </c>
       <c r="H17" s="3">
-        <v>8522100</v>
+        <v>9003400</v>
       </c>
       <c r="I17" s="3">
-        <v>12909200</v>
+        <v>8242400</v>
       </c>
       <c r="J17" s="3">
+        <v>12485600</v>
+      </c>
+      <c r="K17" s="3">
         <v>20674800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14180500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14055600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13563700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15779900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14614700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14030400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11236900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11714700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10540000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10959600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10889400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11171100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>845200</v>
+        <v>1115600</v>
       </c>
       <c r="E18" s="3">
-        <v>1160400</v>
+        <v>817500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1068200</v>
+        <v>1122300</v>
       </c>
       <c r="G18" s="3">
-        <v>131900</v>
+        <v>-1033100</v>
       </c>
       <c r="H18" s="3">
-        <v>-1393900</v>
+        <v>127600</v>
       </c>
       <c r="I18" s="3">
-        <v>-584900</v>
+        <v>-1348100</v>
       </c>
       <c r="J18" s="3">
+        <v>-565700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>730100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1014100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>937800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-282700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1088300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>734600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>857500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>986200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>730400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>464500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>990700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>577500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>282500</v>
+        <v>205500</v>
       </c>
       <c r="E20" s="3">
-        <v>59500</v>
+        <v>273200</v>
       </c>
       <c r="F20" s="3">
-        <v>532300</v>
+        <v>57600</v>
       </c>
       <c r="G20" s="3">
-        <v>-169300</v>
+        <v>514900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1231600</v>
+        <v>-163700</v>
       </c>
       <c r="I20" s="3">
-        <v>-73500</v>
+        <v>-1191200</v>
       </c>
       <c r="J20" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>604500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>141900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>647000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>79100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>386000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>55000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-38100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>23500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1685700</v>
+        <v>1893500</v>
       </c>
       <c r="E21" s="3">
-        <v>1808300</v>
+        <v>1630400</v>
       </c>
       <c r="F21" s="3">
-        <v>87600</v>
+        <v>1749000</v>
       </c>
       <c r="G21" s="3">
-        <v>577900</v>
+        <v>84700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1967100</v>
+        <v>558900</v>
       </c>
       <c r="I21" s="3">
-        <v>21000</v>
+        <v>-1902500</v>
       </c>
       <c r="J21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1710500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1665100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>983000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1906800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1963600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1504300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1859100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1431700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1312700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1717300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1479000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1127700</v>
+        <v>1321000</v>
       </c>
       <c r="E23" s="3">
-        <v>1219900</v>
+        <v>1090700</v>
       </c>
       <c r="F23" s="3">
-        <v>-535800</v>
+        <v>1179900</v>
       </c>
       <c r="G23" s="3">
-        <v>-37400</v>
+        <v>-518300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2625500</v>
+        <v>-36100</v>
       </c>
       <c r="I23" s="3">
-        <v>-658400</v>
+        <v>-2539300</v>
       </c>
       <c r="J23" s="3">
+        <v>-636800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>769300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1010500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1006000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>321700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1230200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1381600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>936600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1372200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>785400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>426400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1014200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>574000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>437800</v>
+        <v>518300</v>
       </c>
       <c r="E24" s="3">
-        <v>457600</v>
+        <v>423400</v>
       </c>
       <c r="F24" s="3">
-        <v>290700</v>
+        <v>442600</v>
       </c>
       <c r="G24" s="3">
-        <v>73500</v>
+        <v>281100</v>
       </c>
       <c r="H24" s="3">
-        <v>-290700</v>
+        <v>71100</v>
       </c>
       <c r="I24" s="3">
-        <v>-54900</v>
+        <v>-281100</v>
       </c>
       <c r="J24" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-297700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>352800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>389400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>267900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>132500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>480300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>664800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>336000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>887500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>227800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>194900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>186600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>689900</v>
+        <v>802800</v>
       </c>
       <c r="E26" s="3">
-        <v>762300</v>
+        <v>667300</v>
       </c>
       <c r="F26" s="3">
-        <v>-826500</v>
+        <v>737300</v>
       </c>
       <c r="G26" s="3">
-        <v>-110900</v>
+        <v>-799400</v>
       </c>
       <c r="H26" s="3">
-        <v>-2334800</v>
+        <v>-107300</v>
       </c>
       <c r="I26" s="3">
-        <v>-603600</v>
+        <v>-2258200</v>
       </c>
       <c r="J26" s="3">
+        <v>-583700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>416500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>621100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>738100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>189300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>750000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>716800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>484700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>557600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>359000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>819300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>387400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>663100</v>
+        <v>780200</v>
       </c>
       <c r="E27" s="3">
-        <v>739000</v>
+        <v>641300</v>
       </c>
       <c r="F27" s="3">
-        <v>-846400</v>
+        <v>714700</v>
       </c>
       <c r="G27" s="3">
-        <v>-127200</v>
+        <v>-818600</v>
       </c>
       <c r="H27" s="3">
-        <v>-2352300</v>
+        <v>-123100</v>
       </c>
       <c r="I27" s="3">
-        <v>-576700</v>
+        <v>-2275100</v>
       </c>
       <c r="J27" s="3">
+        <v>-557800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>399300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>609400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>718900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>192800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>731000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>692000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>587400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>466700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>529600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>345600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>363900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>406900</v>
+      </c>
+      <c r="R29" s="3">
+        <v>74700</v>
+      </c>
+      <c r="S29" s="3">
+        <v>129000</v>
+      </c>
+      <c r="T29" s="3">
+        <v>53900</v>
+      </c>
+      <c r="U29" s="3">
+        <v>57200</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="W29" s="3">
+        <v>351000</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>406900</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>74700</v>
-      </c>
-      <c r="R29" s="3">
-        <v>129000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>53900</v>
-      </c>
-      <c r="T29" s="3">
-        <v>57200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>351000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-282500</v>
+        <v>-205500</v>
       </c>
       <c r="E32" s="3">
-        <v>-59500</v>
+        <v>-273200</v>
       </c>
       <c r="F32" s="3">
-        <v>-532300</v>
+        <v>-57600</v>
       </c>
       <c r="G32" s="3">
-        <v>169300</v>
+        <v>-514900</v>
       </c>
       <c r="H32" s="3">
-        <v>1231600</v>
+        <v>163700</v>
       </c>
       <c r="I32" s="3">
-        <v>73500</v>
+        <v>1191200</v>
       </c>
       <c r="J32" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K32" s="3">
         <v>49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-604500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-141900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-647000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-79100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-386000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-55000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>38100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-23500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>663100</v>
+        <v>780200</v>
       </c>
       <c r="E33" s="3">
-        <v>739000</v>
+        <v>641300</v>
       </c>
       <c r="F33" s="3">
-        <v>-846400</v>
+        <v>714700</v>
       </c>
       <c r="G33" s="3">
-        <v>-127200</v>
+        <v>-818600</v>
       </c>
       <c r="H33" s="3">
-        <v>-2352300</v>
+        <v>-123100</v>
       </c>
       <c r="I33" s="3">
-        <v>-576700</v>
+        <v>-2275100</v>
       </c>
       <c r="J33" s="3">
+        <v>-557800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>399300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>609400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>718900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>192800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>731000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1098900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>662100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>595800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>583400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>402800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>714900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>663100</v>
+        <v>780200</v>
       </c>
       <c r="E35" s="3">
-        <v>739000</v>
+        <v>641300</v>
       </c>
       <c r="F35" s="3">
-        <v>-846400</v>
+        <v>714700</v>
       </c>
       <c r="G35" s="3">
-        <v>-127200</v>
+        <v>-818600</v>
       </c>
       <c r="H35" s="3">
-        <v>-2352300</v>
+        <v>-123100</v>
       </c>
       <c r="I35" s="3">
-        <v>-576700</v>
+        <v>-2275100</v>
       </c>
       <c r="J35" s="3">
+        <v>-557800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>399300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>609400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>718900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>192800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>731000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1098900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>662100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>595800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>583400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>402800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>714900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2429400</v>
+        <v>6307200</v>
       </c>
       <c r="E41" s="3">
-        <v>4902000</v>
+        <v>2349700</v>
       </c>
       <c r="F41" s="3">
-        <v>5044400</v>
+        <v>4741100</v>
       </c>
       <c r="G41" s="3">
-        <v>5800900</v>
+        <v>4878800</v>
       </c>
       <c r="H41" s="3">
-        <v>2814600</v>
+        <v>5610500</v>
       </c>
       <c r="I41" s="3">
-        <v>3693700</v>
+        <v>2722300</v>
       </c>
       <c r="J41" s="3">
+        <v>3572500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2766800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3369900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3536300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4047900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4878300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4075100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4867600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3447700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4210800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4976000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4707900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3505000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3764400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5288400</v>
+        <v>2268400</v>
       </c>
       <c r="E42" s="3">
-        <v>1737100</v>
+        <v>5114800</v>
       </c>
       <c r="F42" s="3">
-        <v>1849200</v>
+        <v>1680100</v>
       </c>
       <c r="G42" s="3">
-        <v>942100</v>
+        <v>1788500</v>
       </c>
       <c r="H42" s="3">
-        <v>4940500</v>
+        <v>911200</v>
       </c>
       <c r="I42" s="3">
-        <v>3046900</v>
+        <v>4778400</v>
       </c>
       <c r="J42" s="3">
+        <v>2947000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4175800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4558200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3713900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3112500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3092100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4239500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3934300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1120000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1307100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1776100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2053200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2553000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3314800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6106700</v>
+        <v>7966900</v>
       </c>
       <c r="E43" s="3">
-        <v>5071200</v>
+        <v>5906300</v>
       </c>
       <c r="F43" s="3">
-        <v>4735000</v>
+        <v>4904800</v>
       </c>
       <c r="G43" s="3">
-        <v>4603100</v>
+        <v>4579600</v>
       </c>
       <c r="H43" s="3">
-        <v>4542400</v>
+        <v>4452000</v>
       </c>
       <c r="I43" s="3">
-        <v>5203100</v>
+        <v>4393300</v>
       </c>
       <c r="J43" s="3">
+        <v>5032400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6704400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6956700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7652500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7406900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>7350500</v>
       </c>
       <c r="P43" s="3">
         <v>7350500</v>
       </c>
       <c r="Q43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="R43" s="3">
         <v>5817200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6565900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6948500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6438000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6217700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6832700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5388800</v>
+        <v>5913100</v>
       </c>
       <c r="E44" s="3">
-        <v>5028000</v>
+        <v>5211900</v>
       </c>
       <c r="F44" s="3">
-        <v>3944700</v>
+        <v>4863000</v>
       </c>
       <c r="G44" s="3">
-        <v>3999500</v>
+        <v>3815200</v>
       </c>
       <c r="H44" s="3">
-        <v>3789400</v>
+        <v>3868300</v>
       </c>
       <c r="I44" s="3">
-        <v>4432700</v>
+        <v>3665100</v>
       </c>
       <c r="J44" s="3">
+        <v>4287200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5366600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5233200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5619700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5191500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5192900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5726400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5582100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4773000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4260200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4026800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3611700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4407700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4231600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1305200</v>
+        <v>1178800</v>
       </c>
       <c r="E45" s="3">
-        <v>448300</v>
+        <v>1262300</v>
       </c>
       <c r="F45" s="3">
-        <v>284800</v>
+        <v>433600</v>
       </c>
       <c r="G45" s="3">
-        <v>476300</v>
+        <v>275500</v>
       </c>
       <c r="H45" s="3">
-        <v>861500</v>
+        <v>460700</v>
       </c>
       <c r="I45" s="3">
-        <v>231100</v>
+        <v>833300</v>
       </c>
       <c r="J45" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K45" s="3">
         <v>233500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>251100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>241200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>265600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>357200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>428200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>275600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3861700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>228900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>279400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>389300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>483600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>552900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20518400</v>
+        <v>23634300</v>
       </c>
       <c r="E46" s="3">
-        <v>17186600</v>
+        <v>19845100</v>
       </c>
       <c r="F46" s="3">
-        <v>15858100</v>
+        <v>16622600</v>
       </c>
       <c r="G46" s="3">
-        <v>15821900</v>
+        <v>15337700</v>
       </c>
       <c r="H46" s="3">
-        <v>16948500</v>
+        <v>15302700</v>
       </c>
       <c r="I46" s="3">
-        <v>16607600</v>
+        <v>16392300</v>
       </c>
       <c r="J46" s="3">
+        <v>16062600</v>
+      </c>
+      <c r="K46" s="3">
         <v>19247100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20369100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20763500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20024400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20457100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21819800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22010200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19019600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16572900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18006800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17200100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17167000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18696400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5234700</v>
+        <v>5367700</v>
       </c>
       <c r="E47" s="3">
-        <v>8565300</v>
+        <v>5062900</v>
       </c>
       <c r="F47" s="3">
-        <v>7953600</v>
+        <v>8284200</v>
       </c>
       <c r="G47" s="3">
-        <v>8083100</v>
+        <v>7692600</v>
       </c>
       <c r="H47" s="3">
-        <v>8516300</v>
+        <v>7817900</v>
       </c>
       <c r="I47" s="3">
-        <v>9472400</v>
+        <v>8236800</v>
       </c>
       <c r="J47" s="3">
+        <v>9161500</v>
+      </c>
+      <c r="K47" s="3">
         <v>9772400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11049400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10022900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10278900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9853600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9543600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9340200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8446900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12687500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11871800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12058000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13548100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13358000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24146700</v>
+        <v>23610600</v>
       </c>
       <c r="E48" s="3">
-        <v>24773600</v>
+        <v>23354300</v>
       </c>
       <c r="F48" s="3">
-        <v>24430400</v>
+        <v>23960600</v>
       </c>
       <c r="G48" s="3">
-        <v>26075300</v>
+        <v>23628700</v>
       </c>
       <c r="H48" s="3">
-        <v>26892500</v>
+        <v>25219600</v>
       </c>
       <c r="I48" s="3">
-        <v>27346600</v>
+        <v>26009900</v>
       </c>
       <c r="J48" s="3">
+        <v>26449200</v>
+      </c>
+      <c r="K48" s="3">
         <v>27096800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34049800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31932200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32653900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30162800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30003100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29858800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26738500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27676100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27832100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28554600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31491000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32119000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3867600</v>
+        <v>3790400</v>
       </c>
       <c r="E49" s="3">
-        <v>4057900</v>
+        <v>3740700</v>
       </c>
       <c r="F49" s="3">
-        <v>3914300</v>
+        <v>3924800</v>
       </c>
       <c r="G49" s="3">
-        <v>4521400</v>
+        <v>3785900</v>
       </c>
       <c r="H49" s="3">
-        <v>4612400</v>
+        <v>4373000</v>
       </c>
       <c r="I49" s="3">
-        <v>4997700</v>
+        <v>4461100</v>
       </c>
       <c r="J49" s="3">
+        <v>4833700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5218300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6786400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6158500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6091100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6028100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5760700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5636500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5014600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5143200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5203800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5350800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5999300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5997000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5195000</v>
+        <v>5161100</v>
       </c>
       <c r="E52" s="3">
-        <v>5314100</v>
+        <v>5024500</v>
       </c>
       <c r="F52" s="3">
-        <v>5399300</v>
+        <v>5139700</v>
       </c>
       <c r="G52" s="3">
-        <v>5436600</v>
+        <v>5222100</v>
       </c>
       <c r="H52" s="3">
-        <v>5595400</v>
+        <v>5258200</v>
       </c>
       <c r="I52" s="3">
-        <v>6600500</v>
+        <v>5411800</v>
       </c>
       <c r="J52" s="3">
+        <v>6383900</v>
+      </c>
+      <c r="K52" s="3">
         <v>6252600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5782000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5210300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5516900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5392800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4788400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5014300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4673100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5079200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5225100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5249800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5865500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5950000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58962400</v>
+        <v>61564200</v>
       </c>
       <c r="E54" s="3">
-        <v>59897500</v>
+        <v>57027500</v>
       </c>
       <c r="F54" s="3">
-        <v>57555600</v>
+        <v>57931900</v>
       </c>
       <c r="G54" s="3">
-        <v>59938300</v>
+        <v>55666900</v>
       </c>
       <c r="H54" s="3">
-        <v>62565000</v>
+        <v>57971400</v>
       </c>
       <c r="I54" s="3">
-        <v>65024700</v>
+        <v>60511900</v>
       </c>
       <c r="J54" s="3">
+        <v>62890900</v>
+      </c>
+      <c r="K54" s="3">
         <v>67587200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78036800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74087300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74565100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71894300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71915600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71860000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63892600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67159000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68139600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68413300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>74070900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76120400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9639300</v>
+        <v>11621800</v>
       </c>
       <c r="E57" s="3">
-        <v>8672700</v>
+        <v>9323000</v>
       </c>
       <c r="F57" s="3">
-        <v>6886600</v>
+        <v>8388100</v>
       </c>
       <c r="G57" s="3">
-        <v>6732500</v>
+        <v>6660600</v>
       </c>
       <c r="H57" s="3">
-        <v>5825400</v>
+        <v>6511500</v>
       </c>
       <c r="I57" s="3">
-        <v>6654200</v>
+        <v>5634200</v>
       </c>
       <c r="J57" s="3">
+        <v>6435900</v>
+      </c>
+      <c r="K57" s="3">
         <v>8335300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7972200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9317100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8511000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3837300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3728500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3610200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2720800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3072000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2957600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2294500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2183300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2497900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6006300</v>
+        <v>5603700</v>
       </c>
       <c r="E58" s="3">
-        <v>4704700</v>
+        <v>5809200</v>
       </c>
       <c r="F58" s="3">
-        <v>4230700</v>
+        <v>4550300</v>
       </c>
       <c r="G58" s="3">
-        <v>4806200</v>
+        <v>4091900</v>
       </c>
       <c r="H58" s="3">
-        <v>6139400</v>
+        <v>4648500</v>
       </c>
       <c r="I58" s="3">
-        <v>7922000</v>
+        <v>5937900</v>
       </c>
       <c r="J58" s="3">
+        <v>7662100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7521600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7498200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6924300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5545600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4443000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3917800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4818000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5413100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4645000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4755000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4507000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4885400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4577900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1511800</v>
+        <v>1402300</v>
       </c>
       <c r="E59" s="3">
-        <v>1116000</v>
+        <v>1462200</v>
       </c>
       <c r="F59" s="3">
-        <v>1162700</v>
+        <v>1079400</v>
       </c>
       <c r="G59" s="3">
-        <v>897700</v>
+        <v>1124600</v>
       </c>
       <c r="H59" s="3">
-        <v>1425400</v>
+        <v>868300</v>
       </c>
       <c r="I59" s="3">
-        <v>1075200</v>
+        <v>1378600</v>
       </c>
       <c r="J59" s="3">
+        <v>1039900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1753400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1199300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1298700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1009600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6872600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6455100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6282400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5432900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5786100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8402600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8407100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9159200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10222700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17157400</v>
+        <v>18627900</v>
       </c>
       <c r="E60" s="3">
-        <v>14493400</v>
+        <v>16594400</v>
       </c>
       <c r="F60" s="3">
-        <v>12280000</v>
+        <v>14017800</v>
       </c>
       <c r="G60" s="3">
-        <v>12436400</v>
+        <v>11877000</v>
       </c>
       <c r="H60" s="3">
-        <v>13390200</v>
+        <v>12028300</v>
       </c>
       <c r="I60" s="3">
-        <v>15651500</v>
+        <v>12950800</v>
       </c>
       <c r="J60" s="3">
+        <v>15137800</v>
+      </c>
+      <c r="K60" s="3">
         <v>17610400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16669700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17540100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15066100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15152900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14101400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14710500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13566900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13503100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16115100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15208600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16227900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17298400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9794600</v>
+        <v>11027900</v>
       </c>
       <c r="E61" s="3">
-        <v>13760300</v>
+        <v>9473100</v>
       </c>
       <c r="F61" s="3">
-        <v>13933000</v>
+        <v>13308700</v>
       </c>
       <c r="G61" s="3">
-        <v>14489900</v>
+        <v>13475800</v>
       </c>
       <c r="H61" s="3">
-        <v>14659200</v>
+        <v>14014400</v>
       </c>
       <c r="I61" s="3">
-        <v>12967600</v>
+        <v>14178100</v>
       </c>
       <c r="J61" s="3">
+        <v>12542000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12560200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14197600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12439300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14081700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9411200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9276300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9184000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8428200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9798300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10427800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11184000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11583200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12848500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7539100</v>
+        <v>7348200</v>
       </c>
       <c r="E62" s="3">
-        <v>7359400</v>
+        <v>7291700</v>
       </c>
       <c r="F62" s="3">
-        <v>7365200</v>
+        <v>7117800</v>
       </c>
       <c r="G62" s="3">
-        <v>7275300</v>
+        <v>7123500</v>
       </c>
       <c r="H62" s="3">
-        <v>7735300</v>
+        <v>7036600</v>
       </c>
       <c r="I62" s="3">
-        <v>7748100</v>
+        <v>7481400</v>
       </c>
       <c r="J62" s="3">
+        <v>7493800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7987400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8459800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7725400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8122200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10762000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11249400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11108600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9743700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10127100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7874100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8155700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9372900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9455000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34788800</v>
+        <v>37300900</v>
       </c>
       <c r="E66" s="3">
-        <v>35906000</v>
+        <v>33647200</v>
       </c>
       <c r="F66" s="3">
-        <v>33863100</v>
+        <v>34727700</v>
       </c>
       <c r="G66" s="3">
-        <v>34487600</v>
+        <v>32751800</v>
       </c>
       <c r="H66" s="3">
-        <v>36074100</v>
+        <v>33355900</v>
       </c>
       <c r="I66" s="3">
-        <v>36661300</v>
+        <v>34890300</v>
       </c>
       <c r="J66" s="3">
+        <v>35458300</v>
+      </c>
+      <c r="K66" s="3">
         <v>38486000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39671300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38024800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37593000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35664400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34981900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35346200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32038500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33731500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34715500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34829900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37479800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39888400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16049600</v>
+        <v>2189300</v>
       </c>
       <c r="E72" s="3">
-        <v>756500</v>
+        <v>15522900</v>
       </c>
       <c r="F72" s="3">
-        <v>16069400</v>
+        <v>731700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3009600</v>
+        <v>15542100</v>
       </c>
       <c r="H72" s="3">
-        <v>18517500</v>
+        <v>-2910800</v>
       </c>
       <c r="I72" s="3">
-        <v>-568500</v>
+        <v>17909800</v>
       </c>
       <c r="J72" s="3">
+        <v>-549900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19422200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28052300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26559600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26621400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25795500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27093100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26343200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23588300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23824300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23432800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22843700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23736800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22936200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24173600</v>
+        <v>24263200</v>
       </c>
       <c r="E76" s="3">
-        <v>23991400</v>
+        <v>23380300</v>
       </c>
       <c r="F76" s="3">
-        <v>23692600</v>
+        <v>23204100</v>
       </c>
       <c r="G76" s="3">
-        <v>25450700</v>
+        <v>22915100</v>
       </c>
       <c r="H76" s="3">
-        <v>26490900</v>
+        <v>24615500</v>
       </c>
       <c r="I76" s="3">
-        <v>28363400</v>
+        <v>25621500</v>
       </c>
       <c r="J76" s="3">
+        <v>27432600</v>
+      </c>
+      <c r="K76" s="3">
         <v>29101200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38365500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36062500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36972100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36229900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36933700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36513800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31854100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33427400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33424100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33583400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36591200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36232000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>663100</v>
+        <v>780200</v>
       </c>
       <c r="E81" s="3">
-        <v>739000</v>
+        <v>641300</v>
       </c>
       <c r="F81" s="3">
-        <v>-846400</v>
+        <v>714700</v>
       </c>
       <c r="G81" s="3">
-        <v>-127200</v>
+        <v>-818600</v>
       </c>
       <c r="H81" s="3">
-        <v>-2352300</v>
+        <v>-123100</v>
       </c>
       <c r="I81" s="3">
-        <v>-576700</v>
+        <v>-2275100</v>
       </c>
       <c r="J81" s="3">
+        <v>-557800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>399300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>609400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>718900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>192800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>731000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1098900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>662100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>595800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>583400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>402800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>714900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>558000</v>
+        <v>572500</v>
       </c>
       <c r="E83" s="3">
-        <v>588400</v>
+        <v>539700</v>
       </c>
       <c r="F83" s="3">
-        <v>623400</v>
+        <v>569100</v>
       </c>
       <c r="G83" s="3">
-        <v>615200</v>
+        <v>602900</v>
       </c>
       <c r="H83" s="3">
-        <v>658400</v>
+        <v>595000</v>
       </c>
       <c r="I83" s="3">
-        <v>679400</v>
+        <v>636800</v>
       </c>
       <c r="J83" s="3">
+        <v>657100</v>
+      </c>
+      <c r="K83" s="3">
         <v>806700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>731300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>659100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>661200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>676600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>582000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>567700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>486900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>646300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>886400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>703100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>905000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>846400</v>
+        <v>1437300</v>
       </c>
       <c r="E89" s="3">
-        <v>951400</v>
+        <v>818600</v>
       </c>
       <c r="F89" s="3">
-        <v>1172100</v>
+        <v>920200</v>
       </c>
       <c r="G89" s="3">
-        <v>1304000</v>
+        <v>1133600</v>
       </c>
       <c r="H89" s="3">
-        <v>353700</v>
+        <v>1261200</v>
       </c>
       <c r="I89" s="3">
-        <v>366600</v>
+        <v>342100</v>
       </c>
       <c r="J89" s="3">
+        <v>354500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2033600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1512900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1307000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>910300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2081900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1715200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>697900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>855300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2070100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1330700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1574200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>797000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1934400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-386400</v>
+        <v>-481000</v>
       </c>
       <c r="E91" s="3">
-        <v>-370100</v>
+        <v>-373700</v>
       </c>
       <c r="F91" s="3">
-        <v>-679400</v>
+        <v>-357900</v>
       </c>
       <c r="G91" s="3">
-        <v>-420300</v>
+        <v>-657100</v>
       </c>
       <c r="H91" s="3">
-        <v>-477500</v>
+        <v>-406500</v>
       </c>
       <c r="I91" s="3">
-        <v>-624600</v>
+        <v>-461800</v>
       </c>
       <c r="J91" s="3">
+        <v>-604100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-853800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-807000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-534700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-729800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-684900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-584100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-570000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-536300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-475400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-732500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-846400</v>
+        <v>-782500</v>
       </c>
       <c r="E94" s="3">
-        <v>-256800</v>
+        <v>-818600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1333200</v>
+        <v>-248400</v>
       </c>
       <c r="G94" s="3">
-        <v>289500</v>
+        <v>-1289400</v>
       </c>
       <c r="H94" s="3">
-        <v>663100</v>
+        <v>280000</v>
       </c>
       <c r="I94" s="3">
-        <v>639700</v>
+        <v>641300</v>
       </c>
       <c r="J94" s="3">
+        <v>618700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-108900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-811500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2310200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-612700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-996300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-878500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-648500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-633900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-531700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32700</v>
+        <v>-504700</v>
       </c>
       <c r="E96" s="3">
-        <v>-137800</v>
+        <v>-31600</v>
       </c>
       <c r="F96" s="3">
-        <v>-21000</v>
+        <v>-133200</v>
       </c>
       <c r="G96" s="3">
-        <v>-233500</v>
+        <v>-20300</v>
       </c>
       <c r="H96" s="3">
-        <v>12800</v>
+        <v>-225800</v>
       </c>
       <c r="I96" s="3">
-        <v>-162300</v>
+        <v>12400</v>
       </c>
       <c r="J96" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="K96" s="3">
         <v>14000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-253600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>15300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-256000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-119500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-215200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-212100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-162000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>841700</v>
+        <v>132100</v>
       </c>
       <c r="E100" s="3">
-        <v>-867400</v>
+        <v>814100</v>
       </c>
       <c r="F100" s="3">
-        <v>-609400</v>
+        <v>-838900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1961200</v>
+        <v>-589400</v>
       </c>
       <c r="H100" s="3">
-        <v>1500100</v>
+        <v>-1896900</v>
       </c>
       <c r="I100" s="3">
-        <v>-814900</v>
+        <v>1450900</v>
       </c>
       <c r="J100" s="3">
+        <v>-788100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-372900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-236600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-794900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-591300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>219900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>98600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7000</v>
+        <v>-28200</v>
       </c>
       <c r="E101" s="3">
-        <v>30400</v>
+        <v>-6800</v>
       </c>
       <c r="F101" s="3">
-        <v>14000</v>
+        <v>29400</v>
       </c>
       <c r="G101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>35500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>24500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>35500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>15600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>31900</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>24700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>834700</v>
+        <v>758800</v>
       </c>
       <c r="E102" s="3">
-        <v>-142400</v>
+        <v>807300</v>
       </c>
       <c r="F102" s="3">
-        <v>-756500</v>
+        <v>-137800</v>
       </c>
       <c r="G102" s="3">
-        <v>-368900</v>
+        <v>-731700</v>
       </c>
       <c r="H102" s="3">
-        <v>2476100</v>
+        <v>-356800</v>
       </c>
       <c r="I102" s="3">
-        <v>216000</v>
+        <v>2394800</v>
       </c>
       <c r="J102" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-845200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-733800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-201200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-374400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-609200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-498000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2245100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-853100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-144700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1116400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1526000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15088200</v>
+        <v>16900400</v>
       </c>
       <c r="E8" s="3">
-        <v>12221400</v>
+        <v>14577800</v>
       </c>
       <c r="F8" s="3">
-        <v>11365500</v>
+        <v>11808000</v>
       </c>
       <c r="G8" s="3">
-        <v>9633500</v>
+        <v>10981100</v>
       </c>
       <c r="H8" s="3">
-        <v>9131000</v>
+        <v>9307600</v>
       </c>
       <c r="I8" s="3">
-        <v>6894300</v>
+        <v>8822200</v>
       </c>
       <c r="J8" s="3">
+        <v>6661100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11919900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14269300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14910600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15069700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14501500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15497200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15703000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14765000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12094500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12700900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11270400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11424100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11880100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11748700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11735900</v>
+        <v>12992700</v>
       </c>
       <c r="E9" s="3">
-        <v>8998900</v>
+        <v>11338900</v>
       </c>
       <c r="F9" s="3">
-        <v>8111500</v>
+        <v>8694600</v>
       </c>
       <c r="G9" s="3">
-        <v>7266900</v>
+        <v>7837100</v>
       </c>
       <c r="H9" s="3">
-        <v>6789300</v>
+        <v>7021100</v>
       </c>
       <c r="I9" s="3">
-        <v>5163400</v>
+        <v>6559600</v>
       </c>
       <c r="J9" s="3">
+        <v>4988700</v>
+      </c>
+      <c r="K9" s="3">
         <v>10154000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10917600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11619000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11461700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11033700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12563600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11959100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10741900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8909200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9153200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7993100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8607900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8323500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7909100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3352300</v>
+        <v>3907600</v>
       </c>
       <c r="E10" s="3">
-        <v>3222500</v>
+        <v>3238900</v>
       </c>
       <c r="F10" s="3">
-        <v>3254100</v>
+        <v>3113500</v>
       </c>
       <c r="G10" s="3">
-        <v>2366600</v>
+        <v>3144000</v>
       </c>
       <c r="H10" s="3">
-        <v>2341800</v>
+        <v>2286500</v>
       </c>
       <c r="I10" s="3">
-        <v>1730900</v>
+        <v>2262500</v>
       </c>
       <c r="J10" s="3">
+        <v>1672400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1765900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3351600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3291500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3608000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3467800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2933600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3743900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4023000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3185300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3547700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3277300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2816200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3556600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3839500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>49700</v>
+        <v>616400</v>
       </c>
       <c r="E14" s="3">
-        <v>47400</v>
+        <v>48000</v>
       </c>
       <c r="F14" s="3">
-        <v>-16900</v>
+        <v>45800</v>
       </c>
       <c r="G14" s="3">
-        <v>1709500</v>
+        <v>-16400</v>
       </c>
       <c r="H14" s="3">
-        <v>-15800</v>
+        <v>1651600</v>
       </c>
       <c r="I14" s="3">
-        <v>672900</v>
+        <v>-15300</v>
       </c>
       <c r="J14" s="3">
+        <v>650200</v>
+      </c>
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6343700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-12200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-162300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>971200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>538200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>91100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>226600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-210900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>50500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>56300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>572500</v>
+        <v>561800</v>
       </c>
       <c r="E15" s="3">
-        <v>539700</v>
+        <v>553100</v>
       </c>
       <c r="F15" s="3">
-        <v>569100</v>
+        <v>521500</v>
       </c>
       <c r="G15" s="3">
-        <v>602900</v>
+        <v>549800</v>
       </c>
       <c r="H15" s="3">
-        <v>595000</v>
+        <v>582500</v>
       </c>
       <c r="I15" s="3">
-        <v>639100</v>
+        <v>574900</v>
       </c>
       <c r="J15" s="3">
+        <v>617500</v>
+      </c>
+      <c r="K15" s="3">
         <v>654900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>806700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>731300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>659100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>661200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>676600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>582000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>567700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>486900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>646300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>886400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>703100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>907400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13972600</v>
+        <v>15724400</v>
       </c>
       <c r="E17" s="3">
-        <v>11403900</v>
+        <v>13500000</v>
       </c>
       <c r="F17" s="3">
-        <v>10243200</v>
+        <v>11018200</v>
       </c>
       <c r="G17" s="3">
-        <v>10666600</v>
+        <v>9896700</v>
       </c>
       <c r="H17" s="3">
-        <v>9003400</v>
+        <v>10305800</v>
       </c>
       <c r="I17" s="3">
-        <v>8242400</v>
+        <v>8698900</v>
       </c>
       <c r="J17" s="3">
+        <v>7963600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12485600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20674800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14180500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14055600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13563700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15779900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14614700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14030400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11236900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11714700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10540000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10959600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10889400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11171100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1115600</v>
+        <v>1176000</v>
       </c>
       <c r="E18" s="3">
-        <v>817500</v>
+        <v>1077800</v>
       </c>
       <c r="F18" s="3">
-        <v>1122300</v>
+        <v>789800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1033100</v>
+        <v>1084400</v>
       </c>
       <c r="H18" s="3">
-        <v>127600</v>
+        <v>-998200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1348100</v>
+        <v>123300</v>
       </c>
       <c r="J18" s="3">
+        <v>-1302500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-565700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>730100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1014100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>937800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-282700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1088300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>734600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>857500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>986200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>730400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>464500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>990700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>577500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>205500</v>
+        <v>76400</v>
       </c>
       <c r="E20" s="3">
-        <v>273200</v>
+        <v>198500</v>
       </c>
       <c r="F20" s="3">
-        <v>57600</v>
+        <v>264000</v>
       </c>
       <c r="G20" s="3">
-        <v>514900</v>
+        <v>55600</v>
       </c>
       <c r="H20" s="3">
-        <v>-163700</v>
+        <v>497500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1191200</v>
+        <v>-158200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1150900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>68200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>604500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>141900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>647000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>79100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>386000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>55000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>23500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1893500</v>
+        <v>1814200</v>
       </c>
       <c r="E21" s="3">
-        <v>1630400</v>
+        <v>1829500</v>
       </c>
       <c r="F21" s="3">
-        <v>1749000</v>
+        <v>1575300</v>
       </c>
       <c r="G21" s="3">
-        <v>84700</v>
+        <v>1689800</v>
       </c>
       <c r="H21" s="3">
-        <v>558900</v>
+        <v>81800</v>
       </c>
       <c r="I21" s="3">
-        <v>-1902500</v>
+        <v>540000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1838200</v>
+      </c>
+      <c r="K21" s="3">
         <v>20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1710500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1665100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>983000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1906800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1963600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1504300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1859100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1431700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1312700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1717300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1479000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1321000</v>
+        <v>1252400</v>
       </c>
       <c r="E23" s="3">
-        <v>1090700</v>
+        <v>1276400</v>
       </c>
       <c r="F23" s="3">
-        <v>1179900</v>
+        <v>1053800</v>
       </c>
       <c r="G23" s="3">
-        <v>-518300</v>
+        <v>1140000</v>
       </c>
       <c r="H23" s="3">
-        <v>-36100</v>
+        <v>-500700</v>
       </c>
       <c r="I23" s="3">
-        <v>-2539300</v>
+        <v>-34900</v>
       </c>
       <c r="J23" s="3">
+        <v>-2453500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-636800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>769300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1010500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1006000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>321700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1230200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1381600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>936600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1372200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>785400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>426400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1014200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>574000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>518300</v>
+        <v>627300</v>
       </c>
       <c r="E24" s="3">
-        <v>423400</v>
+        <v>500700</v>
       </c>
       <c r="F24" s="3">
-        <v>442600</v>
+        <v>409100</v>
       </c>
       <c r="G24" s="3">
-        <v>281100</v>
+        <v>427600</v>
       </c>
       <c r="H24" s="3">
-        <v>71100</v>
+        <v>271600</v>
       </c>
       <c r="I24" s="3">
-        <v>-281100</v>
+        <v>68700</v>
       </c>
       <c r="J24" s="3">
+        <v>-271600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-53100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-297700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>352800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>389400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>267900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>132500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>480300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>664800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>336000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>887500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>227800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>194900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>186600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>802800</v>
+        <v>625100</v>
       </c>
       <c r="E26" s="3">
-        <v>667300</v>
+        <v>775600</v>
       </c>
       <c r="F26" s="3">
-        <v>737300</v>
+        <v>644700</v>
       </c>
       <c r="G26" s="3">
-        <v>-799400</v>
+        <v>712400</v>
       </c>
       <c r="H26" s="3">
-        <v>-107300</v>
+        <v>-772400</v>
       </c>
       <c r="I26" s="3">
-        <v>-2258200</v>
+        <v>-103600</v>
       </c>
       <c r="J26" s="3">
+        <v>-2181800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-583700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>416500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>621100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>738100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>189300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>750000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>716800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>484700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>557600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>359000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>819300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>387400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>780200</v>
+        <v>596700</v>
       </c>
       <c r="E27" s="3">
-        <v>641300</v>
+        <v>753800</v>
       </c>
       <c r="F27" s="3">
-        <v>714700</v>
+        <v>619600</v>
       </c>
       <c r="G27" s="3">
-        <v>-818600</v>
+        <v>690500</v>
       </c>
       <c r="H27" s="3">
-        <v>-123100</v>
+        <v>-790900</v>
       </c>
       <c r="I27" s="3">
-        <v>-2275100</v>
+        <v>-118900</v>
       </c>
       <c r="J27" s="3">
+        <v>-2198200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-557800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>399300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>609400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>718900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>192800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>731000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>692000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>587400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>466700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>529600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>345600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>363900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2105,31 +2165,34 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>406900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>74700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>129000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>53900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>57200</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>351000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-205500</v>
+        <v>-76400</v>
       </c>
       <c r="E32" s="3">
-        <v>-273200</v>
+        <v>-198500</v>
       </c>
       <c r="F32" s="3">
-        <v>-57600</v>
+        <v>-264000</v>
       </c>
       <c r="G32" s="3">
-        <v>-514900</v>
+        <v>-55600</v>
       </c>
       <c r="H32" s="3">
-        <v>163700</v>
+        <v>-497500</v>
       </c>
       <c r="I32" s="3">
-        <v>1191200</v>
+        <v>158200</v>
       </c>
       <c r="J32" s="3">
+        <v>1150900</v>
+      </c>
+      <c r="K32" s="3">
         <v>71100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-68200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-604500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-141900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-647000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-79100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-386000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-55000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-23500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>780200</v>
+        <v>596700</v>
       </c>
       <c r="E33" s="3">
-        <v>641300</v>
+        <v>753800</v>
       </c>
       <c r="F33" s="3">
-        <v>714700</v>
+        <v>619600</v>
       </c>
       <c r="G33" s="3">
-        <v>-818600</v>
+        <v>690500</v>
       </c>
       <c r="H33" s="3">
-        <v>-123100</v>
+        <v>-790900</v>
       </c>
       <c r="I33" s="3">
-        <v>-2275100</v>
+        <v>-118900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2198200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-557800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>399300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>609400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>718900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>192800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>731000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1098900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>662100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>595800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>583400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>402800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>714900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>780200</v>
+        <v>596700</v>
       </c>
       <c r="E35" s="3">
-        <v>641300</v>
+        <v>753800</v>
       </c>
       <c r="F35" s="3">
-        <v>714700</v>
+        <v>619600</v>
       </c>
       <c r="G35" s="3">
-        <v>-818600</v>
+        <v>690500</v>
       </c>
       <c r="H35" s="3">
-        <v>-123100</v>
+        <v>-790900</v>
       </c>
       <c r="I35" s="3">
-        <v>-2275100</v>
+        <v>-118900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2198200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-557800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>399300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>609400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>718900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>192800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>731000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1098900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>662100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>595800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>583400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>402800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>714900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6307200</v>
+        <v>2736000</v>
       </c>
       <c r="E41" s="3">
-        <v>2349700</v>
+        <v>6093800</v>
       </c>
       <c r="F41" s="3">
-        <v>4741100</v>
+        <v>2270200</v>
       </c>
       <c r="G41" s="3">
-        <v>4878800</v>
+        <v>4580700</v>
       </c>
       <c r="H41" s="3">
-        <v>5610500</v>
+        <v>4713800</v>
       </c>
       <c r="I41" s="3">
-        <v>2722300</v>
+        <v>5420700</v>
       </c>
       <c r="J41" s="3">
+        <v>2630200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3572500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2766800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3369900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3536300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4047900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4878300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4075100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4867600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3447700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4210800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4976000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4707900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3505000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3764400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2268400</v>
+        <v>6041500</v>
       </c>
       <c r="E42" s="3">
-        <v>5114800</v>
+        <v>2191600</v>
       </c>
       <c r="F42" s="3">
-        <v>1680100</v>
+        <v>4941800</v>
       </c>
       <c r="G42" s="3">
-        <v>1788500</v>
+        <v>1623300</v>
       </c>
       <c r="H42" s="3">
-        <v>911200</v>
+        <v>1728000</v>
       </c>
       <c r="I42" s="3">
-        <v>4778400</v>
+        <v>880400</v>
       </c>
       <c r="J42" s="3">
+        <v>4616700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2947000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4175800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4558200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3713900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3112500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3092100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4239500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3934300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1120000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1307100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1776100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2053200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2553000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3314800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7966900</v>
+        <v>8986900</v>
       </c>
       <c r="E43" s="3">
-        <v>5906300</v>
+        <v>7697500</v>
       </c>
       <c r="F43" s="3">
-        <v>4904800</v>
+        <v>5706600</v>
       </c>
       <c r="G43" s="3">
-        <v>4579600</v>
+        <v>4738900</v>
       </c>
       <c r="H43" s="3">
-        <v>4452000</v>
+        <v>4424700</v>
       </c>
       <c r="I43" s="3">
-        <v>4393300</v>
+        <v>4301500</v>
       </c>
       <c r="J43" s="3">
+        <v>4244700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5032400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6704400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6956700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7652500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7406900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>7350500</v>
       </c>
       <c r="Q43" s="3">
         <v>7350500</v>
       </c>
       <c r="R43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="S43" s="3">
         <v>5817200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6565900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6948500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6438000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6217700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6832700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5913100</v>
+        <v>5702200</v>
       </c>
       <c r="E44" s="3">
-        <v>5211900</v>
+        <v>5713100</v>
       </c>
       <c r="F44" s="3">
-        <v>4863000</v>
+        <v>5035600</v>
       </c>
       <c r="G44" s="3">
-        <v>3815200</v>
+        <v>4698500</v>
       </c>
       <c r="H44" s="3">
-        <v>3868300</v>
+        <v>3686200</v>
       </c>
       <c r="I44" s="3">
-        <v>3665100</v>
+        <v>3737500</v>
       </c>
       <c r="J44" s="3">
+        <v>3541100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4287200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5366600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5233200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5619700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5191500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5192900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5726400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5582100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4773000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4260200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4026800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3611700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4407700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4231600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1178800</v>
+        <v>1015600</v>
       </c>
       <c r="E45" s="3">
-        <v>1262300</v>
+        <v>1138900</v>
       </c>
       <c r="F45" s="3">
-        <v>433600</v>
+        <v>1219600</v>
       </c>
       <c r="G45" s="3">
-        <v>275500</v>
+        <v>418900</v>
       </c>
       <c r="H45" s="3">
-        <v>460700</v>
+        <v>266200</v>
       </c>
       <c r="I45" s="3">
-        <v>833300</v>
+        <v>445100</v>
       </c>
       <c r="J45" s="3">
+        <v>805100</v>
+      </c>
+      <c r="K45" s="3">
         <v>223600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>233500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>251100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>241200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>265600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>357200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>428200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>275600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3861700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>228900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>279400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>389300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>483600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>552900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23634300</v>
+        <v>24482200</v>
       </c>
       <c r="E46" s="3">
-        <v>19845100</v>
+        <v>22834900</v>
       </c>
       <c r="F46" s="3">
-        <v>16622600</v>
+        <v>19173800</v>
       </c>
       <c r="G46" s="3">
-        <v>15337700</v>
+        <v>16060400</v>
       </c>
       <c r="H46" s="3">
-        <v>15302700</v>
+        <v>14818900</v>
       </c>
       <c r="I46" s="3">
-        <v>16392300</v>
+        <v>14785100</v>
       </c>
       <c r="J46" s="3">
+        <v>15837800</v>
+      </c>
+      <c r="K46" s="3">
         <v>16062600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19247100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20369100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20763500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20024400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20457100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21819800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22010200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19019600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16572900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18006800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17200100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17167000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18696400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5367700</v>
+        <v>5239600</v>
       </c>
       <c r="E47" s="3">
-        <v>5062900</v>
+        <v>5186200</v>
       </c>
       <c r="F47" s="3">
-        <v>8284200</v>
+        <v>4891600</v>
       </c>
       <c r="G47" s="3">
-        <v>7692600</v>
+        <v>8004000</v>
       </c>
       <c r="H47" s="3">
-        <v>7817900</v>
+        <v>7432400</v>
       </c>
       <c r="I47" s="3">
-        <v>8236800</v>
+        <v>7553500</v>
       </c>
       <c r="J47" s="3">
+        <v>7958200</v>
+      </c>
+      <c r="K47" s="3">
         <v>9161500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9772400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11049400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10022900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10278900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9853600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9543600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9340200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8446900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12687500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11871800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12058000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13548100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13358000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23610600</v>
+        <v>23701100</v>
       </c>
       <c r="E48" s="3">
-        <v>23354300</v>
+        <v>22812000</v>
       </c>
       <c r="F48" s="3">
-        <v>23960600</v>
+        <v>22564400</v>
       </c>
       <c r="G48" s="3">
-        <v>23628700</v>
+        <v>23150200</v>
       </c>
       <c r="H48" s="3">
-        <v>25219600</v>
+        <v>22829500</v>
       </c>
       <c r="I48" s="3">
-        <v>26009900</v>
+        <v>24366600</v>
       </c>
       <c r="J48" s="3">
+        <v>25130200</v>
+      </c>
+      <c r="K48" s="3">
         <v>26449200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27096800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34049800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31932200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32653900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30162800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30003100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29858800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26738500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27676100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27832100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28554600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31491000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32119000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3790400</v>
+        <v>3814900</v>
       </c>
       <c r="E49" s="3">
-        <v>3740700</v>
+        <v>3662200</v>
       </c>
       <c r="F49" s="3">
-        <v>3924800</v>
+        <v>3614200</v>
       </c>
       <c r="G49" s="3">
-        <v>3785900</v>
+        <v>3792000</v>
       </c>
       <c r="H49" s="3">
-        <v>4373000</v>
+        <v>3657800</v>
       </c>
       <c r="I49" s="3">
-        <v>4461100</v>
+        <v>4225100</v>
       </c>
       <c r="J49" s="3">
+        <v>4310200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4833700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5218300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6786400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6158500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6091100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6028100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5760700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5636500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5014600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5143200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5203800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5350800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5999300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5997000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5161100</v>
+        <v>4130200</v>
       </c>
       <c r="E52" s="3">
-        <v>5024500</v>
+        <v>4986500</v>
       </c>
       <c r="F52" s="3">
-        <v>5139700</v>
+        <v>4854500</v>
       </c>
       <c r="G52" s="3">
-        <v>5222100</v>
+        <v>4965800</v>
       </c>
       <c r="H52" s="3">
-        <v>5258200</v>
+        <v>5045500</v>
       </c>
       <c r="I52" s="3">
-        <v>5411800</v>
+        <v>5080400</v>
       </c>
       <c r="J52" s="3">
+        <v>5228700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6383900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6252600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5782000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5210300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5516900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5392800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4788400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5014300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4673100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5079200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5225100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5249800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5865500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5950000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61564200</v>
+        <v>61368100</v>
       </c>
       <c r="E54" s="3">
-        <v>57027500</v>
+        <v>59481900</v>
       </c>
       <c r="F54" s="3">
-        <v>57931900</v>
+        <v>55098600</v>
       </c>
       <c r="G54" s="3">
-        <v>55666900</v>
+        <v>55972400</v>
       </c>
       <c r="H54" s="3">
-        <v>57971400</v>
+        <v>53784000</v>
       </c>
       <c r="I54" s="3">
-        <v>60511900</v>
+        <v>56010600</v>
       </c>
       <c r="J54" s="3">
+        <v>58465100</v>
+      </c>
+      <c r="K54" s="3">
         <v>62890900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67587200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78036800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74087300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74565100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71894300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71915600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71860000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63892600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>67159000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68139600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68413300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>74070900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76120400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11621800</v>
+        <v>12243300</v>
       </c>
       <c r="E57" s="3">
-        <v>9323000</v>
+        <v>11228700</v>
       </c>
       <c r="F57" s="3">
-        <v>8388100</v>
+        <v>9007600</v>
       </c>
       <c r="G57" s="3">
-        <v>6660600</v>
+        <v>8104400</v>
       </c>
       <c r="H57" s="3">
-        <v>6511500</v>
+        <v>6435300</v>
       </c>
       <c r="I57" s="3">
-        <v>5634200</v>
+        <v>6291300</v>
       </c>
       <c r="J57" s="3">
+        <v>5443600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6435900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8335300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7972200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9317100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8511000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3837300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3728500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3610200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2720800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3072000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2957600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2294500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2183300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2497900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5603700</v>
+        <v>5030200</v>
       </c>
       <c r="E58" s="3">
-        <v>5809200</v>
+        <v>5414200</v>
       </c>
       <c r="F58" s="3">
-        <v>4550300</v>
+        <v>5612700</v>
       </c>
       <c r="G58" s="3">
-        <v>4091900</v>
+        <v>4396400</v>
       </c>
       <c r="H58" s="3">
-        <v>4648500</v>
+        <v>4232700</v>
       </c>
       <c r="I58" s="3">
-        <v>5937900</v>
+        <v>4491300</v>
       </c>
       <c r="J58" s="3">
+        <v>5737100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7662100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7521600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7498200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6924300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5545600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4443000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3917800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4818000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5413100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4645000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4755000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4507000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4885400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4577900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1402300</v>
+        <v>1618900</v>
       </c>
       <c r="E59" s="3">
-        <v>1462200</v>
+        <v>1354900</v>
       </c>
       <c r="F59" s="3">
-        <v>1079400</v>
+        <v>1412700</v>
       </c>
       <c r="G59" s="3">
-        <v>1124600</v>
+        <v>1042900</v>
       </c>
       <c r="H59" s="3">
-        <v>868300</v>
+        <v>807300</v>
       </c>
       <c r="I59" s="3">
-        <v>1378600</v>
+        <v>838900</v>
       </c>
       <c r="J59" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1039900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1753400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1199300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1298700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1009600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6872600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6455100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6282400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5432900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5786100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8402600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8407100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9159200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10222700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18627900</v>
+        <v>18892400</v>
       </c>
       <c r="E60" s="3">
-        <v>16594400</v>
+        <v>17997800</v>
       </c>
       <c r="F60" s="3">
-        <v>14017800</v>
+        <v>16033100</v>
       </c>
       <c r="G60" s="3">
-        <v>11877000</v>
+        <v>13543600</v>
       </c>
       <c r="H60" s="3">
-        <v>12028300</v>
+        <v>11475300</v>
       </c>
       <c r="I60" s="3">
-        <v>12950800</v>
+        <v>11621500</v>
       </c>
       <c r="J60" s="3">
+        <v>12512700</v>
+      </c>
+      <c r="K60" s="3">
         <v>15137800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17610400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16669700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17540100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15066100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15152900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14101400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14710500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13566900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13503100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16115100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15208600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16227900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17298400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11027900</v>
+        <v>11110900</v>
       </c>
       <c r="E61" s="3">
-        <v>9473100</v>
+        <v>10654900</v>
       </c>
       <c r="F61" s="3">
-        <v>13308700</v>
+        <v>9152700</v>
       </c>
       <c r="G61" s="3">
-        <v>13475800</v>
+        <v>12858600</v>
       </c>
       <c r="H61" s="3">
-        <v>14014400</v>
+        <v>120000</v>
       </c>
       <c r="I61" s="3">
-        <v>14178100</v>
+        <v>13540400</v>
       </c>
       <c r="J61" s="3">
+        <v>13698600</v>
+      </c>
+      <c r="K61" s="3">
         <v>12542000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12560200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14197600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12439300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14081700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9411200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9276300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9184000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8428200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9798300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10427800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11184000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11583200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12848500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7348200</v>
+        <v>6498600</v>
       </c>
       <c r="E62" s="3">
-        <v>7291700</v>
+        <v>7099600</v>
       </c>
       <c r="F62" s="3">
-        <v>7117800</v>
+        <v>7045100</v>
       </c>
       <c r="G62" s="3">
-        <v>7123500</v>
+        <v>6877100</v>
       </c>
       <c r="H62" s="3">
-        <v>7036600</v>
+        <v>19782600</v>
       </c>
       <c r="I62" s="3">
-        <v>7481400</v>
+        <v>6798600</v>
       </c>
       <c r="J62" s="3">
+        <v>7228400</v>
+      </c>
+      <c r="K62" s="3">
         <v>7493800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7987400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8459800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7725400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8122200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10762000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11249400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11108600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9743700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10127100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7874100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8155700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9372900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9455000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37300900</v>
+        <v>36916400</v>
       </c>
       <c r="E66" s="3">
-        <v>33647200</v>
+        <v>36039300</v>
       </c>
       <c r="F66" s="3">
-        <v>34727700</v>
+        <v>32509100</v>
       </c>
       <c r="G66" s="3">
-        <v>32751800</v>
+        <v>33553100</v>
       </c>
       <c r="H66" s="3">
-        <v>33355900</v>
+        <v>31644000</v>
       </c>
       <c r="I66" s="3">
-        <v>34890300</v>
+        <v>32227700</v>
       </c>
       <c r="J66" s="3">
+        <v>33710200</v>
+      </c>
+      <c r="K66" s="3">
         <v>35458300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38486000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39671300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38024800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37593000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35664400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34981900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35346200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32038500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33731500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34715500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34829900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>37479800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39888400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2189300</v>
+        <v>2726200</v>
       </c>
       <c r="E72" s="3">
-        <v>15522900</v>
+        <v>2115300</v>
       </c>
       <c r="F72" s="3">
-        <v>731700</v>
+        <v>14997800</v>
       </c>
       <c r="G72" s="3">
-        <v>15542100</v>
+        <v>706900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2910800</v>
+        <v>-3588000</v>
       </c>
       <c r="I72" s="3">
-        <v>17909800</v>
+        <v>-2812400</v>
       </c>
       <c r="J72" s="3">
+        <v>17304000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-549900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19422200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28052300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26559600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26621400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25795500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27093100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26343200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23588300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23824300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23432800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22843700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23736800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22936200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24263200</v>
+        <v>24451700</v>
       </c>
       <c r="E76" s="3">
-        <v>23380300</v>
+        <v>23442600</v>
       </c>
       <c r="F76" s="3">
-        <v>23204100</v>
+        <v>22589500</v>
       </c>
       <c r="G76" s="3">
-        <v>22915100</v>
+        <v>22419300</v>
       </c>
       <c r="H76" s="3">
-        <v>24615500</v>
+        <v>22140000</v>
       </c>
       <c r="I76" s="3">
-        <v>25621500</v>
+        <v>23782900</v>
       </c>
       <c r="J76" s="3">
+        <v>24754900</v>
+      </c>
+      <c r="K76" s="3">
         <v>27432600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29101200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38365500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36062500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36972100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36229900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36933700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36513800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31854100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33427400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33424100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33583400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36591200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36232000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>780200</v>
+        <v>596700</v>
       </c>
       <c r="E81" s="3">
-        <v>641300</v>
+        <v>753800</v>
       </c>
       <c r="F81" s="3">
-        <v>714700</v>
+        <v>619600</v>
       </c>
       <c r="G81" s="3">
-        <v>-818600</v>
+        <v>690500</v>
       </c>
       <c r="H81" s="3">
-        <v>-123100</v>
+        <v>-790900</v>
       </c>
       <c r="I81" s="3">
-        <v>-2275100</v>
+        <v>-118900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2198200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-557800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>399300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>609400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>718900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>192800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>731000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1098900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>662100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>595800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>583400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>402800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>714900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>572500</v>
+        <v>561800</v>
       </c>
       <c r="E83" s="3">
-        <v>539700</v>
+        <v>553100</v>
       </c>
       <c r="F83" s="3">
-        <v>569100</v>
+        <v>521500</v>
       </c>
       <c r="G83" s="3">
-        <v>602900</v>
+        <v>549800</v>
       </c>
       <c r="H83" s="3">
-        <v>595000</v>
+        <v>582500</v>
       </c>
       <c r="I83" s="3">
-        <v>636800</v>
+        <v>574900</v>
       </c>
       <c r="J83" s="3">
+        <v>615300</v>
+      </c>
+      <c r="K83" s="3">
         <v>657100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>806700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>731300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>659100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>661200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>676600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>582000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>567700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>486900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>646300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>886400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>703100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>905000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1437300</v>
+        <v>2033500</v>
       </c>
       <c r="E89" s="3">
-        <v>818600</v>
+        <v>1388700</v>
       </c>
       <c r="F89" s="3">
-        <v>920200</v>
+        <v>790900</v>
       </c>
       <c r="G89" s="3">
-        <v>1133600</v>
+        <v>889100</v>
       </c>
       <c r="H89" s="3">
-        <v>1261200</v>
+        <v>1095300</v>
       </c>
       <c r="I89" s="3">
-        <v>342100</v>
+        <v>1218500</v>
       </c>
       <c r="J89" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K89" s="3">
         <v>354500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2033600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1512900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1307000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>910300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2081900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1715200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>697900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>855300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2070100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1330700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1574200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>797000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1934400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-481000</v>
+        <v>-903300</v>
       </c>
       <c r="E91" s="3">
-        <v>-373700</v>
+        <v>-464700</v>
       </c>
       <c r="F91" s="3">
-        <v>-357900</v>
+        <v>-361100</v>
       </c>
       <c r="G91" s="3">
-        <v>-657100</v>
+        <v>-345800</v>
       </c>
       <c r="H91" s="3">
-        <v>-406500</v>
+        <v>-634900</v>
       </c>
       <c r="I91" s="3">
-        <v>-461800</v>
+        <v>-392700</v>
       </c>
       <c r="J91" s="3">
+        <v>-446200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-604100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-853800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-807000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-534700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-729800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-684900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-584100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-570000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-536300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-475400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-732500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-782500</v>
+        <v>-1412700</v>
       </c>
       <c r="E94" s="3">
-        <v>-818600</v>
+        <v>-756000</v>
       </c>
       <c r="F94" s="3">
-        <v>-248400</v>
+        <v>-790900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1289400</v>
+        <v>-240000</v>
       </c>
       <c r="H94" s="3">
-        <v>280000</v>
+        <v>-1245800</v>
       </c>
       <c r="I94" s="3">
-        <v>641300</v>
+        <v>270500</v>
       </c>
       <c r="J94" s="3">
+        <v>619600</v>
+      </c>
+      <c r="K94" s="3">
         <v>618700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-108900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-811500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2310200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-612700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-996300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-878500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-648500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-633900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-531700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-504700</v>
+        <v>-34900</v>
       </c>
       <c r="E96" s="3">
-        <v>-31600</v>
+        <v>-487600</v>
       </c>
       <c r="F96" s="3">
-        <v>-133200</v>
+        <v>-30500</v>
       </c>
       <c r="G96" s="3">
-        <v>-20300</v>
+        <v>-128700</v>
       </c>
       <c r="H96" s="3">
-        <v>-225800</v>
+        <v>-19600</v>
       </c>
       <c r="I96" s="3">
-        <v>12400</v>
+        <v>-218200</v>
       </c>
       <c r="J96" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-156900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>14000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-253600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>15300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-256000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-119500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-215200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-212100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-162000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>132100</v>
+        <v>-680700</v>
       </c>
       <c r="E100" s="3">
-        <v>814100</v>
+        <v>127600</v>
       </c>
       <c r="F100" s="3">
-        <v>-838900</v>
+        <v>786500</v>
       </c>
       <c r="G100" s="3">
-        <v>-589400</v>
+        <v>-810500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1896900</v>
+        <v>-569500</v>
       </c>
       <c r="I100" s="3">
-        <v>1450900</v>
+        <v>-1832700</v>
       </c>
       <c r="J100" s="3">
+        <v>1401800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-788100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-372900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-236600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-794900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-591300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>219900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>98600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-28200</v>
+        <v>69800</v>
       </c>
       <c r="E101" s="3">
-        <v>-6800</v>
+        <v>-27300</v>
       </c>
       <c r="F101" s="3">
-        <v>29400</v>
+        <v>-6500</v>
       </c>
       <c r="G101" s="3">
-        <v>13500</v>
+        <v>28400</v>
       </c>
       <c r="H101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-39500</v>
-      </c>
       <c r="J101" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K101" s="3">
         <v>23700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>35500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>31900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-19100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-29200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>24700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>758800</v>
+        <v>9800</v>
       </c>
       <c r="E102" s="3">
-        <v>807300</v>
+        <v>733100</v>
       </c>
       <c r="F102" s="3">
-        <v>-137800</v>
+        <v>780000</v>
       </c>
       <c r="G102" s="3">
-        <v>-731700</v>
+        <v>-133100</v>
       </c>
       <c r="H102" s="3">
-        <v>-356800</v>
+        <v>-706900</v>
       </c>
       <c r="I102" s="3">
-        <v>2394800</v>
+        <v>-344700</v>
       </c>
       <c r="J102" s="3">
+        <v>2313800</v>
+      </c>
+      <c r="K102" s="3">
         <v>208900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-845200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-733800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-201200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-374400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-609200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-498000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2245100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-853100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-144700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1116400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1526000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16900400</v>
+        <v>17991000</v>
       </c>
       <c r="E8" s="3">
-        <v>14577800</v>
+        <v>16079100</v>
       </c>
       <c r="F8" s="3">
-        <v>11808000</v>
+        <v>13869500</v>
       </c>
       <c r="G8" s="3">
-        <v>10981100</v>
+        <v>11234200</v>
       </c>
       <c r="H8" s="3">
-        <v>9307600</v>
+        <v>10447500</v>
       </c>
       <c r="I8" s="3">
-        <v>8822200</v>
+        <v>8855400</v>
       </c>
       <c r="J8" s="3">
+        <v>8393500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6661100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11919900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14269300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14910600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15069700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14501500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15497200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15703000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14765000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12094500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12700900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11270400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11424100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11880100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11748700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12992700</v>
+        <v>13381600</v>
       </c>
       <c r="E9" s="3">
-        <v>11338900</v>
+        <v>12361400</v>
       </c>
       <c r="F9" s="3">
-        <v>8694600</v>
+        <v>10787900</v>
       </c>
       <c r="G9" s="3">
-        <v>7837100</v>
+        <v>8272100</v>
       </c>
       <c r="H9" s="3">
-        <v>7021100</v>
+        <v>7456300</v>
       </c>
       <c r="I9" s="3">
-        <v>6559600</v>
+        <v>6679900</v>
       </c>
       <c r="J9" s="3">
+        <v>6240900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4988700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10154000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10917600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11619000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11461700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11033700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12563600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11959100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10741900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8909200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9153200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7993100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8607900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8323500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7909100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3907600</v>
+        <v>4609300</v>
       </c>
       <c r="E10" s="3">
-        <v>3238900</v>
+        <v>3717800</v>
       </c>
       <c r="F10" s="3">
-        <v>3113500</v>
+        <v>3081500</v>
       </c>
       <c r="G10" s="3">
-        <v>3144000</v>
+        <v>2962200</v>
       </c>
       <c r="H10" s="3">
-        <v>2286500</v>
+        <v>2991200</v>
       </c>
       <c r="I10" s="3">
-        <v>2262500</v>
+        <v>2175400</v>
       </c>
       <c r="J10" s="3">
+        <v>2152600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1672400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1765900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3351600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3291500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3608000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3467800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2933600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3743900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4023000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3185300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3547700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3277300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2816200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3556600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3839500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>616400</v>
+        <v>181600</v>
       </c>
       <c r="E14" s="3">
-        <v>48000</v>
+        <v>586400</v>
       </c>
       <c r="F14" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="G14" s="3">
-        <v>-16400</v>
+        <v>43600</v>
       </c>
       <c r="H14" s="3">
-        <v>1651600</v>
+        <v>-15600</v>
       </c>
       <c r="I14" s="3">
-        <v>-15300</v>
+        <v>1571400</v>
       </c>
       <c r="J14" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K14" s="3">
         <v>650200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6343700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-12200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-162300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>971200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>538200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>91100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>226600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-210900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>50500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>56300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>561800</v>
+        <v>591600</v>
       </c>
       <c r="E15" s="3">
-        <v>553100</v>
+        <v>534500</v>
       </c>
       <c r="F15" s="3">
-        <v>521500</v>
+        <v>526200</v>
       </c>
       <c r="G15" s="3">
-        <v>549800</v>
+        <v>496100</v>
       </c>
       <c r="H15" s="3">
-        <v>582500</v>
+        <v>523100</v>
       </c>
       <c r="I15" s="3">
-        <v>574900</v>
+        <v>554200</v>
       </c>
       <c r="J15" s="3">
+        <v>547000</v>
+      </c>
+      <c r="K15" s="3">
         <v>617500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>654900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>806700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>731300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>659100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>661200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>676600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>582000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>567700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>486900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>646300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>886400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>703100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>907400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15724400</v>
+        <v>15972200</v>
       </c>
       <c r="E17" s="3">
-        <v>13500000</v>
+        <v>14960300</v>
       </c>
       <c r="F17" s="3">
-        <v>11018200</v>
+        <v>12844000</v>
       </c>
       <c r="G17" s="3">
-        <v>9896700</v>
+        <v>10482800</v>
       </c>
       <c r="H17" s="3">
-        <v>10305800</v>
+        <v>9415800</v>
       </c>
       <c r="I17" s="3">
-        <v>8698900</v>
+        <v>9805000</v>
       </c>
       <c r="J17" s="3">
+        <v>8276200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7963600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12485600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20674800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14180500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14055600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13563700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15779900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14614700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14030400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11236900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11714700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10540000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10959600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10889400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11171100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1176000</v>
+        <v>2018700</v>
       </c>
       <c r="E18" s="3">
-        <v>1077800</v>
+        <v>1118900</v>
       </c>
       <c r="F18" s="3">
-        <v>789800</v>
+        <v>1025400</v>
       </c>
       <c r="G18" s="3">
-        <v>1084400</v>
+        <v>751400</v>
       </c>
       <c r="H18" s="3">
-        <v>-998200</v>
+        <v>1031700</v>
       </c>
       <c r="I18" s="3">
-        <v>123300</v>
+        <v>-949700</v>
       </c>
       <c r="J18" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-565700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>730100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1014100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>937800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-282700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1088300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>734600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>857500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>986200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>730400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>464500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>990700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>577500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>76400</v>
+        <v>234600</v>
       </c>
       <c r="E20" s="3">
-        <v>198500</v>
+        <v>72700</v>
       </c>
       <c r="F20" s="3">
-        <v>264000</v>
+        <v>188900</v>
       </c>
       <c r="G20" s="3">
-        <v>55600</v>
+        <v>251200</v>
       </c>
       <c r="H20" s="3">
-        <v>497500</v>
+        <v>52900</v>
       </c>
       <c r="I20" s="3">
-        <v>-158200</v>
+        <v>473300</v>
       </c>
       <c r="J20" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-49000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>68200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>604500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>141900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>647000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>79100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>386000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>55000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-38100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>23500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1814200</v>
+        <v>2844900</v>
       </c>
       <c r="E21" s="3">
-        <v>1829500</v>
+        <v>1726000</v>
       </c>
       <c r="F21" s="3">
-        <v>1575300</v>
+        <v>1740600</v>
       </c>
       <c r="G21" s="3">
-        <v>1689800</v>
+        <v>1498700</v>
       </c>
       <c r="H21" s="3">
-        <v>81800</v>
+        <v>1607700</v>
       </c>
       <c r="I21" s="3">
-        <v>540000</v>
+        <v>77800</v>
       </c>
       <c r="J21" s="3">
+        <v>513800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1710500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1665100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>983000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1906800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1963600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1504300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1859100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1431700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1312700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1717300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1479000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1252400</v>
+        <v>2253300</v>
       </c>
       <c r="E23" s="3">
-        <v>1276400</v>
+        <v>1191500</v>
       </c>
       <c r="F23" s="3">
-        <v>1053800</v>
+        <v>1214300</v>
       </c>
       <c r="G23" s="3">
-        <v>1140000</v>
+        <v>1002600</v>
       </c>
       <c r="H23" s="3">
-        <v>-500700</v>
+        <v>1084600</v>
       </c>
       <c r="I23" s="3">
-        <v>-34900</v>
+        <v>-476400</v>
       </c>
       <c r="J23" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-636800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>769300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1010500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1006000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>321700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1230200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1381600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>936600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1372200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>785400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>426400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1014200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>574000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>627300</v>
+        <v>785700</v>
       </c>
       <c r="E24" s="3">
-        <v>500700</v>
+        <v>596800</v>
       </c>
       <c r="F24" s="3">
-        <v>409100</v>
+        <v>476400</v>
       </c>
       <c r="G24" s="3">
-        <v>427600</v>
+        <v>389200</v>
       </c>
       <c r="H24" s="3">
-        <v>271600</v>
+        <v>406900</v>
       </c>
       <c r="I24" s="3">
-        <v>68700</v>
+        <v>258400</v>
       </c>
       <c r="J24" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-271600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-53100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-297700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>352800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>389400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>267900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>132500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>480300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>664800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>336000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>887500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>227800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>194900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>186600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>625100</v>
+        <v>1467600</v>
       </c>
       <c r="E26" s="3">
-        <v>775600</v>
+        <v>594700</v>
       </c>
       <c r="F26" s="3">
-        <v>644700</v>
+        <v>737900</v>
       </c>
       <c r="G26" s="3">
-        <v>712400</v>
+        <v>613400</v>
       </c>
       <c r="H26" s="3">
-        <v>-772400</v>
+        <v>677700</v>
       </c>
       <c r="I26" s="3">
-        <v>-103600</v>
+        <v>-734800</v>
       </c>
       <c r="J26" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-583700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>416500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>621100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>738100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>189300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>750000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>716800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>484700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>557600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>359000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>819300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>387400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>596700</v>
+        <v>1429200</v>
       </c>
       <c r="E27" s="3">
-        <v>753800</v>
+        <v>567700</v>
       </c>
       <c r="F27" s="3">
-        <v>619600</v>
+        <v>717200</v>
       </c>
       <c r="G27" s="3">
-        <v>690500</v>
+        <v>589500</v>
       </c>
       <c r="H27" s="3">
-        <v>-790900</v>
+        <v>657000</v>
       </c>
       <c r="I27" s="3">
-        <v>-118900</v>
+        <v>-752500</v>
       </c>
       <c r="J27" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-557800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>399300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>609400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>718900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>192800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>731000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>692000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>587400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>466700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>529600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>345600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>363900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2168,31 +2229,34 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>406900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>74700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>129000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>53900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>57200</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>351000</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-76400</v>
+        <v>-234600</v>
       </c>
       <c r="E32" s="3">
-        <v>-198500</v>
+        <v>-72700</v>
       </c>
       <c r="F32" s="3">
-        <v>-264000</v>
+        <v>-188900</v>
       </c>
       <c r="G32" s="3">
-        <v>-55600</v>
+        <v>-251200</v>
       </c>
       <c r="H32" s="3">
-        <v>-497500</v>
+        <v>-52900</v>
       </c>
       <c r="I32" s="3">
-        <v>158200</v>
+        <v>-473300</v>
       </c>
       <c r="J32" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1150900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>49000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-39200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-68200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-604500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-141900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-647000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-79100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-386000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-55000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>38100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-23500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>596700</v>
+        <v>1429200</v>
       </c>
       <c r="E33" s="3">
-        <v>753800</v>
+        <v>567700</v>
       </c>
       <c r="F33" s="3">
-        <v>619600</v>
+        <v>717200</v>
       </c>
       <c r="G33" s="3">
-        <v>690500</v>
+        <v>589500</v>
       </c>
       <c r="H33" s="3">
-        <v>-790900</v>
+        <v>657000</v>
       </c>
       <c r="I33" s="3">
-        <v>-118900</v>
+        <v>-752500</v>
       </c>
       <c r="J33" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-557800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>399300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>609400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>718900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>192800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>731000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1098900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>662100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>595800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>583400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>402800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>714900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>596700</v>
+        <v>1429200</v>
       </c>
       <c r="E35" s="3">
-        <v>753800</v>
+        <v>567700</v>
       </c>
       <c r="F35" s="3">
-        <v>619600</v>
+        <v>717200</v>
       </c>
       <c r="G35" s="3">
-        <v>690500</v>
+        <v>589500</v>
       </c>
       <c r="H35" s="3">
-        <v>-790900</v>
+        <v>657000</v>
       </c>
       <c r="I35" s="3">
-        <v>-118900</v>
+        <v>-752500</v>
       </c>
       <c r="J35" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-557800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>399300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>609400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>718900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>192800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>731000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1098900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>662100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>595800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>583400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>402800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>714900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2736000</v>
+        <v>5140700</v>
       </c>
       <c r="E41" s="3">
-        <v>6093800</v>
+        <v>2603100</v>
       </c>
       <c r="F41" s="3">
-        <v>2270200</v>
+        <v>5797700</v>
       </c>
       <c r="G41" s="3">
-        <v>4580700</v>
+        <v>2159900</v>
       </c>
       <c r="H41" s="3">
-        <v>4713800</v>
+        <v>4358100</v>
       </c>
       <c r="I41" s="3">
-        <v>5420700</v>
+        <v>4484800</v>
       </c>
       <c r="J41" s="3">
+        <v>5157300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2630200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3572500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2766800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3369900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3536300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4047900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4878300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4075100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4867600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3447700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4210800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4976000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4707900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3505000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3764400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6041500</v>
+        <v>2412100</v>
       </c>
       <c r="E42" s="3">
-        <v>2191600</v>
+        <v>5747900</v>
       </c>
       <c r="F42" s="3">
-        <v>4941800</v>
+        <v>2085100</v>
       </c>
       <c r="G42" s="3">
-        <v>1623300</v>
+        <v>4701700</v>
       </c>
       <c r="H42" s="3">
-        <v>1728000</v>
+        <v>1544400</v>
       </c>
       <c r="I42" s="3">
-        <v>880400</v>
+        <v>1644000</v>
       </c>
       <c r="J42" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4616700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2947000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4175800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4558200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3713900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3112500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3092100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4239500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3934300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1120000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1307100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1776100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2053200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2553000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3314800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8986900</v>
+        <v>10010500</v>
       </c>
       <c r="E43" s="3">
-        <v>7697500</v>
+        <v>8550200</v>
       </c>
       <c r="F43" s="3">
-        <v>5706600</v>
+        <v>7323400</v>
       </c>
       <c r="G43" s="3">
-        <v>4738900</v>
+        <v>5429300</v>
       </c>
       <c r="H43" s="3">
-        <v>4424700</v>
+        <v>4508600</v>
       </c>
       <c r="I43" s="3">
-        <v>4301500</v>
+        <v>4209700</v>
       </c>
       <c r="J43" s="3">
+        <v>4092400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4244700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5032400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6704400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6956700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7652500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7406900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>7350500</v>
       </c>
       <c r="R43" s="3">
         <v>7350500</v>
       </c>
       <c r="S43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="T43" s="3">
         <v>5817200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6565900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6948500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6438000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6217700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6832700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5702200</v>
+        <v>7630600</v>
       </c>
       <c r="E44" s="3">
-        <v>5713100</v>
+        <v>5425100</v>
       </c>
       <c r="F44" s="3">
-        <v>5035600</v>
+        <v>5435500</v>
       </c>
       <c r="G44" s="3">
-        <v>4698500</v>
+        <v>4790900</v>
       </c>
       <c r="H44" s="3">
-        <v>3686200</v>
+        <v>4470200</v>
       </c>
       <c r="I44" s="3">
-        <v>3737500</v>
+        <v>3507100</v>
       </c>
       <c r="J44" s="3">
+        <v>3555800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3541100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4287200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5366600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5233200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5619700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5191500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5192900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5726400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5582100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4773000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4260200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4026800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3611700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4407700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4231600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1015600</v>
+        <v>441100</v>
       </c>
       <c r="E45" s="3">
-        <v>1138900</v>
+        <v>966300</v>
       </c>
       <c r="F45" s="3">
-        <v>1219600</v>
+        <v>1083600</v>
       </c>
       <c r="G45" s="3">
-        <v>418900</v>
+        <v>1160400</v>
       </c>
       <c r="H45" s="3">
-        <v>266200</v>
+        <v>398600</v>
       </c>
       <c r="I45" s="3">
-        <v>445100</v>
+        <v>253200</v>
       </c>
       <c r="J45" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K45" s="3">
         <v>805100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>233500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>251100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>241200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>265600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>357200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>428200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>275600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3861700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>228900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>279400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>389300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>483600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>552900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24482200</v>
+        <v>25635100</v>
       </c>
       <c r="E46" s="3">
-        <v>22834900</v>
+        <v>23292600</v>
       </c>
       <c r="F46" s="3">
-        <v>19173800</v>
+        <v>21725300</v>
       </c>
       <c r="G46" s="3">
-        <v>16060400</v>
+        <v>18242100</v>
       </c>
       <c r="H46" s="3">
-        <v>14818900</v>
+        <v>15280000</v>
       </c>
       <c r="I46" s="3">
-        <v>14785100</v>
+        <v>14098800</v>
       </c>
       <c r="J46" s="3">
+        <v>14066700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15837800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16062600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19247100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20369100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20763500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20024400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20457100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21819800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22010200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19019600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16572900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18006800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17200100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17167000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18696400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5239600</v>
+        <v>5468700</v>
       </c>
       <c r="E47" s="3">
-        <v>5186200</v>
+        <v>4985000</v>
       </c>
       <c r="F47" s="3">
-        <v>4891600</v>
+        <v>4934200</v>
       </c>
       <c r="G47" s="3">
-        <v>8004000</v>
+        <v>4653900</v>
       </c>
       <c r="H47" s="3">
-        <v>7432400</v>
+        <v>7615100</v>
       </c>
       <c r="I47" s="3">
-        <v>7553500</v>
+        <v>7071200</v>
       </c>
       <c r="J47" s="3">
+        <v>7186400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7958200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9161500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9772400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11049400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10022900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10278900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9853600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9543600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9340200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8446900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12687500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11871800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12058000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13548100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13358000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23701100</v>
+        <v>23014400</v>
       </c>
       <c r="E48" s="3">
-        <v>22812000</v>
+        <v>22549400</v>
       </c>
       <c r="F48" s="3">
-        <v>22564400</v>
+        <v>21703500</v>
       </c>
       <c r="G48" s="3">
-        <v>23150200</v>
+        <v>21467900</v>
       </c>
       <c r="H48" s="3">
-        <v>22829500</v>
+        <v>22025300</v>
       </c>
       <c r="I48" s="3">
-        <v>24366600</v>
+        <v>21720100</v>
       </c>
       <c r="J48" s="3">
+        <v>23182500</v>
+      </c>
+      <c r="K48" s="3">
         <v>25130200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26449200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27096800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34049800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31932200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32653900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30162800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30003100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29858800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26738500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27676100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27832100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28554600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31491000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32119000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3814900</v>
+        <v>3326500</v>
       </c>
       <c r="E49" s="3">
-        <v>3662200</v>
+        <v>3629500</v>
       </c>
       <c r="F49" s="3">
-        <v>3614200</v>
+        <v>3484200</v>
       </c>
       <c r="G49" s="3">
-        <v>3792000</v>
+        <v>3438600</v>
       </c>
       <c r="H49" s="3">
-        <v>3657800</v>
+        <v>3607700</v>
       </c>
       <c r="I49" s="3">
-        <v>4225100</v>
+        <v>3480100</v>
       </c>
       <c r="J49" s="3">
+        <v>4019800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4310200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4833700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5218300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6786400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6158500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6091100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6028100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5760700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5636500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5014600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5143200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5203800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5350800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5999300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5997000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4130200</v>
+        <v>3862000</v>
       </c>
       <c r="E52" s="3">
-        <v>4986500</v>
+        <v>3929500</v>
       </c>
       <c r="F52" s="3">
-        <v>4854500</v>
+        <v>4744200</v>
       </c>
       <c r="G52" s="3">
-        <v>4965800</v>
+        <v>4618700</v>
       </c>
       <c r="H52" s="3">
-        <v>5045500</v>
+        <v>4724500</v>
       </c>
       <c r="I52" s="3">
-        <v>5080400</v>
+        <v>4800300</v>
       </c>
       <c r="J52" s="3">
+        <v>4833500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5228700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6383900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6252600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5782000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5210300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5516900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5392800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4788400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5014300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4673100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5079200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5225100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5249800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5865500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5950000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61368100</v>
+        <v>61306700</v>
       </c>
       <c r="E54" s="3">
-        <v>59481900</v>
+        <v>58386000</v>
       </c>
       <c r="F54" s="3">
-        <v>55098600</v>
+        <v>56591500</v>
       </c>
       <c r="G54" s="3">
-        <v>55972400</v>
+        <v>52421200</v>
       </c>
       <c r="H54" s="3">
-        <v>53784000</v>
+        <v>53252600</v>
       </c>
       <c r="I54" s="3">
-        <v>56010600</v>
+        <v>51170500</v>
       </c>
       <c r="J54" s="3">
+        <v>53288900</v>
+      </c>
+      <c r="K54" s="3">
         <v>58465100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62890900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67587200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78036800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74087300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>74565100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71894300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71915600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71860000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63892600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>67159000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68139600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68413300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>74070900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76120400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12243300</v>
+        <v>13098300</v>
       </c>
       <c r="E57" s="3">
-        <v>11228700</v>
+        <v>11648400</v>
       </c>
       <c r="F57" s="3">
-        <v>9007600</v>
+        <v>10683100</v>
       </c>
       <c r="G57" s="3">
-        <v>8104400</v>
+        <v>8569900</v>
       </c>
       <c r="H57" s="3">
-        <v>6435300</v>
+        <v>7710600</v>
       </c>
       <c r="I57" s="3">
-        <v>6291300</v>
+        <v>6122600</v>
       </c>
       <c r="J57" s="3">
+        <v>5985600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5443600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6435900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8335300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7972200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9317100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8511000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3837300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3728500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3610200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2720800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3072000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2957600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2294500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2183300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2497900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5030200</v>
+        <v>4573000</v>
       </c>
       <c r="E58" s="3">
-        <v>5414200</v>
+        <v>4785800</v>
       </c>
       <c r="F58" s="3">
-        <v>5612700</v>
+        <v>5151100</v>
       </c>
       <c r="G58" s="3">
-        <v>4396400</v>
+        <v>5340000</v>
       </c>
       <c r="H58" s="3">
-        <v>4232700</v>
+        <v>4182700</v>
       </c>
       <c r="I58" s="3">
-        <v>4491300</v>
+        <v>4027100</v>
       </c>
       <c r="J58" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5737100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7662100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7521600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7498200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6924300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5545600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4443000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3917800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4818000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5413100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4645000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4755000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4507000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4885400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4577900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1618900</v>
+        <v>1454100</v>
       </c>
       <c r="E59" s="3">
-        <v>1354900</v>
+        <v>1540200</v>
       </c>
       <c r="F59" s="3">
-        <v>1412700</v>
+        <v>1289100</v>
       </c>
       <c r="G59" s="3">
-        <v>1042900</v>
+        <v>1344100</v>
       </c>
       <c r="H59" s="3">
-        <v>807300</v>
+        <v>992200</v>
       </c>
       <c r="I59" s="3">
-        <v>838900</v>
+        <v>768000</v>
       </c>
       <c r="J59" s="3">
+        <v>798100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1332000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1039900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1753400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1199300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1298700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1009600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6872600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6455100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6282400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5432900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5786100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8402600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8407100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9159200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10222700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18892400</v>
+        <v>19125400</v>
       </c>
       <c r="E60" s="3">
-        <v>17997800</v>
+        <v>17974400</v>
       </c>
       <c r="F60" s="3">
-        <v>16033100</v>
+        <v>17123300</v>
       </c>
       <c r="G60" s="3">
-        <v>13543600</v>
+        <v>15254000</v>
       </c>
       <c r="H60" s="3">
-        <v>11475300</v>
+        <v>12885500</v>
       </c>
       <c r="I60" s="3">
-        <v>11621500</v>
+        <v>10917700</v>
       </c>
       <c r="J60" s="3">
+        <v>11056700</v>
+      </c>
+      <c r="K60" s="3">
         <v>12512700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15137800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17610400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16669700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17540100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15066100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15152900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14101400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14710500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13566900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13503100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16115100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15208600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16227900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17298400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11110900</v>
+        <v>10667500</v>
       </c>
       <c r="E61" s="3">
-        <v>10654900</v>
+        <v>102800</v>
       </c>
       <c r="F61" s="3">
-        <v>9152700</v>
+        <v>10137200</v>
       </c>
       <c r="G61" s="3">
-        <v>12858600</v>
+        <v>8708000</v>
       </c>
       <c r="H61" s="3">
-        <v>120000</v>
+        <v>12233700</v>
       </c>
       <c r="I61" s="3">
-        <v>13540400</v>
+        <v>114200</v>
       </c>
       <c r="J61" s="3">
+        <v>12882400</v>
+      </c>
+      <c r="K61" s="3">
         <v>13698600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12542000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12560200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14197600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12439300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14081700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9411200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9276300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9184000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8428200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9798300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10427800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11184000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11583200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12848500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6498600</v>
+        <v>6248200</v>
       </c>
       <c r="E62" s="3">
-        <v>7099600</v>
+        <v>16651000</v>
       </c>
       <c r="F62" s="3">
-        <v>7045100</v>
+        <v>6754700</v>
       </c>
       <c r="G62" s="3">
-        <v>6877100</v>
+        <v>6702800</v>
       </c>
       <c r="H62" s="3">
-        <v>19782600</v>
+        <v>6542900</v>
       </c>
       <c r="I62" s="3">
-        <v>6798600</v>
+        <v>18821300</v>
       </c>
       <c r="J62" s="3">
+        <v>6468200</v>
+      </c>
+      <c r="K62" s="3">
         <v>7228400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7493800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7987400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8459800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7725400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8122200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10762000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11249400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11108600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9743700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10127100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7874100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8155700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9372900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9455000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36916400</v>
+        <v>36488400</v>
       </c>
       <c r="E66" s="3">
-        <v>36039300</v>
+        <v>35122500</v>
       </c>
       <c r="F66" s="3">
-        <v>32509100</v>
+        <v>34288100</v>
       </c>
       <c r="G66" s="3">
-        <v>33553100</v>
+        <v>30929400</v>
       </c>
       <c r="H66" s="3">
-        <v>31644000</v>
+        <v>31922700</v>
       </c>
       <c r="I66" s="3">
-        <v>32227700</v>
+        <v>30106400</v>
       </c>
       <c r="J66" s="3">
+        <v>30661600</v>
+      </c>
+      <c r="K66" s="3">
         <v>33710200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35458300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38486000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39671300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38024800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37593000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35664400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34981900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35346200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32038500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33731500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34715500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34829900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>37479800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39888400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2726200</v>
+        <v>1444800</v>
       </c>
       <c r="E72" s="3">
-        <v>2115300</v>
+        <v>2593700</v>
       </c>
       <c r="F72" s="3">
-        <v>14997800</v>
+        <v>2012500</v>
       </c>
       <c r="G72" s="3">
-        <v>706900</v>
+        <v>14269000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3588000</v>
+        <v>672600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2812400</v>
+        <v>-3413700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2675700</v>
+      </c>
+      <c r="K72" s="3">
         <v>17304000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-549900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19422200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28052300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26559600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26621400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25795500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27093100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26343200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23588300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23824300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23432800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22843700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23736800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22936200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24451700</v>
+        <v>24818300</v>
       </c>
       <c r="E76" s="3">
-        <v>23442600</v>
+        <v>23263500</v>
       </c>
       <c r="F76" s="3">
-        <v>22589500</v>
+        <v>22303400</v>
       </c>
       <c r="G76" s="3">
-        <v>22419300</v>
+        <v>21491800</v>
       </c>
       <c r="H76" s="3">
-        <v>22140000</v>
+        <v>21329900</v>
       </c>
       <c r="I76" s="3">
-        <v>23782900</v>
+        <v>21064200</v>
       </c>
       <c r="J76" s="3">
+        <v>22627300</v>
+      </c>
+      <c r="K76" s="3">
         <v>24754900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27432600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29101200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38365500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36062500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36972100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36229900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36933700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36513800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31854100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33427400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33424100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33583400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36591200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36232000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>596700</v>
+        <v>1429200</v>
       </c>
       <c r="E81" s="3">
-        <v>753800</v>
+        <v>567700</v>
       </c>
       <c r="F81" s="3">
-        <v>619600</v>
+        <v>717200</v>
       </c>
       <c r="G81" s="3">
-        <v>690500</v>
+        <v>589500</v>
       </c>
       <c r="H81" s="3">
-        <v>-790900</v>
+        <v>657000</v>
       </c>
       <c r="I81" s="3">
-        <v>-118900</v>
+        <v>-752500</v>
       </c>
       <c r="J81" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-557800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>399300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>609400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>718900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>192800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>731000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1098900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>662100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>595800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>583400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>402800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>714900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>561800</v>
+        <v>591600</v>
       </c>
       <c r="E83" s="3">
-        <v>553100</v>
+        <v>534500</v>
       </c>
       <c r="F83" s="3">
-        <v>521500</v>
+        <v>526200</v>
       </c>
       <c r="G83" s="3">
-        <v>549800</v>
+        <v>496100</v>
       </c>
       <c r="H83" s="3">
-        <v>582500</v>
+        <v>523100</v>
       </c>
       <c r="I83" s="3">
-        <v>574900</v>
+        <v>554200</v>
       </c>
       <c r="J83" s="3">
+        <v>547000</v>
+      </c>
+      <c r="K83" s="3">
         <v>615300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>657100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>806700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>731300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>659100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>661200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>676600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>582000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>567700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>486900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>646300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>886400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>703100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>905000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2033500</v>
+        <v>731700</v>
       </c>
       <c r="E89" s="3">
-        <v>1388700</v>
+        <v>1934600</v>
       </c>
       <c r="F89" s="3">
-        <v>790900</v>
+        <v>1321200</v>
       </c>
       <c r="G89" s="3">
-        <v>889100</v>
+        <v>752500</v>
       </c>
       <c r="H89" s="3">
-        <v>1095300</v>
+        <v>845900</v>
       </c>
       <c r="I89" s="3">
-        <v>1218500</v>
+        <v>1042100</v>
       </c>
       <c r="J89" s="3">
+        <v>1159300</v>
+      </c>
+      <c r="K89" s="3">
         <v>330500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>354500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2033600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1512900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1307000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>910300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2081900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1715200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>697900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>855300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2070100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1330700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1574200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>797000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1934400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-903300</v>
+        <v>-597800</v>
       </c>
       <c r="E91" s="3">
-        <v>-464700</v>
+        <v>-859400</v>
       </c>
       <c r="F91" s="3">
-        <v>-361100</v>
+        <v>-442100</v>
       </c>
       <c r="G91" s="3">
-        <v>-345800</v>
+        <v>-343500</v>
       </c>
       <c r="H91" s="3">
-        <v>-634900</v>
+        <v>-329000</v>
       </c>
       <c r="I91" s="3">
-        <v>-392700</v>
+        <v>-604100</v>
       </c>
       <c r="J91" s="3">
+        <v>-373600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-446200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-604100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-853800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-807000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-534700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-729800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-684900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-584100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-570000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-536300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-475400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-732500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1412700</v>
+        <v>-841700</v>
       </c>
       <c r="E94" s="3">
-        <v>-756000</v>
+        <v>-1344100</v>
       </c>
       <c r="F94" s="3">
-        <v>-790900</v>
+        <v>-719300</v>
       </c>
       <c r="G94" s="3">
-        <v>-240000</v>
+        <v>-752500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1245800</v>
+        <v>-228300</v>
       </c>
       <c r="I94" s="3">
-        <v>270500</v>
+        <v>-1185300</v>
       </c>
       <c r="J94" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K94" s="3">
         <v>619600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>618700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-108900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-811500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2310200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-612700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-996300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-878500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-648500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-633900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-531700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34900</v>
+        <v>-475400</v>
       </c>
       <c r="E96" s="3">
-        <v>-487600</v>
+        <v>-33200</v>
       </c>
       <c r="F96" s="3">
-        <v>-30500</v>
+        <v>-463900</v>
       </c>
       <c r="G96" s="3">
-        <v>-128700</v>
+        <v>-29100</v>
       </c>
       <c r="H96" s="3">
-        <v>-19600</v>
+        <v>-122500</v>
       </c>
       <c r="I96" s="3">
-        <v>-218200</v>
+        <v>-18700</v>
       </c>
       <c r="J96" s="3">
+        <v>-207600</v>
+      </c>
+      <c r="K96" s="3">
         <v>12000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-156900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>14000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-253600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>15300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-256000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-119500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-215200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-212100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-162000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-680700</v>
+        <v>-568800</v>
       </c>
       <c r="E100" s="3">
-        <v>127600</v>
+        <v>-647600</v>
       </c>
       <c r="F100" s="3">
-        <v>786500</v>
+        <v>121400</v>
       </c>
       <c r="G100" s="3">
-        <v>-810500</v>
+        <v>748300</v>
       </c>
       <c r="H100" s="3">
-        <v>-569500</v>
+        <v>-771200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1832700</v>
+        <v>-541800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1743700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1401800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-788100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-35500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-372900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-236600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-794900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-591300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>219900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>98600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69800</v>
+        <v>12500</v>
       </c>
       <c r="E101" s="3">
-        <v>-27300</v>
+        <v>66400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6500</v>
+        <v>-25900</v>
       </c>
       <c r="G101" s="3">
-        <v>28400</v>
+        <v>-6200</v>
       </c>
       <c r="H101" s="3">
-        <v>13100</v>
+        <v>27000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>12500</v>
       </c>
       <c r="J101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>35500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>31900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-19100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-29200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>24700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9800</v>
+        <v>-666300</v>
       </c>
       <c r="E102" s="3">
-        <v>733100</v>
+        <v>9300</v>
       </c>
       <c r="F102" s="3">
-        <v>780000</v>
+        <v>697500</v>
       </c>
       <c r="G102" s="3">
-        <v>-133100</v>
+        <v>742100</v>
       </c>
       <c r="H102" s="3">
-        <v>-706900</v>
+        <v>-126600</v>
       </c>
       <c r="I102" s="3">
-        <v>-344700</v>
+        <v>-672600</v>
       </c>
       <c r="J102" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2313800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>208900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-845200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-733800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-201200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-374400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-609200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-498000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2245100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-853100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-144700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1116400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1526000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17991000</v>
+        <v>20942400</v>
       </c>
       <c r="E8" s="3">
-        <v>16079100</v>
+        <v>17288900</v>
       </c>
       <c r="F8" s="3">
-        <v>13869500</v>
+        <v>15451700</v>
       </c>
       <c r="G8" s="3">
-        <v>11234200</v>
+        <v>13328300</v>
       </c>
       <c r="H8" s="3">
-        <v>10447500</v>
+        <v>10795900</v>
       </c>
       <c r="I8" s="3">
-        <v>8855400</v>
+        <v>10039800</v>
       </c>
       <c r="J8" s="3">
+        <v>8509800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8393500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6661100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11919900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14269300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14910600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15069700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14501500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15497200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15703000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14765000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12094500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12700900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11270400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11424100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11880100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11748700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13381600</v>
+        <v>14906100</v>
       </c>
       <c r="E9" s="3">
-        <v>12361400</v>
+        <v>12859500</v>
       </c>
       <c r="F9" s="3">
-        <v>10787900</v>
+        <v>11879000</v>
       </c>
       <c r="G9" s="3">
-        <v>8272100</v>
+        <v>10367000</v>
       </c>
       <c r="H9" s="3">
-        <v>7456300</v>
+        <v>7949300</v>
       </c>
       <c r="I9" s="3">
-        <v>6679900</v>
+        <v>7165300</v>
       </c>
       <c r="J9" s="3">
+        <v>6419300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6240900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4988700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10154000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10917600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11619000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11461700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11033700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12563600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11959100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10741900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8909200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9153200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7993100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8607900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8323500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7909100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4609300</v>
+        <v>6036300</v>
       </c>
       <c r="E10" s="3">
-        <v>3717800</v>
+        <v>4429500</v>
       </c>
       <c r="F10" s="3">
-        <v>3081500</v>
+        <v>3572700</v>
       </c>
       <c r="G10" s="3">
-        <v>2962200</v>
+        <v>2961300</v>
       </c>
       <c r="H10" s="3">
-        <v>2991200</v>
+        <v>2846600</v>
       </c>
       <c r="I10" s="3">
-        <v>2175400</v>
+        <v>2874500</v>
       </c>
       <c r="J10" s="3">
+        <v>2090600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2152600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1672400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1765900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3351600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3291500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3608000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3467800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2933600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3743900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4023000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3185300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3547700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3277300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2816200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3556600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3839500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>181600</v>
+        <v>1572900</v>
       </c>
       <c r="E14" s="3">
-        <v>586400</v>
+        <v>174500</v>
       </c>
       <c r="F14" s="3">
-        <v>45700</v>
+        <v>563500</v>
       </c>
       <c r="G14" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="H14" s="3">
-        <v>-15600</v>
+        <v>41900</v>
       </c>
       <c r="I14" s="3">
-        <v>1571400</v>
+        <v>-15000</v>
       </c>
       <c r="J14" s="3">
+        <v>1510100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-14500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>650200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6343700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-12200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-162300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>971200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>538200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>91100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>226600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-210900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>50500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>56300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>591600</v>
+        <v>541600</v>
       </c>
       <c r="E15" s="3">
-        <v>534500</v>
+        <v>568500</v>
       </c>
       <c r="F15" s="3">
-        <v>526200</v>
+        <v>513700</v>
       </c>
       <c r="G15" s="3">
-        <v>496100</v>
+        <v>505700</v>
       </c>
       <c r="H15" s="3">
-        <v>523100</v>
+        <v>476800</v>
       </c>
       <c r="I15" s="3">
-        <v>554200</v>
+        <v>502700</v>
       </c>
       <c r="J15" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K15" s="3">
         <v>547000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>617500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>654900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>806700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>731300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>659100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>661200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>676600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>582000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>567700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>486900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>646300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>886400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>703100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>907400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15972200</v>
+        <v>19249800</v>
       </c>
       <c r="E17" s="3">
-        <v>14960300</v>
+        <v>15349000</v>
       </c>
       <c r="F17" s="3">
-        <v>12844000</v>
+        <v>14376500</v>
       </c>
       <c r="G17" s="3">
-        <v>10482800</v>
+        <v>12342800</v>
       </c>
       <c r="H17" s="3">
-        <v>9415800</v>
+        <v>10073700</v>
       </c>
       <c r="I17" s="3">
-        <v>9805000</v>
+        <v>9048400</v>
       </c>
       <c r="J17" s="3">
+        <v>9422400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8276200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7963600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12485600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20674800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14180500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14055600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13563700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15779900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14614700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14030400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11236900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11714700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10540000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10959600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10889400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11171100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2018700</v>
+        <v>1692600</v>
       </c>
       <c r="E18" s="3">
-        <v>1118900</v>
+        <v>1939900</v>
       </c>
       <c r="F18" s="3">
-        <v>1025400</v>
+        <v>1075200</v>
       </c>
       <c r="G18" s="3">
-        <v>751400</v>
+        <v>985400</v>
       </c>
       <c r="H18" s="3">
-        <v>1031700</v>
+        <v>722100</v>
       </c>
       <c r="I18" s="3">
-        <v>-949700</v>
+        <v>991400</v>
       </c>
       <c r="J18" s="3">
+        <v>-912600</v>
+      </c>
+      <c r="K18" s="3">
         <v>117300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-565700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>730100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1014100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>937800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-282700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1088300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>734600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>857500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>986200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>730400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>464500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>990700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>577500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>234600</v>
+        <v>448800</v>
       </c>
       <c r="E20" s="3">
-        <v>72700</v>
+        <v>225400</v>
       </c>
       <c r="F20" s="3">
-        <v>188900</v>
+        <v>69800</v>
       </c>
       <c r="G20" s="3">
-        <v>251200</v>
+        <v>181500</v>
       </c>
       <c r="H20" s="3">
-        <v>52900</v>
+        <v>241400</v>
       </c>
       <c r="I20" s="3">
-        <v>473300</v>
+        <v>50900</v>
       </c>
       <c r="J20" s="3">
+        <v>454800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-150500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-49000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>39200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>604500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>141900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>647000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>79100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>386000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>55000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-38100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>23500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2844900</v>
+        <v>2683000</v>
       </c>
       <c r="E21" s="3">
-        <v>1726000</v>
+        <v>2733900</v>
       </c>
       <c r="F21" s="3">
-        <v>1740600</v>
+        <v>1658700</v>
       </c>
       <c r="G21" s="3">
-        <v>1498700</v>
+        <v>1672600</v>
       </c>
       <c r="H21" s="3">
-        <v>1607700</v>
+        <v>1440200</v>
       </c>
       <c r="I21" s="3">
-        <v>77800</v>
+        <v>1545000</v>
       </c>
       <c r="J21" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K21" s="3">
         <v>513800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1710500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1665100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>983000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1906800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1963600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1504300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1859100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1431700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1312700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1717300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1479000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2253300</v>
+        <v>2141400</v>
       </c>
       <c r="E23" s="3">
-        <v>1191500</v>
+        <v>2165400</v>
       </c>
       <c r="F23" s="3">
-        <v>1214300</v>
+        <v>1145000</v>
       </c>
       <c r="G23" s="3">
-        <v>1002600</v>
+        <v>1167000</v>
       </c>
       <c r="H23" s="3">
-        <v>1084600</v>
+        <v>963500</v>
       </c>
       <c r="I23" s="3">
-        <v>-476400</v>
+        <v>1042300</v>
       </c>
       <c r="J23" s="3">
+        <v>-457800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-33200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-636800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>769300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1010500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>321700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1230200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1381600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>936600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1372200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>785400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>426400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1014200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>574000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>785700</v>
+        <v>971500</v>
       </c>
       <c r="E24" s="3">
-        <v>596800</v>
+        <v>755000</v>
       </c>
       <c r="F24" s="3">
-        <v>476400</v>
+        <v>573500</v>
       </c>
       <c r="G24" s="3">
-        <v>389200</v>
+        <v>457800</v>
       </c>
       <c r="H24" s="3">
-        <v>406900</v>
+        <v>374000</v>
       </c>
       <c r="I24" s="3">
-        <v>258400</v>
+        <v>391000</v>
       </c>
       <c r="J24" s="3">
+        <v>248400</v>
+      </c>
+      <c r="K24" s="3">
         <v>65400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-271600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-53100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-297700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>352800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>389400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>267900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>132500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>480300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>664800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>336000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>887500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>227800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>194900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>186600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1467600</v>
+        <v>1170000</v>
       </c>
       <c r="E26" s="3">
-        <v>594700</v>
+        <v>1410300</v>
       </c>
       <c r="F26" s="3">
-        <v>737900</v>
+        <v>571500</v>
       </c>
       <c r="G26" s="3">
-        <v>613400</v>
+        <v>709200</v>
       </c>
       <c r="H26" s="3">
-        <v>677700</v>
+        <v>589500</v>
       </c>
       <c r="I26" s="3">
-        <v>-734800</v>
+        <v>651300</v>
       </c>
       <c r="J26" s="3">
+        <v>-706200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-98600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-583700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>416500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>621100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>738100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>189300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>750000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>716800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>484700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>557600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>359000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>819300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>387400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1429200</v>
+        <v>1129100</v>
       </c>
       <c r="E27" s="3">
-        <v>567700</v>
+        <v>1373400</v>
       </c>
       <c r="F27" s="3">
-        <v>717200</v>
+        <v>545600</v>
       </c>
       <c r="G27" s="3">
-        <v>589500</v>
+        <v>689200</v>
       </c>
       <c r="H27" s="3">
-        <v>657000</v>
+        <v>566500</v>
       </c>
       <c r="I27" s="3">
-        <v>-752500</v>
+        <v>631400</v>
       </c>
       <c r="J27" s="3">
+        <v>-723100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-113100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-557800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>399300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>609400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>718900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>192800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>731000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>692000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>587400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>466700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>529600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>345600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>363900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2232,31 +2293,34 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>406900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>74700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>129000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>53900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>57200</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>351000</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-234600</v>
+        <v>-448800</v>
       </c>
       <c r="E32" s="3">
-        <v>-72700</v>
+        <v>-225400</v>
       </c>
       <c r="F32" s="3">
-        <v>-188900</v>
+        <v>-69800</v>
       </c>
       <c r="G32" s="3">
-        <v>-251200</v>
+        <v>-181500</v>
       </c>
       <c r="H32" s="3">
-        <v>-52900</v>
+        <v>-241400</v>
       </c>
       <c r="I32" s="3">
-        <v>-473300</v>
+        <v>-50900</v>
       </c>
       <c r="J32" s="3">
+        <v>-454800</v>
+      </c>
+      <c r="K32" s="3">
         <v>150500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1150900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>49000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-39200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-604500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-141900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-647000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-79100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-386000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-55000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>38100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1429200</v>
+        <v>1129100</v>
       </c>
       <c r="E33" s="3">
-        <v>567700</v>
+        <v>1373400</v>
       </c>
       <c r="F33" s="3">
-        <v>717200</v>
+        <v>545600</v>
       </c>
       <c r="G33" s="3">
-        <v>589500</v>
+        <v>689200</v>
       </c>
       <c r="H33" s="3">
-        <v>657000</v>
+        <v>566500</v>
       </c>
       <c r="I33" s="3">
-        <v>-752500</v>
+        <v>631400</v>
       </c>
       <c r="J33" s="3">
+        <v>-723100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-113100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-557800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>399300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>609400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>718900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>192800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>731000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1098900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>662100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>595800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>583400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>402800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>714900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1429200</v>
+        <v>1129100</v>
       </c>
       <c r="E35" s="3">
-        <v>567700</v>
+        <v>1373400</v>
       </c>
       <c r="F35" s="3">
-        <v>717200</v>
+        <v>545600</v>
       </c>
       <c r="G35" s="3">
-        <v>589500</v>
+        <v>689200</v>
       </c>
       <c r="H35" s="3">
-        <v>657000</v>
+        <v>566500</v>
       </c>
       <c r="I35" s="3">
-        <v>-752500</v>
+        <v>631400</v>
       </c>
       <c r="J35" s="3">
+        <v>-723100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-113100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-557800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>399300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>609400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>718900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>192800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>731000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1098900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>662100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>595800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>583400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>402800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>714900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5140700</v>
+        <v>2394800</v>
       </c>
       <c r="E41" s="3">
-        <v>2603100</v>
+        <v>4940100</v>
       </c>
       <c r="F41" s="3">
-        <v>5797700</v>
+        <v>2501500</v>
       </c>
       <c r="G41" s="3">
-        <v>2159900</v>
+        <v>5571500</v>
       </c>
       <c r="H41" s="3">
-        <v>4358100</v>
+        <v>2075600</v>
       </c>
       <c r="I41" s="3">
-        <v>4484800</v>
+        <v>4188100</v>
       </c>
       <c r="J41" s="3">
+        <v>4309800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5157300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2630200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3572500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2766800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3369900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3536300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4047900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4878300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4075100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4867600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3447700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4210800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4976000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4707900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3505000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3764400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2412100</v>
+        <v>4873300</v>
       </c>
       <c r="E42" s="3">
-        <v>5747900</v>
+        <v>2318000</v>
       </c>
       <c r="F42" s="3">
-        <v>2085100</v>
+        <v>5523600</v>
       </c>
       <c r="G42" s="3">
-        <v>4701700</v>
+        <v>2003800</v>
       </c>
       <c r="H42" s="3">
-        <v>1544400</v>
+        <v>4518200</v>
       </c>
       <c r="I42" s="3">
-        <v>1644000</v>
+        <v>1484100</v>
       </c>
       <c r="J42" s="3">
+        <v>1579900</v>
+      </c>
+      <c r="K42" s="3">
         <v>837600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4616700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2947000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4175800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4558200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3713900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3112500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3092100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4239500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3934300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1120000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1307100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1776100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2053200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2553000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3314800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10010500</v>
+        <v>11806200</v>
       </c>
       <c r="E43" s="3">
-        <v>8550200</v>
+        <v>9619900</v>
       </c>
       <c r="F43" s="3">
-        <v>7323400</v>
+        <v>8216600</v>
       </c>
       <c r="G43" s="3">
-        <v>5429300</v>
+        <v>7037700</v>
       </c>
       <c r="H43" s="3">
-        <v>4508600</v>
+        <v>5217400</v>
       </c>
       <c r="I43" s="3">
-        <v>4209700</v>
+        <v>4332700</v>
       </c>
       <c r="J43" s="3">
+        <v>4045500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4092400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4244700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5032400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6704400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6956700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7652500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7406900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>7350500</v>
       </c>
       <c r="S43" s="3">
         <v>7350500</v>
       </c>
       <c r="T43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="U43" s="3">
         <v>5817200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6565900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6948500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6438000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6217700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6832700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7630600</v>
+        <v>8995600</v>
       </c>
       <c r="E44" s="3">
-        <v>5425100</v>
+        <v>7332900</v>
       </c>
       <c r="F44" s="3">
-        <v>5435500</v>
+        <v>5213400</v>
       </c>
       <c r="G44" s="3">
-        <v>4790900</v>
+        <v>5223400</v>
       </c>
       <c r="H44" s="3">
-        <v>4470200</v>
+        <v>4604000</v>
       </c>
       <c r="I44" s="3">
-        <v>3507100</v>
+        <v>4295800</v>
       </c>
       <c r="J44" s="3">
+        <v>3370200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3555800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3541100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4287200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5366600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5233200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5619700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5191500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5192900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5726400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5582100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4773000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4260200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4026800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3611700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4407700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4231600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>441100</v>
+        <v>507700</v>
       </c>
       <c r="E45" s="3">
-        <v>966300</v>
+        <v>423900</v>
       </c>
       <c r="F45" s="3">
-        <v>1083600</v>
+        <v>928600</v>
       </c>
       <c r="G45" s="3">
-        <v>1160400</v>
+        <v>1041300</v>
       </c>
       <c r="H45" s="3">
-        <v>398600</v>
+        <v>1115100</v>
       </c>
       <c r="I45" s="3">
-        <v>253200</v>
+        <v>383000</v>
       </c>
       <c r="J45" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K45" s="3">
         <v>423500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>805100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>223600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>233500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>251100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>241200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>265600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>357200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>428200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>275600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3861700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>228900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>279400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>389300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>483600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>552900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25635100</v>
+        <v>28577500</v>
       </c>
       <c r="E46" s="3">
-        <v>23292600</v>
+        <v>24634800</v>
       </c>
       <c r="F46" s="3">
-        <v>21725300</v>
+        <v>22383700</v>
       </c>
       <c r="G46" s="3">
-        <v>18242100</v>
+        <v>20877600</v>
       </c>
       <c r="H46" s="3">
-        <v>15280000</v>
+        <v>17530300</v>
       </c>
       <c r="I46" s="3">
-        <v>14098800</v>
+        <v>14683700</v>
       </c>
       <c r="J46" s="3">
+        <v>13548700</v>
+      </c>
+      <c r="K46" s="3">
         <v>14066700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15837800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16062600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19247100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20369100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20763500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20024400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20457100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21819800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22010200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19019600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16572900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18006800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17200100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17167000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18696400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5468700</v>
+        <v>5549500</v>
       </c>
       <c r="E47" s="3">
-        <v>4985000</v>
+        <v>5255300</v>
       </c>
       <c r="F47" s="3">
-        <v>4934200</v>
+        <v>4790500</v>
       </c>
       <c r="G47" s="3">
-        <v>4653900</v>
+        <v>4741600</v>
       </c>
       <c r="H47" s="3">
-        <v>7615100</v>
+        <v>4472300</v>
       </c>
       <c r="I47" s="3">
-        <v>7071200</v>
+        <v>7317900</v>
       </c>
       <c r="J47" s="3">
+        <v>6795300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7186400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7958200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9161500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9772400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11049400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10022900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10278900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9853600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9543600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9340200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8446900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12687500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11871800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12058000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13548100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13358000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23014400</v>
+        <v>22056500</v>
       </c>
       <c r="E48" s="3">
-        <v>22549400</v>
+        <v>22116300</v>
       </c>
       <c r="F48" s="3">
-        <v>21703500</v>
+        <v>21669500</v>
       </c>
       <c r="G48" s="3">
-        <v>21467900</v>
+        <v>20856600</v>
       </c>
       <c r="H48" s="3">
-        <v>22025300</v>
+        <v>20630200</v>
       </c>
       <c r="I48" s="3">
-        <v>21720100</v>
+        <v>21165800</v>
       </c>
       <c r="J48" s="3">
+        <v>20872600</v>
+      </c>
+      <c r="K48" s="3">
         <v>23182500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25130200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26449200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27096800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34049800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31932200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32653900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30162800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30003100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29858800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26738500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27676100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27832100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>28554600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31491000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32119000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3326500</v>
+        <v>3128800</v>
       </c>
       <c r="E49" s="3">
-        <v>3629500</v>
+        <v>3196700</v>
       </c>
       <c r="F49" s="3">
-        <v>3484200</v>
+        <v>3487900</v>
       </c>
       <c r="G49" s="3">
-        <v>3438600</v>
+        <v>3348300</v>
       </c>
       <c r="H49" s="3">
-        <v>3607700</v>
+        <v>3304400</v>
       </c>
       <c r="I49" s="3">
-        <v>3480100</v>
+        <v>3467000</v>
       </c>
       <c r="J49" s="3">
+        <v>3344300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4019800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4310200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4833700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5218300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6786400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6158500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6091100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6028100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5760700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5636500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5014600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5143200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5203800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5350800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5999300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5997000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3862000</v>
+        <v>3900800</v>
       </c>
       <c r="E52" s="3">
-        <v>3929500</v>
+        <v>3711300</v>
       </c>
       <c r="F52" s="3">
-        <v>4744200</v>
+        <v>3776200</v>
       </c>
       <c r="G52" s="3">
-        <v>4618700</v>
+        <v>4559100</v>
       </c>
       <c r="H52" s="3">
-        <v>4724500</v>
+        <v>4438400</v>
       </c>
       <c r="I52" s="3">
-        <v>4800300</v>
+        <v>4540200</v>
       </c>
       <c r="J52" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4833500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5228700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6383900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6252600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5782000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5210300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5516900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5392800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4788400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5014300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4673100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5079200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5225100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5249800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5865500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5950000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61306700</v>
+        <v>63213200</v>
       </c>
       <c r="E54" s="3">
-        <v>58386000</v>
+        <v>58914400</v>
       </c>
       <c r="F54" s="3">
-        <v>56591500</v>
+        <v>56107700</v>
       </c>
       <c r="G54" s="3">
-        <v>52421200</v>
+        <v>54383200</v>
       </c>
       <c r="H54" s="3">
-        <v>53252600</v>
+        <v>50375700</v>
       </c>
       <c r="I54" s="3">
-        <v>51170500</v>
+        <v>51174600</v>
       </c>
       <c r="J54" s="3">
+        <v>49173800</v>
+      </c>
+      <c r="K54" s="3">
         <v>53288900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58465100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62890900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67587200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78036800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>74087300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74565100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71894300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71915600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71860000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63892600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>67159000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68139600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68413300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>74070900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76120400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13098300</v>
+        <v>15843700</v>
       </c>
       <c r="E57" s="3">
-        <v>11648400</v>
+        <v>12587200</v>
       </c>
       <c r="F57" s="3">
-        <v>10683100</v>
+        <v>11193800</v>
       </c>
       <c r="G57" s="3">
-        <v>8569900</v>
+        <v>10266200</v>
       </c>
       <c r="H57" s="3">
-        <v>7710600</v>
+        <v>8235500</v>
       </c>
       <c r="I57" s="3">
-        <v>6122600</v>
+        <v>7409700</v>
       </c>
       <c r="J57" s="3">
+        <v>5883700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5985600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5443600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6435900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8335300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7972200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9317100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8511000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3837300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3728500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3610200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2720800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3072000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2957600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2294500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2183300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2497900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4573000</v>
+        <v>4272900</v>
       </c>
       <c r="E58" s="3">
-        <v>4785800</v>
+        <v>4394500</v>
       </c>
       <c r="F58" s="3">
-        <v>5151100</v>
+        <v>4599000</v>
       </c>
       <c r="G58" s="3">
-        <v>5340000</v>
+        <v>4950100</v>
       </c>
       <c r="H58" s="3">
-        <v>4182700</v>
+        <v>5131600</v>
       </c>
       <c r="I58" s="3">
-        <v>4027100</v>
+        <v>4019500</v>
       </c>
       <c r="J58" s="3">
+        <v>3869900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4273000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5737100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7662100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7521600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7498200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6924300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5545600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4443000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3917800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4818000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5413100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4645000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4755000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4507000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4885400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4577900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1454100</v>
+        <v>1633700</v>
       </c>
       <c r="E59" s="3">
-        <v>1540200</v>
+        <v>1397400</v>
       </c>
       <c r="F59" s="3">
-        <v>1289100</v>
+        <v>1480100</v>
       </c>
       <c r="G59" s="3">
-        <v>1344100</v>
+        <v>1238800</v>
       </c>
       <c r="H59" s="3">
-        <v>992200</v>
+        <v>1291600</v>
       </c>
       <c r="I59" s="3">
-        <v>768000</v>
+        <v>953500</v>
       </c>
       <c r="J59" s="3">
+        <v>738100</v>
+      </c>
+      <c r="K59" s="3">
         <v>798100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1332000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1039900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1753400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1199300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1298700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1009600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6872600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6455100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6282400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5432900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5786100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8402600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8407100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9159200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10222700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19125400</v>
+        <v>21750300</v>
       </c>
       <c r="E60" s="3">
-        <v>17974400</v>
+        <v>18379100</v>
       </c>
       <c r="F60" s="3">
-        <v>17123300</v>
+        <v>17273000</v>
       </c>
       <c r="G60" s="3">
-        <v>15254000</v>
+        <v>16455100</v>
       </c>
       <c r="H60" s="3">
-        <v>12885500</v>
+        <v>14658800</v>
       </c>
       <c r="I60" s="3">
-        <v>10917700</v>
+        <v>12382700</v>
       </c>
       <c r="J60" s="3">
+        <v>10491700</v>
+      </c>
+      <c r="K60" s="3">
         <v>11056700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12512700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15137800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17610400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16669700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17540100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15066100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15152900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14101400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14710500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13566900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13503100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16115100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15208600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16227900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17298400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10667500</v>
+        <v>9073300</v>
       </c>
       <c r="E61" s="3">
-        <v>102800</v>
+        <v>10251300</v>
       </c>
       <c r="F61" s="3">
-        <v>10137200</v>
+        <v>98700</v>
       </c>
       <c r="G61" s="3">
-        <v>8708000</v>
+        <v>9741600</v>
       </c>
       <c r="H61" s="3">
-        <v>12233700</v>
+        <v>8368200</v>
       </c>
       <c r="I61" s="3">
-        <v>114200</v>
+        <v>11756400</v>
       </c>
       <c r="J61" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K61" s="3">
         <v>12882400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13698600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12542000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12560200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14197600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12439300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14081700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9411200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9276300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9184000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8428200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9798300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10427800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11184000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11583200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12848500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6248200</v>
+        <v>7109500</v>
       </c>
       <c r="E62" s="3">
-        <v>16651000</v>
+        <v>6004300</v>
       </c>
       <c r="F62" s="3">
-        <v>6754700</v>
+        <v>16001300</v>
       </c>
       <c r="G62" s="3">
-        <v>6702800</v>
+        <v>6491100</v>
       </c>
       <c r="H62" s="3">
-        <v>6542900</v>
+        <v>6441200</v>
       </c>
       <c r="I62" s="3">
-        <v>18821300</v>
+        <v>6287600</v>
       </c>
       <c r="J62" s="3">
+        <v>18086900</v>
+      </c>
+      <c r="K62" s="3">
         <v>6468200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7228400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7493800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7987400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8459800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7725400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8122200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10762000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11249400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11108600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9743700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10127100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7874100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8155700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9372900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9455000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36488400</v>
+        <v>38358000</v>
       </c>
       <c r="E66" s="3">
-        <v>35122500</v>
+        <v>35064600</v>
       </c>
       <c r="F66" s="3">
-        <v>34288100</v>
+        <v>33752000</v>
       </c>
       <c r="G66" s="3">
-        <v>30929400</v>
+        <v>32950100</v>
       </c>
       <c r="H66" s="3">
-        <v>31922700</v>
+        <v>29722500</v>
       </c>
       <c r="I66" s="3">
-        <v>30106400</v>
+        <v>30677000</v>
       </c>
       <c r="J66" s="3">
+        <v>28931600</v>
+      </c>
+      <c r="K66" s="3">
         <v>30661600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33710200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35458300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38486000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39671300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38024800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37593000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35664400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34981900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35346200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32038500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33731500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34715500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34829900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>37479800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>39888400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1444800</v>
+        <v>16020200</v>
       </c>
       <c r="E72" s="3">
-        <v>2593700</v>
+        <v>1388400</v>
       </c>
       <c r="F72" s="3">
-        <v>2012500</v>
+        <v>2492500</v>
       </c>
       <c r="G72" s="3">
-        <v>14269000</v>
+        <v>1934000</v>
       </c>
       <c r="H72" s="3">
-        <v>672600</v>
+        <v>13712300</v>
       </c>
       <c r="I72" s="3">
-        <v>-3413700</v>
+        <v>646300</v>
       </c>
       <c r="J72" s="3">
+        <v>-3280400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17304000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-549900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19422200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28052300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26559600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26621400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25795500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27093100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26343200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23588300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23824300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23432800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22843700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23736800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22936200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24818300</v>
+        <v>24855200</v>
       </c>
       <c r="E76" s="3">
-        <v>23263500</v>
+        <v>23849800</v>
       </c>
       <c r="F76" s="3">
-        <v>22303400</v>
+        <v>22355700</v>
       </c>
       <c r="G76" s="3">
-        <v>21491800</v>
+        <v>21433100</v>
       </c>
       <c r="H76" s="3">
-        <v>21329900</v>
+        <v>20653200</v>
       </c>
       <c r="I76" s="3">
-        <v>21064200</v>
+        <v>20497600</v>
       </c>
       <c r="J76" s="3">
+        <v>20242200</v>
+      </c>
+      <c r="K76" s="3">
         <v>22627300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24754900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27432600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29101200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38365500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36062500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36972100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36229900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36933700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36513800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31854100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33427400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33424100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33583400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36591200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36232000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1429200</v>
+        <v>1129100</v>
       </c>
       <c r="E81" s="3">
-        <v>567700</v>
+        <v>1373400</v>
       </c>
       <c r="F81" s="3">
-        <v>717200</v>
+        <v>545600</v>
       </c>
       <c r="G81" s="3">
-        <v>589500</v>
+        <v>689200</v>
       </c>
       <c r="H81" s="3">
-        <v>657000</v>
+        <v>566500</v>
       </c>
       <c r="I81" s="3">
-        <v>-752500</v>
+        <v>631400</v>
       </c>
       <c r="J81" s="3">
+        <v>-723100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-113100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-557800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>399300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>609400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>718900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>192800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>731000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1098900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>662100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>595800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>583400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>402800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>714900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>591600</v>
+        <v>541600</v>
       </c>
       <c r="E83" s="3">
-        <v>534500</v>
+        <v>568500</v>
       </c>
       <c r="F83" s="3">
-        <v>526200</v>
+        <v>513700</v>
       </c>
       <c r="G83" s="3">
-        <v>496100</v>
+        <v>505700</v>
       </c>
       <c r="H83" s="3">
-        <v>523100</v>
+        <v>476800</v>
       </c>
       <c r="I83" s="3">
-        <v>554200</v>
+        <v>502700</v>
       </c>
       <c r="J83" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K83" s="3">
         <v>547000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>615300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>657100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>806700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>731300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>659100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>661200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>676600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>582000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>567700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>486900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>646300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>886400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>703100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>905000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>731700</v>
+        <v>1622800</v>
       </c>
       <c r="E89" s="3">
-        <v>1934600</v>
+        <v>703200</v>
       </c>
       <c r="F89" s="3">
-        <v>1321200</v>
+        <v>1859200</v>
       </c>
       <c r="G89" s="3">
-        <v>752500</v>
+        <v>1269700</v>
       </c>
       <c r="H89" s="3">
-        <v>845900</v>
+        <v>723100</v>
       </c>
       <c r="I89" s="3">
-        <v>1042100</v>
+        <v>812900</v>
       </c>
       <c r="J89" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1159300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>330500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>354500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2033600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1512900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1307000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>910300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2081900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1715200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>697900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>855300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2070100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1330700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1574200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>797000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1934400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-597800</v>
+        <v>-631400</v>
       </c>
       <c r="E91" s="3">
-        <v>-859400</v>
+        <v>-574500</v>
       </c>
       <c r="F91" s="3">
-        <v>-442100</v>
+        <v>-825800</v>
       </c>
       <c r="G91" s="3">
-        <v>-343500</v>
+        <v>-424900</v>
       </c>
       <c r="H91" s="3">
-        <v>-329000</v>
+        <v>-330100</v>
       </c>
       <c r="I91" s="3">
+        <v>-316200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-580500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-373600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-446200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-604100</v>
       </c>
-      <c r="J91" s="3">
-        <v>-373600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-446200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-604100</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-853800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-807000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-534700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-729800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-684900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-584100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-570000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-536300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-475400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-732500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-841700</v>
+        <v>-574500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1344100</v>
+        <v>-808900</v>
       </c>
       <c r="F94" s="3">
-        <v>-719300</v>
+        <v>-1291600</v>
       </c>
       <c r="G94" s="3">
-        <v>-752500</v>
+        <v>-691200</v>
       </c>
       <c r="H94" s="3">
-        <v>-228300</v>
+        <v>-723100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1185300</v>
+        <v>-219400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1139000</v>
+      </c>
+      <c r="K94" s="3">
         <v>257400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>619600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>618700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-108900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-811500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2310200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-612700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-996300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-878500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-648500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-633900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-531700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-475400</v>
+        <v>-49900</v>
       </c>
       <c r="E96" s="3">
-        <v>-33200</v>
+        <v>-456800</v>
       </c>
       <c r="F96" s="3">
-        <v>-463900</v>
+        <v>-31900</v>
       </c>
       <c r="G96" s="3">
-        <v>-29100</v>
+        <v>-445800</v>
       </c>
       <c r="H96" s="3">
-        <v>-122500</v>
+        <v>-27900</v>
       </c>
       <c r="I96" s="3">
-        <v>-18700</v>
+        <v>-117700</v>
       </c>
       <c r="J96" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-207600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>12000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-156900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>14000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-253600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>15300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-256000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-119500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-215200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-212100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-568800</v>
+        <v>-1692600</v>
       </c>
       <c r="E100" s="3">
-        <v>-647600</v>
+        <v>-546600</v>
       </c>
       <c r="F100" s="3">
-        <v>121400</v>
+        <v>-622400</v>
       </c>
       <c r="G100" s="3">
-        <v>748300</v>
+        <v>116700</v>
       </c>
       <c r="H100" s="3">
-        <v>-771200</v>
+        <v>719100</v>
       </c>
       <c r="I100" s="3">
-        <v>-541800</v>
+        <v>-741100</v>
       </c>
       <c r="J100" s="3">
+        <v>-520600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1401800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-788100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-372900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-236600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-794900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-591300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>219900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>98600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12500</v>
+        <v>24900</v>
       </c>
       <c r="E101" s="3">
-        <v>66400</v>
+        <v>12000</v>
       </c>
       <c r="F101" s="3">
-        <v>-25900</v>
+        <v>63800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6200</v>
+        <v>-24900</v>
       </c>
       <c r="H101" s="3">
-        <v>27000</v>
+        <v>-6000</v>
       </c>
       <c r="I101" s="3">
-        <v>12500</v>
+        <v>25900</v>
       </c>
       <c r="J101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>35500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>31900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-19100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-29200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>24700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-666300</v>
+        <v>-619400</v>
       </c>
       <c r="E102" s="3">
-        <v>9300</v>
+        <v>-640300</v>
       </c>
       <c r="F102" s="3">
-        <v>697500</v>
+        <v>9000</v>
       </c>
       <c r="G102" s="3">
-        <v>742100</v>
+        <v>670300</v>
       </c>
       <c r="H102" s="3">
-        <v>-126600</v>
+        <v>713100</v>
       </c>
       <c r="I102" s="3">
-        <v>-672600</v>
+        <v>-121700</v>
       </c>
       <c r="J102" s="3">
+        <v>-646300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-328000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2313800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>208900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-845200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-733800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-201200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-374400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-609200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-498000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2245100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-853100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-144700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1116400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1526000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20942400</v>
+        <v>21327600</v>
       </c>
       <c r="E8" s="3">
-        <v>17288900</v>
+        <v>21433700</v>
       </c>
       <c r="F8" s="3">
-        <v>15451700</v>
+        <v>17694500</v>
       </c>
       <c r="G8" s="3">
-        <v>13328300</v>
+        <v>15814200</v>
       </c>
       <c r="H8" s="3">
-        <v>10795900</v>
+        <v>13641000</v>
       </c>
       <c r="I8" s="3">
-        <v>10039800</v>
+        <v>11049100</v>
       </c>
       <c r="J8" s="3">
+        <v>10275400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8509800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8393500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6661100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11919900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14269300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14910600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15069700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14501500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15497200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15703000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14765000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12094500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12700900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11270400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11424100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11880100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11748700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14906100</v>
+        <v>16887100</v>
       </c>
       <c r="E9" s="3">
-        <v>12859500</v>
+        <v>15255900</v>
       </c>
       <c r="F9" s="3">
-        <v>11879000</v>
+        <v>13161200</v>
       </c>
       <c r="G9" s="3">
-        <v>10367000</v>
+        <v>12157700</v>
       </c>
       <c r="H9" s="3">
-        <v>7949300</v>
+        <v>10610200</v>
       </c>
       <c r="I9" s="3">
-        <v>7165300</v>
+        <v>8135800</v>
       </c>
       <c r="J9" s="3">
+        <v>7333400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6419300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6240900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4988700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10154000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10917600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11619000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11461700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11033700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12563600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11959100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10741900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8909200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9153200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7993100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8607900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8323500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7909100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6036300</v>
+        <v>4440500</v>
       </c>
       <c r="E10" s="3">
-        <v>4429500</v>
+        <v>6177900</v>
       </c>
       <c r="F10" s="3">
-        <v>3572700</v>
+        <v>4533400</v>
       </c>
       <c r="G10" s="3">
-        <v>2961300</v>
+        <v>3656500</v>
       </c>
       <c r="H10" s="3">
-        <v>2846600</v>
+        <v>3030800</v>
       </c>
       <c r="I10" s="3">
-        <v>2874500</v>
+        <v>2913400</v>
       </c>
       <c r="J10" s="3">
+        <v>2941900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2090600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2152600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1672400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1765900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3351600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3291500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3608000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3467800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2933600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3743900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4023000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3185300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3547700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3277300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2816200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3556600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3839500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1572900</v>
+        <v>30600</v>
       </c>
       <c r="E14" s="3">
-        <v>174500</v>
+        <v>1609800</v>
       </c>
       <c r="F14" s="3">
-        <v>563500</v>
+        <v>178600</v>
       </c>
       <c r="G14" s="3">
-        <v>43900</v>
+        <v>576800</v>
       </c>
       <c r="H14" s="3">
-        <v>41900</v>
+        <v>44900</v>
       </c>
       <c r="I14" s="3">
-        <v>-15000</v>
+        <v>42900</v>
       </c>
       <c r="J14" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K14" s="3">
         <v>1510100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-14500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>650200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6343700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-12200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-162300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>971200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>538200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>91100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>226600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-210900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>50500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>56300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>541600</v>
+        <v>623700</v>
       </c>
       <c r="E15" s="3">
-        <v>568500</v>
+        <v>554300</v>
       </c>
       <c r="F15" s="3">
-        <v>513700</v>
+        <v>581900</v>
       </c>
       <c r="G15" s="3">
-        <v>505700</v>
+        <v>525700</v>
       </c>
       <c r="H15" s="3">
-        <v>476800</v>
+        <v>517500</v>
       </c>
       <c r="I15" s="3">
-        <v>502700</v>
+        <v>487900</v>
       </c>
       <c r="J15" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K15" s="3">
         <v>532600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>547000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>617500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>654900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>806700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>731300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>659100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>661200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>676600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>582000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>567700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>486900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>646300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>886400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>703100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>907400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19249800</v>
+        <v>19817800</v>
       </c>
       <c r="E17" s="3">
-        <v>15349000</v>
+        <v>19701400</v>
       </c>
       <c r="F17" s="3">
-        <v>14376500</v>
+        <v>15709100</v>
       </c>
       <c r="G17" s="3">
-        <v>12342800</v>
+        <v>14713800</v>
       </c>
       <c r="H17" s="3">
-        <v>10073700</v>
+        <v>12632400</v>
       </c>
       <c r="I17" s="3">
-        <v>9048400</v>
+        <v>10310100</v>
       </c>
       <c r="J17" s="3">
+        <v>9260700</v>
+      </c>
+      <c r="K17" s="3">
         <v>9422400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8276200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7963600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12485600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20674800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14180500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14055600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13563700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15779900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14614700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14030400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11236900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11714700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10540000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10959600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10889400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11171100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1692600</v>
+        <v>1509800</v>
       </c>
       <c r="E18" s="3">
-        <v>1939900</v>
+        <v>1732300</v>
       </c>
       <c r="F18" s="3">
-        <v>1075200</v>
+        <v>1985500</v>
       </c>
       <c r="G18" s="3">
-        <v>985400</v>
+        <v>1100400</v>
       </c>
       <c r="H18" s="3">
-        <v>722100</v>
+        <v>1008600</v>
       </c>
       <c r="I18" s="3">
-        <v>991400</v>
+        <v>739100</v>
       </c>
       <c r="J18" s="3">
+        <v>1014700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-912600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-565700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>730100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1014100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>937800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-282700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1088300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>734600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>857500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>986200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>730400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>464500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>990700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>577500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>448800</v>
+        <v>41900</v>
       </c>
       <c r="E20" s="3">
-        <v>225400</v>
+        <v>459400</v>
       </c>
       <c r="F20" s="3">
-        <v>69800</v>
+        <v>230700</v>
       </c>
       <c r="G20" s="3">
-        <v>181500</v>
+        <v>71500</v>
       </c>
       <c r="H20" s="3">
-        <v>241400</v>
+        <v>185800</v>
       </c>
       <c r="I20" s="3">
-        <v>50900</v>
+        <v>247000</v>
       </c>
       <c r="J20" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K20" s="3">
         <v>454800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-150500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>39200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>604500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>141900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>647000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>79100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>386000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>55000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>23500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2683000</v>
+        <v>2175300</v>
       </c>
       <c r="E21" s="3">
-        <v>2733900</v>
+        <v>2746000</v>
       </c>
       <c r="F21" s="3">
-        <v>1658700</v>
+        <v>2798000</v>
       </c>
       <c r="G21" s="3">
-        <v>1672600</v>
+        <v>1697600</v>
       </c>
       <c r="H21" s="3">
-        <v>1440200</v>
+        <v>1711900</v>
       </c>
       <c r="I21" s="3">
-        <v>1545000</v>
+        <v>1474000</v>
       </c>
       <c r="J21" s="3">
+        <v>1581200</v>
+      </c>
+      <c r="K21" s="3">
         <v>74800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>513800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1710500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1665100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>983000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1906800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1963600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1504300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1859100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1431700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1312700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1717300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1479000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2141400</v>
+        <v>1551600</v>
       </c>
       <c r="E23" s="3">
-        <v>2165400</v>
+        <v>2191700</v>
       </c>
       <c r="F23" s="3">
-        <v>1145000</v>
+        <v>2216200</v>
       </c>
       <c r="G23" s="3">
-        <v>1167000</v>
+        <v>1171900</v>
       </c>
       <c r="H23" s="3">
-        <v>963500</v>
+        <v>1194300</v>
       </c>
       <c r="I23" s="3">
-        <v>1042300</v>
+        <v>986100</v>
       </c>
       <c r="J23" s="3">
+        <v>1066700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-457800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-636800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>769300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1010500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1006000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>321700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1230200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1381600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>936600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1372200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>785400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>426400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1014200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>574000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>971500</v>
+        <v>851300</v>
       </c>
       <c r="E24" s="3">
-        <v>755000</v>
+        <v>994300</v>
       </c>
       <c r="F24" s="3">
-        <v>573500</v>
+        <v>772700</v>
       </c>
       <c r="G24" s="3">
-        <v>457800</v>
+        <v>587000</v>
       </c>
       <c r="H24" s="3">
-        <v>374000</v>
+        <v>468500</v>
       </c>
       <c r="I24" s="3">
-        <v>391000</v>
+        <v>382800</v>
       </c>
       <c r="J24" s="3">
+        <v>400200</v>
+      </c>
+      <c r="K24" s="3">
         <v>248400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-271600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-53100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-297700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>352800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>389400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>267900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>132500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>480300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>664800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>336000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>887500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>227800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>67300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>194900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>186600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1170000</v>
+        <v>700300</v>
       </c>
       <c r="E26" s="3">
-        <v>1410300</v>
+        <v>1197400</v>
       </c>
       <c r="F26" s="3">
-        <v>571500</v>
+        <v>1443400</v>
       </c>
       <c r="G26" s="3">
-        <v>709200</v>
+        <v>584900</v>
       </c>
       <c r="H26" s="3">
-        <v>589500</v>
+        <v>725800</v>
       </c>
       <c r="I26" s="3">
-        <v>651300</v>
+        <v>603300</v>
       </c>
       <c r="J26" s="3">
+        <v>666600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-706200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-98600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-583700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>416500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>621100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>738100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>189300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>750000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>716800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>484700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>557600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>359000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>819300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>387400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1129100</v>
+        <v>681900</v>
       </c>
       <c r="E27" s="3">
-        <v>1373400</v>
+        <v>1155500</v>
       </c>
       <c r="F27" s="3">
-        <v>545600</v>
+        <v>1405600</v>
       </c>
       <c r="G27" s="3">
-        <v>689200</v>
+        <v>558400</v>
       </c>
       <c r="H27" s="3">
-        <v>566500</v>
+        <v>705400</v>
       </c>
       <c r="I27" s="3">
-        <v>631400</v>
+        <v>579800</v>
       </c>
       <c r="J27" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-723100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-113100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-557800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>399300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>609400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>718900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>731000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>692000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>587400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>466700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>529600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>345600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>800500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>363900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2296,31 +2357,34 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>406900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>74700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>129000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>53900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>57200</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>351000</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-448800</v>
+        <v>-41900</v>
       </c>
       <c r="E32" s="3">
-        <v>-225400</v>
+        <v>-459400</v>
       </c>
       <c r="F32" s="3">
-        <v>-69800</v>
+        <v>-230700</v>
       </c>
       <c r="G32" s="3">
-        <v>-181500</v>
+        <v>-71500</v>
       </c>
       <c r="H32" s="3">
-        <v>-241400</v>
+        <v>-185800</v>
       </c>
       <c r="I32" s="3">
-        <v>-50900</v>
+        <v>-247000</v>
       </c>
       <c r="J32" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-454800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>150500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1150900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-39200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-604500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-141900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-647000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-79100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-386000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-55000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>38100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1129100</v>
+        <v>681900</v>
       </c>
       <c r="E33" s="3">
-        <v>1373400</v>
+        <v>1155500</v>
       </c>
       <c r="F33" s="3">
-        <v>545600</v>
+        <v>1405600</v>
       </c>
       <c r="G33" s="3">
-        <v>689200</v>
+        <v>558400</v>
       </c>
       <c r="H33" s="3">
-        <v>566500</v>
+        <v>705400</v>
       </c>
       <c r="I33" s="3">
-        <v>631400</v>
+        <v>579800</v>
       </c>
       <c r="J33" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-723100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-113100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-557800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>399300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>609400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>718900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>192800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>731000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1098900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>662100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>595800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>583400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>402800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>800500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>714900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1129100</v>
+        <v>681900</v>
       </c>
       <c r="E35" s="3">
-        <v>1373400</v>
+        <v>1155500</v>
       </c>
       <c r="F35" s="3">
-        <v>545600</v>
+        <v>1405600</v>
       </c>
       <c r="G35" s="3">
-        <v>689200</v>
+        <v>558400</v>
       </c>
       <c r="H35" s="3">
-        <v>566500</v>
+        <v>705400</v>
       </c>
       <c r="I35" s="3">
-        <v>631400</v>
+        <v>579800</v>
       </c>
       <c r="J35" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-723100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-113100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-557800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>399300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>609400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>718900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>192800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>731000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1098900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>662100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>595800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>583400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>402800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>800500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>714900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2394800</v>
+        <v>7708100</v>
       </c>
       <c r="E41" s="3">
-        <v>4940100</v>
+        <v>2450900</v>
       </c>
       <c r="F41" s="3">
-        <v>2501500</v>
+        <v>5056000</v>
       </c>
       <c r="G41" s="3">
-        <v>5571500</v>
+        <v>2560200</v>
       </c>
       <c r="H41" s="3">
-        <v>2075600</v>
+        <v>5702200</v>
       </c>
       <c r="I41" s="3">
-        <v>4188100</v>
+        <v>2124300</v>
       </c>
       <c r="J41" s="3">
+        <v>4286300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4309800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5157300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2630200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3572500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2766800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3369900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3536300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4047900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4878300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4075100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4867600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3447700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4210800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4976000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4707900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3505000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3764400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4873300</v>
+        <v>3463600</v>
       </c>
       <c r="E42" s="3">
-        <v>2318000</v>
+        <v>4987600</v>
       </c>
       <c r="F42" s="3">
-        <v>5523600</v>
+        <v>2372300</v>
       </c>
       <c r="G42" s="3">
-        <v>2003800</v>
+        <v>5653200</v>
       </c>
       <c r="H42" s="3">
-        <v>4518200</v>
+        <v>2050800</v>
       </c>
       <c r="I42" s="3">
-        <v>1484100</v>
+        <v>4624200</v>
       </c>
       <c r="J42" s="3">
+        <v>1519000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1579900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>837600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4616700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2947000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4175800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4558200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3713900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3112500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3092100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4239500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3934300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1120000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1307100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1776100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2053200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2553000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3314800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11806200</v>
+        <v>10505100</v>
       </c>
       <c r="E43" s="3">
-        <v>9619900</v>
+        <v>12083200</v>
       </c>
       <c r="F43" s="3">
-        <v>8216600</v>
+        <v>9845600</v>
       </c>
       <c r="G43" s="3">
-        <v>7037700</v>
+        <v>8409400</v>
       </c>
       <c r="H43" s="3">
-        <v>5217400</v>
+        <v>7202800</v>
       </c>
       <c r="I43" s="3">
-        <v>4332700</v>
+        <v>5339800</v>
       </c>
       <c r="J43" s="3">
+        <v>4434400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4045500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4092400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4244700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5032400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6704400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6956700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7652500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7406900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>7350500</v>
       </c>
       <c r="T43" s="3">
         <v>7350500</v>
       </c>
       <c r="U43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="V43" s="3">
         <v>5817200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6565900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6948500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6438000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6217700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6832700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8995600</v>
+        <v>7881600</v>
       </c>
       <c r="E44" s="3">
-        <v>7332900</v>
+        <v>9206600</v>
       </c>
       <c r="F44" s="3">
-        <v>5213400</v>
+        <v>7504900</v>
       </c>
       <c r="G44" s="3">
-        <v>5223400</v>
+        <v>5335700</v>
       </c>
       <c r="H44" s="3">
-        <v>4604000</v>
+        <v>5345900</v>
       </c>
       <c r="I44" s="3">
-        <v>4295800</v>
+        <v>4712000</v>
       </c>
       <c r="J44" s="3">
+        <v>4396600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3370200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3555800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3541100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4287200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5366600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5233200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5619700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5191500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5192900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5726400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5582100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4773000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4260200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4026800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3611700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4407700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4231600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>507700</v>
+        <v>450200</v>
       </c>
       <c r="E45" s="3">
-        <v>423900</v>
+        <v>519600</v>
       </c>
       <c r="F45" s="3">
-        <v>928600</v>
+        <v>433800</v>
       </c>
       <c r="G45" s="3">
-        <v>1041300</v>
+        <v>950400</v>
       </c>
       <c r="H45" s="3">
-        <v>1115100</v>
+        <v>1065700</v>
       </c>
       <c r="I45" s="3">
-        <v>383000</v>
+        <v>1141300</v>
       </c>
       <c r="J45" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K45" s="3">
         <v>243400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>423500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>805100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>223600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>233500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>251100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>241200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>265600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>357200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>428200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>275600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3861700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>228900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>279400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>389300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>483600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>552900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28577500</v>
+        <v>30008500</v>
       </c>
       <c r="E46" s="3">
-        <v>24634800</v>
+        <v>29248000</v>
       </c>
       <c r="F46" s="3">
-        <v>22383700</v>
+        <v>25212700</v>
       </c>
       <c r="G46" s="3">
-        <v>20877600</v>
+        <v>22908800</v>
       </c>
       <c r="H46" s="3">
-        <v>17530300</v>
+        <v>21367400</v>
       </c>
       <c r="I46" s="3">
-        <v>14683700</v>
+        <v>17941600</v>
       </c>
       <c r="J46" s="3">
+        <v>15028200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13548700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14066700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15837800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16062600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19247100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20369100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20763500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20024400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20457100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21819800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22010200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19019600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16572900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18006800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17200100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17167000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18696400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5549500</v>
+        <v>5782800</v>
       </c>
       <c r="E47" s="3">
-        <v>5255300</v>
+        <v>5679700</v>
       </c>
       <c r="F47" s="3">
-        <v>4790500</v>
+        <v>5378600</v>
       </c>
       <c r="G47" s="3">
-        <v>4741600</v>
+        <v>4902900</v>
       </c>
       <c r="H47" s="3">
-        <v>4472300</v>
+        <v>4852900</v>
       </c>
       <c r="I47" s="3">
-        <v>7317900</v>
+        <v>4577300</v>
       </c>
       <c r="J47" s="3">
+        <v>7489600</v>
+      </c>
+      <c r="K47" s="3">
         <v>6795300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7186400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7958200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9161500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9772400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11049400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10022900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10278900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9853600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9543600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9340200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8446900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12687500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11871800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12058000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13548100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13358000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22056500</v>
+        <v>23392700</v>
       </c>
       <c r="E48" s="3">
-        <v>22116300</v>
+        <v>22574000</v>
       </c>
       <c r="F48" s="3">
-        <v>21669500</v>
+        <v>22635200</v>
       </c>
       <c r="G48" s="3">
-        <v>20856600</v>
+        <v>22177900</v>
       </c>
       <c r="H48" s="3">
-        <v>20630200</v>
+        <v>21345900</v>
       </c>
       <c r="I48" s="3">
-        <v>21165800</v>
+        <v>21114200</v>
       </c>
       <c r="J48" s="3">
+        <v>21662400</v>
+      </c>
+      <c r="K48" s="3">
         <v>20872600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23182500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25130200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26449200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27096800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34049800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31932200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32653900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30162800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30003100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29858800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26738500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27676100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27832100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>28554600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31491000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32119000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3128800</v>
+        <v>2870500</v>
       </c>
       <c r="E49" s="3">
-        <v>3196700</v>
+        <v>3202200</v>
       </c>
       <c r="F49" s="3">
-        <v>3487900</v>
+        <v>3271700</v>
       </c>
       <c r="G49" s="3">
-        <v>3348300</v>
+        <v>3569700</v>
       </c>
       <c r="H49" s="3">
-        <v>3304400</v>
+        <v>3426800</v>
       </c>
       <c r="I49" s="3">
-        <v>3467000</v>
+        <v>3381900</v>
       </c>
       <c r="J49" s="3">
+        <v>3548300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3344300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4019800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4310200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4833700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5218300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6786400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6158500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6091100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6028100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5760700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5636500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5014600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5143200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5203800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5350800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5999300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5997000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900800</v>
+        <v>4038300</v>
       </c>
       <c r="E52" s="3">
-        <v>3711300</v>
+        <v>3992300</v>
       </c>
       <c r="F52" s="3">
-        <v>3776200</v>
+        <v>3798400</v>
       </c>
       <c r="G52" s="3">
-        <v>4559100</v>
+        <v>3864700</v>
       </c>
       <c r="H52" s="3">
-        <v>4438400</v>
+        <v>4666100</v>
       </c>
       <c r="I52" s="3">
-        <v>4540200</v>
+        <v>4542600</v>
       </c>
       <c r="J52" s="3">
+        <v>4646700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4613000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4833500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5228700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6383900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6252600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5782000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5210300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5516900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5392800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4788400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5014300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4673100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5079200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5225100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5249800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5865500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5950000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63213200</v>
+        <v>66092700</v>
       </c>
       <c r="E54" s="3">
-        <v>58914400</v>
+        <v>64696300</v>
       </c>
       <c r="F54" s="3">
-        <v>56107700</v>
+        <v>60296600</v>
       </c>
       <c r="G54" s="3">
-        <v>54383200</v>
+        <v>57424100</v>
       </c>
       <c r="H54" s="3">
-        <v>50375700</v>
+        <v>55659100</v>
       </c>
       <c r="I54" s="3">
-        <v>51174600</v>
+        <v>51557500</v>
       </c>
       <c r="J54" s="3">
+        <v>52375200</v>
+      </c>
+      <c r="K54" s="3">
         <v>49173800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53288900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58465100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62890900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67587200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78036800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74087300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74565100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71894300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71915600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71860000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63892600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67159000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68139600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68413300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>74070900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76120400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15843700</v>
+        <v>13622600</v>
       </c>
       <c r="E57" s="3">
-        <v>12587200</v>
+        <v>16215400</v>
       </c>
       <c r="F57" s="3">
-        <v>11193800</v>
+        <v>12882500</v>
       </c>
       <c r="G57" s="3">
-        <v>10266200</v>
+        <v>11456400</v>
       </c>
       <c r="H57" s="3">
-        <v>8235500</v>
+        <v>10507100</v>
       </c>
       <c r="I57" s="3">
-        <v>7409700</v>
+        <v>8428700</v>
       </c>
       <c r="J57" s="3">
+        <v>7583500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5883700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5985600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5443600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6435900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8335300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7972200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9317100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8511000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3837300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3728500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3610200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2720800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3072000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2957600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2294500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2183300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2497900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4272900</v>
+        <v>5431700</v>
       </c>
       <c r="E58" s="3">
-        <v>4394500</v>
+        <v>4373100</v>
       </c>
       <c r="F58" s="3">
-        <v>4599000</v>
+        <v>4497600</v>
       </c>
       <c r="G58" s="3">
-        <v>4950100</v>
+        <v>4706900</v>
       </c>
       <c r="H58" s="3">
-        <v>5131600</v>
+        <v>5066200</v>
       </c>
       <c r="I58" s="3">
-        <v>4019500</v>
+        <v>5252000</v>
       </c>
       <c r="J58" s="3">
+        <v>4113800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3869900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4273000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5737100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7662100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7521600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7498200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6924300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5545600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4443000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3917800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4818000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5413100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4645000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4755000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4507000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4885400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4577900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1633700</v>
+        <v>1490400</v>
       </c>
       <c r="E59" s="3">
-        <v>1397400</v>
+        <v>1672100</v>
       </c>
       <c r="F59" s="3">
-        <v>1480100</v>
+        <v>1430100</v>
       </c>
       <c r="G59" s="3">
-        <v>1238800</v>
+        <v>1514900</v>
       </c>
       <c r="H59" s="3">
-        <v>1291600</v>
+        <v>1267800</v>
       </c>
       <c r="I59" s="3">
-        <v>953500</v>
+        <v>1321900</v>
       </c>
       <c r="J59" s="3">
+        <v>975900</v>
+      </c>
+      <c r="K59" s="3">
         <v>738100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>798100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1332000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1039900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1753400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1199300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1298700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1009600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6872600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6455100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6282400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5432900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5786100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8402600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8407100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9159200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10222700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21750300</v>
+        <v>20544600</v>
       </c>
       <c r="E60" s="3">
-        <v>18379100</v>
+        <v>22260600</v>
       </c>
       <c r="F60" s="3">
-        <v>17273000</v>
+        <v>18810300</v>
       </c>
       <c r="G60" s="3">
-        <v>16455100</v>
+        <v>17678200</v>
       </c>
       <c r="H60" s="3">
-        <v>14658800</v>
+        <v>16841200</v>
       </c>
       <c r="I60" s="3">
-        <v>12382700</v>
+        <v>15002700</v>
       </c>
       <c r="J60" s="3">
+        <v>12673200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10491700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11056700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12512700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15137800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17610400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16669700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17540100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15066100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15152900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14101400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14710500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13566900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13503100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16115100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15208600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16227900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17298400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9073300</v>
+        <v>9536300</v>
       </c>
       <c r="E61" s="3">
-        <v>10251300</v>
+        <v>9286200</v>
       </c>
       <c r="F61" s="3">
-        <v>98700</v>
+        <v>10491800</v>
       </c>
       <c r="G61" s="3">
-        <v>9741600</v>
+        <v>101100</v>
       </c>
       <c r="H61" s="3">
-        <v>8368200</v>
+        <v>9970200</v>
       </c>
       <c r="I61" s="3">
-        <v>11756400</v>
+        <v>8564500</v>
       </c>
       <c r="J61" s="3">
+        <v>12032200</v>
+      </c>
+      <c r="K61" s="3">
         <v>109700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12882400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13698600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12542000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12560200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14197600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12439300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14081700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9411200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9276300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9184000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8428200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9798300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10427800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11184000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11583200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12848500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7109500</v>
+        <v>7747900</v>
       </c>
       <c r="E62" s="3">
-        <v>6004300</v>
+        <v>7276300</v>
       </c>
       <c r="F62" s="3">
-        <v>16001300</v>
+        <v>6145200</v>
       </c>
       <c r="G62" s="3">
-        <v>6491100</v>
+        <v>16376700</v>
       </c>
       <c r="H62" s="3">
-        <v>6441200</v>
+        <v>6643400</v>
       </c>
       <c r="I62" s="3">
-        <v>6287600</v>
+        <v>6592300</v>
       </c>
       <c r="J62" s="3">
+        <v>6435100</v>
+      </c>
+      <c r="K62" s="3">
         <v>18086900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6468200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7228400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7493800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7987400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8459800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7725400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8122200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10762000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11249400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11108600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9743700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10127100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7874100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8155700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9372900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9455000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38358000</v>
+        <v>38535200</v>
       </c>
       <c r="E66" s="3">
-        <v>35064600</v>
+        <v>39257900</v>
       </c>
       <c r="F66" s="3">
-        <v>33752000</v>
+        <v>35887200</v>
       </c>
       <c r="G66" s="3">
-        <v>32950100</v>
+        <v>34543900</v>
       </c>
       <c r="H66" s="3">
-        <v>29722500</v>
+        <v>33723100</v>
       </c>
       <c r="I66" s="3">
-        <v>30677000</v>
+        <v>30419800</v>
       </c>
       <c r="J66" s="3">
+        <v>31396700</v>
+      </c>
+      <c r="K66" s="3">
         <v>28931600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30661600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33710200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35458300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38486000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39671300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38024800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37593000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35664400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34981900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35346200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32038500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33731500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34715500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34829900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>37479800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>39888400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16020200</v>
+        <v>3289000</v>
       </c>
       <c r="E72" s="3">
-        <v>1388400</v>
+        <v>16396100</v>
       </c>
       <c r="F72" s="3">
-        <v>2492500</v>
+        <v>1421000</v>
       </c>
       <c r="G72" s="3">
-        <v>1934000</v>
+        <v>2551000</v>
       </c>
       <c r="H72" s="3">
-        <v>13712300</v>
+        <v>1979300</v>
       </c>
       <c r="I72" s="3">
-        <v>646300</v>
+        <v>14034000</v>
       </c>
       <c r="J72" s="3">
+        <v>661500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3280400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17304000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-549900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19422200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28052300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26559600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26621400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25795500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27093100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26343200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23588300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23824300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23432800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22843700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23736800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22936200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24855200</v>
+        <v>27557500</v>
       </c>
       <c r="E76" s="3">
-        <v>23849800</v>
+        <v>25438300</v>
       </c>
       <c r="F76" s="3">
-        <v>22355700</v>
+        <v>24409400</v>
       </c>
       <c r="G76" s="3">
-        <v>21433100</v>
+        <v>22880200</v>
       </c>
       <c r="H76" s="3">
-        <v>20653200</v>
+        <v>21936000</v>
       </c>
       <c r="I76" s="3">
-        <v>20497600</v>
+        <v>21137700</v>
       </c>
       <c r="J76" s="3">
+        <v>20978500</v>
+      </c>
+      <c r="K76" s="3">
         <v>20242200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22627300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24754900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27432600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29101200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38365500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36062500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36972100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36229900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36933700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36513800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31854100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33427400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33424100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33583400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36591200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36232000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1129100</v>
+        <v>681900</v>
       </c>
       <c r="E81" s="3">
-        <v>1373400</v>
+        <v>1155500</v>
       </c>
       <c r="F81" s="3">
-        <v>545600</v>
+        <v>1405600</v>
       </c>
       <c r="G81" s="3">
-        <v>689200</v>
+        <v>558400</v>
       </c>
       <c r="H81" s="3">
-        <v>566500</v>
+        <v>705400</v>
       </c>
       <c r="I81" s="3">
-        <v>631400</v>
+        <v>579800</v>
       </c>
       <c r="J81" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-723100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-113100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-557800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>399300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>609400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>718900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>192800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>731000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1098900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>662100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>595800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>583400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>402800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>800500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>714900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>541600</v>
+        <v>623700</v>
       </c>
       <c r="E83" s="3">
-        <v>568500</v>
+        <v>554300</v>
       </c>
       <c r="F83" s="3">
-        <v>513700</v>
+        <v>581900</v>
       </c>
       <c r="G83" s="3">
-        <v>505700</v>
+        <v>525700</v>
       </c>
       <c r="H83" s="3">
-        <v>476800</v>
+        <v>517500</v>
       </c>
       <c r="I83" s="3">
-        <v>502700</v>
+        <v>487900</v>
       </c>
       <c r="J83" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K83" s="3">
         <v>532600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>547000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>615300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>657100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>806700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>731300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>659100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>661200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>676600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>582000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>567700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>486900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>646300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>886400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>703100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>905000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1622800</v>
+        <v>3137900</v>
       </c>
       <c r="E89" s="3">
-        <v>703200</v>
+        <v>1660800</v>
       </c>
       <c r="F89" s="3">
-        <v>1859200</v>
+        <v>719700</v>
       </c>
       <c r="G89" s="3">
-        <v>1269700</v>
+        <v>1902800</v>
       </c>
       <c r="H89" s="3">
-        <v>723100</v>
+        <v>1299500</v>
       </c>
       <c r="I89" s="3">
-        <v>812900</v>
+        <v>740100</v>
       </c>
       <c r="J89" s="3">
+        <v>832000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1001400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1159300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>330500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>354500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2033600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1512900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>910300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2081900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1715200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>697900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>855300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2070100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1330700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1574200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>797000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1934400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-631400</v>
+        <v>-887100</v>
       </c>
       <c r="E91" s="3">
-        <v>-574500</v>
+        <v>-646200</v>
       </c>
       <c r="F91" s="3">
-        <v>-825800</v>
+        <v>-588000</v>
       </c>
       <c r="G91" s="3">
-        <v>-424900</v>
+        <v>-845200</v>
       </c>
       <c r="H91" s="3">
-        <v>-330100</v>
+        <v>-434900</v>
       </c>
       <c r="I91" s="3">
-        <v>-316200</v>
+        <v>-337900</v>
       </c>
       <c r="J91" s="3">
+        <v>-323600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-580500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-373600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-446200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-604100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-853800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-807000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-534700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-729800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-684900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-584100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-570000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-536300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-475400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-732500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-574500</v>
+        <v>-261300</v>
       </c>
       <c r="E94" s="3">
-        <v>-808900</v>
+        <v>-588000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1291600</v>
+        <v>-827900</v>
       </c>
       <c r="G94" s="3">
-        <v>-691200</v>
+        <v>-1321900</v>
       </c>
       <c r="H94" s="3">
-        <v>-723100</v>
+        <v>-707400</v>
       </c>
       <c r="I94" s="3">
-        <v>-219400</v>
+        <v>-740100</v>
       </c>
       <c r="J94" s="3">
+        <v>-224600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1139000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>257400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>619600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>618700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-108900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-811500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2310200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-612700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-996300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-878500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-648500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-633900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-531700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-49900</v>
+        <v>-487900</v>
       </c>
       <c r="E96" s="3">
-        <v>-456800</v>
+        <v>-51000</v>
       </c>
       <c r="F96" s="3">
-        <v>-31900</v>
+        <v>-467500</v>
       </c>
       <c r="G96" s="3">
-        <v>-445800</v>
+        <v>-32700</v>
       </c>
       <c r="H96" s="3">
-        <v>-27900</v>
+        <v>-456300</v>
       </c>
       <c r="I96" s="3">
-        <v>-117700</v>
+        <v>-28600</v>
       </c>
       <c r="J96" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-18000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-207600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>12000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-156900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>14000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-253600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>15300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-256000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-119500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-215200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-212100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-162000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1692600</v>
+        <v>303200</v>
       </c>
       <c r="E100" s="3">
-        <v>-546600</v>
+        <v>-1732300</v>
       </c>
       <c r="F100" s="3">
-        <v>-622400</v>
+        <v>-559400</v>
       </c>
       <c r="G100" s="3">
-        <v>116700</v>
+        <v>-637000</v>
       </c>
       <c r="H100" s="3">
-        <v>719100</v>
+        <v>119400</v>
       </c>
       <c r="I100" s="3">
-        <v>-741100</v>
+        <v>736000</v>
       </c>
       <c r="J100" s="3">
+        <v>-758500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-520600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1401800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-788100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-372900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-236600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-794900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-591300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>219900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>98600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24900</v>
+        <v>106200</v>
       </c>
       <c r="E101" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>65300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
-        <v>63800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>35500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>31900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-19100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>24700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-619400</v>
+        <v>3286000</v>
       </c>
       <c r="E102" s="3">
-        <v>-640300</v>
+        <v>-633900</v>
       </c>
       <c r="F102" s="3">
-        <v>9000</v>
+        <v>-655400</v>
       </c>
       <c r="G102" s="3">
-        <v>670300</v>
+        <v>9200</v>
       </c>
       <c r="H102" s="3">
-        <v>713100</v>
+        <v>686000</v>
       </c>
       <c r="I102" s="3">
-        <v>-121700</v>
+        <v>729900</v>
       </c>
       <c r="J102" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-646300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-328000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2313800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>208900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-845200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-733800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-201200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-374400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-609200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-498000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2245100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-853100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-144700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1116400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1526000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21327600</v>
+        <v>16852900</v>
       </c>
       <c r="E8" s="3">
-        <v>21433700</v>
+        <v>22104800</v>
       </c>
       <c r="F8" s="3">
-        <v>17694500</v>
+        <v>22214800</v>
       </c>
       <c r="G8" s="3">
-        <v>15814200</v>
+        <v>18339400</v>
       </c>
       <c r="H8" s="3">
-        <v>13641000</v>
+        <v>16390500</v>
       </c>
       <c r="I8" s="3">
-        <v>11049100</v>
+        <v>14138100</v>
       </c>
       <c r="J8" s="3">
+        <v>11451800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10275400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8509800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8393500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6661100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11919900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14269300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14910600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15069700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14501500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15497200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15703000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14765000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12094500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12700900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11270400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11424100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11880100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11748700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16887100</v>
+        <v>12759500</v>
       </c>
       <c r="E9" s="3">
-        <v>15255900</v>
+        <v>17502500</v>
       </c>
       <c r="F9" s="3">
-        <v>13161200</v>
+        <v>15811800</v>
       </c>
       <c r="G9" s="3">
-        <v>12157700</v>
+        <v>13640800</v>
       </c>
       <c r="H9" s="3">
-        <v>10610200</v>
+        <v>12600800</v>
       </c>
       <c r="I9" s="3">
-        <v>8135800</v>
+        <v>10996900</v>
       </c>
       <c r="J9" s="3">
+        <v>8432300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7333400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6419300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6240900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4988700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10154000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10917600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11619000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11461700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11033700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12563600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11959100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10741900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8909200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9153200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7993100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8607900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8323500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7909100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4440500</v>
+        <v>4093400</v>
       </c>
       <c r="E10" s="3">
-        <v>6177900</v>
+        <v>4602300</v>
       </c>
       <c r="F10" s="3">
-        <v>4533400</v>
+        <v>6403000</v>
       </c>
       <c r="G10" s="3">
-        <v>3656500</v>
+        <v>4698600</v>
       </c>
       <c r="H10" s="3">
-        <v>3030800</v>
+        <v>3789800</v>
       </c>
       <c r="I10" s="3">
-        <v>2913400</v>
+        <v>3141200</v>
       </c>
       <c r="J10" s="3">
+        <v>3019500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2941900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2090600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2152600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1672400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1765900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3351600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3291500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3608000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3467800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2933600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3743900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4023000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3185300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3547700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3277300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2816200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3556600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3839500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30600</v>
+        <v>890800</v>
       </c>
       <c r="E14" s="3">
-        <v>1609800</v>
+        <v>31700</v>
       </c>
       <c r="F14" s="3">
-        <v>178600</v>
+        <v>1668500</v>
       </c>
       <c r="G14" s="3">
-        <v>576800</v>
+        <v>185200</v>
       </c>
       <c r="H14" s="3">
-        <v>44900</v>
+        <v>597800</v>
       </c>
       <c r="I14" s="3">
-        <v>42900</v>
+        <v>46600</v>
       </c>
       <c r="J14" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-15300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1510100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>650200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6343700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-162300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>971200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>538200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>91100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>226600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-210900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>50500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>56300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>623700</v>
+        <v>650700</v>
       </c>
       <c r="E15" s="3">
-        <v>554300</v>
+        <v>646400</v>
       </c>
       <c r="F15" s="3">
-        <v>581900</v>
+        <v>574500</v>
       </c>
       <c r="G15" s="3">
-        <v>525700</v>
+        <v>603100</v>
       </c>
       <c r="H15" s="3">
-        <v>517500</v>
+        <v>544900</v>
       </c>
       <c r="I15" s="3">
-        <v>487900</v>
+        <v>536400</v>
       </c>
       <c r="J15" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K15" s="3">
         <v>514500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>532600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>547000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>617500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>654900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>806700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>731300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>659100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>661200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>676600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>582000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>567700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>486900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>646300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>886400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>703100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>907400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19817800</v>
+        <v>16019200</v>
       </c>
       <c r="E17" s="3">
-        <v>19701400</v>
+        <v>20540000</v>
       </c>
       <c r="F17" s="3">
-        <v>15709100</v>
+        <v>20419400</v>
       </c>
       <c r="G17" s="3">
-        <v>14713800</v>
+        <v>16281600</v>
       </c>
       <c r="H17" s="3">
-        <v>12632400</v>
+        <v>15250000</v>
       </c>
       <c r="I17" s="3">
-        <v>10310100</v>
+        <v>13092800</v>
       </c>
       <c r="J17" s="3">
+        <v>10685800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9260700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9422400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8276200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7963600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12485600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20674800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14180500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14055600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13563700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15779900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14614700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14030400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11236900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11714700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10540000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10959600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10889400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11171100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1509800</v>
+        <v>833700</v>
       </c>
       <c r="E18" s="3">
-        <v>1732300</v>
+        <v>1564800</v>
       </c>
       <c r="F18" s="3">
-        <v>1985500</v>
+        <v>1795400</v>
       </c>
       <c r="G18" s="3">
-        <v>1100400</v>
+        <v>2057800</v>
       </c>
       <c r="H18" s="3">
-        <v>1008600</v>
+        <v>1140500</v>
       </c>
       <c r="I18" s="3">
-        <v>739100</v>
+        <v>1045300</v>
       </c>
       <c r="J18" s="3">
+        <v>766000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1014700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-912600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-565700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>730100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1014100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>937800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-282700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1088300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>734600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>857500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>986200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>730400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>464500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>990700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>577500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41900</v>
+        <v>586100</v>
       </c>
       <c r="E20" s="3">
-        <v>459400</v>
+        <v>43400</v>
       </c>
       <c r="F20" s="3">
-        <v>230700</v>
+        <v>476100</v>
       </c>
       <c r="G20" s="3">
-        <v>71500</v>
+        <v>239100</v>
       </c>
       <c r="H20" s="3">
-        <v>185800</v>
+        <v>74100</v>
       </c>
       <c r="I20" s="3">
-        <v>247000</v>
+        <v>192600</v>
       </c>
       <c r="J20" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K20" s="3">
         <v>52100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>454800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-150500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-49000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>39200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>604500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>141900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>647000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>79100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>386000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>55000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>23500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2175300</v>
+        <v>2070500</v>
       </c>
       <c r="E21" s="3">
-        <v>2746000</v>
+        <v>2254600</v>
       </c>
       <c r="F21" s="3">
-        <v>2798000</v>
+        <v>2846000</v>
       </c>
       <c r="G21" s="3">
-        <v>1697600</v>
+        <v>2900000</v>
       </c>
       <c r="H21" s="3">
-        <v>1711900</v>
+        <v>1759500</v>
       </c>
       <c r="I21" s="3">
-        <v>1474000</v>
+        <v>1774300</v>
       </c>
       <c r="J21" s="3">
+        <v>1527800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1581200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>513800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1710500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1665100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>983000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1906800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1963600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1504300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1859100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1431700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1312700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1717300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1479000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1551600</v>
+        <v>1419800</v>
       </c>
       <c r="E23" s="3">
-        <v>2191700</v>
+        <v>1608200</v>
       </c>
       <c r="F23" s="3">
-        <v>2216200</v>
+        <v>2271500</v>
       </c>
       <c r="G23" s="3">
-        <v>1171900</v>
+        <v>2296900</v>
       </c>
       <c r="H23" s="3">
-        <v>1194300</v>
+        <v>1214600</v>
       </c>
       <c r="I23" s="3">
-        <v>986100</v>
+        <v>1237900</v>
       </c>
       <c r="J23" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1066700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-457800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-636800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>769300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1010500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1006000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>321700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1230200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1381600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>936600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1372200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>785400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>426400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1014200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>574000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>851300</v>
+        <v>285700</v>
       </c>
       <c r="E24" s="3">
-        <v>994300</v>
+        <v>882400</v>
       </c>
       <c r="F24" s="3">
-        <v>772700</v>
+        <v>1030500</v>
       </c>
       <c r="G24" s="3">
-        <v>587000</v>
+        <v>800900</v>
       </c>
       <c r="H24" s="3">
-        <v>468500</v>
+        <v>608400</v>
       </c>
       <c r="I24" s="3">
-        <v>382800</v>
+        <v>485600</v>
       </c>
       <c r="J24" s="3">
+        <v>396800</v>
+      </c>
+      <c r="K24" s="3">
         <v>400200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>248400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-271600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-297700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>352800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>389400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>267900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>132500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>480300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>664800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>336000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>887500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>227800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>67300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>194900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>186600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700300</v>
+        <v>1134200</v>
       </c>
       <c r="E26" s="3">
-        <v>1197400</v>
+        <v>725800</v>
       </c>
       <c r="F26" s="3">
-        <v>1443400</v>
+        <v>1241000</v>
       </c>
       <c r="G26" s="3">
-        <v>584900</v>
+        <v>1496000</v>
       </c>
       <c r="H26" s="3">
-        <v>725800</v>
+        <v>606200</v>
       </c>
       <c r="I26" s="3">
-        <v>603300</v>
+        <v>752200</v>
       </c>
       <c r="J26" s="3">
+        <v>625300</v>
+      </c>
+      <c r="K26" s="3">
         <v>666600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-706200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-98600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-583700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>416500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>621100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>738100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>189300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>750000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>716800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>484700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>557600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>359000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>819300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>387400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>681900</v>
+        <v>1072800</v>
       </c>
       <c r="E27" s="3">
-        <v>1155500</v>
+        <v>706700</v>
       </c>
       <c r="F27" s="3">
-        <v>1405600</v>
+        <v>1197700</v>
       </c>
       <c r="G27" s="3">
-        <v>558400</v>
+        <v>1456900</v>
       </c>
       <c r="H27" s="3">
-        <v>705400</v>
+        <v>578700</v>
       </c>
       <c r="I27" s="3">
-        <v>579800</v>
+        <v>731100</v>
       </c>
       <c r="J27" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K27" s="3">
         <v>646200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-723100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-113100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-557800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>399300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>609400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>718900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>731000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>692000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>587400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>466700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>529600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>345600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>800500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>363900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2360,31 +2420,34 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>406900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>74700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>129000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>53900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>57200</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>351000</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41900</v>
+        <v>-586100</v>
       </c>
       <c r="E32" s="3">
-        <v>-459400</v>
+        <v>-43400</v>
       </c>
       <c r="F32" s="3">
-        <v>-230700</v>
+        <v>-476100</v>
       </c>
       <c r="G32" s="3">
-        <v>-71500</v>
+        <v>-239100</v>
       </c>
       <c r="H32" s="3">
-        <v>-185800</v>
+        <v>-74100</v>
       </c>
       <c r="I32" s="3">
-        <v>-247000</v>
+        <v>-192600</v>
       </c>
       <c r="J32" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-454800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>150500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1150900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>49000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-604500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-141900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-647000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-79100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-386000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>38100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>681900</v>
+        <v>1072800</v>
       </c>
       <c r="E33" s="3">
-        <v>1155500</v>
+        <v>706700</v>
       </c>
       <c r="F33" s="3">
-        <v>1405600</v>
+        <v>1197700</v>
       </c>
       <c r="G33" s="3">
-        <v>558400</v>
+        <v>1456900</v>
       </c>
       <c r="H33" s="3">
-        <v>705400</v>
+        <v>578700</v>
       </c>
       <c r="I33" s="3">
-        <v>579800</v>
+        <v>731100</v>
       </c>
       <c r="J33" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K33" s="3">
         <v>646200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-723100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-113100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-557800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>399300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>609400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>718900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>192800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>731000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1098900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>662100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>595800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>583400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>402800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>800500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>714900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>681900</v>
+        <v>1072800</v>
       </c>
       <c r="E35" s="3">
-        <v>1155500</v>
+        <v>706700</v>
       </c>
       <c r="F35" s="3">
-        <v>1405600</v>
+        <v>1197700</v>
       </c>
       <c r="G35" s="3">
-        <v>558400</v>
+        <v>1456900</v>
       </c>
       <c r="H35" s="3">
-        <v>705400</v>
+        <v>578700</v>
       </c>
       <c r="I35" s="3">
-        <v>579800</v>
+        <v>731100</v>
       </c>
       <c r="J35" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K35" s="3">
         <v>646200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-723100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-113100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-557800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>399300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>609400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>718900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>192800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>731000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1098900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>662100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>595800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>583400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>402800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>800500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>714900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7708100</v>
+        <v>6889700</v>
       </c>
       <c r="E41" s="3">
-        <v>2450900</v>
+        <v>7989000</v>
       </c>
       <c r="F41" s="3">
-        <v>5056000</v>
+        <v>2540300</v>
       </c>
       <c r="G41" s="3">
-        <v>2560200</v>
+        <v>5240300</v>
       </c>
       <c r="H41" s="3">
-        <v>5702200</v>
+        <v>2653500</v>
       </c>
       <c r="I41" s="3">
-        <v>2124300</v>
+        <v>5910000</v>
       </c>
       <c r="J41" s="3">
+        <v>2201700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4286300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4309800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5157300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2630200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3572500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2766800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3369900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3536300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4047900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4878300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4075100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4867600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3447700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4210800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4976000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4707900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3505000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3764400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3463600</v>
+        <v>3235400</v>
       </c>
       <c r="E42" s="3">
-        <v>4987600</v>
+        <v>3589800</v>
       </c>
       <c r="F42" s="3">
-        <v>2372300</v>
+        <v>5169400</v>
       </c>
       <c r="G42" s="3">
-        <v>5653200</v>
+        <v>2458800</v>
       </c>
       <c r="H42" s="3">
-        <v>2050800</v>
+        <v>5859200</v>
       </c>
       <c r="I42" s="3">
-        <v>4624200</v>
+        <v>2125500</v>
       </c>
       <c r="J42" s="3">
+        <v>4792700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1519000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1579900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>837600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4616700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2947000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4175800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4558200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3713900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3112500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3092100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4239500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3934300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1120000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1307100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1776100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2053200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2553000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3314800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10505100</v>
+        <v>9550600</v>
       </c>
       <c r="E43" s="3">
-        <v>12083200</v>
+        <v>10887900</v>
       </c>
       <c r="F43" s="3">
-        <v>9845600</v>
+        <v>12523500</v>
       </c>
       <c r="G43" s="3">
-        <v>8409400</v>
+        <v>10204400</v>
       </c>
       <c r="H43" s="3">
-        <v>7202800</v>
+        <v>8715800</v>
       </c>
       <c r="I43" s="3">
-        <v>5339800</v>
+        <v>7465200</v>
       </c>
       <c r="J43" s="3">
+        <v>5534400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4434400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4045500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4092400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4244700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5032400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6704400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6956700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7652500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7406900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="T43" s="3">
-        <v>7350500</v>
       </c>
       <c r="U43" s="3">
         <v>7350500</v>
       </c>
       <c r="V43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="W43" s="3">
         <v>5817200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6565900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6948500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6438000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6217700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6832700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7881600</v>
+        <v>7716000</v>
       </c>
       <c r="E44" s="3">
-        <v>9206600</v>
+        <v>8168800</v>
       </c>
       <c r="F44" s="3">
-        <v>7504900</v>
+        <v>9542100</v>
       </c>
       <c r="G44" s="3">
-        <v>5335700</v>
+        <v>7778400</v>
       </c>
       <c r="H44" s="3">
-        <v>5345900</v>
+        <v>5530200</v>
       </c>
       <c r="I44" s="3">
-        <v>4712000</v>
+        <v>5540700</v>
       </c>
       <c r="J44" s="3">
+        <v>4883700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4396600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3370200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3555800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3541100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4287200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5366600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5233200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5619700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5191500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5192900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5726400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5582100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4773000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4260200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4026800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3611700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4407700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4231600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>450200</v>
+        <v>310000</v>
       </c>
       <c r="E45" s="3">
-        <v>519600</v>
+        <v>466600</v>
       </c>
       <c r="F45" s="3">
-        <v>433800</v>
+        <v>538500</v>
       </c>
       <c r="G45" s="3">
-        <v>950400</v>
+        <v>449700</v>
       </c>
       <c r="H45" s="3">
-        <v>1065700</v>
+        <v>985000</v>
       </c>
       <c r="I45" s="3">
-        <v>1141300</v>
+        <v>1104600</v>
       </c>
       <c r="J45" s="3">
+        <v>1182800</v>
+      </c>
+      <c r="K45" s="3">
         <v>392000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>243400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>423500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>805100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>223600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>233500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>251100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>241200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>265600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>357200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>428200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>275600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3861700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>228900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>279400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>389300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>483600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>552900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30008500</v>
+        <v>27701600</v>
       </c>
       <c r="E46" s="3">
-        <v>29248000</v>
+        <v>31102000</v>
       </c>
       <c r="F46" s="3">
-        <v>25212700</v>
+        <v>30313800</v>
       </c>
       <c r="G46" s="3">
-        <v>22908800</v>
+        <v>26131500</v>
       </c>
       <c r="H46" s="3">
-        <v>21367400</v>
+        <v>23743600</v>
       </c>
       <c r="I46" s="3">
-        <v>17941600</v>
+        <v>22146100</v>
       </c>
       <c r="J46" s="3">
+        <v>18595400</v>
+      </c>
+      <c r="K46" s="3">
         <v>15028200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13548700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14066700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15837800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16062600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19247100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20369100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20763500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20024400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20457100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21819800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22010200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19019600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16572900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18006800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17200100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17167000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18696400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5782800</v>
+        <v>6071900</v>
       </c>
       <c r="E47" s="3">
-        <v>5679700</v>
+        <v>5993600</v>
       </c>
       <c r="F47" s="3">
-        <v>5378600</v>
+        <v>5886700</v>
       </c>
       <c r="G47" s="3">
-        <v>4902900</v>
+        <v>5574600</v>
       </c>
       <c r="H47" s="3">
-        <v>4852900</v>
+        <v>5081600</v>
       </c>
       <c r="I47" s="3">
-        <v>4577300</v>
+        <v>5029700</v>
       </c>
       <c r="J47" s="3">
+        <v>4744100</v>
+      </c>
+      <c r="K47" s="3">
         <v>7489600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6795300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7186400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7958200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9161500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9772400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11049400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10022900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10278900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9853600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9543600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9340200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8446900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12687500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11871800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12058000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13548100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>13358000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23392700</v>
+        <v>23773300</v>
       </c>
       <c r="E48" s="3">
-        <v>22574000</v>
+        <v>24245100</v>
       </c>
       <c r="F48" s="3">
-        <v>22635200</v>
+        <v>23396600</v>
       </c>
       <c r="G48" s="3">
-        <v>22177900</v>
+        <v>23460100</v>
       </c>
       <c r="H48" s="3">
-        <v>21345900</v>
+        <v>22986100</v>
       </c>
       <c r="I48" s="3">
-        <v>21114200</v>
+        <v>22123800</v>
       </c>
       <c r="J48" s="3">
+        <v>21883700</v>
+      </c>
+      <c r="K48" s="3">
         <v>21662400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20872600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23182500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25130200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26449200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27096800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34049800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31932200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32653900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30162800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30003100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29858800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26738500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27676100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27832100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>28554600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31491000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32119000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2870500</v>
+        <v>2090600</v>
       </c>
       <c r="E49" s="3">
-        <v>3202200</v>
+        <v>2975100</v>
       </c>
       <c r="F49" s="3">
-        <v>3271700</v>
+        <v>3318900</v>
       </c>
       <c r="G49" s="3">
-        <v>3569700</v>
+        <v>3390900</v>
       </c>
       <c r="H49" s="3">
-        <v>3426800</v>
+        <v>3699800</v>
       </c>
       <c r="I49" s="3">
-        <v>3381900</v>
+        <v>3551700</v>
       </c>
       <c r="J49" s="3">
+        <v>3505200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3548300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3344300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4019800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4310200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4833700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5218300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6786400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6158500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6091100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6028100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5760700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5636500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5014600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5143200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5203800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5350800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5999300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5997000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4038300</v>
+        <v>3804600</v>
       </c>
       <c r="E52" s="3">
-        <v>3992300</v>
+        <v>4185400</v>
       </c>
       <c r="F52" s="3">
-        <v>3798400</v>
+        <v>4137800</v>
       </c>
       <c r="G52" s="3">
-        <v>3864700</v>
+        <v>3936800</v>
       </c>
       <c r="H52" s="3">
-        <v>4666100</v>
+        <v>4005600</v>
       </c>
       <c r="I52" s="3">
-        <v>4542600</v>
+        <v>4836100</v>
       </c>
       <c r="J52" s="3">
+        <v>4708100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4646700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4613000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4833500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5228700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6383900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6252600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5782000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5210300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5516900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5392800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4788400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5014300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4673100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5079200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5225100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5249800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5865500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5950000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66092700</v>
+        <v>63441900</v>
       </c>
       <c r="E54" s="3">
-        <v>64696300</v>
+        <v>68501300</v>
       </c>
       <c r="F54" s="3">
-        <v>60296600</v>
+        <v>67053900</v>
       </c>
       <c r="G54" s="3">
-        <v>57424100</v>
+        <v>62493900</v>
       </c>
       <c r="H54" s="3">
-        <v>55659100</v>
+        <v>59516700</v>
       </c>
       <c r="I54" s="3">
-        <v>51557500</v>
+        <v>57687500</v>
       </c>
       <c r="J54" s="3">
+        <v>53436400</v>
+      </c>
+      <c r="K54" s="3">
         <v>52375200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49173800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53288900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58465100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>62890900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67587200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78036800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74087300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74565100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71894300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71915600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71860000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63892600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>67159000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68139600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68413300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>74070900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>76120400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13622600</v>
+        <v>12477000</v>
       </c>
       <c r="E57" s="3">
-        <v>16215400</v>
+        <v>14119000</v>
       </c>
       <c r="F57" s="3">
-        <v>12882500</v>
+        <v>16806300</v>
       </c>
       <c r="G57" s="3">
-        <v>11456400</v>
+        <v>13352000</v>
       </c>
       <c r="H57" s="3">
-        <v>10507100</v>
+        <v>11873900</v>
       </c>
       <c r="I57" s="3">
-        <v>8428700</v>
+        <v>10890000</v>
       </c>
       <c r="J57" s="3">
+        <v>8735900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7583500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5883700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5985600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5443600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6435900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8335300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7972200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9317100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8511000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3837300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3728500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3610200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2720800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3072000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2957600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2294500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2183300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2497900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5431700</v>
+        <v>3751700</v>
       </c>
       <c r="E58" s="3">
-        <v>4373100</v>
+        <v>5629600</v>
       </c>
       <c r="F58" s="3">
-        <v>4497600</v>
+        <v>4532500</v>
       </c>
       <c r="G58" s="3">
-        <v>4706900</v>
+        <v>4661500</v>
       </c>
       <c r="H58" s="3">
-        <v>5066200</v>
+        <v>4878400</v>
       </c>
       <c r="I58" s="3">
-        <v>5252000</v>
+        <v>5250900</v>
       </c>
       <c r="J58" s="3">
+        <v>5443400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4113800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3869900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4273000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5737100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7662100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7521600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7498200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6924300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5545600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4443000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3917800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4818000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5413100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4645000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4755000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4507000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4885400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4577900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1490400</v>
+        <v>1670600</v>
       </c>
       <c r="E59" s="3">
-        <v>1672100</v>
+        <v>1544700</v>
       </c>
       <c r="F59" s="3">
-        <v>1430100</v>
+        <v>1733000</v>
       </c>
       <c r="G59" s="3">
-        <v>1514900</v>
+        <v>1482300</v>
       </c>
       <c r="H59" s="3">
-        <v>1267800</v>
+        <v>1570100</v>
       </c>
       <c r="I59" s="3">
-        <v>1321900</v>
+        <v>1314000</v>
       </c>
       <c r="J59" s="3">
+        <v>1370100</v>
+      </c>
+      <c r="K59" s="3">
         <v>975900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>738100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>798100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1332000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1039900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1753400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1199300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1298700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1009600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6872600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6455100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6282400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5432900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5786100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8402600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8407100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9159200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10222700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20544600</v>
+        <v>17899200</v>
       </c>
       <c r="E60" s="3">
-        <v>22260600</v>
+        <v>21293300</v>
       </c>
       <c r="F60" s="3">
-        <v>18810300</v>
+        <v>23071800</v>
       </c>
       <c r="G60" s="3">
-        <v>17678200</v>
+        <v>19495800</v>
       </c>
       <c r="H60" s="3">
-        <v>16841200</v>
+        <v>18322400</v>
       </c>
       <c r="I60" s="3">
-        <v>15002700</v>
+        <v>17454900</v>
       </c>
       <c r="J60" s="3">
+        <v>15549400</v>
+      </c>
+      <c r="K60" s="3">
         <v>12673200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10491700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11056700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12512700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15137800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17610400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16669700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17540100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15066100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15152900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14101400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14710500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13566900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13503100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16115100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15208600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16227900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17298400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9536300</v>
+        <v>10717500</v>
       </c>
       <c r="E61" s="3">
-        <v>9286200</v>
+        <v>9883800</v>
       </c>
       <c r="F61" s="3">
-        <v>10491800</v>
+        <v>9624600</v>
       </c>
       <c r="G61" s="3">
-        <v>101100</v>
+        <v>10874100</v>
       </c>
       <c r="H61" s="3">
-        <v>9970200</v>
+        <v>10775700</v>
       </c>
       <c r="I61" s="3">
-        <v>8564500</v>
+        <v>10333500</v>
       </c>
       <c r="J61" s="3">
+        <v>8876600</v>
+      </c>
+      <c r="K61" s="3">
         <v>12032200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>109700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12882400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13698600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12542000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12560200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14197600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12439300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14081700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9411200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9276300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9184000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8428200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9798300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10427800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11184000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11583200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12848500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7747900</v>
+        <v>7345700</v>
       </c>
       <c r="E62" s="3">
-        <v>7276300</v>
+        <v>8030200</v>
       </c>
       <c r="F62" s="3">
-        <v>6145200</v>
+        <v>7541400</v>
       </c>
       <c r="G62" s="3">
-        <v>16376700</v>
+        <v>6369200</v>
       </c>
       <c r="H62" s="3">
-        <v>6643400</v>
+        <v>6302500</v>
       </c>
       <c r="I62" s="3">
-        <v>6592300</v>
+        <v>6885500</v>
       </c>
       <c r="J62" s="3">
+        <v>6832600</v>
+      </c>
+      <c r="K62" s="3">
         <v>6435100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18086900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6468200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7228400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7493800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7987400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8459800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7725400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8122200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10762000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11249400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11108600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9743700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10127100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7874100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8155700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9372900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9455000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38535200</v>
+        <v>36680900</v>
       </c>
       <c r="E66" s="3">
-        <v>39257900</v>
+        <v>39939500</v>
       </c>
       <c r="F66" s="3">
-        <v>35887200</v>
+        <v>40688600</v>
       </c>
       <c r="G66" s="3">
-        <v>34543900</v>
+        <v>37195000</v>
       </c>
       <c r="H66" s="3">
-        <v>33723100</v>
+        <v>35802700</v>
       </c>
       <c r="I66" s="3">
-        <v>30419800</v>
+        <v>34952100</v>
       </c>
       <c r="J66" s="3">
+        <v>31528400</v>
+      </c>
+      <c r="K66" s="3">
         <v>31396700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28931600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30661600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33710200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35458300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38486000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39671300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38024800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37593000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35664400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34981900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35346200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32038500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33731500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34715500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34829900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>37479800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39888400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3289000</v>
+        <v>4497600</v>
       </c>
       <c r="E72" s="3">
-        <v>16396100</v>
+        <v>3408900</v>
       </c>
       <c r="F72" s="3">
-        <v>1421000</v>
+        <v>16993600</v>
       </c>
       <c r="G72" s="3">
-        <v>2551000</v>
+        <v>1472700</v>
       </c>
       <c r="H72" s="3">
-        <v>1979300</v>
+        <v>2643900</v>
       </c>
       <c r="I72" s="3">
-        <v>14034000</v>
+        <v>2051500</v>
       </c>
       <c r="J72" s="3">
+        <v>14545400</v>
+      </c>
+      <c r="K72" s="3">
         <v>661500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3280400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17304000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-549900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19422200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28052300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26559600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26621400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25795500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27093100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26343200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23588300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23824300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23432800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22843700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23736800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22936200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27557500</v>
+        <v>26761100</v>
       </c>
       <c r="E76" s="3">
-        <v>25438300</v>
+        <v>28561800</v>
       </c>
       <c r="F76" s="3">
-        <v>24409400</v>
+        <v>26365400</v>
       </c>
       <c r="G76" s="3">
-        <v>22880200</v>
+        <v>25298900</v>
       </c>
       <c r="H76" s="3">
-        <v>21936000</v>
+        <v>23714000</v>
       </c>
       <c r="I76" s="3">
-        <v>21137700</v>
+        <v>22735400</v>
       </c>
       <c r="J76" s="3">
+        <v>21908000</v>
+      </c>
+      <c r="K76" s="3">
         <v>20978500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20242200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22627300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24754900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27432600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29101200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38365500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36062500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36972100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36229900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36933700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36513800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31854100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33427400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33424100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33583400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36591200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>36232000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>681900</v>
+        <v>1072800</v>
       </c>
       <c r="E81" s="3">
-        <v>1155500</v>
+        <v>706700</v>
       </c>
       <c r="F81" s="3">
-        <v>1405600</v>
+        <v>1197700</v>
       </c>
       <c r="G81" s="3">
-        <v>558400</v>
+        <v>1456900</v>
       </c>
       <c r="H81" s="3">
-        <v>705400</v>
+        <v>578700</v>
       </c>
       <c r="I81" s="3">
-        <v>579800</v>
+        <v>731100</v>
       </c>
       <c r="J81" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K81" s="3">
         <v>646200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-723100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-113100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-557800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>399300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>609400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>718900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>192800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>731000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1098900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>662100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>595800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>583400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>402800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>800500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>714900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>623700</v>
+        <v>650700</v>
       </c>
       <c r="E83" s="3">
-        <v>554300</v>
+        <v>646400</v>
       </c>
       <c r="F83" s="3">
-        <v>581900</v>
+        <v>574500</v>
       </c>
       <c r="G83" s="3">
-        <v>525700</v>
+        <v>603100</v>
       </c>
       <c r="H83" s="3">
-        <v>517500</v>
+        <v>544900</v>
       </c>
       <c r="I83" s="3">
-        <v>487900</v>
+        <v>536400</v>
       </c>
       <c r="J83" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K83" s="3">
         <v>514500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>532600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>547000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>615300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>657100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>806700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>731300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>659100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>661200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>676600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>582000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>567700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>486900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>646300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>886400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>703100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>905000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3137900</v>
+        <v>2566700</v>
       </c>
       <c r="E89" s="3">
-        <v>1660800</v>
+        <v>3252300</v>
       </c>
       <c r="F89" s="3">
-        <v>719700</v>
+        <v>1721400</v>
       </c>
       <c r="G89" s="3">
-        <v>1902800</v>
+        <v>745900</v>
       </c>
       <c r="H89" s="3">
-        <v>1299500</v>
+        <v>1972100</v>
       </c>
       <c r="I89" s="3">
-        <v>740100</v>
+        <v>1346800</v>
       </c>
       <c r="J89" s="3">
+        <v>767100</v>
+      </c>
+      <c r="K89" s="3">
         <v>832000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1001400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1159300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>330500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>354500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2033600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1512900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1307000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>910300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2081900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1715200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>697900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>855300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2070100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1330700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1574200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>797000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1934400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-887100</v>
+        <v>-1541500</v>
       </c>
       <c r="E91" s="3">
-        <v>-646200</v>
+        <v>-919400</v>
       </c>
       <c r="F91" s="3">
-        <v>-588000</v>
+        <v>-669700</v>
       </c>
       <c r="G91" s="3">
-        <v>-845200</v>
+        <v>-609400</v>
       </c>
       <c r="H91" s="3">
-        <v>-434900</v>
+        <v>-876000</v>
       </c>
       <c r="I91" s="3">
-        <v>-337900</v>
+        <v>-450700</v>
       </c>
       <c r="J91" s="3">
+        <v>-350200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-323600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-580500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-373600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-446200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-604100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-853800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-807000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-534700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-729800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-684900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-584100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-570000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-536300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-475400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-732500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-261300</v>
+        <v>-2602700</v>
       </c>
       <c r="E94" s="3">
-        <v>-588000</v>
+        <v>-270800</v>
       </c>
       <c r="F94" s="3">
-        <v>-827900</v>
+        <v>-609400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1321900</v>
+        <v>-858000</v>
       </c>
       <c r="H94" s="3">
-        <v>-707400</v>
+        <v>-1370100</v>
       </c>
       <c r="I94" s="3">
-        <v>-740100</v>
+        <v>-733200</v>
       </c>
       <c r="J94" s="3">
+        <v>-767100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-224600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1139000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>257400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>619600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>618700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-108900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-811500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2310200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-612700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-996300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-878500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-648500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-633900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-531700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-487900</v>
+        <v>-43400</v>
       </c>
       <c r="E96" s="3">
-        <v>-51000</v>
+        <v>-505700</v>
       </c>
       <c r="F96" s="3">
-        <v>-467500</v>
+        <v>-52900</v>
       </c>
       <c r="G96" s="3">
-        <v>-32700</v>
+        <v>-484600</v>
       </c>
       <c r="H96" s="3">
-        <v>-456300</v>
+        <v>-33900</v>
       </c>
       <c r="I96" s="3">
-        <v>-28600</v>
+        <v>-472900</v>
       </c>
       <c r="J96" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-120500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-207600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>12000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-156900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>14000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-253600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>15300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-256000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-119500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-215200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-212100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-162000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>303200</v>
+        <v>-935300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1732300</v>
+        <v>314200</v>
       </c>
       <c r="F100" s="3">
-        <v>-559400</v>
+        <v>-1795400</v>
       </c>
       <c r="G100" s="3">
-        <v>-637000</v>
+        <v>-579800</v>
       </c>
       <c r="H100" s="3">
-        <v>119400</v>
+        <v>-660200</v>
       </c>
       <c r="I100" s="3">
-        <v>736000</v>
+        <v>123800</v>
       </c>
       <c r="J100" s="3">
+        <v>762800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-758500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-520600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1401800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-788100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-372900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-236600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-794900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-591300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>219900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>98600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>106200</v>
+        <v>-128000</v>
       </c>
       <c r="E101" s="3">
-        <v>25500</v>
+        <v>110000</v>
       </c>
       <c r="F101" s="3">
-        <v>12200</v>
+        <v>26500</v>
       </c>
       <c r="G101" s="3">
-        <v>65300</v>
+        <v>12700</v>
       </c>
       <c r="H101" s="3">
-        <v>-25500</v>
+        <v>67700</v>
       </c>
       <c r="I101" s="3">
-        <v>-6100</v>
+        <v>-26500</v>
       </c>
       <c r="J101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K101" s="3">
         <v>26500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>35500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>31900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-19100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>24700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3286000</v>
+        <v>-1099300</v>
       </c>
       <c r="E102" s="3">
-        <v>-633900</v>
+        <v>3405700</v>
       </c>
       <c r="F102" s="3">
-        <v>-655400</v>
+        <v>-657000</v>
       </c>
       <c r="G102" s="3">
-        <v>9200</v>
+        <v>-679200</v>
       </c>
       <c r="H102" s="3">
-        <v>686000</v>
+        <v>9500</v>
       </c>
       <c r="I102" s="3">
-        <v>729900</v>
+        <v>711000</v>
       </c>
       <c r="J102" s="3">
+        <v>756500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-124500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-646300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-328000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2313800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>208900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-845200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-733800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-201200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-374400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-609200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-498000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2245100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-853100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-144700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1116400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1526000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16852900</v>
+        <v>16555200</v>
       </c>
       <c r="E8" s="3">
-        <v>22104800</v>
+        <v>17153900</v>
       </c>
       <c r="F8" s="3">
-        <v>22214800</v>
+        <v>22499700</v>
       </c>
       <c r="G8" s="3">
-        <v>18339400</v>
+        <v>22611700</v>
       </c>
       <c r="H8" s="3">
-        <v>16390500</v>
+        <v>18667000</v>
       </c>
       <c r="I8" s="3">
-        <v>14138100</v>
+        <v>16683300</v>
       </c>
       <c r="J8" s="3">
+        <v>14390600</v>
+      </c>
+      <c r="K8" s="3">
         <v>11451800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10275400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8509800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8393500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6661100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11919900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14269300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14910600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15069700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14501500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15497200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15703000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14765000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12094500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12700900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11270400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11424100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11880100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11748700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12759500</v>
+        <v>12073100</v>
       </c>
       <c r="E9" s="3">
-        <v>17502500</v>
+        <v>12987400</v>
       </c>
       <c r="F9" s="3">
-        <v>15811800</v>
+        <v>17815200</v>
       </c>
       <c r="G9" s="3">
-        <v>13640800</v>
+        <v>16094300</v>
       </c>
       <c r="H9" s="3">
-        <v>12600800</v>
+        <v>13884500</v>
       </c>
       <c r="I9" s="3">
-        <v>10996900</v>
+        <v>12825900</v>
       </c>
       <c r="J9" s="3">
+        <v>11193300</v>
+      </c>
+      <c r="K9" s="3">
         <v>8432300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7333400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6419300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6240900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4988700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10154000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10917600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11619000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11461700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11033700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12563600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11959100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10741900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8909200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9153200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7993100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8607900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8323500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7909100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4093400</v>
+        <v>4482100</v>
       </c>
       <c r="E10" s="3">
-        <v>4602300</v>
+        <v>4166500</v>
       </c>
       <c r="F10" s="3">
-        <v>6403000</v>
+        <v>4684500</v>
       </c>
       <c r="G10" s="3">
-        <v>4698600</v>
+        <v>6517400</v>
       </c>
       <c r="H10" s="3">
-        <v>3789800</v>
+        <v>4782500</v>
       </c>
       <c r="I10" s="3">
-        <v>3141200</v>
+        <v>3857500</v>
       </c>
       <c r="J10" s="3">
+        <v>3197300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3019500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2941900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2090600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2152600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1672400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1765900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3351600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3291500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3608000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3467800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2933600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3743900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4023000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3185300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3547700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3277300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2816200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3556600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3839500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>890800</v>
+        <v>-386600</v>
       </c>
       <c r="E14" s="3">
-        <v>31700</v>
+        <v>906700</v>
       </c>
       <c r="F14" s="3">
-        <v>1668500</v>
+        <v>32300</v>
       </c>
       <c r="G14" s="3">
-        <v>185200</v>
+        <v>1698300</v>
       </c>
       <c r="H14" s="3">
-        <v>597800</v>
+        <v>188500</v>
       </c>
       <c r="I14" s="3">
-        <v>46600</v>
+        <v>608400</v>
       </c>
       <c r="J14" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K14" s="3">
         <v>44400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-15300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1510100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-14500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>650200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6343700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-12200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-162300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>971200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>538200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>91100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>226600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-210900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>50500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>56300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>650700</v>
+        <v>621400</v>
       </c>
       <c r="E15" s="3">
-        <v>646400</v>
+        <v>662300</v>
       </c>
       <c r="F15" s="3">
-        <v>574500</v>
+        <v>658000</v>
       </c>
       <c r="G15" s="3">
-        <v>603100</v>
+        <v>584800</v>
       </c>
       <c r="H15" s="3">
-        <v>544900</v>
+        <v>613800</v>
       </c>
       <c r="I15" s="3">
-        <v>536400</v>
+        <v>554600</v>
       </c>
       <c r="J15" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K15" s="3">
         <v>505700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>514500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>532600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>547000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>617500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>654900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>806700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>731300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>659100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>661200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>676600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>582000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>567700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>486900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>646300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>886400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>703100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>907400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16019200</v>
+        <v>14574800</v>
       </c>
       <c r="E17" s="3">
-        <v>20540000</v>
+        <v>16305300</v>
       </c>
       <c r="F17" s="3">
-        <v>20419400</v>
+        <v>20906900</v>
       </c>
       <c r="G17" s="3">
-        <v>16281600</v>
+        <v>20784200</v>
       </c>
       <c r="H17" s="3">
-        <v>15250000</v>
+        <v>16572400</v>
       </c>
       <c r="I17" s="3">
-        <v>13092800</v>
+        <v>15522400</v>
       </c>
       <c r="J17" s="3">
+        <v>13326600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10685800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9260700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9422400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8276200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7963600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12485600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20674800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14180500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14055600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13563700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15779900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14614700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14030400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11236900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11714700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10540000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10959600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10889400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11171100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>833700</v>
+        <v>1980400</v>
       </c>
       <c r="E18" s="3">
-        <v>1564800</v>
+        <v>848600</v>
       </c>
       <c r="F18" s="3">
-        <v>1795400</v>
+        <v>1592700</v>
       </c>
       <c r="G18" s="3">
-        <v>2057800</v>
+        <v>1827500</v>
       </c>
       <c r="H18" s="3">
-        <v>1140500</v>
+        <v>2094600</v>
       </c>
       <c r="I18" s="3">
-        <v>1045300</v>
+        <v>1160900</v>
       </c>
       <c r="J18" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="K18" s="3">
         <v>766000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1014700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-912600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-565700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>730100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1014100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>937800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-282700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1088300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>734600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>857500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>986200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>730400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>464500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>990700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>577500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>586100</v>
+        <v>-12900</v>
       </c>
       <c r="E20" s="3">
-        <v>43400</v>
+        <v>596600</v>
       </c>
       <c r="F20" s="3">
-        <v>476100</v>
+        <v>44200</v>
       </c>
       <c r="G20" s="3">
-        <v>239100</v>
+        <v>484600</v>
       </c>
       <c r="H20" s="3">
-        <v>74100</v>
+        <v>243400</v>
       </c>
       <c r="I20" s="3">
-        <v>192600</v>
+        <v>75400</v>
       </c>
       <c r="J20" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K20" s="3">
         <v>256000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>454800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-150500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>39200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>604500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>141900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>647000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>79100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>386000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>55000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>23500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2070500</v>
+        <v>2588900</v>
       </c>
       <c r="E21" s="3">
-        <v>2254600</v>
+        <v>2107500</v>
       </c>
       <c r="F21" s="3">
-        <v>2846000</v>
+        <v>2294900</v>
       </c>
       <c r="G21" s="3">
-        <v>2900000</v>
+        <v>2896900</v>
       </c>
       <c r="H21" s="3">
-        <v>1759500</v>
+        <v>2951800</v>
       </c>
       <c r="I21" s="3">
-        <v>1774300</v>
+        <v>1790900</v>
       </c>
       <c r="J21" s="3">
+        <v>1806000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1527800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1581200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>74800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>513800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1500600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1710500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1665100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>983000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1906800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1963600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1504300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1859100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1431700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1312700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1717300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1479000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1419800</v>
+        <v>1967500</v>
       </c>
       <c r="E23" s="3">
-        <v>1608200</v>
+        <v>1445200</v>
       </c>
       <c r="F23" s="3">
-        <v>2271500</v>
+        <v>1636900</v>
       </c>
       <c r="G23" s="3">
-        <v>2296900</v>
+        <v>2312100</v>
       </c>
       <c r="H23" s="3">
-        <v>1214600</v>
+        <v>2337900</v>
       </c>
       <c r="I23" s="3">
-        <v>1237900</v>
+        <v>1236300</v>
       </c>
       <c r="J23" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1022000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1066700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-457800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-636800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>769300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1010500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1006000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>321700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1230200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1381600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>936600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1372200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>785400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>426400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1014200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>574000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>285700</v>
+        <v>698900</v>
       </c>
       <c r="E24" s="3">
-        <v>882400</v>
+        <v>290800</v>
       </c>
       <c r="F24" s="3">
-        <v>1030500</v>
+        <v>898100</v>
       </c>
       <c r="G24" s="3">
-        <v>800900</v>
+        <v>1048900</v>
       </c>
       <c r="H24" s="3">
-        <v>608400</v>
+        <v>815200</v>
       </c>
       <c r="I24" s="3">
-        <v>485600</v>
+        <v>619200</v>
       </c>
       <c r="J24" s="3">
+        <v>494300</v>
+      </c>
+      <c r="K24" s="3">
         <v>396800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>248400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-271600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-53100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-297700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>352800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>389400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>267900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>132500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>480300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>664800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>336000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>887500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>227800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>67300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>194900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>186600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1134200</v>
+        <v>1268600</v>
       </c>
       <c r="E26" s="3">
-        <v>725800</v>
+        <v>1154400</v>
       </c>
       <c r="F26" s="3">
-        <v>1241000</v>
+        <v>738800</v>
       </c>
       <c r="G26" s="3">
-        <v>1496000</v>
+        <v>1263200</v>
       </c>
       <c r="H26" s="3">
-        <v>606200</v>
+        <v>1522700</v>
       </c>
       <c r="I26" s="3">
-        <v>752200</v>
+        <v>617100</v>
       </c>
       <c r="J26" s="3">
+        <v>765700</v>
+      </c>
+      <c r="K26" s="3">
         <v>625300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>666600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-706200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-98600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-583700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>416500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>621100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>738100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>189300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>750000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>716800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>484700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>557600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>359000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>819300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>387400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1072800</v>
+        <v>1181400</v>
       </c>
       <c r="E27" s="3">
-        <v>706700</v>
+        <v>1092000</v>
       </c>
       <c r="F27" s="3">
-        <v>1197700</v>
+        <v>719400</v>
       </c>
       <c r="G27" s="3">
-        <v>1456900</v>
+        <v>1219100</v>
       </c>
       <c r="H27" s="3">
-        <v>578700</v>
+        <v>1482900</v>
       </c>
       <c r="I27" s="3">
-        <v>731100</v>
+        <v>589100</v>
       </c>
       <c r="J27" s="3">
+        <v>744100</v>
+      </c>
+      <c r="K27" s="3">
         <v>600900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>646200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-723100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-113100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-557800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>399300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>609400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>718900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>192800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>731000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>692000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>587400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>466700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>529600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>345600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>800500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>363900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2423,31 +2484,34 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>406900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>74700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>129000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>53900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>57200</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>351000</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-586100</v>
+        <v>12900</v>
       </c>
       <c r="E32" s="3">
-        <v>-43400</v>
+        <v>-596600</v>
       </c>
       <c r="F32" s="3">
-        <v>-476100</v>
+        <v>-44200</v>
       </c>
       <c r="G32" s="3">
-        <v>-239100</v>
+        <v>-484600</v>
       </c>
       <c r="H32" s="3">
-        <v>-74100</v>
+        <v>-243400</v>
       </c>
       <c r="I32" s="3">
-        <v>-192600</v>
+        <v>-75400</v>
       </c>
       <c r="J32" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-256000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-454800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>150500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1150900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>49000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-39200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-604500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-141900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-647000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-79100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-386000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>38100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-23500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1072800</v>
+        <v>1181400</v>
       </c>
       <c r="E33" s="3">
-        <v>706700</v>
+        <v>1092000</v>
       </c>
       <c r="F33" s="3">
-        <v>1197700</v>
+        <v>719400</v>
       </c>
       <c r="G33" s="3">
-        <v>1456900</v>
+        <v>1219100</v>
       </c>
       <c r="H33" s="3">
-        <v>578700</v>
+        <v>1482900</v>
       </c>
       <c r="I33" s="3">
-        <v>731100</v>
+        <v>589100</v>
       </c>
       <c r="J33" s="3">
+        <v>744100</v>
+      </c>
+      <c r="K33" s="3">
         <v>600900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>646200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-723100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-113100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-557800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>399300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>609400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>718900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>192800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>731000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1098900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>662100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>595800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>583400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>402800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>800500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>714900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1072800</v>
+        <v>1181400</v>
       </c>
       <c r="E35" s="3">
-        <v>706700</v>
+        <v>1092000</v>
       </c>
       <c r="F35" s="3">
-        <v>1197700</v>
+        <v>719400</v>
       </c>
       <c r="G35" s="3">
-        <v>1456900</v>
+        <v>1219100</v>
       </c>
       <c r="H35" s="3">
-        <v>578700</v>
+        <v>1482900</v>
       </c>
       <c r="I35" s="3">
-        <v>731100</v>
+        <v>589100</v>
       </c>
       <c r="J35" s="3">
+        <v>744100</v>
+      </c>
+      <c r="K35" s="3">
         <v>600900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>646200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-723100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-113100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-557800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>399300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>609400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>718900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>192800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>731000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1098900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>662100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>595800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>583400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>402800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>800500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>714900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3180,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6889700</v>
+        <v>5912200</v>
       </c>
       <c r="E41" s="3">
-        <v>7989000</v>
+        <v>7012800</v>
       </c>
       <c r="F41" s="3">
-        <v>2540300</v>
+        <v>8131700</v>
       </c>
       <c r="G41" s="3">
-        <v>5240300</v>
+        <v>2585600</v>
       </c>
       <c r="H41" s="3">
-        <v>2653500</v>
+        <v>5333900</v>
       </c>
       <c r="I41" s="3">
-        <v>5910000</v>
+        <v>2700900</v>
       </c>
       <c r="J41" s="3">
+        <v>6015600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2201700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4286300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4309800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5157300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2630200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3572500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2766800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3369900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3536300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4047900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4878300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4075100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4867600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3447700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4210800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4976000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4707900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3505000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3764400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3235400</v>
+        <v>3754100</v>
       </c>
       <c r="E42" s="3">
-        <v>3589800</v>
+        <v>3293200</v>
       </c>
       <c r="F42" s="3">
-        <v>5169400</v>
+        <v>3653900</v>
       </c>
       <c r="G42" s="3">
-        <v>2458800</v>
+        <v>5261700</v>
       </c>
       <c r="H42" s="3">
-        <v>5859200</v>
+        <v>2502700</v>
       </c>
       <c r="I42" s="3">
-        <v>2125500</v>
+        <v>5963900</v>
       </c>
       <c r="J42" s="3">
+        <v>2163500</v>
+      </c>
+      <c r="K42" s="3">
         <v>4792700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1519000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1579900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>837600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4616700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2947000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4175800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4558200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3713900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3112500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3092100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4239500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3934300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1120000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1307100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1776100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2053200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2553000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3314800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9550600</v>
+        <v>8338400</v>
       </c>
       <c r="E43" s="3">
-        <v>10887900</v>
+        <v>9721200</v>
       </c>
       <c r="F43" s="3">
-        <v>12523500</v>
+        <v>11082400</v>
       </c>
       <c r="G43" s="3">
-        <v>10204400</v>
+        <v>12747300</v>
       </c>
       <c r="H43" s="3">
-        <v>8715800</v>
+        <v>10386700</v>
       </c>
       <c r="I43" s="3">
-        <v>7465200</v>
+        <v>8871500</v>
       </c>
       <c r="J43" s="3">
+        <v>7598600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5534400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4434400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4045500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4092400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4244700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5032400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6704400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6956700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7652500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7406900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="U43" s="3">
-        <v>7350500</v>
       </c>
       <c r="V43" s="3">
         <v>7350500</v>
       </c>
       <c r="W43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="X43" s="3">
         <v>5817200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6565900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6948500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6438000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6217700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6832700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7716000</v>
+        <v>8298600</v>
       </c>
       <c r="E44" s="3">
-        <v>8168800</v>
+        <v>7853800</v>
       </c>
       <c r="F44" s="3">
-        <v>9542100</v>
+        <v>8314700</v>
       </c>
       <c r="G44" s="3">
-        <v>7778400</v>
+        <v>9712600</v>
       </c>
       <c r="H44" s="3">
-        <v>5530200</v>
+        <v>7917400</v>
       </c>
       <c r="I44" s="3">
-        <v>5540700</v>
+        <v>5629000</v>
       </c>
       <c r="J44" s="3">
+        <v>5639700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4883700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4396600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3370200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3555800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3541100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4287200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5366600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5233200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5619700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5191500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5192900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5726400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5582100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4773000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4260200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4026800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3611700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4407700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4231600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310000</v>
+        <v>318800</v>
       </c>
       <c r="E45" s="3">
-        <v>466600</v>
+        <v>315500</v>
       </c>
       <c r="F45" s="3">
-        <v>538500</v>
+        <v>474900</v>
       </c>
       <c r="G45" s="3">
-        <v>449700</v>
+        <v>548100</v>
       </c>
       <c r="H45" s="3">
-        <v>985000</v>
+        <v>457700</v>
       </c>
       <c r="I45" s="3">
-        <v>1104600</v>
+        <v>1002600</v>
       </c>
       <c r="J45" s="3">
+        <v>1124300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1182800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>392000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>243400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>423500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>805100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>223600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>233500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>251100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>241200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>265600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>357200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>428200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>275600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3861700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>228900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>279400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>389300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>483600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>552900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27701600</v>
+        <v>26622000</v>
       </c>
       <c r="E46" s="3">
-        <v>31102000</v>
+        <v>28196500</v>
       </c>
       <c r="F46" s="3">
-        <v>30313800</v>
+        <v>31657600</v>
       </c>
       <c r="G46" s="3">
-        <v>26131500</v>
+        <v>30855300</v>
       </c>
       <c r="H46" s="3">
-        <v>23743600</v>
+        <v>26598400</v>
       </c>
       <c r="I46" s="3">
-        <v>22146100</v>
+        <v>24167800</v>
       </c>
       <c r="J46" s="3">
+        <v>22541700</v>
+      </c>
+      <c r="K46" s="3">
         <v>18595400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15028200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13548700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14066700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15837800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16062600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19247100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20369100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20763500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20024400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20457100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21819800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22010200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19019600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16572900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18006800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17200100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17167000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>18696400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6071900</v>
+        <v>6569100</v>
       </c>
       <c r="E47" s="3">
-        <v>5993600</v>
+        <v>6180300</v>
       </c>
       <c r="F47" s="3">
-        <v>5886700</v>
+        <v>6100600</v>
       </c>
       <c r="G47" s="3">
-        <v>5574600</v>
+        <v>5991900</v>
       </c>
       <c r="H47" s="3">
-        <v>5081600</v>
+        <v>5674200</v>
       </c>
       <c r="I47" s="3">
-        <v>5029700</v>
+        <v>5172400</v>
       </c>
       <c r="J47" s="3">
+        <v>5119600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4744100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7489600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6795300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7186400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7958200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9161500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9772400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11049400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10022900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10278900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9853600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9543600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9340200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8446900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12687500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11871800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12058000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>13548100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>13358000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23773300</v>
+        <v>25030400</v>
       </c>
       <c r="E48" s="3">
-        <v>24245100</v>
+        <v>24197900</v>
       </c>
       <c r="F48" s="3">
-        <v>23396600</v>
+        <v>24678200</v>
       </c>
       <c r="G48" s="3">
-        <v>23460100</v>
+        <v>23814600</v>
       </c>
       <c r="H48" s="3">
-        <v>22986100</v>
+        <v>23879200</v>
       </c>
       <c r="I48" s="3">
-        <v>22123800</v>
+        <v>23396700</v>
       </c>
       <c r="J48" s="3">
+        <v>22519100</v>
+      </c>
+      <c r="K48" s="3">
         <v>21883700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21662400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20872600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23182500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25130200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26449200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27096800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34049800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31932200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32653900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30162800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30003100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29858800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>26738500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27676100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27832100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>28554600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31491000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32119000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2090600</v>
+        <v>2806400</v>
       </c>
       <c r="E49" s="3">
-        <v>2975100</v>
+        <v>2128000</v>
       </c>
       <c r="F49" s="3">
-        <v>3318900</v>
+        <v>3028200</v>
       </c>
       <c r="G49" s="3">
-        <v>3390900</v>
+        <v>3378200</v>
       </c>
       <c r="H49" s="3">
-        <v>3699800</v>
+        <v>3451500</v>
       </c>
       <c r="I49" s="3">
-        <v>3551700</v>
+        <v>3765900</v>
       </c>
       <c r="J49" s="3">
+        <v>3615200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3505200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3548300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3344300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4019800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4310200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4833700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5218300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6786400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6158500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6091100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6028100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5760700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5636500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5014600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5143200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5203800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5350800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5999300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5997000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3804600</v>
+        <v>3711000</v>
       </c>
       <c r="E52" s="3">
-        <v>4185400</v>
+        <v>3872500</v>
       </c>
       <c r="F52" s="3">
-        <v>4137800</v>
+        <v>4260200</v>
       </c>
       <c r="G52" s="3">
-        <v>3936800</v>
+        <v>4211800</v>
       </c>
       <c r="H52" s="3">
-        <v>4005600</v>
+        <v>4007100</v>
       </c>
       <c r="I52" s="3">
-        <v>4836100</v>
+        <v>4077100</v>
       </c>
       <c r="J52" s="3">
+        <v>4922500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4708100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4646700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4613000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4833500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5228700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6383900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6252600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5782000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5210300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5516900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5392800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4788400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5014300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4673100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5079200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5225100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5249800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5865500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5950000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63441900</v>
+        <v>64738900</v>
       </c>
       <c r="E54" s="3">
-        <v>68501300</v>
+        <v>64575200</v>
       </c>
       <c r="F54" s="3">
-        <v>67053900</v>
+        <v>69725000</v>
       </c>
       <c r="G54" s="3">
-        <v>62493900</v>
+        <v>68251800</v>
       </c>
       <c r="H54" s="3">
-        <v>59516700</v>
+        <v>63610300</v>
       </c>
       <c r="I54" s="3">
-        <v>57687500</v>
+        <v>60579900</v>
       </c>
       <c r="J54" s="3">
+        <v>58718000</v>
+      </c>
+      <c r="K54" s="3">
         <v>53436400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52375200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49173800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53288900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58465100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62890900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67587200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78036800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74087300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74565100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71894300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71915600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71860000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>63892600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>67159000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68139600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68413300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>74070900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>76120400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12477000</v>
+        <v>10986500</v>
       </c>
       <c r="E57" s="3">
-        <v>14119000</v>
+        <v>12699900</v>
       </c>
       <c r="F57" s="3">
-        <v>16806300</v>
+        <v>14371200</v>
       </c>
       <c r="G57" s="3">
-        <v>13352000</v>
+        <v>17106600</v>
       </c>
       <c r="H57" s="3">
-        <v>11873900</v>
+        <v>13590500</v>
       </c>
       <c r="I57" s="3">
-        <v>10890000</v>
+        <v>12086000</v>
       </c>
       <c r="J57" s="3">
+        <v>11084500</v>
+      </c>
+      <c r="K57" s="3">
         <v>8735900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7583500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5883700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5985600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5443600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6435900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8335300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7972200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9317100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8511000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3837300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3728500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3610200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2720800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3072000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2957600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2294500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2183300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2497900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3751700</v>
+        <v>3317900</v>
       </c>
       <c r="E58" s="3">
-        <v>5629600</v>
+        <v>3818700</v>
       </c>
       <c r="F58" s="3">
-        <v>4532500</v>
+        <v>5730200</v>
       </c>
       <c r="G58" s="3">
-        <v>4661500</v>
+        <v>4613400</v>
       </c>
       <c r="H58" s="3">
-        <v>4878400</v>
+        <v>4744800</v>
       </c>
       <c r="I58" s="3">
-        <v>5250900</v>
+        <v>4965600</v>
       </c>
       <c r="J58" s="3">
+        <v>5344700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5443400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4113800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3869900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4273000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5737100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7662100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7521600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7498200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6924300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5545600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4443000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3917800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4818000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5413100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4645000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4755000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4507000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4885400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4577900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1670600</v>
+        <v>2171000</v>
       </c>
       <c r="E59" s="3">
-        <v>1544700</v>
+        <v>1700400</v>
       </c>
       <c r="F59" s="3">
-        <v>1733000</v>
+        <v>1572300</v>
       </c>
       <c r="G59" s="3">
-        <v>1482300</v>
+        <v>1764000</v>
       </c>
       <c r="H59" s="3">
-        <v>1570100</v>
+        <v>1508700</v>
       </c>
       <c r="I59" s="3">
-        <v>1314000</v>
+        <v>1598100</v>
       </c>
       <c r="J59" s="3">
+        <v>1337500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1370100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>975900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>738100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>798100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1332000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1039900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1753400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1199300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1298700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1009600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6872600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6455100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6282400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5432900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5786100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8402600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8407100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9159200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10222700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17899200</v>
+        <v>16475500</v>
       </c>
       <c r="E60" s="3">
-        <v>21293300</v>
+        <v>18219000</v>
       </c>
       <c r="F60" s="3">
-        <v>23071800</v>
+        <v>21673700</v>
       </c>
       <c r="G60" s="3">
-        <v>19495800</v>
+        <v>23484000</v>
       </c>
       <c r="H60" s="3">
-        <v>18322400</v>
+        <v>19844000</v>
       </c>
       <c r="I60" s="3">
-        <v>17454900</v>
+        <v>18649800</v>
       </c>
       <c r="J60" s="3">
+        <v>17766700</v>
+      </c>
+      <c r="K60" s="3">
         <v>15549400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12673200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10491700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11056700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12512700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15137800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17610400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16669700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17540100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15066100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15152900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14101400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14710500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13566900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13503100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16115100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15208600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16227900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>17298400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10717500</v>
+        <v>9864400</v>
       </c>
       <c r="E61" s="3">
-        <v>9883800</v>
+        <v>10909000</v>
       </c>
       <c r="F61" s="3">
-        <v>9624600</v>
+        <v>10060400</v>
       </c>
       <c r="G61" s="3">
-        <v>10874100</v>
+        <v>9796600</v>
       </c>
       <c r="H61" s="3">
-        <v>10775700</v>
+        <v>11068400</v>
       </c>
       <c r="I61" s="3">
-        <v>10333500</v>
+        <v>10968200</v>
       </c>
       <c r="J61" s="3">
+        <v>10518100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8876600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12032200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>109700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12882400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13698600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12542000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12560200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14197600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12439300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14081700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9411200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9276300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9184000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8428200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9798300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10427800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11184000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11583200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12848500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7345700</v>
+        <v>7429500</v>
       </c>
       <c r="E62" s="3">
-        <v>8030200</v>
+        <v>7476900</v>
       </c>
       <c r="F62" s="3">
-        <v>7541400</v>
+        <v>8173700</v>
       </c>
       <c r="G62" s="3">
-        <v>6369200</v>
+        <v>7676100</v>
       </c>
       <c r="H62" s="3">
-        <v>6302500</v>
+        <v>6482900</v>
       </c>
       <c r="I62" s="3">
-        <v>6885500</v>
+        <v>6415100</v>
       </c>
       <c r="J62" s="3">
+        <v>7008500</v>
+      </c>
+      <c r="K62" s="3">
         <v>6832600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6435100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18086900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6468200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7228400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7493800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7987400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8459800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7725400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8122200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10762000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11249400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11108600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9743700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10127100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7874100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8155700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9372900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9455000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36680900</v>
+        <v>36398100</v>
       </c>
       <c r="E66" s="3">
-        <v>39939500</v>
+        <v>37336100</v>
       </c>
       <c r="F66" s="3">
-        <v>40688600</v>
+        <v>40653000</v>
       </c>
       <c r="G66" s="3">
-        <v>37195000</v>
+        <v>41415400</v>
       </c>
       <c r="H66" s="3">
-        <v>35802700</v>
+        <v>37859500</v>
       </c>
       <c r="I66" s="3">
-        <v>34952100</v>
+        <v>36442300</v>
       </c>
       <c r="J66" s="3">
+        <v>35576500</v>
+      </c>
+      <c r="K66" s="3">
         <v>31528400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31396700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28931600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30661600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33710200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35458300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38486000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39671300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38024800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37593000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35664400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34981900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35346200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>32038500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33731500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34715500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>34829900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>37479800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>39888400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4497600</v>
+        <v>1197500</v>
       </c>
       <c r="E72" s="3">
-        <v>3408900</v>
+        <v>4577900</v>
       </c>
       <c r="F72" s="3">
-        <v>16993600</v>
+        <v>3469800</v>
       </c>
       <c r="G72" s="3">
-        <v>1472700</v>
+        <v>17297200</v>
       </c>
       <c r="H72" s="3">
-        <v>2643900</v>
+        <v>1499000</v>
       </c>
       <c r="I72" s="3">
-        <v>2051500</v>
+        <v>2691200</v>
       </c>
       <c r="J72" s="3">
+        <v>2088100</v>
+      </c>
+      <c r="K72" s="3">
         <v>14545400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>661500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3280400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17304000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-549900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19422200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28052300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26559600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26621400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25795500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27093100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26343200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23588300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23824300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23432800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22843700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23736800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22936200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26761100</v>
+        <v>28340800</v>
       </c>
       <c r="E76" s="3">
-        <v>28561800</v>
+        <v>27239100</v>
       </c>
       <c r="F76" s="3">
-        <v>26365400</v>
+        <v>29072000</v>
       </c>
       <c r="G76" s="3">
-        <v>25298900</v>
+        <v>26836300</v>
       </c>
       <c r="H76" s="3">
-        <v>23714000</v>
+        <v>25750800</v>
       </c>
       <c r="I76" s="3">
-        <v>22735400</v>
+        <v>24137600</v>
       </c>
       <c r="J76" s="3">
+        <v>23141500</v>
+      </c>
+      <c r="K76" s="3">
         <v>21908000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20978500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20242200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22627300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24754900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27432600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29101200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38365500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36062500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36972100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36229900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36933700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36513800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31854100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33427400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33424100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33583400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>36591200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>36232000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1072800</v>
+        <v>1181400</v>
       </c>
       <c r="E81" s="3">
-        <v>706700</v>
+        <v>1092000</v>
       </c>
       <c r="F81" s="3">
-        <v>1197700</v>
+        <v>719400</v>
       </c>
       <c r="G81" s="3">
-        <v>1456900</v>
+        <v>1219100</v>
       </c>
       <c r="H81" s="3">
-        <v>578700</v>
+        <v>1482900</v>
       </c>
       <c r="I81" s="3">
-        <v>731100</v>
+        <v>589100</v>
       </c>
       <c r="J81" s="3">
+        <v>744100</v>
+      </c>
+      <c r="K81" s="3">
         <v>600900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>646200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-723100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-113100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-557800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>399300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>609400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>718900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>192800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>731000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1098900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>662100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>595800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>583400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>402800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>800500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>714900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>650700</v>
+        <v>621400</v>
       </c>
       <c r="E83" s="3">
-        <v>646400</v>
+        <v>662300</v>
       </c>
       <c r="F83" s="3">
-        <v>574500</v>
+        <v>658000</v>
       </c>
       <c r="G83" s="3">
-        <v>603100</v>
+        <v>584800</v>
       </c>
       <c r="H83" s="3">
-        <v>544900</v>
+        <v>613800</v>
       </c>
       <c r="I83" s="3">
-        <v>536400</v>
+        <v>554600</v>
       </c>
       <c r="J83" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K83" s="3">
         <v>505700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>514500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>532600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>547000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>615300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>657100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>806700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>731300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>659100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>661200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>676600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>582000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>567700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>486900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>646300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>886400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>703100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>905000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2566700</v>
+        <v>1731700</v>
       </c>
       <c r="E89" s="3">
-        <v>3252300</v>
+        <v>2612600</v>
       </c>
       <c r="F89" s="3">
-        <v>1721400</v>
+        <v>3310400</v>
       </c>
       <c r="G89" s="3">
-        <v>745900</v>
+        <v>1752100</v>
       </c>
       <c r="H89" s="3">
-        <v>1972100</v>
+        <v>759200</v>
       </c>
       <c r="I89" s="3">
-        <v>1346800</v>
+        <v>2007300</v>
       </c>
       <c r="J89" s="3">
+        <v>1370900</v>
+      </c>
+      <c r="K89" s="3">
         <v>767100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>832000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1001400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1159300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>330500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>354500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2033600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1512900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1307000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>910300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2081900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1715200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>697900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>855300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2070100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1330700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1574200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>797000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1934400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1541500</v>
+        <v>-865000</v>
       </c>
       <c r="E91" s="3">
-        <v>-919400</v>
+        <v>-1457000</v>
       </c>
       <c r="F91" s="3">
-        <v>-669700</v>
+        <v>-869000</v>
       </c>
       <c r="G91" s="3">
-        <v>-609400</v>
+        <v>-633000</v>
       </c>
       <c r="H91" s="3">
-        <v>-876000</v>
+        <v>-576000</v>
       </c>
       <c r="I91" s="3">
-        <v>-450700</v>
+        <v>-828000</v>
       </c>
       <c r="J91" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-350200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-323600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-580500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-373600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-446200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-604100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-853800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-807000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-534700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-729800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-684900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-584100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-570000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-536300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-475400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-732500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2602700</v>
+        <v>-2240000</v>
       </c>
       <c r="E94" s="3">
-        <v>-270800</v>
+        <v>-2649200</v>
       </c>
       <c r="F94" s="3">
-        <v>-609400</v>
+        <v>-275700</v>
       </c>
       <c r="G94" s="3">
-        <v>-858000</v>
+        <v>-620300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1370100</v>
+        <v>-873400</v>
       </c>
       <c r="I94" s="3">
-        <v>-733200</v>
+        <v>-1394600</v>
       </c>
       <c r="J94" s="3">
+        <v>-746300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-767100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-224600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1139000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>257400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>619600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>618700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-108900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-811500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2310200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-612700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-996300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-878500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-648500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-633900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-531700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-43400</v>
+        <v>-509400</v>
       </c>
       <c r="E96" s="3">
-        <v>-505700</v>
+        <v>-44200</v>
       </c>
       <c r="F96" s="3">
-        <v>-52900</v>
+        <v>-514800</v>
       </c>
       <c r="G96" s="3">
-        <v>-484600</v>
+        <v>-53800</v>
       </c>
       <c r="H96" s="3">
-        <v>-33900</v>
+        <v>-493200</v>
       </c>
       <c r="I96" s="3">
-        <v>-472900</v>
+        <v>-34500</v>
       </c>
       <c r="J96" s="3">
+        <v>-481400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-29600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-207600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>12000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-156900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>14000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-253600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>15300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-256000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-119500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-215200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-212100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-162000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-935300</v>
+        <v>-596600</v>
       </c>
       <c r="E100" s="3">
-        <v>314200</v>
+        <v>-952000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1795400</v>
+        <v>319800</v>
       </c>
       <c r="G100" s="3">
-        <v>-579800</v>
+        <v>-1827500</v>
       </c>
       <c r="H100" s="3">
-        <v>-660200</v>
+        <v>-590100</v>
       </c>
       <c r="I100" s="3">
-        <v>123800</v>
+        <v>-672000</v>
       </c>
       <c r="J100" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K100" s="3">
         <v>762800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-758500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-520600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1401800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-788100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-372900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-236600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-794900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-591300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>219900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>98600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-128000</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>110000</v>
+        <v>-130300</v>
       </c>
       <c r="F101" s="3">
+        <v>112000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>26900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>68900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="L101" s="3">
         <v>26500</v>
       </c>
-      <c r="G101" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>67700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>26500</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>35500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>31900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>24700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1099300</v>
+        <v>-1100600</v>
       </c>
       <c r="E102" s="3">
-        <v>3405700</v>
+        <v>-1118900</v>
       </c>
       <c r="F102" s="3">
-        <v>-657000</v>
+        <v>3466500</v>
       </c>
       <c r="G102" s="3">
-        <v>-679200</v>
+        <v>-668800</v>
       </c>
       <c r="H102" s="3">
-        <v>9500</v>
+        <v>-691400</v>
       </c>
       <c r="I102" s="3">
-        <v>711000</v>
+        <v>9700</v>
       </c>
       <c r="J102" s="3">
+        <v>723700</v>
+      </c>
+      <c r="K102" s="3">
         <v>756500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-124500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-646300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-328000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2313800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>208900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-845200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-733800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-201200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-374400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-609200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-498000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2245100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-853100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-144700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1116400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1526000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16555200</v>
+        <v>14189800</v>
       </c>
       <c r="E8" s="3">
-        <v>17153900</v>
+        <v>16665900</v>
       </c>
       <c r="F8" s="3">
-        <v>22499700</v>
+        <v>17268600</v>
       </c>
       <c r="G8" s="3">
-        <v>22611700</v>
+        <v>22650100</v>
       </c>
       <c r="H8" s="3">
-        <v>18667000</v>
+        <v>22762800</v>
       </c>
       <c r="I8" s="3">
-        <v>16683300</v>
+        <v>18791800</v>
       </c>
       <c r="J8" s="3">
+        <v>16794900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14390600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11451800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10275400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8509800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8393500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6661100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11919900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14269300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14910600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15069700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14501500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15497200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15703000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14765000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12094500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12700900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11270400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11424100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11880100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11748700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12073100</v>
+        <v>11043700</v>
       </c>
       <c r="E9" s="3">
-        <v>12987400</v>
+        <v>12153800</v>
       </c>
       <c r="F9" s="3">
-        <v>17815200</v>
+        <v>13074200</v>
       </c>
       <c r="G9" s="3">
-        <v>16094300</v>
+        <v>17934300</v>
       </c>
       <c r="H9" s="3">
-        <v>13884500</v>
+        <v>16201900</v>
       </c>
       <c r="I9" s="3">
-        <v>12825900</v>
+        <v>13977300</v>
       </c>
       <c r="J9" s="3">
+        <v>12911600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11193300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8432300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7333400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6419300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6240900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4988700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10154000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10917600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11619000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11461700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11033700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12563600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11959100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10741900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8909200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9153200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7993100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8607900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8323500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7909100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4482100</v>
+        <v>3146100</v>
       </c>
       <c r="E10" s="3">
-        <v>4166500</v>
+        <v>4512000</v>
       </c>
       <c r="F10" s="3">
-        <v>4684500</v>
+        <v>4194400</v>
       </c>
       <c r="G10" s="3">
-        <v>6517400</v>
+        <v>4715800</v>
       </c>
       <c r="H10" s="3">
-        <v>4782500</v>
+        <v>6561000</v>
       </c>
       <c r="I10" s="3">
-        <v>3857500</v>
+        <v>4814500</v>
       </c>
       <c r="J10" s="3">
+        <v>3883200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3197300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3019500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2941900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2090600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2152600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1672400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1765900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3351600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3291500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3608000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3467800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2933600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3743900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4023000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3185300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3547700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3277300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2816200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3556600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3839500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-386600</v>
+        <v>43400</v>
       </c>
       <c r="E14" s="3">
-        <v>906700</v>
+        <v>-389200</v>
       </c>
       <c r="F14" s="3">
-        <v>32300</v>
+        <v>912800</v>
       </c>
       <c r="G14" s="3">
-        <v>1698300</v>
+        <v>32500</v>
       </c>
       <c r="H14" s="3">
-        <v>188500</v>
+        <v>1709600</v>
       </c>
       <c r="I14" s="3">
-        <v>608400</v>
+        <v>189700</v>
       </c>
       <c r="J14" s="3">
+        <v>612500</v>
+      </c>
+      <c r="K14" s="3">
         <v>47400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-15300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1510100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>650200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6343700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-12200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-162300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>35900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>971200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>538200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>91100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>226600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-210900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>50500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>56300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>621400</v>
+        <v>647200</v>
       </c>
       <c r="E15" s="3">
-        <v>662300</v>
+        <v>625500</v>
       </c>
       <c r="F15" s="3">
-        <v>658000</v>
+        <v>666700</v>
       </c>
       <c r="G15" s="3">
-        <v>584800</v>
+        <v>662400</v>
       </c>
       <c r="H15" s="3">
-        <v>613800</v>
+        <v>588700</v>
       </c>
       <c r="I15" s="3">
-        <v>554600</v>
+        <v>617900</v>
       </c>
       <c r="J15" s="3">
+        <v>558300</v>
+      </c>
+      <c r="K15" s="3">
         <v>546000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>505700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>514500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>532600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>547000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>617500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>654900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>806700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>731300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>659100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>661200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>676600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>582000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>567700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>486900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>646300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>886400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>703100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>907400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14574800</v>
+        <v>13683500</v>
       </c>
       <c r="E17" s="3">
-        <v>16305300</v>
+        <v>14672200</v>
       </c>
       <c r="F17" s="3">
-        <v>20906900</v>
+        <v>16414400</v>
       </c>
       <c r="G17" s="3">
-        <v>20784200</v>
+        <v>21046700</v>
       </c>
       <c r="H17" s="3">
-        <v>16572400</v>
+        <v>20923100</v>
       </c>
       <c r="I17" s="3">
-        <v>15522400</v>
+        <v>16683200</v>
       </c>
       <c r="J17" s="3">
+        <v>15626200</v>
+      </c>
+      <c r="K17" s="3">
         <v>13326600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10685800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9260700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9422400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8276200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7963600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12485600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20674800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14180500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14055600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13563700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15779900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14614700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14030400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11236900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11714700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10540000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10959600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10889400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11171100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1980400</v>
+        <v>506300</v>
       </c>
       <c r="E18" s="3">
-        <v>848600</v>
+        <v>1993700</v>
       </c>
       <c r="F18" s="3">
-        <v>1592700</v>
+        <v>854300</v>
       </c>
       <c r="G18" s="3">
-        <v>1827500</v>
+        <v>1603400</v>
       </c>
       <c r="H18" s="3">
-        <v>2094600</v>
+        <v>1839700</v>
       </c>
       <c r="I18" s="3">
-        <v>1160900</v>
+        <v>2108600</v>
       </c>
       <c r="J18" s="3">
+        <v>1168700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1064000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>766000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1014700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-912600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-565700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>730100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1014100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>937800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-282700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1088300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>734600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>857500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>986200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>730400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>464500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>990700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>577500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12900</v>
+        <v>155000</v>
       </c>
       <c r="E20" s="3">
-        <v>596600</v>
+        <v>-13000</v>
       </c>
       <c r="F20" s="3">
-        <v>44200</v>
+        <v>600600</v>
       </c>
       <c r="G20" s="3">
-        <v>484600</v>
+        <v>44400</v>
       </c>
       <c r="H20" s="3">
-        <v>243400</v>
+        <v>487800</v>
       </c>
       <c r="I20" s="3">
-        <v>75400</v>
+        <v>245000</v>
       </c>
       <c r="J20" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K20" s="3">
         <v>196000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>256000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>454800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-150500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-49000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>39200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>604500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>141900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>647000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>79100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>386000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>55000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-38100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>23500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2588900</v>
+        <v>1308500</v>
       </c>
       <c r="E21" s="3">
-        <v>2107500</v>
+        <v>2606200</v>
       </c>
       <c r="F21" s="3">
-        <v>2294900</v>
+        <v>2121600</v>
       </c>
       <c r="G21" s="3">
-        <v>2896900</v>
+        <v>2310200</v>
       </c>
       <c r="H21" s="3">
-        <v>2951800</v>
+        <v>2916200</v>
       </c>
       <c r="I21" s="3">
-        <v>1790900</v>
+        <v>2971500</v>
       </c>
       <c r="J21" s="3">
+        <v>1802900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1806000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1527800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1581200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>513800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1710500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1665100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>983000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1906800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1963600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1504300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1859100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1431700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1312700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1717300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1479000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1967500</v>
+        <v>661300</v>
       </c>
       <c r="E23" s="3">
-        <v>1445200</v>
+        <v>1980700</v>
       </c>
       <c r="F23" s="3">
-        <v>1636900</v>
+        <v>1454900</v>
       </c>
       <c r="G23" s="3">
-        <v>2312100</v>
+        <v>1647800</v>
       </c>
       <c r="H23" s="3">
-        <v>2337900</v>
+        <v>2327600</v>
       </c>
       <c r="I23" s="3">
-        <v>1236300</v>
+        <v>2353600</v>
       </c>
       <c r="J23" s="3">
+        <v>1244500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1260000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1022000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1066700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-457800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-636800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>769300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1010500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1006000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>321700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1230200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1381600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>936600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1372200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>785400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>426400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1014200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>574000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>698900</v>
+        <v>262400</v>
       </c>
       <c r="E24" s="3">
-        <v>290800</v>
+        <v>703600</v>
       </c>
       <c r="F24" s="3">
-        <v>898100</v>
+        <v>292700</v>
       </c>
       <c r="G24" s="3">
-        <v>1048900</v>
+        <v>904100</v>
       </c>
       <c r="H24" s="3">
-        <v>815200</v>
+        <v>1055900</v>
       </c>
       <c r="I24" s="3">
-        <v>619200</v>
+        <v>820700</v>
       </c>
       <c r="J24" s="3">
+        <v>623400</v>
+      </c>
+      <c r="K24" s="3">
         <v>494300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>396800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>248400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-271600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-53100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-297700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>352800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>389400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>267900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>132500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>480300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>664800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>336000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>887500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>227800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>67300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>194900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>186600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1268600</v>
+        <v>398900</v>
       </c>
       <c r="E26" s="3">
-        <v>1154400</v>
+        <v>1277100</v>
       </c>
       <c r="F26" s="3">
-        <v>738800</v>
+        <v>1162200</v>
       </c>
       <c r="G26" s="3">
-        <v>1263200</v>
+        <v>743700</v>
       </c>
       <c r="H26" s="3">
-        <v>1522700</v>
+        <v>1271600</v>
       </c>
       <c r="I26" s="3">
-        <v>617100</v>
+        <v>1532900</v>
       </c>
       <c r="J26" s="3">
+        <v>621200</v>
+      </c>
+      <c r="K26" s="3">
         <v>765700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>625300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>666600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-706200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-98600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-583700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>416500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>621100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>738100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>189300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>750000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>716800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>484700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>557600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>359000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>819300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>387400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1181400</v>
+        <v>317600</v>
       </c>
       <c r="E27" s="3">
-        <v>1092000</v>
+        <v>1189300</v>
       </c>
       <c r="F27" s="3">
-        <v>719400</v>
+        <v>1099300</v>
       </c>
       <c r="G27" s="3">
-        <v>1219100</v>
+        <v>724200</v>
       </c>
       <c r="H27" s="3">
-        <v>1482900</v>
+        <v>1227200</v>
       </c>
       <c r="I27" s="3">
-        <v>589100</v>
+        <v>1492800</v>
       </c>
       <c r="J27" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K27" s="3">
         <v>744100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>646200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-723100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-113100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-557800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>399300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>609400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>718900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>192800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>731000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>692000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>587400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>466700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>529600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>345600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>800500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>363900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2487,31 +2548,34 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>406900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>74700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>129000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>53900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>57200</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>351000</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12900</v>
+        <v>-155000</v>
       </c>
       <c r="E32" s="3">
-        <v>-596600</v>
+        <v>13000</v>
       </c>
       <c r="F32" s="3">
-        <v>-44200</v>
+        <v>-600600</v>
       </c>
       <c r="G32" s="3">
-        <v>-484600</v>
+        <v>-44400</v>
       </c>
       <c r="H32" s="3">
-        <v>-243400</v>
+        <v>-487800</v>
       </c>
       <c r="I32" s="3">
-        <v>-75400</v>
+        <v>-245000</v>
       </c>
       <c r="J32" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-196000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-256000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-454800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>150500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1150900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>49000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-39200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-604500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-141900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-647000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-79100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-386000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>38100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1181400</v>
+        <v>317600</v>
       </c>
       <c r="E33" s="3">
-        <v>1092000</v>
+        <v>1189300</v>
       </c>
       <c r="F33" s="3">
-        <v>719400</v>
+        <v>1099300</v>
       </c>
       <c r="G33" s="3">
-        <v>1219100</v>
+        <v>724200</v>
       </c>
       <c r="H33" s="3">
-        <v>1482900</v>
+        <v>1227200</v>
       </c>
       <c r="I33" s="3">
-        <v>589100</v>
+        <v>1492800</v>
       </c>
       <c r="J33" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K33" s="3">
         <v>744100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>646200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-723100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-113100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-557800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>399300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>609400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>718900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>192800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>731000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1098900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>662100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>595800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>583400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>402800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>800500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>714900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1181400</v>
+        <v>317600</v>
       </c>
       <c r="E35" s="3">
-        <v>1092000</v>
+        <v>1189300</v>
       </c>
       <c r="F35" s="3">
-        <v>719400</v>
+        <v>1099300</v>
       </c>
       <c r="G35" s="3">
-        <v>1219100</v>
+        <v>724200</v>
       </c>
       <c r="H35" s="3">
-        <v>1482900</v>
+        <v>1227200</v>
       </c>
       <c r="I35" s="3">
-        <v>589100</v>
+        <v>1492800</v>
       </c>
       <c r="J35" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K35" s="3">
         <v>744100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>646200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-723100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-113100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-557800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>399300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>609400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>718900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>192800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>731000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1098900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>662100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>595800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>583400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>402800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>800500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>714900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5912200</v>
+        <v>2834900</v>
       </c>
       <c r="E41" s="3">
-        <v>7012800</v>
+        <v>5951700</v>
       </c>
       <c r="F41" s="3">
-        <v>8131700</v>
+        <v>7059700</v>
       </c>
       <c r="G41" s="3">
-        <v>2585600</v>
+        <v>8186000</v>
       </c>
       <c r="H41" s="3">
-        <v>5333900</v>
+        <v>2602900</v>
       </c>
       <c r="I41" s="3">
-        <v>2700900</v>
+        <v>5369500</v>
       </c>
       <c r="J41" s="3">
+        <v>2718900</v>
+      </c>
+      <c r="K41" s="3">
         <v>6015600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2201700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4286300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4309800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5157300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2630200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3572500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2766800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3369900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3536300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4047900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4878300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4075100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4867600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3447700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4210800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4976000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4707900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3505000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3764400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3754100</v>
+        <v>6979400</v>
       </c>
       <c r="E42" s="3">
-        <v>3293200</v>
+        <v>3779200</v>
       </c>
       <c r="F42" s="3">
-        <v>3653900</v>
+        <v>3315200</v>
       </c>
       <c r="G42" s="3">
-        <v>5261700</v>
+        <v>3678400</v>
       </c>
       <c r="H42" s="3">
-        <v>2502700</v>
+        <v>5296900</v>
       </c>
       <c r="I42" s="3">
-        <v>5963900</v>
+        <v>2519400</v>
       </c>
       <c r="J42" s="3">
+        <v>6003700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2163500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4792700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1519000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1579900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>837600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4616700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2947000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4175800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4558200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3713900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3112500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3092100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4239500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3934300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1120000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1307100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1776100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2053200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2553000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3314800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8338400</v>
+        <v>8272800</v>
       </c>
       <c r="E43" s="3">
-        <v>9721200</v>
+        <v>8394200</v>
       </c>
       <c r="F43" s="3">
-        <v>11082400</v>
+        <v>9786200</v>
       </c>
       <c r="G43" s="3">
-        <v>12747300</v>
+        <v>11156500</v>
       </c>
       <c r="H43" s="3">
-        <v>10386700</v>
+        <v>12832500</v>
       </c>
       <c r="I43" s="3">
-        <v>8871500</v>
+        <v>10456100</v>
       </c>
       <c r="J43" s="3">
+        <v>8930800</v>
+      </c>
+      <c r="K43" s="3">
         <v>7598600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5534400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4434400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4045500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4092400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4244700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5032400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6704400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6956700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7652500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7406900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="V43" s="3">
-        <v>7350500</v>
       </c>
       <c r="W43" s="3">
         <v>7350500</v>
       </c>
       <c r="X43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="Y43" s="3">
         <v>5817200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6565900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6948500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6438000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6217700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6832700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8298600</v>
+        <v>6697600</v>
       </c>
       <c r="E44" s="3">
-        <v>7853800</v>
+        <v>8354100</v>
       </c>
       <c r="F44" s="3">
-        <v>8314700</v>
+        <v>7906300</v>
       </c>
       <c r="G44" s="3">
-        <v>9712600</v>
+        <v>8370300</v>
       </c>
       <c r="H44" s="3">
-        <v>7917400</v>
+        <v>9777500</v>
       </c>
       <c r="I44" s="3">
-        <v>5629000</v>
+        <v>7970300</v>
       </c>
       <c r="J44" s="3">
+        <v>5666600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5639700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4883700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4396600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3370200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3555800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3541100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4287200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5366600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5233200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5619700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5191500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5192900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5726400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5582100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4773000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4260200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4026800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3611700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4407700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4231600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>318800</v>
+        <v>315500</v>
       </c>
       <c r="E45" s="3">
-        <v>315500</v>
+        <v>320900</v>
       </c>
       <c r="F45" s="3">
-        <v>474900</v>
+        <v>317600</v>
       </c>
       <c r="G45" s="3">
-        <v>548100</v>
+        <v>478100</v>
       </c>
       <c r="H45" s="3">
-        <v>457700</v>
+        <v>551800</v>
       </c>
       <c r="I45" s="3">
-        <v>1002600</v>
+        <v>460700</v>
       </c>
       <c r="J45" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1124300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1182800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>392000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>243400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>423500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>805100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>223600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>233500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>251100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>241200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>265600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>357200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>428200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>275600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3861700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>228900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>279400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>389300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>483600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>552900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26622000</v>
+        <v>25100200</v>
       </c>
       <c r="E46" s="3">
-        <v>28196500</v>
+        <v>26800000</v>
       </c>
       <c r="F46" s="3">
-        <v>31657600</v>
+        <v>28385000</v>
       </c>
       <c r="G46" s="3">
-        <v>30855300</v>
+        <v>31869300</v>
       </c>
       <c r="H46" s="3">
-        <v>26598400</v>
+        <v>31061600</v>
       </c>
       <c r="I46" s="3">
-        <v>24167800</v>
+        <v>26776200</v>
       </c>
       <c r="J46" s="3">
+        <v>24329400</v>
+      </c>
+      <c r="K46" s="3">
         <v>22541700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18595400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15028200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13548700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14066700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15837800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16062600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19247100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20369100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20763500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20024400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20457100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21819800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>22010200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19019600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16572900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18006800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17200100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17167000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18696400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6569100</v>
+        <v>6788600</v>
       </c>
       <c r="E47" s="3">
-        <v>6180300</v>
+        <v>6613000</v>
       </c>
       <c r="F47" s="3">
-        <v>6100600</v>
+        <v>6221600</v>
       </c>
       <c r="G47" s="3">
-        <v>5991900</v>
+        <v>6141400</v>
       </c>
       <c r="H47" s="3">
-        <v>5674200</v>
+        <v>6031900</v>
       </c>
       <c r="I47" s="3">
-        <v>5172400</v>
+        <v>5712100</v>
       </c>
       <c r="J47" s="3">
+        <v>5206900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5119600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4744100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7489600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6795300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7186400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7958200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9161500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9772400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11049400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10022900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10278900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9853600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9543600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9340200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8446900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12687500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11871800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12058000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>13548100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>13358000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25030400</v>
+        <v>25799400</v>
       </c>
       <c r="E48" s="3">
-        <v>24197900</v>
+        <v>25197700</v>
       </c>
       <c r="F48" s="3">
-        <v>24678200</v>
+        <v>24359700</v>
       </c>
       <c r="G48" s="3">
-        <v>23814600</v>
+        <v>24843200</v>
       </c>
       <c r="H48" s="3">
-        <v>23879200</v>
+        <v>23973800</v>
       </c>
       <c r="I48" s="3">
-        <v>23396700</v>
+        <v>24038800</v>
       </c>
       <c r="J48" s="3">
+        <v>23553200</v>
+      </c>
+      <c r="K48" s="3">
         <v>22519100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21883700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21662400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20872600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23182500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25130200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26449200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27096800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34049800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31932200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32653900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30162800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30003100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29858800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>26738500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27676100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>27832100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>28554600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31491000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32119000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2806400</v>
+        <v>2896700</v>
       </c>
       <c r="E49" s="3">
-        <v>2128000</v>
+        <v>2825200</v>
       </c>
       <c r="F49" s="3">
-        <v>3028200</v>
+        <v>2142200</v>
       </c>
       <c r="G49" s="3">
-        <v>3378200</v>
+        <v>3048500</v>
       </c>
       <c r="H49" s="3">
-        <v>3451500</v>
+        <v>3400800</v>
       </c>
       <c r="I49" s="3">
-        <v>3765900</v>
+        <v>3474500</v>
       </c>
       <c r="J49" s="3">
+        <v>3791100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3615200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3505200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3548300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3344300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4019800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4310200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4833700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5218300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6786400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6158500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6091100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6028100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5760700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5636500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5014600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5143200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5203800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5350800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5999300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5997000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3711000</v>
+        <v>3766200</v>
       </c>
       <c r="E52" s="3">
-        <v>3872500</v>
+        <v>3735800</v>
       </c>
       <c r="F52" s="3">
-        <v>4260200</v>
+        <v>3898400</v>
       </c>
       <c r="G52" s="3">
-        <v>4211800</v>
+        <v>4288700</v>
       </c>
       <c r="H52" s="3">
-        <v>4007100</v>
+        <v>4239900</v>
       </c>
       <c r="I52" s="3">
-        <v>4077100</v>
+        <v>4033900</v>
       </c>
       <c r="J52" s="3">
+        <v>4104400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4922500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4708100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4646700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4613000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4833500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5228700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6383900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6252600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5782000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5210300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5516900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5392800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4788400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5014300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4673100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5079200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5225100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5249800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5865500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5950000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64738900</v>
+        <v>64351100</v>
       </c>
       <c r="E54" s="3">
-        <v>64575200</v>
+        <v>65171800</v>
       </c>
       <c r="F54" s="3">
-        <v>69725000</v>
+        <v>65007000</v>
       </c>
       <c r="G54" s="3">
-        <v>68251800</v>
+        <v>70191100</v>
       </c>
       <c r="H54" s="3">
-        <v>63610300</v>
+        <v>68708100</v>
       </c>
       <c r="I54" s="3">
-        <v>60579900</v>
+        <v>64035600</v>
       </c>
       <c r="J54" s="3">
+        <v>60985000</v>
+      </c>
+      <c r="K54" s="3">
         <v>58718000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53436400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52375200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49173800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53288900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58465100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62890900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67587200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78036800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74087300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74565100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71894300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71915600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71860000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>63892600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>67159000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68139600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>68413300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>74070900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>76120400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10986500</v>
+        <v>12015100</v>
       </c>
       <c r="E57" s="3">
-        <v>12699900</v>
+        <v>11060000</v>
       </c>
       <c r="F57" s="3">
-        <v>14371200</v>
+        <v>12784800</v>
       </c>
       <c r="G57" s="3">
-        <v>17106600</v>
+        <v>14467300</v>
       </c>
       <c r="H57" s="3">
-        <v>13590500</v>
+        <v>17220900</v>
       </c>
       <c r="I57" s="3">
-        <v>12086000</v>
+        <v>13681300</v>
       </c>
       <c r="J57" s="3">
+        <v>12166900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11084500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8735900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7583500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5883700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5985600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5443600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6435900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8335300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7972200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9317100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8511000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3837300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3728500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3610200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2720800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3072000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2957600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2294500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2183300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2497900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3317900</v>
+        <v>2195300</v>
       </c>
       <c r="E58" s="3">
-        <v>3818700</v>
+        <v>3340100</v>
       </c>
       <c r="F58" s="3">
-        <v>5730200</v>
+        <v>3844200</v>
       </c>
       <c r="G58" s="3">
-        <v>4613400</v>
+        <v>5768500</v>
       </c>
       <c r="H58" s="3">
-        <v>4744800</v>
+        <v>4644300</v>
       </c>
       <c r="I58" s="3">
-        <v>4965600</v>
+        <v>4776500</v>
       </c>
       <c r="J58" s="3">
+        <v>4998800</v>
+      </c>
+      <c r="K58" s="3">
         <v>5344700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5443400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4113800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3869900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4273000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5737100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7662100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7521600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7498200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6924300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5545600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4443000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3917800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4818000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5413100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4645000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4755000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4507000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4885400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4577900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2171000</v>
+        <v>2224600</v>
       </c>
       <c r="E59" s="3">
-        <v>1700400</v>
+        <v>2185500</v>
       </c>
       <c r="F59" s="3">
-        <v>1572300</v>
+        <v>1711800</v>
       </c>
       <c r="G59" s="3">
-        <v>1764000</v>
+        <v>1582800</v>
       </c>
       <c r="H59" s="3">
-        <v>1508700</v>
+        <v>1775800</v>
       </c>
       <c r="I59" s="3">
-        <v>1598100</v>
+        <v>1518800</v>
       </c>
       <c r="J59" s="3">
+        <v>1608800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1337500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1370100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>975900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>738100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>798100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1332000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1039900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1753400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1199300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1298700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1009600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6872600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6455100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6282400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5432900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5786100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8402600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8407100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9159200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10222700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16475500</v>
+        <v>16435000</v>
       </c>
       <c r="E60" s="3">
-        <v>18219000</v>
+        <v>16585600</v>
       </c>
       <c r="F60" s="3">
-        <v>21673700</v>
+        <v>18340800</v>
       </c>
       <c r="G60" s="3">
-        <v>23484000</v>
+        <v>21818600</v>
       </c>
       <c r="H60" s="3">
-        <v>19844000</v>
+        <v>23641000</v>
       </c>
       <c r="I60" s="3">
-        <v>18649800</v>
+        <v>19976700</v>
       </c>
       <c r="J60" s="3">
+        <v>18774400</v>
+      </c>
+      <c r="K60" s="3">
         <v>17766700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15549400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12673200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10491700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11056700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12512700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15137800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17610400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16669700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17540100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15066100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15152900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14101400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14710500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13566900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13503100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16115100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15208600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16227900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>17298400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9864400</v>
+        <v>10833400</v>
       </c>
       <c r="E61" s="3">
-        <v>10909000</v>
+        <v>9930400</v>
       </c>
       <c r="F61" s="3">
-        <v>10060400</v>
+        <v>10981900</v>
       </c>
       <c r="G61" s="3">
-        <v>9796600</v>
+        <v>10127700</v>
       </c>
       <c r="H61" s="3">
-        <v>11068400</v>
+        <v>9862100</v>
       </c>
       <c r="I61" s="3">
-        <v>10968200</v>
+        <v>11142400</v>
       </c>
       <c r="J61" s="3">
+        <v>11041600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10518100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8876600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12032200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>109700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12882400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13698600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12542000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12560200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14197600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12439300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14081700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9411200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9276300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9184000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8428200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9798300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10427800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11184000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11583200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12848500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7429500</v>
+        <v>6621700</v>
       </c>
       <c r="E62" s="3">
-        <v>7476900</v>
+        <v>7479200</v>
       </c>
       <c r="F62" s="3">
-        <v>8173700</v>
+        <v>7526900</v>
       </c>
       <c r="G62" s="3">
-        <v>7676100</v>
+        <v>8228300</v>
       </c>
       <c r="H62" s="3">
-        <v>6482900</v>
+        <v>7727500</v>
       </c>
       <c r="I62" s="3">
-        <v>6415100</v>
+        <v>6526300</v>
       </c>
       <c r="J62" s="3">
+        <v>6458000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7008500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6832600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6435100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18086900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6468200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7228400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7493800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7987400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8459800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7725400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8122200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10762000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11249400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11108600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9743700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10127100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7874100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8155700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9372900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9455000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36398100</v>
+        <v>36661000</v>
       </c>
       <c r="E66" s="3">
-        <v>37336100</v>
+        <v>36641500</v>
       </c>
       <c r="F66" s="3">
-        <v>40653000</v>
+        <v>37585700</v>
       </c>
       <c r="G66" s="3">
-        <v>41415400</v>
+        <v>40924800</v>
       </c>
       <c r="H66" s="3">
-        <v>37859500</v>
+        <v>41692300</v>
       </c>
       <c r="I66" s="3">
-        <v>36442300</v>
+        <v>38112600</v>
       </c>
       <c r="J66" s="3">
+        <v>36685900</v>
+      </c>
+      <c r="K66" s="3">
         <v>35576500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31528400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31396700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28931600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30661600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33710200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35458300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38486000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39671300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38024800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37593000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>35664400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34981900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>35346200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>32038500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33731500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>34715500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>34829900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>37479800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>39888400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1197500</v>
+        <v>19173400</v>
       </c>
       <c r="E72" s="3">
-        <v>4577900</v>
+        <v>1205500</v>
       </c>
       <c r="F72" s="3">
-        <v>3469800</v>
+        <v>4608500</v>
       </c>
       <c r="G72" s="3">
-        <v>17297200</v>
+        <v>3493000</v>
       </c>
       <c r="H72" s="3">
-        <v>1499000</v>
+        <v>17412800</v>
       </c>
       <c r="I72" s="3">
-        <v>2691200</v>
+        <v>1509100</v>
       </c>
       <c r="J72" s="3">
+        <v>2709200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2088100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14545400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>661500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3280400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17304000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-549900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19422200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28052300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26559600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26621400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25795500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27093100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26343200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23588300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23824300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23432800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22843700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>23736800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22936200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28340800</v>
+        <v>27690100</v>
       </c>
       <c r="E76" s="3">
-        <v>27239100</v>
+        <v>28530300</v>
       </c>
       <c r="F76" s="3">
-        <v>29072000</v>
+        <v>27421200</v>
       </c>
       <c r="G76" s="3">
-        <v>26836300</v>
+        <v>29266400</v>
       </c>
       <c r="H76" s="3">
-        <v>25750800</v>
+        <v>27015800</v>
       </c>
       <c r="I76" s="3">
-        <v>24137600</v>
+        <v>25923000</v>
       </c>
       <c r="J76" s="3">
+        <v>24299000</v>
+      </c>
+      <c r="K76" s="3">
         <v>23141500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21908000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20978500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20242200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22627300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24754900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27432600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29101200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38365500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36062500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36972100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36229900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36933700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36513800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31854100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33427400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33424100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33583400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>36591200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>36232000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1181400</v>
+        <v>317600</v>
       </c>
       <c r="E81" s="3">
-        <v>1092000</v>
+        <v>1189300</v>
       </c>
       <c r="F81" s="3">
-        <v>719400</v>
+        <v>1099300</v>
       </c>
       <c r="G81" s="3">
-        <v>1219100</v>
+        <v>724200</v>
       </c>
       <c r="H81" s="3">
-        <v>1482900</v>
+        <v>1227200</v>
       </c>
       <c r="I81" s="3">
-        <v>589100</v>
+        <v>1492800</v>
       </c>
       <c r="J81" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K81" s="3">
         <v>744100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>646200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-723100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-113100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-557800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>399300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>609400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>718900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>192800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>731000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1098900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>662100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>595800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>583400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>402800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>800500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>714900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>621400</v>
+        <v>647200</v>
       </c>
       <c r="E83" s="3">
-        <v>662300</v>
+        <v>625500</v>
       </c>
       <c r="F83" s="3">
-        <v>658000</v>
+        <v>666700</v>
       </c>
       <c r="G83" s="3">
-        <v>584800</v>
+        <v>662400</v>
       </c>
       <c r="H83" s="3">
-        <v>613800</v>
+        <v>588700</v>
       </c>
       <c r="I83" s="3">
-        <v>554600</v>
+        <v>617900</v>
       </c>
       <c r="J83" s="3">
+        <v>558300</v>
+      </c>
+      <c r="K83" s="3">
         <v>546000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>505700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>514500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>532600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>547000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>615300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>657100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>806700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>731300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>659100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>661200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>676600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>582000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>567700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>486900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>646300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>886400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>703100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>905000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1731700</v>
+        <v>1784400</v>
       </c>
       <c r="E89" s="3">
-        <v>2612600</v>
+        <v>1743200</v>
       </c>
       <c r="F89" s="3">
-        <v>3310400</v>
+        <v>2630000</v>
       </c>
       <c r="G89" s="3">
-        <v>1752100</v>
+        <v>3332500</v>
       </c>
       <c r="H89" s="3">
-        <v>759200</v>
+        <v>1763800</v>
       </c>
       <c r="I89" s="3">
-        <v>2007300</v>
+        <v>764300</v>
       </c>
       <c r="J89" s="3">
+        <v>2020800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1370900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>767100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>832000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1001400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1159300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>330500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>354500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2033600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1512900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1307000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>910300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2081900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1715200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>697900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>855300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2070100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1330700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1574200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>797000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1934400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1016000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-865000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1457000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-869000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-633000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-576000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-828000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-426000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-350200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-323600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-580500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-373600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-446200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-604100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-853800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-807000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-534700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-729800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-684900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-584100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-570000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-536300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-475400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-732500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2240000</v>
+        <v>-1484100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2649200</v>
+        <v>-2254900</v>
       </c>
       <c r="F94" s="3">
-        <v>-275700</v>
+        <v>-2666900</v>
       </c>
       <c r="G94" s="3">
-        <v>-620300</v>
+        <v>-277500</v>
       </c>
       <c r="H94" s="3">
-        <v>-873400</v>
+        <v>-624400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1394600</v>
+        <v>-879200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1403900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-746300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-767100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-224600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1139000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>257400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>619600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>618700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-108900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-811500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2310200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-612700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-996300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-878500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-648500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-633900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-531700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-509400</v>
+        <v>-30400</v>
       </c>
       <c r="E96" s="3">
-        <v>-44200</v>
+        <v>-512800</v>
       </c>
       <c r="F96" s="3">
-        <v>-514800</v>
+        <v>-44400</v>
       </c>
       <c r="G96" s="3">
-        <v>-53800</v>
+        <v>-518200</v>
       </c>
       <c r="H96" s="3">
-        <v>-493200</v>
+        <v>-54200</v>
       </c>
       <c r="I96" s="3">
-        <v>-34500</v>
+        <v>-496500</v>
       </c>
       <c r="J96" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-481400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-207600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>12000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-156900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>14000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-253600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>15300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-256000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-119500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-215200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-212100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-162000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-596600</v>
+        <v>-570200</v>
       </c>
       <c r="E100" s="3">
-        <v>-952000</v>
+        <v>-600600</v>
       </c>
       <c r="F100" s="3">
-        <v>319800</v>
+        <v>-958300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1827500</v>
+        <v>322000</v>
       </c>
       <c r="H100" s="3">
-        <v>-590100</v>
+        <v>-1839700</v>
       </c>
       <c r="I100" s="3">
-        <v>-672000</v>
+        <v>-594100</v>
       </c>
       <c r="J100" s="3">
+        <v>-676500</v>
+      </c>
+      <c r="K100" s="3">
         <v>126000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>762800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-758500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-520600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1401800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-788100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-372900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-236600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-794900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>219900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>98600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E101" s="3">
         <v>4300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-130300</v>
-      </c>
       <c r="F101" s="3">
-        <v>112000</v>
+        <v>-131200</v>
       </c>
       <c r="G101" s="3">
-        <v>26900</v>
+        <v>112700</v>
       </c>
       <c r="H101" s="3">
-        <v>12900</v>
+        <v>27100</v>
       </c>
       <c r="I101" s="3">
-        <v>68900</v>
+        <v>13000</v>
       </c>
       <c r="J101" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>35500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>31900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>24700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100600</v>
+        <v>-259100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1118900</v>
+        <v>-1108000</v>
       </c>
       <c r="F102" s="3">
-        <v>3466500</v>
+        <v>-1126400</v>
       </c>
       <c r="G102" s="3">
-        <v>-668800</v>
+        <v>3489700</v>
       </c>
       <c r="H102" s="3">
-        <v>-691400</v>
+        <v>-673200</v>
       </c>
       <c r="I102" s="3">
-        <v>9700</v>
+        <v>-696000</v>
       </c>
       <c r="J102" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K102" s="3">
         <v>723700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>756500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-124500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-646300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-328000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2313800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>208900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-845200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-733800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-201200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-374400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-609200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-498000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2245100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-853100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-144700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1116400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1526000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REPYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>REPYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14189800</v>
+        <v>16921700</v>
       </c>
       <c r="E8" s="3">
-        <v>16665900</v>
+        <v>14201600</v>
       </c>
       <c r="F8" s="3">
-        <v>17268600</v>
+        <v>16679700</v>
       </c>
       <c r="G8" s="3">
-        <v>22650100</v>
+        <v>17283000</v>
       </c>
       <c r="H8" s="3">
-        <v>22762800</v>
+        <v>22668900</v>
       </c>
       <c r="I8" s="3">
-        <v>18791800</v>
+        <v>22781700</v>
       </c>
       <c r="J8" s="3">
+        <v>18807400</v>
+      </c>
+      <c r="K8" s="3">
         <v>16794900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14390600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11451800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10275400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8509800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8393500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6661100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11919900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14269300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14910600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15069700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14501500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15497200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15703000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14765000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12094500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12700900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11270400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11424100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11880100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11748700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>10471600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11043700</v>
+        <v>12178000</v>
       </c>
       <c r="E9" s="3">
-        <v>12153800</v>
+        <v>11052900</v>
       </c>
       <c r="F9" s="3">
-        <v>13074200</v>
+        <v>12163900</v>
       </c>
       <c r="G9" s="3">
-        <v>17934300</v>
+        <v>13085100</v>
       </c>
       <c r="H9" s="3">
-        <v>16201900</v>
+        <v>17949200</v>
       </c>
       <c r="I9" s="3">
-        <v>13977300</v>
+        <v>16215300</v>
       </c>
       <c r="J9" s="3">
+        <v>13988900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12911600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11193300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8432300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7333400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6419300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6240900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4988700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10154000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10917600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11619000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11461700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11033700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12563600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11959100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10741900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8909200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9153200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7993100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8607900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8323500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7909100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>7400900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3146100</v>
+        <v>4743600</v>
       </c>
       <c r="E10" s="3">
-        <v>4512000</v>
+        <v>3148700</v>
       </c>
       <c r="F10" s="3">
-        <v>4194400</v>
+        <v>4515800</v>
       </c>
       <c r="G10" s="3">
-        <v>4715800</v>
+        <v>4197900</v>
       </c>
       <c r="H10" s="3">
-        <v>6561000</v>
+        <v>4719800</v>
       </c>
       <c r="I10" s="3">
-        <v>4814500</v>
+        <v>6566400</v>
       </c>
       <c r="J10" s="3">
+        <v>4818500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3883200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3197300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3019500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2941900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2090600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2152600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1672400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1765900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3351600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3291500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3608000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3467800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2933600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3743900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4023000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3185300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3547700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3277300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2816200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3556600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3839500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>3070700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-173600</v>
+      </c>
+      <c r="E14" s="3">
         <v>43400</v>
       </c>
-      <c r="E14" s="3">
-        <v>-389200</v>
-      </c>
       <c r="F14" s="3">
-        <v>912800</v>
+        <v>-389500</v>
       </c>
       <c r="G14" s="3">
-        <v>32500</v>
+        <v>913600</v>
       </c>
       <c r="H14" s="3">
-        <v>1709600</v>
+        <v>32600</v>
       </c>
       <c r="I14" s="3">
-        <v>189700</v>
+        <v>1711000</v>
       </c>
       <c r="J14" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K14" s="3">
         <v>612500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-15300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1510100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-14500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>650200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6343700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-12200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-162300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>971200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>538200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>91100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>226600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-210900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>50500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>56300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-494200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>647200</v>
+        <v>618500</v>
       </c>
       <c r="E15" s="3">
-        <v>625500</v>
+        <v>647700</v>
       </c>
       <c r="F15" s="3">
-        <v>666700</v>
+        <v>626000</v>
       </c>
       <c r="G15" s="3">
-        <v>662400</v>
+        <v>667300</v>
       </c>
       <c r="H15" s="3">
-        <v>588700</v>
+        <v>662900</v>
       </c>
       <c r="I15" s="3">
-        <v>617900</v>
+        <v>589200</v>
       </c>
       <c r="J15" s="3">
+        <v>618500</v>
+      </c>
+      <c r="K15" s="3">
         <v>558300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>546000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>505700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>514500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>532600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>547000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>617500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>654900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>806700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>731300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>700000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>659100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>661200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>676600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>582000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>567700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>486900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>646300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>886400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>703100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>907400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>701900</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13683500</v>
+        <v>14888400</v>
       </c>
       <c r="E17" s="3">
-        <v>14672200</v>
+        <v>13694900</v>
       </c>
       <c r="F17" s="3">
-        <v>16414400</v>
+        <v>14684400</v>
       </c>
       <c r="G17" s="3">
-        <v>21046700</v>
+        <v>16428000</v>
       </c>
       <c r="H17" s="3">
-        <v>20923100</v>
+        <v>21064200</v>
       </c>
       <c r="I17" s="3">
-        <v>16683200</v>
+        <v>20940500</v>
       </c>
       <c r="J17" s="3">
+        <v>16697100</v>
+      </c>
+      <c r="K17" s="3">
         <v>15626200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13326600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10685800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9260700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9422400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8276200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7963600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12485600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20674800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14180500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14055600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13563700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15779900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14614700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14030400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11236900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11714700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10540000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10959600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10889400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11171100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>9602900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>506300</v>
+        <v>2033300</v>
       </c>
       <c r="E18" s="3">
-        <v>1993700</v>
+        <v>506700</v>
       </c>
       <c r="F18" s="3">
-        <v>854300</v>
+        <v>1995300</v>
       </c>
       <c r="G18" s="3">
-        <v>1603400</v>
+        <v>855000</v>
       </c>
       <c r="H18" s="3">
-        <v>1839700</v>
+        <v>1604700</v>
       </c>
       <c r="I18" s="3">
-        <v>2108600</v>
+        <v>1841200</v>
       </c>
       <c r="J18" s="3">
+        <v>2110300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1168700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1064000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>766000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1014700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-912600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1302500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-565700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6405600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>730100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1014100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>937800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-282700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1088300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>734600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>857500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>986200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>730400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>464500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>990700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>577500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>868600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>155000</v>
+        <v>40100</v>
       </c>
       <c r="E20" s="3">
+        <v>155200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13000</v>
       </c>
-      <c r="F20" s="3">
-        <v>600600</v>
-      </c>
       <c r="G20" s="3">
-        <v>44400</v>
+        <v>601100</v>
       </c>
       <c r="H20" s="3">
-        <v>487800</v>
+        <v>44500</v>
       </c>
       <c r="I20" s="3">
-        <v>245000</v>
+        <v>488300</v>
       </c>
       <c r="J20" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K20" s="3">
         <v>75900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>196000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>256000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>454800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-150500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1150900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-49000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>39200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>68200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>604500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>141900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>647000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>79100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>386000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>55000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-38100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>23500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1308500</v>
+        <v>2693000</v>
       </c>
       <c r="E21" s="3">
-        <v>2606200</v>
+        <v>1309600</v>
       </c>
       <c r="F21" s="3">
-        <v>2121600</v>
+        <v>2608300</v>
       </c>
       <c r="G21" s="3">
-        <v>2310200</v>
+        <v>2123300</v>
       </c>
       <c r="H21" s="3">
-        <v>2916200</v>
+        <v>2312100</v>
       </c>
       <c r="I21" s="3">
-        <v>2971500</v>
+        <v>2918700</v>
       </c>
       <c r="J21" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1802900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1806000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1527800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1581200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>513800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1838200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5647900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1710500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1665100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>983000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1906800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1963600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1504300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1859100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1431700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1312700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1717300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1479000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1511900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>661300</v>
+        <v>2073400</v>
       </c>
       <c r="E23" s="3">
-        <v>1980700</v>
+        <v>661900</v>
       </c>
       <c r="F23" s="3">
-        <v>1454900</v>
+        <v>1982300</v>
       </c>
       <c r="G23" s="3">
-        <v>1647800</v>
+        <v>1456100</v>
       </c>
       <c r="H23" s="3">
-        <v>2327600</v>
+        <v>1649200</v>
       </c>
       <c r="I23" s="3">
-        <v>2353600</v>
+        <v>2329500</v>
       </c>
       <c r="J23" s="3">
+        <v>2355500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1244500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1260000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1022000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1066700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-457800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2453500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-636800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6454600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>769300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1010500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1006000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>321700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1230200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1381600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>936600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1372200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>785400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>426400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1014200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>574000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>807600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>262400</v>
+        <v>575100</v>
       </c>
       <c r="E24" s="3">
-        <v>703600</v>
+        <v>262600</v>
       </c>
       <c r="F24" s="3">
-        <v>292700</v>
+        <v>704200</v>
       </c>
       <c r="G24" s="3">
-        <v>904100</v>
+        <v>293000</v>
       </c>
       <c r="H24" s="3">
-        <v>1055900</v>
+        <v>904900</v>
       </c>
       <c r="I24" s="3">
-        <v>820700</v>
+        <v>1056800</v>
       </c>
       <c r="J24" s="3">
+        <v>821300</v>
+      </c>
+      <c r="K24" s="3">
         <v>623400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>494300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>396800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>248400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-271600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-53100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-297700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>352800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>389400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>267900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>132500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>480300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>664800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>336000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>887500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>227800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>67300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>194900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>186600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>232400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>398900</v>
+        <v>1498400</v>
       </c>
       <c r="E26" s="3">
-        <v>1277100</v>
+        <v>399300</v>
       </c>
       <c r="F26" s="3">
-        <v>1162200</v>
+        <v>1278100</v>
       </c>
       <c r="G26" s="3">
-        <v>743700</v>
+        <v>1163100</v>
       </c>
       <c r="H26" s="3">
-        <v>1271600</v>
+        <v>744300</v>
       </c>
       <c r="I26" s="3">
-        <v>1532900</v>
+        <v>1272700</v>
       </c>
       <c r="J26" s="3">
+        <v>1534200</v>
+      </c>
+      <c r="K26" s="3">
         <v>621200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>765700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>625300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>666600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-706200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-98600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2181800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-583700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6156900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>416500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>621100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>738100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>189300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>750000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>716800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>600600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>484700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>557600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>359000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>819300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>387400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>575200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>317600</v>
+        <v>1464800</v>
       </c>
       <c r="E27" s="3">
-        <v>1189300</v>
+        <v>317900</v>
       </c>
       <c r="F27" s="3">
-        <v>1099300</v>
+        <v>1190200</v>
       </c>
       <c r="G27" s="3">
-        <v>724200</v>
+        <v>1100200</v>
       </c>
       <c r="H27" s="3">
-        <v>1227200</v>
+        <v>724800</v>
       </c>
       <c r="I27" s="3">
-        <v>1492800</v>
+        <v>1228200</v>
       </c>
       <c r="J27" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="K27" s="3">
         <v>593000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>744100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>646200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-723100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-113100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2198200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-557800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6174400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>399300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>609400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>718900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>192800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>731000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>692000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>587400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>466700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>529600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>345600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>800500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>363900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2551,31 +2612,34 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>406900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>74700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>129000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>53900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>57200</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>351000</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-155000</v>
+        <v>-40100</v>
       </c>
       <c r="E32" s="3">
+        <v>-155200</v>
+      </c>
+      <c r="F32" s="3">
         <v>13000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-600600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-44400</v>
+        <v>-601100</v>
       </c>
       <c r="H32" s="3">
-        <v>-487800</v>
+        <v>-44500</v>
       </c>
       <c r="I32" s="3">
-        <v>-245000</v>
+        <v>-488300</v>
       </c>
       <c r="J32" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-75900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-196000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-256000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-454800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>150500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1150900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>49000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-39200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-68200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-604500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-141900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-647000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-79100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-386000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-55000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>38100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-23500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>317600</v>
+        <v>1464800</v>
       </c>
       <c r="E33" s="3">
-        <v>1189300</v>
+        <v>317900</v>
       </c>
       <c r="F33" s="3">
-        <v>1099300</v>
+        <v>1190200</v>
       </c>
       <c r="G33" s="3">
-        <v>724200</v>
+        <v>1100200</v>
       </c>
       <c r="H33" s="3">
-        <v>1227200</v>
+        <v>724800</v>
       </c>
       <c r="I33" s="3">
-        <v>1492800</v>
+        <v>1228200</v>
       </c>
       <c r="J33" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="K33" s="3">
         <v>593000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>744100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>646200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-723100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-113100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2198200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-557800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6174400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>399300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>609400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>718900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>192800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>731000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1098900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>662100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>595800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>583400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>402800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>800500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>714900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>317600</v>
+        <v>1464800</v>
       </c>
       <c r="E35" s="3">
-        <v>1189300</v>
+        <v>317900</v>
       </c>
       <c r="F35" s="3">
-        <v>1099300</v>
+        <v>1190200</v>
       </c>
       <c r="G35" s="3">
-        <v>724200</v>
+        <v>1100200</v>
       </c>
       <c r="H35" s="3">
-        <v>1227200</v>
+        <v>724800</v>
       </c>
       <c r="I35" s="3">
-        <v>1492800</v>
+        <v>1228200</v>
       </c>
       <c r="J35" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="K35" s="3">
         <v>593000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>744100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>646200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-723100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-113100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2198200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-557800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6174400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>399300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>609400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>718900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>192800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>731000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1098900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>662100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>595800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>583400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>402800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>800500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>714900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2834900</v>
+        <v>4591700</v>
       </c>
       <c r="E41" s="3">
-        <v>5951700</v>
+        <v>2837300</v>
       </c>
       <c r="F41" s="3">
-        <v>7059700</v>
+        <v>5956700</v>
       </c>
       <c r="G41" s="3">
-        <v>8186000</v>
+        <v>7065500</v>
       </c>
       <c r="H41" s="3">
-        <v>2602900</v>
+        <v>8192800</v>
       </c>
       <c r="I41" s="3">
-        <v>5369500</v>
+        <v>2605100</v>
       </c>
       <c r="J41" s="3">
+        <v>5374000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2718900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6015600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2201700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4286300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4309800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5157300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2630200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3572500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2766800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3369900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3536300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4047900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4878300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4075100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4867600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3447700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4210800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4976000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4707900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3505000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3764400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6979400</v>
+        <v>4062200</v>
       </c>
       <c r="E42" s="3">
-        <v>3779200</v>
+        <v>6985200</v>
       </c>
       <c r="F42" s="3">
-        <v>3315200</v>
+        <v>3782300</v>
       </c>
       <c r="G42" s="3">
-        <v>3678400</v>
+        <v>3317900</v>
       </c>
       <c r="H42" s="3">
-        <v>5296900</v>
+        <v>3681400</v>
       </c>
       <c r="I42" s="3">
-        <v>2519400</v>
+        <v>5301300</v>
       </c>
       <c r="J42" s="3">
+        <v>2521500</v>
+      </c>
+      <c r="K42" s="3">
         <v>6003700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2163500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4792700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1519000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1579900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>837600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4616700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2947000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4175800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4558200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3713900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3112500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3092100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4239500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3934300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1120000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1307100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1776100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2053200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2553000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3314800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2914600</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8272800</v>
+        <v>8879600</v>
       </c>
       <c r="E43" s="3">
-        <v>8394200</v>
+        <v>8279600</v>
       </c>
       <c r="F43" s="3">
-        <v>9786200</v>
+        <v>8401200</v>
       </c>
       <c r="G43" s="3">
-        <v>11156500</v>
+        <v>9794300</v>
       </c>
       <c r="H43" s="3">
-        <v>12832500</v>
+        <v>11165700</v>
       </c>
       <c r="I43" s="3">
-        <v>10456100</v>
+        <v>12843100</v>
       </c>
       <c r="J43" s="3">
+        <v>10464800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8930800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7598600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5534400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4434400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4045500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4092400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4244700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5032400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6704400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6956700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7652500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7406900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6936500</v>
-      </c>
-      <c r="W43" s="3">
-        <v>7350500</v>
       </c>
       <c r="X43" s="3">
         <v>7350500</v>
       </c>
       <c r="Y43" s="3">
+        <v>7350500</v>
+      </c>
+      <c r="Z43" s="3">
         <v>5817200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6565900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6948500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6438000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6217700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>6832700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>5626100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6697600</v>
+        <v>7869500</v>
       </c>
       <c r="E44" s="3">
-        <v>8354100</v>
+        <v>6703100</v>
       </c>
       <c r="F44" s="3">
-        <v>7906300</v>
+        <v>8361000</v>
       </c>
       <c r="G44" s="3">
-        <v>8370300</v>
+        <v>7912900</v>
       </c>
       <c r="H44" s="3">
-        <v>9777500</v>
+        <v>8377300</v>
       </c>
       <c r="I44" s="3">
-        <v>7970300</v>
+        <v>9785600</v>
       </c>
       <c r="J44" s="3">
+        <v>7976900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5666600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5639700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4883700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4396600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3370200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3555800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3541100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4287200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5366600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5233200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5619700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5191500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5192900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5726400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5582100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4773000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4260200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4026800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3611700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4407700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4231600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3987400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>315500</v>
+        <v>1079600</v>
       </c>
       <c r="E45" s="3">
-        <v>320900</v>
+        <v>315700</v>
       </c>
       <c r="F45" s="3">
-        <v>317600</v>
+        <v>321200</v>
       </c>
       <c r="G45" s="3">
-        <v>478100</v>
+        <v>317900</v>
       </c>
       <c r="H45" s="3">
-        <v>551800</v>
+        <v>478500</v>
       </c>
       <c r="I45" s="3">
-        <v>460700</v>
+        <v>552300</v>
       </c>
       <c r="J45" s="3">
+        <v>461100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1009300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1124300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1182800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>392000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>243400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>423500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>805100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>223600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>233500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>251100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>241200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>265600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>357200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>428200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>275600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3861700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>228900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>279400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>389300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>483600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>552900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>882700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25100200</v>
+        <v>26482700</v>
       </c>
       <c r="E46" s="3">
-        <v>26800000</v>
+        <v>25121000</v>
       </c>
       <c r="F46" s="3">
-        <v>28385000</v>
+        <v>26822300</v>
       </c>
       <c r="G46" s="3">
-        <v>31869300</v>
+        <v>28408600</v>
       </c>
       <c r="H46" s="3">
-        <v>31061600</v>
+        <v>31895700</v>
       </c>
       <c r="I46" s="3">
-        <v>26776200</v>
+        <v>31087400</v>
       </c>
       <c r="J46" s="3">
+        <v>26798400</v>
+      </c>
+      <c r="K46" s="3">
         <v>24329400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22541700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18595400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15028200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13548700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14066700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15837800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16062600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19247100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20369100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20763500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20024400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20457100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21819800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22010200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19019600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16572900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18006800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17200100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17167000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>18696400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>16063600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6788600</v>
+        <v>6837700</v>
       </c>
       <c r="E47" s="3">
-        <v>6613000</v>
+        <v>6794300</v>
       </c>
       <c r="F47" s="3">
-        <v>6221600</v>
+        <v>6618500</v>
       </c>
       <c r="G47" s="3">
-        <v>6141400</v>
+        <v>6226800</v>
       </c>
       <c r="H47" s="3">
-        <v>6031900</v>
+        <v>6146500</v>
       </c>
       <c r="I47" s="3">
-        <v>5712100</v>
+        <v>6036900</v>
       </c>
       <c r="J47" s="3">
+        <v>5716900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5206900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5119600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4744100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7489600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6795300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7186400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7958200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9161500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9772400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11049400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10022900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10278900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9853600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9543600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9340200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8446900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12687500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11871800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12058000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>13548100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>13358000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>12867300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25799400</v>
+        <v>26521700</v>
       </c>
       <c r="E48" s="3">
-        <v>25197700</v>
+        <v>25820800</v>
       </c>
       <c r="F48" s="3">
-        <v>24359700</v>
+        <v>25218700</v>
       </c>
       <c r="G48" s="3">
-        <v>24843200</v>
+        <v>24380000</v>
       </c>
       <c r="H48" s="3">
-        <v>23973800</v>
+        <v>24863900</v>
       </c>
       <c r="I48" s="3">
-        <v>24038800</v>
+        <v>23993700</v>
       </c>
       <c r="J48" s="3">
+        <v>24058800</v>
+      </c>
+      <c r="K48" s="3">
         <v>23553200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22519100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21883700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21662400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20872600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23182500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25130200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26449200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27096800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34049800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31932200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32653900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30162800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30003100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>29858800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>26738500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>27676100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>27832100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>28554600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31491000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>32119000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>31446400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2896700</v>
+        <v>2566000</v>
       </c>
       <c r="E49" s="3">
-        <v>2825200</v>
+        <v>2899100</v>
       </c>
       <c r="F49" s="3">
-        <v>2142200</v>
+        <v>2827500</v>
       </c>
       <c r="G49" s="3">
-        <v>3048500</v>
+        <v>2144000</v>
       </c>
       <c r="H49" s="3">
-        <v>3400800</v>
+        <v>3051000</v>
       </c>
       <c r="I49" s="3">
-        <v>3474500</v>
+        <v>3403600</v>
       </c>
       <c r="J49" s="3">
+        <v>3477400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3791100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3615200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3505200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3548300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3344300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4019800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4310200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4833700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5218300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6786400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6158500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6091100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6028100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5760700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5636500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5014600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5143200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5203800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5350800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5999300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5997000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5923000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3766200</v>
+        <v>3829000</v>
       </c>
       <c r="E52" s="3">
-        <v>3735800</v>
+        <v>3769300</v>
       </c>
       <c r="F52" s="3">
-        <v>3898400</v>
+        <v>3738900</v>
       </c>
       <c r="G52" s="3">
-        <v>4288700</v>
+        <v>3901700</v>
       </c>
       <c r="H52" s="3">
-        <v>4239900</v>
+        <v>4292300</v>
       </c>
       <c r="I52" s="3">
-        <v>4033900</v>
+        <v>4243400</v>
       </c>
       <c r="J52" s="3">
+        <v>4037300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4104400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4922500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4708100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4646700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4613000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4833500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5228700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6383900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6252600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5782000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5210300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5516900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5392800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4788400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5014300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4673100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5079200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5225100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5249800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5865500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5950000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>5859700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64351100</v>
+        <v>66237100</v>
       </c>
       <c r="E54" s="3">
-        <v>65171800</v>
+        <v>64404500</v>
       </c>
       <c r="F54" s="3">
-        <v>65007000</v>
+        <v>65225900</v>
       </c>
       <c r="G54" s="3">
-        <v>70191100</v>
+        <v>65060900</v>
       </c>
       <c r="H54" s="3">
-        <v>68708100</v>
+        <v>70249400</v>
       </c>
       <c r="I54" s="3">
-        <v>64035600</v>
+        <v>68765100</v>
       </c>
       <c r="J54" s="3">
+        <v>64088800</v>
+      </c>
+      <c r="K54" s="3">
         <v>60985000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58718000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53436400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52375200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49173800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53288900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58465100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62890900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67587200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78036800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74087300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>74565100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71894300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71915600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71860000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>63892600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>67159000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>68139600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>68413300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>74070900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>76120400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>72160000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12015100</v>
+        <v>12068500</v>
       </c>
       <c r="E57" s="3">
-        <v>11060000</v>
+        <v>12025100</v>
       </c>
       <c r="F57" s="3">
-        <v>12784800</v>
+        <v>11069200</v>
       </c>
       <c r="G57" s="3">
-        <v>14467300</v>
+        <v>12795400</v>
       </c>
       <c r="H57" s="3">
-        <v>17220900</v>
+        <v>14479300</v>
       </c>
       <c r="I57" s="3">
-        <v>13681300</v>
+        <v>17235200</v>
       </c>
       <c r="J57" s="3">
+        <v>13692700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12166900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11084500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8735900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7583500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5883700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5985600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5443600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6435900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8335300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7972200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9317100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8511000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3837300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3728500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3610200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2720800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3072000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2957600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2294500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2183300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2497900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1957900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2195300</v>
+        <v>2606200</v>
       </c>
       <c r="E58" s="3">
-        <v>3340100</v>
+        <v>2197100</v>
       </c>
       <c r="F58" s="3">
-        <v>3844200</v>
+        <v>3342900</v>
       </c>
       <c r="G58" s="3">
-        <v>5768500</v>
+        <v>3847400</v>
       </c>
       <c r="H58" s="3">
-        <v>4644300</v>
+        <v>5773300</v>
       </c>
       <c r="I58" s="3">
-        <v>4776500</v>
+        <v>4648100</v>
       </c>
       <c r="J58" s="3">
+        <v>4780500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4998800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5344700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5443400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4113800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3869900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4273000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5737100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7662100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7521600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7498200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6924300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5545600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4443000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3917800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4818000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5413100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4645000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4755000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4507000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4885400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4577900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>4560300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2224600</v>
+        <v>2300200</v>
       </c>
       <c r="E59" s="3">
-        <v>2185500</v>
+        <v>2226400</v>
       </c>
       <c r="F59" s="3">
-        <v>1711800</v>
+        <v>2187400</v>
       </c>
       <c r="G59" s="3">
-        <v>1582800</v>
+        <v>1713200</v>
       </c>
       <c r="H59" s="3">
-        <v>1775800</v>
+        <v>1584100</v>
       </c>
       <c r="I59" s="3">
-        <v>1518800</v>
+        <v>1777200</v>
       </c>
       <c r="J59" s="3">
+        <v>1520100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1608800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1337500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1370100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>975900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>738100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>798100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1039900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1753400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1199300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1298700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1009600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6872600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6455100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6282400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5432900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5786100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8402600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8407100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>9159200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10222700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>9028900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16435000</v>
+        <v>16974800</v>
       </c>
       <c r="E60" s="3">
-        <v>16585600</v>
+        <v>16448600</v>
       </c>
       <c r="F60" s="3">
-        <v>18340800</v>
+        <v>16599400</v>
       </c>
       <c r="G60" s="3">
-        <v>21818600</v>
+        <v>18356000</v>
       </c>
       <c r="H60" s="3">
-        <v>23641000</v>
+        <v>21836700</v>
       </c>
       <c r="I60" s="3">
-        <v>19976700</v>
+        <v>23660600</v>
       </c>
       <c r="J60" s="3">
+        <v>19993300</v>
+      </c>
+      <c r="K60" s="3">
         <v>18774400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17766700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15549400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12673200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10491700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11056700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12512700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15137800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17610400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16669700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17540100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15066100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15152900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14101400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14710500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13566900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13503100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16115100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15208600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>16227900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>17298400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>15547100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10833400</v>
+        <v>10871700</v>
       </c>
       <c r="E61" s="3">
-        <v>9930400</v>
+        <v>10842400</v>
       </c>
       <c r="F61" s="3">
-        <v>10981900</v>
+        <v>9938600</v>
       </c>
       <c r="G61" s="3">
-        <v>10127700</v>
+        <v>10991100</v>
       </c>
       <c r="H61" s="3">
-        <v>9862100</v>
+        <v>10136100</v>
       </c>
       <c r="I61" s="3">
-        <v>11142400</v>
+        <v>9870200</v>
       </c>
       <c r="J61" s="3">
+        <v>11151600</v>
+      </c>
+      <c r="K61" s="3">
         <v>11041600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10518100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8876600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12032200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>109700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12882400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13698600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12542000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12560200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14197600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12439300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14081700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9411200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9276300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9184000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8428200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9798300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10427800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11184000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11583200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12848500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>12833300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6621700</v>
+        <v>6525200</v>
       </c>
       <c r="E62" s="3">
-        <v>7479200</v>
+        <v>6627200</v>
       </c>
       <c r="F62" s="3">
-        <v>7526900</v>
+        <v>7485400</v>
       </c>
       <c r="G62" s="3">
-        <v>8228300</v>
+        <v>7533200</v>
       </c>
       <c r="H62" s="3">
-        <v>7727500</v>
+        <v>8235200</v>
       </c>
       <c r="I62" s="3">
-        <v>6526300</v>
+        <v>7733900</v>
       </c>
       <c r="J62" s="3">
+        <v>6531700</v>
+      </c>
+      <c r="K62" s="3">
         <v>6458000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7008500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6832600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6435100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18086900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6468200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7228400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7493800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7987400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8459800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7725400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8122200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10762000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11249400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11108600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9743700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10127100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7874100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8155700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9372900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9455000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9525500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36661000</v>
+        <v>37192700</v>
       </c>
       <c r="E66" s="3">
-        <v>36641500</v>
+        <v>36691400</v>
       </c>
       <c r="F66" s="3">
-        <v>37585700</v>
+        <v>36671900</v>
       </c>
       <c r="G66" s="3">
-        <v>40924800</v>
+        <v>37617000</v>
       </c>
       <c r="H66" s="3">
-        <v>41692300</v>
+        <v>40958800</v>
       </c>
       <c r="I66" s="3">
-        <v>38112600</v>
+        <v>41726900</v>
       </c>
       <c r="J66" s="3">
+        <v>38144300</v>
+      </c>
+      <c r="K66" s="3">
         <v>36685900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35576500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31528400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31396700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28931600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30661600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33710200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35458300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38486000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39671300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38024800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37593000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>35664400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34981900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>35346200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32038500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33731500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>34715500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34829900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>37479800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>39888400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>38178200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19173400</v>
+        <v>3021700</v>
       </c>
       <c r="E72" s="3">
-        <v>1205500</v>
+        <v>19189300</v>
       </c>
       <c r="F72" s="3">
-        <v>4608500</v>
+        <v>1206500</v>
       </c>
       <c r="G72" s="3">
-        <v>3493000</v>
+        <v>4612300</v>
       </c>
       <c r="H72" s="3">
-        <v>17412800</v>
+        <v>3495900</v>
       </c>
       <c r="I72" s="3">
-        <v>1509100</v>
+        <v>17427300</v>
       </c>
       <c r="J72" s="3">
+        <v>1510300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2709200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2088100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14545400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>661500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3280400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2675700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17304000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-549900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19422200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28052300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26559600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26621400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25795500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27093100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26343200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23588300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23824300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23432800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22843700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>23736800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22936200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>22436200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27690100</v>
+        <v>29044400</v>
       </c>
       <c r="E76" s="3">
-        <v>28530300</v>
+        <v>27713100</v>
       </c>
       <c r="F76" s="3">
-        <v>27421200</v>
+        <v>28553900</v>
       </c>
       <c r="G76" s="3">
-        <v>29266400</v>
+        <v>27444000</v>
       </c>
       <c r="H76" s="3">
-        <v>27015800</v>
+        <v>29290700</v>
       </c>
       <c r="I76" s="3">
-        <v>25923000</v>
+        <v>27038200</v>
       </c>
       <c r="J76" s="3">
+        <v>25944500</v>
+      </c>
+      <c r="K76" s="3">
         <v>24299000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23141500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21908000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20978500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20242200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22627300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24754900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27432600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29101200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38365500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36062500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36972100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36229900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36933700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36513800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31854100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33427400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33424100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>33583400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>36591200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>36232000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>33981800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>317600</v>
+        <v>1464800</v>
       </c>
       <c r="E81" s="3">
-        <v>1189300</v>
+        <v>317900</v>
       </c>
       <c r="F81" s="3">
-        <v>1099300</v>
+        <v>1190200</v>
       </c>
       <c r="G81" s="3">
-        <v>724200</v>
+        <v>1100200</v>
       </c>
       <c r="H81" s="3">
-        <v>1227200</v>
+        <v>724800</v>
       </c>
       <c r="I81" s="3">
-        <v>1492800</v>
+        <v>1228200</v>
       </c>
       <c r="J81" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="K81" s="3">
         <v>593000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>744100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>646200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-723100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-113100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2198200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-557800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6174400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>399300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>609400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>718900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>192800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>731000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1098900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>662100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>595800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>583400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>402800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>800500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>714900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>647200</v>
+        <v>619500</v>
       </c>
       <c r="E83" s="3">
-        <v>625500</v>
+        <v>647700</v>
       </c>
       <c r="F83" s="3">
-        <v>666700</v>
+        <v>626000</v>
       </c>
       <c r="G83" s="3">
-        <v>662400</v>
+        <v>667300</v>
       </c>
       <c r="H83" s="3">
-        <v>588700</v>
+        <v>662900</v>
       </c>
       <c r="I83" s="3">
-        <v>617900</v>
+        <v>589200</v>
       </c>
       <c r="J83" s="3">
+        <v>618500</v>
+      </c>
+      <c r="K83" s="3">
         <v>558300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>546000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>505700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>514500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>532600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>547000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>615300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>657100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>806700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>731300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>659100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>661200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>676600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>582000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>567700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>486900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>646300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>886400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>703100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>905000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1784400</v>
+        <v>1210900</v>
       </c>
       <c r="E89" s="3">
-        <v>1743200</v>
+        <v>1785900</v>
       </c>
       <c r="F89" s="3">
-        <v>2630000</v>
+        <v>1744700</v>
       </c>
       <c r="G89" s="3">
-        <v>3332500</v>
+        <v>2632200</v>
       </c>
       <c r="H89" s="3">
-        <v>1763800</v>
+        <v>3335300</v>
       </c>
       <c r="I89" s="3">
-        <v>764300</v>
+        <v>1765300</v>
       </c>
       <c r="J89" s="3">
+        <v>764900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2020800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1370900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>767100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>832000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1001400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1159300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>330500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>354500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2033600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1512900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1307000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>910300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2081900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1715200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>697900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>855300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2070100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1330700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1574200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>797000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1934400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>752400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1049000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1016000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-865000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1457000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-869000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-633000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-576000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-828000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-426000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-350200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-323600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-580500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-373600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-446200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-604100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1630900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-853800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-807000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-534700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1103600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-729800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-684900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-584100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1019900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-570000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-536300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-475400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-732500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-443700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1484100</v>
+        <v>-1302000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2254900</v>
+        <v>-1485400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2666900</v>
+        <v>-2256800</v>
       </c>
       <c r="G94" s="3">
-        <v>-277500</v>
+        <v>-2669100</v>
       </c>
       <c r="H94" s="3">
-        <v>-624400</v>
+        <v>-277800</v>
       </c>
       <c r="I94" s="3">
-        <v>-879200</v>
+        <v>-625000</v>
       </c>
       <c r="J94" s="3">
+        <v>-879900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1403900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-746300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-767100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-224600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1139000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>257400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>619600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>618700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1760500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2246600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1145800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-108900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2446200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-811500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2310200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-612700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-996300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-878500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-648500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-633900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-531700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>1861700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-483900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-512800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-44400</v>
+        <v>-513200</v>
       </c>
       <c r="G96" s="3">
-        <v>-518200</v>
+        <v>-44500</v>
       </c>
       <c r="H96" s="3">
-        <v>-54200</v>
+        <v>-518600</v>
       </c>
       <c r="I96" s="3">
-        <v>-496500</v>
+        <v>-54300</v>
       </c>
       <c r="J96" s="3">
+        <v>-496900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-34700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-481400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-120500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-207600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>12000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-156900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>14000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-253600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>15300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-256000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-119500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-215200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-212100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-162000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-5900</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-570200</v>
+        <v>-1049200</v>
       </c>
       <c r="E100" s="3">
-        <v>-600600</v>
+        <v>-570700</v>
       </c>
       <c r="F100" s="3">
-        <v>-958300</v>
+        <v>-601100</v>
       </c>
       <c r="G100" s="3">
-        <v>322000</v>
+        <v>-959100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1839700</v>
+        <v>322200</v>
       </c>
       <c r="I100" s="3">
-        <v>-594100</v>
+        <v>-1841200</v>
       </c>
       <c r="J100" s="3">
+        <v>-594600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-676500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>126000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>762800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-758500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-520600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1743700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1401800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-788100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1105500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-372900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1191400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-236600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1398200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-794900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1073800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1040100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-591300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>219900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>98600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1245400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10800</v>
+        <v>34700</v>
       </c>
       <c r="E101" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F101" s="3">
         <v>4300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-131200</v>
-      </c>
       <c r="G101" s="3">
-        <v>112700</v>
+        <v>-131300</v>
       </c>
       <c r="H101" s="3">
+        <v>112800</v>
+      </c>
+      <c r="I101" s="3">
         <v>27100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>69400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>35500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>31900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-29200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>24700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-259100</v>
+        <v>-1105600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1108000</v>
+        <v>-259300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1126400</v>
+        <v>-1108900</v>
       </c>
       <c r="G102" s="3">
-        <v>3489700</v>
+        <v>-1127300</v>
       </c>
       <c r="H102" s="3">
-        <v>-673200</v>
+        <v>3492600</v>
       </c>
       <c r="I102" s="3">
-        <v>-696000</v>
+        <v>-673800</v>
       </c>
       <c r="J102" s="3">
+        <v>-696600</v>
+      </c>
+      <c r="K102" s="3">
         <v>9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>723700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>756500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-124500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-646300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-328000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2313800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>208900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-845200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-733800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-201200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-374400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-609200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-498000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2245100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-853100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-144700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1116400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1132700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1526000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1364000</v>
       </c>
     </row>
